--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7B169E-C169-40E2-8CD6-32D690D5B98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA63C9E-D2A3-4F95-B729-85FFBF9D9A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="560">
   <si>
     <t>Cognoms</t>
   </si>
@@ -115,7 +115,16 @@
     <t>Mestre de Cases</t>
   </si>
   <si>
+    <t>Ferrer</t>
+  </si>
+  <si>
     <t>Maria Novell</t>
+  </si>
+  <si>
+    <t>Paula Pedrós</t>
+  </si>
+  <si>
+    <t>Fuster</t>
   </si>
   <si>
     <t>23/03/1770</t>
@@ -131,6 +140,9 @@
   </si>
   <si>
     <t>Josep Solé (Pages)</t>
+  </si>
+  <si>
+    <t>14/01/1801</t>
   </si>
   <si>
     <t>U.D. U.I.</t>
@@ -1407,6 +1419,339 @@
   <si>
     <t>Torrent Cascalló Maria Antonia</t>
   </si>
+  <si>
+    <t>Gertrudis Bonjorn</t>
+  </si>
+  <si>
+    <t>03-0123</t>
+  </si>
+  <si>
+    <t>03-0122 - 03-0123</t>
+  </si>
+  <si>
+    <t>120 , 121</t>
+  </si>
+  <si>
+    <t>¿? Bonjorn Anton Joseph Fransisco</t>
+  </si>
+  <si>
+    <t>Anton Vallés (Pages)</t>
+  </si>
+  <si>
+    <t>Antonia Oriola</t>
+  </si>
+  <si>
+    <t>14/11/1794</t>
+  </si>
+  <si>
+    <t>Miquel Majoral (Mestre de Cases)</t>
+  </si>
+  <si>
+    <t>Pares Incognits Anna Maria</t>
+  </si>
+  <si>
+    <t>INCOGNIT</t>
+  </si>
+  <si>
+    <t>Pedrós Duart Manuel Ignasi Pau</t>
+  </si>
+  <si>
+    <t>08/11/1794</t>
+  </si>
+  <si>
+    <t>Joseph Pedrós</t>
+  </si>
+  <si>
+    <t>Maria Duart</t>
+  </si>
+  <si>
+    <t>Bonaventura Alexandre</t>
+  </si>
+  <si>
+    <t>01/12/1794</t>
+  </si>
+  <si>
+    <t>Gregori Gilavert</t>
+  </si>
+  <si>
+    <t>Gilavert Roma Maria Antonia Paula</t>
+  </si>
+  <si>
+    <t>Rosa Roma</t>
+  </si>
+  <si>
+    <t>30/11/1794</t>
+  </si>
+  <si>
+    <t>Joseph Giné (Pages)</t>
+  </si>
+  <si>
+    <t>Antonia ¿? Valles</t>
+  </si>
+  <si>
+    <t>Mas Castelló Domingo Joseph Pau</t>
+  </si>
+  <si>
+    <t>05/12/1794</t>
+  </si>
+  <si>
+    <t>Anton Mas</t>
+  </si>
+  <si>
+    <t>Francesca Castelló</t>
+  </si>
+  <si>
+    <t>Domingo Mas (Pages)</t>
+  </si>
+  <si>
+    <t>06/12/1794</t>
+  </si>
+  <si>
+    <t>Domingo Massot</t>
+  </si>
+  <si>
+    <t>Raimunda Massot</t>
+  </si>
+  <si>
+    <t>Ribes Vergé Antonia Ramunda</t>
+  </si>
+  <si>
+    <t>16/12/1794</t>
+  </si>
+  <si>
+    <t>Jaume Codina</t>
+  </si>
+  <si>
+    <t>Maria Xandre</t>
+  </si>
+  <si>
+    <t>15/12/1794</t>
+  </si>
+  <si>
+    <t>Ramon Vergé Mas (Pages)</t>
+  </si>
+  <si>
+    <t>Maria Rosa Sunyé</t>
+  </si>
+  <si>
+    <t>Codina Xandre Ramon Anton Pau</t>
+  </si>
+  <si>
+    <t>17/12/1794</t>
+  </si>
+  <si>
+    <t>Domingo Mas</t>
+  </si>
+  <si>
+    <t>Maria Cerret?</t>
+  </si>
+  <si>
+    <t>Magdalena Mas</t>
+  </si>
+  <si>
+    <t>Mas Cerret? Magdalena Antonia</t>
+  </si>
+  <si>
+    <t>20/12/1794</t>
+  </si>
+  <si>
+    <t>Joan Arnau</t>
+  </si>
+  <si>
+    <t>Quiteria Falcó</t>
+  </si>
+  <si>
+    <t>19/12/1794</t>
+  </si>
+  <si>
+    <t>Fransisco Oriola (Pages)</t>
+  </si>
+  <si>
+    <t>Maria Giné</t>
+  </si>
+  <si>
+    <t>Arnau Falcó Fransisco Joseph Pau</t>
+  </si>
+  <si>
+    <t>03-0158</t>
+  </si>
+  <si>
+    <t>Marti Jovells Antonia Maria Joana</t>
+  </si>
+  <si>
+    <t>09/01/1801</t>
+  </si>
+  <si>
+    <t>08/01/1801</t>
+  </si>
+  <si>
+    <t>Fransisco Jovells (Casat)(El Masó)</t>
+  </si>
+  <si>
+    <t>Antonia Mas Martí</t>
+  </si>
+  <si>
+    <t>Antonio Martí i Antonia Mas</t>
+  </si>
+  <si>
+    <t>Jaume Jovells (Golmés) i Francisca Felip (Anglesola)</t>
+  </si>
+  <si>
+    <t>Joan Martí Mas</t>
+  </si>
+  <si>
+    <t>Fransisca Jovells Felip</t>
+  </si>
+  <si>
+    <t>Caelles Ganyet Ramon Pau Joan</t>
+  </si>
+  <si>
+    <t>15/01/1801</t>
+  </si>
+  <si>
+    <t>Cecilia Sol (Donsella)</t>
+  </si>
+  <si>
+    <t>Ramon Duch (Fadri)</t>
+  </si>
+  <si>
+    <t>Joan Caelles (Llenera) i Serafina Begardit (La Molsora)</t>
+  </si>
+  <si>
+    <t>Antonio Ganyet i Josepha Solé (aquesta de Fondarella)</t>
+  </si>
+  <si>
+    <t>Valentí Caelles Begardit</t>
+  </si>
+  <si>
+    <t>Helena Ganyet Solé</t>
+  </si>
+  <si>
+    <t>Pedrós Duart Rosa Maria Antonia</t>
+  </si>
+  <si>
+    <t>26/01/1801</t>
+  </si>
+  <si>
+    <t>Antonio Vallés</t>
+  </si>
+  <si>
+    <t>Rosa Alexandre</t>
+  </si>
+  <si>
+    <t>Ignasi Pedrós i Llucia Mas</t>
+  </si>
+  <si>
+    <t>Josep Pedrós Mas</t>
+  </si>
+  <si>
+    <t>Mariano Duart i Magdalena Alexandre</t>
+  </si>
+  <si>
+    <t>Maria Duart Alexandre</t>
+  </si>
+  <si>
+    <t>Civit Batlle Rosa Teresa Antonia</t>
+  </si>
+  <si>
+    <t>31/01/1801</t>
+  </si>
+  <si>
+    <t>30/01/1801</t>
+  </si>
+  <si>
+    <t>Fransisco Trepat</t>
+  </si>
+  <si>
+    <t>Rosa Solé</t>
+  </si>
+  <si>
+    <t>Josep Civit i Paula Serra</t>
+  </si>
+  <si>
+    <t>Josep Civit Serra</t>
+  </si>
+  <si>
+    <t>Pau Batlle i Cecilia Vergé</t>
+  </si>
+  <si>
+    <t>Antonia Batlle Vergé</t>
+  </si>
+  <si>
+    <t>Pedrós Boldú Antonio Ramon Joan</t>
+  </si>
+  <si>
+    <t>06/02/1801</t>
+  </si>
+  <si>
+    <t>05/02/1801</t>
+  </si>
+  <si>
+    <t>Antonio Boldu</t>
+  </si>
+  <si>
+    <t>Josep Pedros i Paula Felip</t>
+  </si>
+  <si>
+    <t>Bonaventura Boldú i Maria Badía (Aquesta de Miralcamp)</t>
+  </si>
+  <si>
+    <t>Ignasi Pedrós Felip</t>
+  </si>
+  <si>
+    <t>Maria Boldú Badía</t>
+  </si>
+  <si>
+    <t>Bergadà Civit Quiteria Raimunda Joana</t>
+  </si>
+  <si>
+    <t>17/02/1801</t>
+  </si>
+  <si>
+    <t>16/02/1801</t>
+  </si>
+  <si>
+    <t>Ramón Falcó</t>
+  </si>
+  <si>
+    <t>Josep Bergadà i Mariangela Ros</t>
+  </si>
+  <si>
+    <t>Josep Civit i Teresa Torrent</t>
+  </si>
+  <si>
+    <t>Cecilia Civit Torrent</t>
+  </si>
+  <si>
+    <t>Jaume Bergadà Ros</t>
+  </si>
+  <si>
+    <t>Margall Fusté Ramon Josep Joan</t>
+  </si>
+  <si>
+    <t>22/02/1801</t>
+  </si>
+  <si>
+    <t>Jaume Margall</t>
+  </si>
+  <si>
+    <t>Maria Fusté</t>
+  </si>
+  <si>
+    <t>21/02/1801</t>
+  </si>
+  <si>
+    <t>Ramon Torrent Mas</t>
+  </si>
+  <si>
+    <t>Maria Folguera (Bellcaire)</t>
+  </si>
+  <si>
+    <t>Fransisco Margall i Helena Mas</t>
+  </si>
+  <si>
+    <t>Felip Fusté (de Bellcaire) i Maria Folguera (Castellserà)</t>
+  </si>
 </sst>
 </file>
 
@@ -1915,8 +2260,8 @@
   <dimension ref="A1:Q17779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1947,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1989,21 +2334,21 @@
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D2" s="25">
         <v>3</v>
@@ -2012,35 +2357,35 @@
         <v>1770</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2" s="8"/>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O2"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D3" s="25">
         <v>3</v>
@@ -2049,37 +2394,37 @@
         <v>1770</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O3"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="25">
         <v>3</v>
@@ -2088,37 +2433,37 @@
         <v>1770</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
         <v>40</v>
-      </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" t="s">
-        <v>36</v>
       </c>
       <c r="O4"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" s="25">
         <v>3</v>
@@ -2127,37 +2472,37 @@
         <v>1770</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
         <v>47</v>
-      </c>
-      <c r="M5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" t="s">
-        <v>43</v>
       </c>
       <c r="O5"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="25">
         <v>3</v>
@@ -2166,76 +2511,76 @@
         <v>1770</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O6"/>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E7">
         <v>1770</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" t="s">
         <v>59</v>
-      </c>
-      <c r="M7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" t="s">
-        <v>55</v>
       </c>
       <c r="O7"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D8" s="25">
         <v>4</v>
@@ -2244,37 +2589,37 @@
         <v>1770</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" t="s">
         <v>67</v>
-      </c>
-      <c r="N8" t="s">
-        <v>63</v>
       </c>
       <c r="O8"/>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D9" s="25">
         <v>4</v>
@@ -2283,37 +2628,37 @@
         <v>1770</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" t="s">
         <v>74</v>
-      </c>
-      <c r="N9" t="s">
-        <v>70</v>
       </c>
       <c r="O9"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D10" s="25">
         <v>4</v>
@@ -2322,37 +2667,37 @@
         <v>1770</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O10"/>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D11" s="25">
         <v>4</v>
@@ -2361,40 +2706,40 @@
         <v>1770</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" t="s">
         <v>88</v>
-      </c>
-      <c r="N11" t="s">
-        <v>84</v>
       </c>
       <c r="O11"/>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E12">
         <v>1770</v>
@@ -2408,19 +2753,19 @@
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O12"/>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D13" s="25">
         <v>13</v>
@@ -2429,35 +2774,35 @@
         <v>1771</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" s="8"/>
       <c r="L13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D14" s="25">
         <v>13</v>
@@ -2466,25 +2811,25 @@
         <v>1771</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O14" t="s">
         <v>12</v>
@@ -2492,13 +2837,13 @@
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D15" s="25">
         <v>13</v>
@@ -2507,25 +2852,25 @@
         <v>1771</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" t="s">
         <v>108</v>
-      </c>
-      <c r="N15" t="s">
-        <v>104</v>
       </c>
       <c r="O15" t="s">
         <v>12</v>
@@ -2533,13 +2878,13 @@
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D16" s="25">
         <v>13</v>
@@ -2548,25 +2893,25 @@
         <v>1771</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16" s="28" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L16" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" t="s">
         <v>115</v>
-      </c>
-      <c r="M16" t="s">
-        <v>116</v>
-      </c>
-      <c r="N16" t="s">
-        <v>111</v>
       </c>
       <c r="O16" t="s">
         <v>12</v>
@@ -2574,13 +2919,13 @@
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D17" s="25">
         <v>13</v>
@@ -2589,25 +2934,25 @@
         <v>1771</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" t="s">
+        <v>127</v>
+      </c>
+      <c r="N17" t="s">
         <v>122</v>
-      </c>
-      <c r="M17" t="s">
-        <v>123</v>
-      </c>
-      <c r="N17" t="s">
-        <v>118</v>
       </c>
       <c r="O17" t="s">
         <v>12</v>
@@ -2615,13 +2960,13 @@
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D18" s="25">
         <v>20</v>
@@ -2630,25 +2975,25 @@
         <v>1773</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18" s="28" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" t="s">
+        <v>135</v>
+      </c>
+      <c r="N18" t="s">
         <v>130</v>
-      </c>
-      <c r="M18" t="s">
-        <v>131</v>
-      </c>
-      <c r="N18" t="s">
-        <v>126</v>
       </c>
       <c r="O18" t="s">
         <v>12</v>
@@ -2656,13 +3001,13 @@
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D19" s="25">
         <v>20</v>
@@ -2671,25 +3016,25 @@
         <v>1773</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s">
+        <v>141</v>
+      </c>
+      <c r="N19" t="s">
         <v>137</v>
-      </c>
-      <c r="N19" t="s">
-        <v>133</v>
       </c>
       <c r="O19" t="s">
         <v>12</v>
@@ -2697,13 +3042,13 @@
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D20" s="25">
         <v>20</v>
@@ -2712,25 +3057,25 @@
         <v>1773</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" s="28" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N20" t="s">
         <v>143</v>
-      </c>
-      <c r="N20" t="s">
-        <v>139</v>
       </c>
       <c r="O20" t="s">
         <v>12</v>
@@ -2738,13 +3083,13 @@
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D21" s="25">
         <v>20</v>
@@ -2753,25 +3098,25 @@
         <v>1773</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M21" t="s">
+        <v>153</v>
+      </c>
+      <c r="N21" t="s">
         <v>149</v>
-      </c>
-      <c r="N21" t="s">
-        <v>145</v>
       </c>
       <c r="O21" t="s">
         <v>12</v>
@@ -2779,13 +3124,13 @@
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D22" s="25">
         <v>20</v>
@@ -2794,25 +3139,25 @@
         <v>1773</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22" s="28" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O22" t="s">
         <v>12</v>
@@ -2820,13 +3165,13 @@
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D23" s="25">
         <v>20</v>
@@ -2835,25 +3180,25 @@
         <v>1773</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s">
+        <v>162</v>
+      </c>
+      <c r="M23" t="s">
+        <v>163</v>
+      </c>
+      <c r="N23" t="s">
         <v>158</v>
-      </c>
-      <c r="M23" t="s">
-        <v>159</v>
-      </c>
-      <c r="N23" t="s">
-        <v>154</v>
       </c>
       <c r="O23" t="s">
         <v>13</v>
@@ -2861,13 +3206,13 @@
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D24" s="25">
         <v>28</v>
@@ -2876,25 +3221,25 @@
         <v>1774</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G24" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M24" t="s">
+        <v>169</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="O24" t="s">
         <v>12</v>
@@ -2902,13 +3247,13 @@
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D25" s="25">
         <v>28</v>
@@ -2917,25 +3262,25 @@
         <v>1774</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M25" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N25" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O25" t="s">
         <v>12</v>
@@ -2943,13 +3288,13 @@
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D26" s="25">
         <v>28</v>
@@ -2958,25 +3303,25 @@
         <v>1774</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M26" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N26" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O26" t="s">
         <v>12</v>
@@ -2984,13 +3329,13 @@
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D27" s="25">
         <v>28</v>
@@ -2999,25 +3344,25 @@
         <v>1774</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G27" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" t="s">
+        <v>188</v>
+      </c>
+      <c r="N27" t="s">
         <v>182</v>
-      </c>
-      <c r="L27" t="s">
-        <v>183</v>
-      </c>
-      <c r="M27" t="s">
-        <v>184</v>
-      </c>
-      <c r="N27" t="s">
-        <v>178</v>
       </c>
       <c r="O27" t="s">
         <v>12</v>
@@ -3025,13 +3370,13 @@
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D28" s="25">
         <v>28</v>
@@ -3040,25 +3385,25 @@
         <v>1774</v>
       </c>
       <c r="F28" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G28" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L28" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28" t="s">
+        <v>194</v>
+      </c>
+      <c r="N28" t="s">
         <v>189</v>
-      </c>
-      <c r="M28" t="s">
-        <v>190</v>
-      </c>
-      <c r="N28" t="s">
-        <v>185</v>
       </c>
       <c r="O28" t="s">
         <v>12</v>
@@ -3066,13 +3411,13 @@
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D29" s="25">
         <v>28</v>
@@ -3081,25 +3426,25 @@
         <v>1774</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G29" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L29" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M29" t="s">
+        <v>200</v>
+      </c>
+      <c r="N29" t="s">
         <v>196</v>
-      </c>
-      <c r="N29" t="s">
-        <v>192</v>
       </c>
       <c r="O29" t="s">
         <v>12</v>
@@ -3107,13 +3452,13 @@
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D30" s="25">
         <v>32</v>
@@ -3122,25 +3467,25 @@
         <v>1774</v>
       </c>
       <c r="F30" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G30" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M30" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N30" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="O30" t="s">
         <v>12</v>
@@ -3148,13 +3493,13 @@
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D31" s="25">
         <v>32</v>
@@ -3163,25 +3508,25 @@
         <v>1774</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" s="8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L31" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M31" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N31" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="O31" t="s">
         <v>12</v>
@@ -3189,13 +3534,13 @@
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D32" s="25">
         <v>32</v>
@@ -3204,25 +3549,25 @@
         <v>1774</v>
       </c>
       <c r="F32" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G32" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M32" t="s">
+        <v>219</v>
+      </c>
+      <c r="N32" t="s">
         <v>215</v>
-      </c>
-      <c r="N32" t="s">
-        <v>211</v>
       </c>
       <c r="O32" t="s">
         <v>12</v>
@@ -3230,13 +3575,13 @@
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D33" s="25">
         <v>32</v>
@@ -3245,25 +3590,25 @@
         <v>1774</v>
       </c>
       <c r="F33" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G33" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33" s="8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s">
+        <v>225</v>
+      </c>
+      <c r="M33" t="s">
+        <v>226</v>
+      </c>
+      <c r="N33" t="s">
         <v>221</v>
-      </c>
-      <c r="M33" t="s">
-        <v>222</v>
-      </c>
-      <c r="N33" t="s">
-        <v>217</v>
       </c>
       <c r="O33" t="s">
         <v>12</v>
@@ -3271,13 +3616,13 @@
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D34" s="25">
         <v>32</v>
@@ -3286,25 +3631,25 @@
         <v>1774</v>
       </c>
       <c r="F34" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G34" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L34" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M34" t="s">
+        <v>232</v>
+      </c>
+      <c r="N34" t="s">
         <v>228</v>
-      </c>
-      <c r="N34" t="s">
-        <v>224</v>
       </c>
       <c r="O34" t="s">
         <v>12</v>
@@ -3312,13 +3657,13 @@
     </row>
     <row r="35" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D35" s="25">
         <v>32</v>
@@ -3327,25 +3672,25 @@
         <v>1774</v>
       </c>
       <c r="F35" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G35" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35" s="8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L35" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M35" t="s">
+        <v>238</v>
+      </c>
+      <c r="N35" t="s">
         <v>234</v>
-      </c>
-      <c r="N35" t="s">
-        <v>230</v>
       </c>
       <c r="O35" t="s">
         <v>12</v>
@@ -3353,40 +3698,40 @@
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E36">
         <v>1774</v>
       </c>
       <c r="F36" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G36" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36" s="8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L36" t="s">
+        <v>244</v>
+      </c>
+      <c r="M36" t="s">
+        <v>245</v>
+      </c>
+      <c r="N36" t="s">
         <v>240</v>
-      </c>
-      <c r="M36" t="s">
-        <v>241</v>
-      </c>
-      <c r="N36" t="s">
-        <v>236</v>
       </c>
       <c r="O36" t="s">
         <v>12</v>
@@ -3394,40 +3739,40 @@
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E37">
         <v>1775</v>
       </c>
       <c r="F37" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G37" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L37" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M37" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N37" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O37" t="s">
         <v>12</v>
@@ -3435,13 +3780,13 @@
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D38" s="25">
         <v>34</v>
@@ -3450,25 +3795,25 @@
         <v>1775</v>
       </c>
       <c r="F38" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G38" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L38" t="s">
+        <v>265</v>
+      </c>
+      <c r="M38" t="s">
+        <v>266</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="M38" t="s">
-        <v>262</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="O38" t="s">
         <v>12</v>
@@ -3476,13 +3821,13 @@
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D39" s="25">
         <v>34</v>
@@ -3491,25 +3836,25 @@
         <v>1775</v>
       </c>
       <c r="F39" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G39" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M39" t="s">
+        <v>272</v>
+      </c>
+      <c r="N39" t="s">
         <v>268</v>
-      </c>
-      <c r="N39" t="s">
-        <v>264</v>
       </c>
       <c r="O39" t="s">
         <v>12</v>
@@ -3517,13 +3862,13 @@
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D40" s="25">
         <v>34</v>
@@ -3532,25 +3877,25 @@
         <v>1775</v>
       </c>
       <c r="F40" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G40" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L40" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M40" t="s">
+        <v>278</v>
+      </c>
+      <c r="N40" t="s">
         <v>274</v>
-      </c>
-      <c r="N40" t="s">
-        <v>270</v>
       </c>
       <c r="O40" t="s">
         <v>12</v>
@@ -3558,13 +3903,13 @@
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D41" s="25">
         <v>34</v>
@@ -3573,25 +3918,25 @@
         <v>1775</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L41" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M41" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="N41" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O41" t="s">
         <v>12</v>
@@ -3599,13 +3944,13 @@
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D42" s="25">
         <v>34</v>
@@ -3614,25 +3959,25 @@
         <v>1775</v>
       </c>
       <c r="F42" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G42" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42" s="8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L42" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M42" t="s">
+        <v>287</v>
+      </c>
+      <c r="N42" t="s">
         <v>283</v>
-      </c>
-      <c r="N42" t="s">
-        <v>279</v>
       </c>
       <c r="O42" t="s">
         <v>12</v>
@@ -3640,36 +3985,36 @@
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E43">
         <v>1775</v>
       </c>
       <c r="F43" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G43" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43" s="8" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O43" t="s">
         <v>12</v>
@@ -3677,16 +4022,16 @@
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E44"/>
       <c r="G44"/>
@@ -3695,23 +4040,23 @@
       <c r="J44"/>
       <c r="K44" s="8"/>
       <c r="L44" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M44" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D45" s="25">
         <v>43</v>
@@ -3720,25 +4065,25 @@
         <v>1777</v>
       </c>
       <c r="F45" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G45" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45" s="8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L45" t="s">
+        <v>303</v>
+      </c>
+      <c r="M45" t="s">
+        <v>304</v>
+      </c>
+      <c r="N45" t="s">
         <v>299</v>
-      </c>
-      <c r="M45" t="s">
-        <v>300</v>
-      </c>
-      <c r="N45" t="s">
-        <v>295</v>
       </c>
       <c r="O45" t="s">
         <v>12</v>
@@ -3746,13 +4091,13 @@
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
         <v>306</v>
-      </c>
-      <c r="B46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" t="s">
-        <v>302</v>
       </c>
       <c r="D46" s="25">
         <v>43</v>
@@ -3761,25 +4106,25 @@
         <v>1777</v>
       </c>
       <c r="F46" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G46" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46" s="8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L46" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M46" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N46" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O46" t="s">
         <v>12</v>
@@ -3787,13 +4132,13 @@
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D47" s="25">
         <v>43</v>
@@ -3802,25 +4147,25 @@
         <v>1777</v>
       </c>
       <c r="F47" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G47" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47" s="8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L47" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M47" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="N47" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="O47" t="s">
         <v>12</v>
@@ -3828,13 +4173,13 @@
     </row>
     <row r="48" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D48" s="25">
         <v>43</v>
@@ -3843,25 +4188,25 @@
         <v>1777</v>
       </c>
       <c r="F48" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G48" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48" s="8" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L48" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M48" t="s">
+        <v>321</v>
+      </c>
+      <c r="N48" t="s">
         <v>317</v>
-      </c>
-      <c r="N48" t="s">
-        <v>313</v>
       </c>
       <c r="O48" t="s">
         <v>12</v>
@@ -3869,13 +4214,13 @@
     </row>
     <row r="49" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D49" s="25">
         <v>43</v>
@@ -3884,25 +4229,25 @@
         <v>1777</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49" s="8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L49" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M49" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N49" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O49" t="s">
         <v>12</v>
@@ -3910,13 +4255,13 @@
     </row>
     <row r="50" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D50" s="25">
         <v>43</v>
@@ -3925,10 +4270,10 @@
         <v>1777</v>
       </c>
       <c r="F50" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G50" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
@@ -3937,7 +4282,7 @@
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O50" t="s">
         <v>12</v>
@@ -3945,13 +4290,13 @@
     </row>
     <row r="51" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
         <v>331</v>
-      </c>
-      <c r="B51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" t="s">
-        <v>327</v>
       </c>
       <c r="D51" s="25">
         <v>55</v>
@@ -3960,25 +4305,25 @@
         <v>1779</v>
       </c>
       <c r="F51" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G51" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L51" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M51" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="N51" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="O51" t="s">
         <v>12</v>
@@ -3986,13 +4331,13 @@
     </row>
     <row r="52" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D52" s="25">
         <v>55</v>
@@ -4001,10 +4346,10 @@
         <v>1779</v>
       </c>
       <c r="F52" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G52" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
@@ -4013,13 +4358,13 @@
         <v>35510</v>
       </c>
       <c r="L52" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M52" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="O52" t="s">
         <v>12</v>
@@ -4027,13 +4372,13 @@
     </row>
     <row r="53" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D53" s="25">
         <v>55</v>
@@ -4042,25 +4387,25 @@
         <v>1779</v>
       </c>
       <c r="F53" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G53" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L53" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M53" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="N53" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O53" t="s">
         <v>12</v>
@@ -4068,13 +4413,13 @@
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D54" s="25">
         <v>55</v>
@@ -4083,25 +4428,25 @@
         <v>1779</v>
       </c>
       <c r="F54" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G54" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54" s="8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L54" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M54" t="s">
+        <v>351</v>
+      </c>
+      <c r="N54" t="s">
         <v>347</v>
-      </c>
-      <c r="N54" t="s">
-        <v>343</v>
       </c>
       <c r="O54" t="s">
         <v>12</v>
@@ -4109,13 +4454,13 @@
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D55" s="25">
         <v>55</v>
@@ -4124,25 +4469,25 @@
         <v>1779</v>
       </c>
       <c r="F55" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G55" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L55" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M55" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O55" t="s">
         <v>12</v>
@@ -4150,13 +4495,13 @@
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D56" s="25">
         <v>55</v>
@@ -4165,25 +4510,25 @@
         <v>1779</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56" s="8" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L56" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="N56" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="O56" t="s">
         <v>12</v>
@@ -4191,46 +4536,46 @@
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E57">
         <v>1792</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57" s="8"/>
       <c r="L57" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M57" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D58" s="25">
         <v>112</v>
@@ -4239,25 +4584,25 @@
         <v>1792</v>
       </c>
       <c r="F58" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G58" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58" s="8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L58" t="s">
+        <v>371</v>
+      </c>
+      <c r="M58" t="s">
+        <v>372</v>
+      </c>
+      <c r="N58" t="s">
         <v>367</v>
-      </c>
-      <c r="M58" t="s">
-        <v>368</v>
-      </c>
-      <c r="N58" t="s">
-        <v>363</v>
       </c>
       <c r="O58" t="s">
         <v>12</v>
@@ -4265,13 +4610,13 @@
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D59" s="25">
         <v>112</v>
@@ -4280,25 +4625,25 @@
         <v>1792</v>
       </c>
       <c r="F59" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G59" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59" s="8" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L59" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M59" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N59" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="O59" t="s">
         <v>12</v>
@@ -4306,13 +4651,13 @@
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D60" s="25">
         <v>112</v>
@@ -4321,36 +4666,36 @@
         <v>1792</v>
       </c>
       <c r="F60" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G60" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M60" t="s">
+        <v>383</v>
+      </c>
+      <c r="N60" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="M60" t="s">
+      <c r="O60" t="s">
         <v>379</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O60" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D61" s="25">
         <v>112</v>
@@ -4359,25 +4704,25 @@
         <v>1792</v>
       </c>
       <c r="F61" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G61" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61" s="8" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L61" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M61" t="s">
+        <v>389</v>
+      </c>
+      <c r="N61" t="s">
         <v>385</v>
-      </c>
-      <c r="N61" t="s">
-        <v>381</v>
       </c>
       <c r="O61" t="s">
         <v>12</v>
@@ -4385,13 +4730,13 @@
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D62" s="25">
         <v>112</v>
@@ -4400,25 +4745,25 @@
         <v>1792</v>
       </c>
       <c r="F62" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L62" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M62" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="O62" t="s">
         <v>13</v>
@@ -4426,40 +4771,40 @@
     </row>
     <row r="63" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E63">
         <v>1792</v>
       </c>
       <c r="F63" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G63" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L63" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M63" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="O63" t="s">
         <v>12</v>
@@ -4467,13 +4812,13 @@
     </row>
     <row r="64" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D64" s="25">
         <v>113</v>
@@ -4482,25 +4827,25 @@
         <v>1792</v>
       </c>
       <c r="F64" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G64" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64" s="8" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L64" t="s">
+        <v>410</v>
+      </c>
+      <c r="M64" t="s">
+        <v>411</v>
+      </c>
+      <c r="N64" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="M64" t="s">
-        <v>407</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="O64" t="s">
         <v>12</v>
@@ -4508,13 +4853,13 @@
     </row>
     <row r="65" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D65" s="25">
         <v>113</v>
@@ -4523,25 +4868,25 @@
         <v>1792</v>
       </c>
       <c r="F65" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G65" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L65" t="s">
+        <v>417</v>
+      </c>
+      <c r="M65" t="s">
+        <v>418</v>
+      </c>
+      <c r="N65" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="M65" t="s">
-        <v>414</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="O65" t="s">
         <v>12</v>
@@ -4549,13 +4894,13 @@
     </row>
     <row r="66" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D66" s="25">
         <v>113</v>
@@ -4564,25 +4909,25 @@
         <v>1792</v>
       </c>
       <c r="F66" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G66" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L66" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M66" t="s">
+        <v>424</v>
+      </c>
+      <c r="N66" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="O66" t="s">
         <v>12</v>
@@ -4590,13 +4935,13 @@
     </row>
     <row r="67" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C67" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D67" s="25">
         <v>113</v>
@@ -4605,37 +4950,37 @@
         <v>1792</v>
       </c>
       <c r="F67" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G67" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L67" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M67" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="O67"/>
     </row>
     <row r="68" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D68" s="25">
         <v>113</v>
@@ -4644,25 +4989,25 @@
         <v>1792</v>
       </c>
       <c r="F68" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G68" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L68" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M68" t="s">
+        <v>435</v>
+      </c>
+      <c r="N68" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="O68" t="s">
         <v>12</v>
@@ -4670,13 +5015,13 @@
     </row>
     <row r="69" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D69" s="25">
         <v>113</v>
@@ -4685,25 +5030,25 @@
         <v>1792</v>
       </c>
       <c r="F69" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G69" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L69" t="s">
+        <v>441</v>
+      </c>
+      <c r="M69" t="s">
+        <v>442</v>
+      </c>
+      <c r="N69" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="M69" t="s">
-        <v>438</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="O69" t="s">
         <v>12</v>
@@ -4711,13 +5056,13 @@
     </row>
     <row r="70" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D70" s="25">
         <v>113</v>
@@ -4726,301 +5071,699 @@
         <v>1793</v>
       </c>
       <c r="F70" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G70" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L70" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="O70" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71" s="25"/>
-      <c r="E71"/>
+      <c r="A71" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>451</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="E71">
+        <v>1794</v>
+      </c>
       <c r="F71"/>
-      <c r="G71"/>
+      <c r="G71" t="s">
+        <v>449</v>
+      </c>
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71" s="7"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
+      <c r="L71" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="M71" s="18" t="s">
+        <v>455</v>
+      </c>
       <c r="N71" s="7"/>
       <c r="O71"/>
     </row>
     <row r="72" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72" s="25"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
+      <c r="A72" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>450</v>
+      </c>
+      <c r="D72" s="25">
+        <v>121</v>
+      </c>
+      <c r="E72">
+        <v>1794</v>
+      </c>
+      <c r="F72" t="s">
+        <v>459</v>
+      </c>
+      <c r="G72" t="s">
+        <v>459</v>
+      </c>
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
+      <c r="L72" t="s">
+        <v>457</v>
+      </c>
+      <c r="M72" t="s">
+        <v>422</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>456</v>
+      </c>
       <c r="O72"/>
     </row>
     <row r="73" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73" s="25"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
+      <c r="A73" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>450</v>
+      </c>
+      <c r="D73" s="25">
+        <v>121</v>
+      </c>
+      <c r="E73">
+        <v>1794</v>
+      </c>
+      <c r="F73" t="s">
+        <v>462</v>
+      </c>
+      <c r="G73" t="s">
+        <v>463</v>
+      </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73"/>
+      <c r="K73" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L73" t="s">
+        <v>464</v>
+      </c>
+      <c r="M73" t="s">
+        <v>16</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="O73" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74" s="25"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
+      <c r="A74" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>450</v>
+      </c>
+      <c r="D74" s="25">
+        <v>121</v>
+      </c>
+      <c r="E74">
+        <v>1794</v>
+      </c>
+      <c r="F74" t="s">
+        <v>466</v>
+      </c>
+      <c r="G74" t="s">
+        <v>468</v>
+      </c>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
+      <c r="K74" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L74" t="s">
+        <v>470</v>
+      </c>
+      <c r="M74" t="s">
+        <v>471</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="O74" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="75" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75" s="25"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
+      <c r="A75" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>450</v>
+      </c>
+      <c r="D75" s="25">
+        <v>121</v>
+      </c>
+      <c r="E75">
+        <v>1794</v>
+      </c>
+      <c r="F75" t="s">
+        <v>474</v>
+      </c>
+      <c r="G75" t="s">
+        <v>475</v>
+      </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
+      <c r="K75" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L75" t="s">
+        <v>476</v>
+      </c>
+      <c r="M75" t="s">
+        <v>42</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="O75" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76" s="25"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
+      <c r="A76" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s">
+        <v>450</v>
+      </c>
+      <c r="D76" s="25">
+        <v>121</v>
+      </c>
+      <c r="E76">
+        <v>1794</v>
+      </c>
+      <c r="F76" t="s">
+        <v>427</v>
+      </c>
+      <c r="G76" t="s">
+        <v>428</v>
+      </c>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
+      <c r="K76" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L76" t="s">
+        <v>478</v>
+      </c>
+      <c r="M76" t="s">
+        <v>479</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="O76"/>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77" s="25"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
+      <c r="A77" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
+        <v>450</v>
+      </c>
+      <c r="D77" s="25">
+        <v>121</v>
+      </c>
+      <c r="E77">
+        <v>1794</v>
+      </c>
+      <c r="F77" t="s">
+        <v>482</v>
+      </c>
+      <c r="G77" t="s">
+        <v>483</v>
+      </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
+      <c r="K77" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L77" t="s">
+        <v>485</v>
+      </c>
+      <c r="M77" t="s">
+        <v>486</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="O77" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="78" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78" s="25"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
+      <c r="A78" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" t="s">
+        <v>450</v>
+      </c>
+      <c r="D78" s="25">
+        <v>121</v>
+      </c>
+      <c r="E78">
+        <v>1794</v>
+      </c>
+      <c r="F78" t="s">
+        <v>489</v>
+      </c>
+      <c r="G78" t="s">
+        <v>490</v>
+      </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="O78"/>
+      <c r="K78" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L78" t="s">
+        <v>429</v>
+      </c>
+      <c r="M78" t="s">
+        <v>491</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="O78" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="79" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79" s="25"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
+      <c r="A79" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
+        <v>450</v>
+      </c>
+      <c r="D79" s="25">
+        <v>121</v>
+      </c>
+      <c r="E79">
+        <v>1794</v>
+      </c>
+      <c r="F79" t="s">
+        <v>494</v>
+      </c>
+      <c r="G79" t="s">
+        <v>495</v>
+      </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="O79"/>
+      <c r="K79" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="L79" t="s">
+        <v>497</v>
+      </c>
+      <c r="M79" t="s">
+        <v>498</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="O79" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="80" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80" s="25"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
+      <c r="A80" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>500</v>
+      </c>
+      <c r="D80" s="25">
+        <v>156</v>
+      </c>
+      <c r="E80">
+        <v>1801</v>
+      </c>
+      <c r="F80" t="s">
+        <v>508</v>
+      </c>
+      <c r="G80" t="s">
+        <v>509</v>
+      </c>
+      <c r="H80" t="s">
+        <v>506</v>
+      </c>
+      <c r="I80" t="s">
+        <v>507</v>
+      </c>
       <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
+      <c r="K80" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="L80" t="s">
+        <v>504</v>
+      </c>
+      <c r="M80" t="s">
+        <v>505</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="O80" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81" s="25"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
+      <c r="A81" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
+        <v>500</v>
+      </c>
+      <c r="D81" s="25">
+        <v>156</v>
+      </c>
+      <c r="E81">
+        <v>1801</v>
+      </c>
+      <c r="F81" t="s">
+        <v>516</v>
+      </c>
+      <c r="G81" t="s">
+        <v>517</v>
+      </c>
+      <c r="H81" t="s">
+        <v>514</v>
+      </c>
+      <c r="I81" t="s">
+        <v>515</v>
+      </c>
       <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="O81"/>
+      <c r="K81" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" t="s">
+        <v>513</v>
+      </c>
+      <c r="M81" t="s">
+        <v>512</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="O81" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="82" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82" s="25"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
+      <c r="A82" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" t="s">
+        <v>500</v>
+      </c>
+      <c r="D82" s="25">
+        <v>156</v>
+      </c>
+      <c r="E82">
+        <v>1801</v>
+      </c>
+      <c r="F82" t="s">
+        <v>523</v>
+      </c>
+      <c r="G82" t="s">
+        <v>525</v>
+      </c>
+      <c r="H82" t="s">
+        <v>522</v>
+      </c>
+      <c r="I82" t="s">
+        <v>524</v>
+      </c>
       <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="O82"/>
+      <c r="K82" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L82" t="s">
+        <v>520</v>
+      </c>
+      <c r="M82" t="s">
+        <v>521</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="O82" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="83" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83" s="25"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
+      <c r="A83" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>500</v>
+      </c>
+      <c r="D83" s="25">
+        <v>156</v>
+      </c>
+      <c r="E83">
+        <v>1801</v>
+      </c>
+      <c r="F83" t="s">
+        <v>532</v>
+      </c>
+      <c r="G83" t="s">
+        <v>534</v>
+      </c>
+      <c r="H83" t="s">
+        <v>531</v>
+      </c>
+      <c r="I83" t="s">
+        <v>533</v>
+      </c>
       <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
+      <c r="K83" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L83" t="s">
+        <v>529</v>
+      </c>
+      <c r="M83" t="s">
+        <v>530</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="O83" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84" s="25"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
+      <c r="A84" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>500</v>
+      </c>
+      <c r="D84" s="25">
+        <v>156</v>
+      </c>
+      <c r="E84">
+        <v>1801</v>
+      </c>
+      <c r="F84" t="s">
+        <v>541</v>
+      </c>
+      <c r="G84" t="s">
+        <v>542</v>
+      </c>
+      <c r="H84" t="s">
+        <v>539</v>
+      </c>
+      <c r="I84" t="s">
+        <v>540</v>
+      </c>
       <c r="J84"/>
-      <c r="K84" s="19"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84" s="7"/>
-      <c r="O84"/>
+      <c r="K84" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="L84" t="s">
+        <v>538</v>
+      </c>
+      <c r="M84" t="s">
+        <v>16</v>
+      </c>
+      <c r="N84" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="O84" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85" s="25"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
+      <c r="A85" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
+        <v>500</v>
+      </c>
+      <c r="D85" s="25">
+        <v>156</v>
+      </c>
+      <c r="E85">
+        <v>1801</v>
+      </c>
+      <c r="F85" t="s">
+        <v>550</v>
+      </c>
+      <c r="G85" t="s">
+        <v>549</v>
+      </c>
+      <c r="H85" t="s">
+        <v>547</v>
+      </c>
+      <c r="I85" t="s">
+        <v>548</v>
+      </c>
       <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="O85"/>
+      <c r="K85" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="L85" t="s">
+        <v>546</v>
+      </c>
+      <c r="M85" t="s">
+        <v>495</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="O85" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86" s="25"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
+      <c r="A86" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
+        <v>500</v>
+      </c>
+      <c r="D86" s="25">
+        <v>156</v>
+      </c>
+      <c r="E86">
+        <v>1801</v>
+      </c>
+      <c r="F86" t="s">
+        <v>553</v>
+      </c>
+      <c r="G86" t="s">
+        <v>554</v>
+      </c>
+      <c r="H86" t="s">
+        <v>558</v>
+      </c>
+      <c r="I86" t="s">
+        <v>559</v>
+      </c>
       <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
+      <c r="K86" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="L86" t="s">
+        <v>556</v>
+      </c>
+      <c r="M86" t="s">
+        <v>557</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="O86" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA63C9E-D2A3-4F95-B729-85FFBF9D9A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C916CC-059C-4696-B1C1-1D27BF61A6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="707">
   <si>
     <t>Cognoms</t>
   </si>
@@ -103,6 +103,9 @@
     <t>Padrineta de bateig</t>
   </si>
   <si>
+    <t>19/01/1805</t>
+  </si>
+  <si>
     <t>Bateig</t>
   </si>
   <si>
@@ -118,6 +121,15 @@
     <t>Ferrer</t>
   </si>
   <si>
+    <t>Carreter</t>
+  </si>
+  <si>
+    <t>Traginer</t>
+  </si>
+  <si>
+    <t>31/12/1804</t>
+  </si>
+  <si>
     <t>Maria Novell</t>
   </si>
   <si>
@@ -1751,6 +1763,435 @@
   </si>
   <si>
     <t>Felip Fusté (de Bellcaire) i Maria Folguera (Castellserà)</t>
+  </si>
+  <si>
+    <t>03-0172</t>
+  </si>
+  <si>
+    <t>10/10/1803</t>
+  </si>
+  <si>
+    <t>Solsona Romà Rosa Francesca Joana</t>
+  </si>
+  <si>
+    <t>Fransisco Colell (Casat)</t>
+  </si>
+  <si>
+    <t>Rosa Roma (Viuda)</t>
+  </si>
+  <si>
+    <t>Antonio Solsona i Isabel Cuberes</t>
+  </si>
+  <si>
+    <t>Pau Roma i Magdalena Gomà</t>
+  </si>
+  <si>
+    <t>Raimunda Roma Gomà</t>
+  </si>
+  <si>
+    <t>Fransisco Solsona Cuberes</t>
+  </si>
+  <si>
+    <t>Pedrós Civit Josepa Antonia Joana</t>
+  </si>
+  <si>
+    <t>07/11/1803</t>
+  </si>
+  <si>
+    <t>Armer</t>
+  </si>
+  <si>
+    <t>Josepa Pedrós (Casada)</t>
+  </si>
+  <si>
+    <t>Josep Civit (Casat)</t>
+  </si>
+  <si>
+    <t>Josep Civit i Antonia Batlle</t>
+  </si>
+  <si>
+    <t>Cecilia Civit Batlle</t>
+  </si>
+  <si>
+    <t>Fransisco Pedrós Mas</t>
+  </si>
+  <si>
+    <t>Roger Gasó Ignasi Joan</t>
+  </si>
+  <si>
+    <t>22/11/1803</t>
+  </si>
+  <si>
+    <t>21/11/1803</t>
+  </si>
+  <si>
+    <t>Teresa Galceran</t>
+  </si>
+  <si>
+    <t>Josep Roger i Maria Cases</t>
+  </si>
+  <si>
+    <t>Jaume Roger Cases</t>
+  </si>
+  <si>
+    <t>Bonaventura Gasó i Maria Torrent</t>
+  </si>
+  <si>
+    <t>Antonia Gasó Torrent</t>
+  </si>
+  <si>
+    <t>Niubó Roma Raimunda Francesca Joana</t>
+  </si>
+  <si>
+    <t>Ramon Niubó</t>
+  </si>
+  <si>
+    <t>13/12/1803</t>
+  </si>
+  <si>
+    <t>15/12/1803</t>
+  </si>
+  <si>
+    <t>Francisco Gomà (Calonge)</t>
+  </si>
+  <si>
+    <t>Raimunda Solsona</t>
+  </si>
+  <si>
+    <t>Fransisco Niubó i Magdalena (De castellnou de seana)</t>
+  </si>
+  <si>
+    <t>Pau Romà Magdalena Gomà</t>
+  </si>
+  <si>
+    <t>Antonia Roma Gomà</t>
+  </si>
+  <si>
+    <t>04/01/1804</t>
+  </si>
+  <si>
+    <t>Pujades Martí Fransisco Josep Joan</t>
+  </si>
+  <si>
+    <t>Jaume Pujades</t>
+  </si>
+  <si>
+    <t>Maria Antonia Martí</t>
+  </si>
+  <si>
+    <t>Rosa Pujades (Viuda)</t>
+  </si>
+  <si>
+    <t>Fransisco Giné (Casat)</t>
+  </si>
+  <si>
+    <t>Josep Pujades i Rosa Ponta (aquesta de barbens)</t>
+  </si>
+  <si>
+    <t>Simon Martí i Helena Roma</t>
+  </si>
+  <si>
+    <t>Serra Roger Jaume Josep Joan</t>
+  </si>
+  <si>
+    <t>24/01/1804</t>
+  </si>
+  <si>
+    <t>Josep Serra</t>
+  </si>
+  <si>
+    <t>Manuela Roger</t>
+  </si>
+  <si>
+    <t>Jaume Serra (Mestre de Cases)</t>
+  </si>
+  <si>
+    <t>Cecilia Roger (Viuda)</t>
+  </si>
+  <si>
+    <t>Ignasi Serra i Maria Tarragó</t>
+  </si>
+  <si>
+    <t>Antonio Roger i Cecilia Bresolí</t>
+  </si>
+  <si>
+    <t>02/02/1804</t>
+  </si>
+  <si>
+    <t>Pedrós Duart Fransisco Josep Joan</t>
+  </si>
+  <si>
+    <t>01/02/1804</t>
+  </si>
+  <si>
+    <t>Fransisco Colell</t>
+  </si>
+  <si>
+    <t>Cecilia Pedrós</t>
+  </si>
+  <si>
+    <t>Ignasi Pedrós i Llucia Pujades</t>
+  </si>
+  <si>
+    <t>Josep Pedrós Pujades</t>
+  </si>
+  <si>
+    <t>Mariano Duart (barbens) i Magdalena Alexandre</t>
+  </si>
+  <si>
+    <t>Viladevait Ribera Ignasi Pau</t>
+  </si>
+  <si>
+    <t>12/02/1804</t>
+  </si>
+  <si>
+    <t>Pere Viladevait i Teresa Pasqual</t>
+  </si>
+  <si>
+    <t>Antonio Ribera i Magdalena Pané</t>
+  </si>
+  <si>
+    <t>Mariangela Ribera Pané (Mas de Golifes)</t>
+  </si>
+  <si>
+    <t>Fransisco Viladevait Pasqual (Mas de Golifes)</t>
+  </si>
+  <si>
+    <t>Sucarrat Torrent Antonia Maria Paula</t>
+  </si>
+  <si>
+    <t>13/02/1804</t>
+  </si>
+  <si>
+    <t>Josep Sucarrat</t>
+  </si>
+  <si>
+    <t>Magdalena Torrent</t>
+  </si>
+  <si>
+    <t>Antonio Bonjorn</t>
+  </si>
+  <si>
+    <t>170 , 171</t>
+  </si>
+  <si>
+    <t>03-0172 - 03-0173</t>
+  </si>
+  <si>
+    <t>03-0177</t>
+  </si>
+  <si>
+    <t>Fabregat Cuberés Maria Francesca Antonia</t>
+  </si>
+  <si>
+    <t>05/12/1804</t>
+  </si>
+  <si>
+    <t>Maria Cuberes</t>
+  </si>
+  <si>
+    <t>04/12/1804</t>
+  </si>
+  <si>
+    <t>Fransisco Fabregat (Solter)</t>
+  </si>
+  <si>
+    <t>Maria Cuberes (Preixens)</t>
+  </si>
+  <si>
+    <t>Ignasi Fabregat i Francesca Roger</t>
+  </si>
+  <si>
+    <t>Pau Fabregat Roger</t>
+  </si>
+  <si>
+    <t>Jaume Cuberés i Maria (Perxens)</t>
+  </si>
+  <si>
+    <t>25/12/1804</t>
+  </si>
+  <si>
+    <t>Moset Sellart Joan Antonio Fransisco</t>
+  </si>
+  <si>
+    <t>Domingo Moset</t>
+  </si>
+  <si>
+    <t>Maria Sellart (Mas de Golifas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joan Moset (Fadri) </t>
+  </si>
+  <si>
+    <t>Maria Coca (La Carbonera)</t>
+  </si>
+  <si>
+    <t>Fransisco Moset i Manuela Rubiol</t>
+  </si>
+  <si>
+    <t>Ramon Sellart (De la torre de Mavià) i Teresa Pinós (Vagel)</t>
+  </si>
+  <si>
+    <t>Torrent Bonjorn Maria Teresa Antonia</t>
+  </si>
+  <si>
+    <t>30/12/1804</t>
+  </si>
+  <si>
+    <t>Maria Teresa Margall (Donsella)</t>
+  </si>
+  <si>
+    <t>Jaume Bonjorn (Fadri)</t>
+  </si>
+  <si>
+    <t>Antonio Torrent i Maria Teresa Mas</t>
+  </si>
+  <si>
+    <t>Jaume Bonjorn i Agna Duart (Barbens)</t>
+  </si>
+  <si>
+    <t>Teresa Bonjorn Duart</t>
+  </si>
+  <si>
+    <t>Falcó Fabregat Ramon Joan Baltasar</t>
+  </si>
+  <si>
+    <t>05/01/1805</t>
+  </si>
+  <si>
+    <t>Ramón Falcó (Casat)</t>
+  </si>
+  <si>
+    <t>Teresa Fabregat (Donsella)</t>
+  </si>
+  <si>
+    <t>Josep Falcó i Fransisca Domingo</t>
+  </si>
+  <si>
+    <t>Josep Falcó Domingo</t>
+  </si>
+  <si>
+    <t>Ignasi Fabregat i Fransisca Roger</t>
+  </si>
+  <si>
+    <t>Maria Fabregat Roger</t>
+  </si>
+  <si>
+    <t>Bonjorn Sucarrat Jaume Manuel Joan</t>
+  </si>
+  <si>
+    <t>10/01/1805</t>
+  </si>
+  <si>
+    <t>06/01/1805</t>
+  </si>
+  <si>
+    <t>Manuela Sucarrat (Donsella)</t>
+  </si>
+  <si>
+    <t>Jaume Bonjorn (Fadrí)</t>
+  </si>
+  <si>
+    <t>Jaume Bonjorn i Anna Duart (Aquesta de Barbens)</t>
+  </si>
+  <si>
+    <t>Fransisco Sucarrat i Rosa Pere</t>
+  </si>
+  <si>
+    <t>Isabel Sucarrat Pera</t>
+  </si>
+  <si>
+    <t>Antonio Bonjorn Duart</t>
+  </si>
+  <si>
+    <t>Mas Civit Joan Ramon Antonio</t>
+  </si>
+  <si>
+    <t>16/01/1805</t>
+  </si>
+  <si>
+    <t>15/01/1805</t>
+  </si>
+  <si>
+    <t>Maria Vallés Sunyé (Casada)</t>
+  </si>
+  <si>
+    <t>Joan Sunyé (Casat)</t>
+  </si>
+  <si>
+    <t>Bartolomé Mas i Magdalena Martí</t>
+  </si>
+  <si>
+    <t>Josep Civit i Maria Ricart</t>
+  </si>
+  <si>
+    <t>Domingo Mas Marti</t>
+  </si>
+  <si>
+    <t>Maria Teresa Civit Ricart</t>
+  </si>
+  <si>
+    <t>20/01/1805</t>
+  </si>
+  <si>
+    <t>Jovells Martí Maria Rosa Antonia</t>
+  </si>
+  <si>
+    <t>Joan Martí (Casat)</t>
+  </si>
+  <si>
+    <t>Rosa Jovells (Casada)(el Masó)</t>
+  </si>
+  <si>
+    <t>Jaume Jovells i Fransisca Ros</t>
+  </si>
+  <si>
+    <t>Antonio Marti i Antonia Mas</t>
+  </si>
+  <si>
+    <t>Manuela Martí Mas</t>
+  </si>
+  <si>
+    <t>Josep Jovells Ros</t>
+  </si>
+  <si>
+    <t>Mas Cascalló Domingo Josep Joan</t>
+  </si>
+  <si>
+    <t>27/01/1805</t>
+  </si>
+  <si>
+    <t>26/01/1805</t>
+  </si>
+  <si>
+    <t>Ignasia Novell (Casada)</t>
+  </si>
+  <si>
+    <t>Josep Cascalló (Casat)</t>
+  </si>
+  <si>
+    <t>Josep Cascalló i Teresa Corbera</t>
+  </si>
+  <si>
+    <t>Anton Mas Martí</t>
+  </si>
+  <si>
+    <t>Francesca Cascalló Corbera</t>
+  </si>
+  <si>
+    <t>29/01/1805</t>
+  </si>
+  <si>
+    <t>28/01/1805</t>
+  </si>
+  <si>
+    <t>Fransisco Colell (Fadri)</t>
+  </si>
+  <si>
+    <t>Rosa Colell (Donsella)</t>
+  </si>
+  <si>
+    <t>Pau Duart i Magdalena Alexandre</t>
   </si>
 </sst>
 </file>
@@ -1875,7 +2316,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1937,6 +2378,9 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2260,8 +2704,8 @@
   <dimension ref="A1:Q17779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2292,13 +2736,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2328,27 +2772,27 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" s="25">
         <v>3</v>
@@ -2357,35 +2801,35 @@
         <v>1770</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2" s="8"/>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3" s="25">
         <v>3</v>
@@ -2394,37 +2838,37 @@
         <v>1770</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O3"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D4" s="25">
         <v>3</v>
@@ -2433,37 +2877,37 @@
         <v>1770</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
         <v>44</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
       </c>
       <c r="O4"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" s="25">
         <v>3</v>
@@ -2472,37 +2916,37 @@
         <v>1770</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" t="s">
         <v>51</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
       </c>
       <c r="O5"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" s="25">
         <v>3</v>
@@ -2511,76 +2955,76 @@
         <v>1770</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O6"/>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E7">
         <v>1770</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" t="s">
         <v>63</v>
-      </c>
-      <c r="M7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" t="s">
-        <v>59</v>
       </c>
       <c r="O7"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D8" s="25">
         <v>4</v>
@@ -2589,37 +3033,37 @@
         <v>1770</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
         <v>71</v>
-      </c>
-      <c r="N8" t="s">
-        <v>67</v>
       </c>
       <c r="O8"/>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D9" s="25">
         <v>4</v>
@@ -2628,37 +3072,37 @@
         <v>1770</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" t="s">
         <v>78</v>
-      </c>
-      <c r="N9" t="s">
-        <v>74</v>
       </c>
       <c r="O9"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D10" s="25">
         <v>4</v>
@@ -2667,37 +3111,37 @@
         <v>1770</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O10"/>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D11" s="25">
         <v>4</v>
@@ -2706,40 +3150,40 @@
         <v>1770</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" t="s">
         <v>92</v>
-      </c>
-      <c r="N11" t="s">
-        <v>88</v>
       </c>
       <c r="O11"/>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E12">
         <v>1770</v>
@@ -2753,19 +3197,19 @@
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O12"/>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D13" s="25">
         <v>13</v>
@@ -2774,35 +3218,35 @@
         <v>1771</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" s="8"/>
       <c r="L13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D14" s="25">
         <v>13</v>
@@ -2811,39 +3255,39 @@
         <v>1771</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D15" s="25">
         <v>13</v>
@@ -2852,39 +3296,39 @@
         <v>1771</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M15" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" t="s">
         <v>112</v>
       </c>
-      <c r="N15" t="s">
-        <v>108</v>
-      </c>
       <c r="O15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D16" s="25">
         <v>13</v>
@@ -2893,39 +3337,39 @@
         <v>1771</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16" s="28" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L16" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" t="s">
         <v>119</v>
       </c>
-      <c r="M16" t="s">
-        <v>120</v>
-      </c>
-      <c r="N16" t="s">
-        <v>115</v>
-      </c>
       <c r="O16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D17" s="25">
         <v>13</v>
@@ -2934,39 +3378,39 @@
         <v>1771</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17" s="8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" t="s">
         <v>126</v>
       </c>
-      <c r="M17" t="s">
-        <v>127</v>
-      </c>
-      <c r="N17" t="s">
-        <v>122</v>
-      </c>
       <c r="O17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D18" s="25">
         <v>20</v>
@@ -2975,39 +3419,39 @@
         <v>1773</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18" s="28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" t="s">
+        <v>139</v>
+      </c>
+      <c r="N18" t="s">
         <v>134</v>
       </c>
-      <c r="M18" t="s">
-        <v>135</v>
-      </c>
-      <c r="N18" t="s">
-        <v>130</v>
-      </c>
       <c r="O18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D19" s="25">
         <v>20</v>
@@ -3016,39 +3460,39 @@
         <v>1773</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M19" t="s">
+        <v>145</v>
+      </c>
+      <c r="N19" t="s">
         <v>141</v>
       </c>
-      <c r="N19" t="s">
-        <v>137</v>
-      </c>
       <c r="O19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D20" s="25">
         <v>20</v>
@@ -3057,39 +3501,39 @@
         <v>1773</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" s="28" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s">
+        <v>151</v>
+      </c>
+      <c r="N20" t="s">
         <v>147</v>
       </c>
-      <c r="N20" t="s">
-        <v>143</v>
-      </c>
       <c r="O20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D21" s="25">
         <v>20</v>
@@ -3098,39 +3542,39 @@
         <v>1773</v>
       </c>
       <c r="F21" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M21" t="s">
+        <v>157</v>
+      </c>
+      <c r="N21" t="s">
         <v>153</v>
       </c>
-      <c r="N21" t="s">
-        <v>149</v>
-      </c>
       <c r="O21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D22" s="25">
         <v>20</v>
@@ -3139,39 +3583,39 @@
         <v>1773</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22" s="28" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D23" s="25">
         <v>20</v>
@@ -3180,39 +3624,39 @@
         <v>1773</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M23" t="s">
+        <v>167</v>
+      </c>
+      <c r="N23" t="s">
         <v>162</v>
       </c>
-      <c r="M23" t="s">
-        <v>163</v>
-      </c>
-      <c r="N23" t="s">
-        <v>158</v>
-      </c>
       <c r="O23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D24" s="25">
         <v>28</v>
@@ -3221,39 +3665,39 @@
         <v>1774</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M24" t="s">
+        <v>173</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="O24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D25" s="25">
         <v>28</v>
@@ -3262,39 +3706,39 @@
         <v>1774</v>
       </c>
       <c r="F25" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" s="8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D26" s="25">
         <v>28</v>
@@ -3303,39 +3747,39 @@
         <v>1774</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26" s="8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M26" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N26" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="O26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D27" s="25">
         <v>28</v>
@@ -3344,39 +3788,39 @@
         <v>1774</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" t="s">
+        <v>191</v>
+      </c>
+      <c r="M27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N27" t="s">
         <v>186</v>
       </c>
-      <c r="L27" t="s">
-        <v>187</v>
-      </c>
-      <c r="M27" t="s">
-        <v>188</v>
-      </c>
-      <c r="N27" t="s">
-        <v>182</v>
-      </c>
       <c r="O27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D28" s="25">
         <v>28</v>
@@ -3385,39 +3829,39 @@
         <v>1774</v>
       </c>
       <c r="F28" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G28" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28" s="8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s">
+        <v>197</v>
+      </c>
+      <c r="M28" t="s">
+        <v>198</v>
+      </c>
+      <c r="N28" t="s">
         <v>193</v>
       </c>
-      <c r="M28" t="s">
-        <v>194</v>
-      </c>
-      <c r="N28" t="s">
-        <v>189</v>
-      </c>
       <c r="O28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D29" s="25">
         <v>28</v>
@@ -3426,39 +3870,39 @@
         <v>1774</v>
       </c>
       <c r="F29" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G29" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29" s="8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L29" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M29" t="s">
+        <v>204</v>
+      </c>
+      <c r="N29" t="s">
         <v>200</v>
       </c>
-      <c r="N29" t="s">
-        <v>196</v>
-      </c>
       <c r="O29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D30" s="25">
         <v>32</v>
@@ -3467,39 +3911,39 @@
         <v>1774</v>
       </c>
       <c r="F30" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G30" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L30" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="N30" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D31" s="25">
         <v>32</v>
@@ -3508,39 +3952,39 @@
         <v>1774</v>
       </c>
       <c r="F31" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G31" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L31" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M31" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="N31" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D32" s="25">
         <v>32</v>
@@ -3549,39 +3993,39 @@
         <v>1774</v>
       </c>
       <c r="F32" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G32" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32" s="8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M32" t="s">
+        <v>223</v>
+      </c>
+      <c r="N32" t="s">
         <v>219</v>
       </c>
-      <c r="N32" t="s">
-        <v>215</v>
-      </c>
       <c r="O32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D33" s="25">
         <v>32</v>
@@ -3590,39 +4034,39 @@
         <v>1774</v>
       </c>
       <c r="F33" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G33" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L33" t="s">
+        <v>229</v>
+      </c>
+      <c r="M33" t="s">
+        <v>230</v>
+      </c>
+      <c r="N33" t="s">
         <v>225</v>
       </c>
-      <c r="M33" t="s">
-        <v>226</v>
-      </c>
-      <c r="N33" t="s">
-        <v>221</v>
-      </c>
       <c r="O33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D34" s="25">
         <v>32</v>
@@ -3631,39 +4075,39 @@
         <v>1774</v>
       </c>
       <c r="F34" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G34" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M34" t="s">
+        <v>236</v>
+      </c>
+      <c r="N34" t="s">
         <v>232</v>
       </c>
-      <c r="N34" t="s">
-        <v>228</v>
-      </c>
       <c r="O34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D35" s="25">
         <v>32</v>
@@ -3672,121 +4116,121 @@
         <v>1774</v>
       </c>
       <c r="F35" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G35" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L35" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s">
+        <v>242</v>
+      </c>
+      <c r="N35" t="s">
         <v>238</v>
       </c>
-      <c r="N35" t="s">
-        <v>234</v>
-      </c>
       <c r="O35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E36">
         <v>1774</v>
       </c>
       <c r="F36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G36" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36" s="8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L36" t="s">
+        <v>248</v>
+      </c>
+      <c r="M36" t="s">
+        <v>249</v>
+      </c>
+      <c r="N36" t="s">
         <v>244</v>
       </c>
-      <c r="M36" t="s">
-        <v>245</v>
-      </c>
-      <c r="N36" t="s">
-        <v>240</v>
-      </c>
       <c r="O36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E37">
         <v>1775</v>
       </c>
       <c r="F37" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G37" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M37" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N37" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D38" s="25">
         <v>34</v>
@@ -3795,39 +4239,39 @@
         <v>1775</v>
       </c>
       <c r="F38" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G38" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s">
+        <v>269</v>
+      </c>
+      <c r="M38" t="s">
+        <v>270</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="M38" t="s">
-        <v>266</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="O38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D39" s="25">
         <v>34</v>
@@ -3836,39 +4280,39 @@
         <v>1775</v>
       </c>
       <c r="F39" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G39" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39" s="8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L39" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M39" t="s">
+        <v>276</v>
+      </c>
+      <c r="N39" t="s">
         <v>272</v>
       </c>
-      <c r="N39" t="s">
-        <v>268</v>
-      </c>
       <c r="O39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D40" s="25">
         <v>34</v>
@@ -3877,39 +4321,39 @@
         <v>1775</v>
       </c>
       <c r="F40" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G40" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L40" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M40" t="s">
+        <v>282</v>
+      </c>
+      <c r="N40" t="s">
         <v>278</v>
       </c>
-      <c r="N40" t="s">
-        <v>274</v>
-      </c>
       <c r="O40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D41" s="25">
         <v>34</v>
@@ -3918,39 +4362,39 @@
         <v>1775</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L41" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M41" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N41" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="O41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D42" s="25">
         <v>34</v>
@@ -3959,79 +4403,79 @@
         <v>1775</v>
       </c>
       <c r="F42" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G42" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42" s="8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L42" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M42" t="s">
+        <v>291</v>
+      </c>
+      <c r="N42" t="s">
         <v>287</v>
       </c>
-      <c r="N42" t="s">
-        <v>283</v>
-      </c>
       <c r="O42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E43">
         <v>1775</v>
       </c>
       <c r="F43" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G43" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43" s="8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="O43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E44"/>
       <c r="G44"/>
@@ -4040,23 +4484,23 @@
       <c r="J44"/>
       <c r="K44" s="8"/>
       <c r="L44" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M44" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D45" s="25">
         <v>43</v>
@@ -4065,39 +4509,39 @@
         <v>1777</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G45" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45" s="8" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s">
+        <v>307</v>
+      </c>
+      <c r="M45" t="s">
+        <v>308</v>
+      </c>
+      <c r="N45" t="s">
         <v>303</v>
       </c>
-      <c r="M45" t="s">
-        <v>304</v>
-      </c>
-      <c r="N45" t="s">
-        <v>299</v>
-      </c>
       <c r="O45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
         <v>310</v>
-      </c>
-      <c r="B46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" t="s">
-        <v>306</v>
       </c>
       <c r="D46" s="25">
         <v>43</v>
@@ -4106,39 +4550,39 @@
         <v>1777</v>
       </c>
       <c r="F46" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G46" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46" s="8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M46" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="N46" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="O46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D47" s="25">
         <v>43</v>
@@ -4147,39 +4591,39 @@
         <v>1777</v>
       </c>
       <c r="F47" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G47" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47" s="8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L47" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M47" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="N47" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="O47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D48" s="25">
         <v>43</v>
@@ -4188,39 +4632,39 @@
         <v>1777</v>
       </c>
       <c r="F48" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G48" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48" s="8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L48" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M48" t="s">
+        <v>325</v>
+      </c>
+      <c r="N48" t="s">
         <v>321</v>
       </c>
-      <c r="N48" t="s">
-        <v>317</v>
-      </c>
       <c r="O48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D49" s="25">
         <v>43</v>
@@ -4229,39 +4673,39 @@
         <v>1777</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49" s="8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L49" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M49" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N49" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="O49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D50" s="25">
         <v>43</v>
@@ -4270,10 +4714,10 @@
         <v>1777</v>
       </c>
       <c r="F50" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G50" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
@@ -4282,21 +4726,21 @@
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="O50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
         <v>335</v>
-      </c>
-      <c r="B51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" t="s">
-        <v>331</v>
       </c>
       <c r="D51" s="25">
         <v>55</v>
@@ -4305,39 +4749,39 @@
         <v>1779</v>
       </c>
       <c r="F51" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G51" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L51" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M51" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N51" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D52" s="25">
         <v>55</v>
@@ -4346,10 +4790,10 @@
         <v>1779</v>
       </c>
       <c r="F52" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G52" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
@@ -4358,27 +4802,27 @@
         <v>35510</v>
       </c>
       <c r="L52" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M52" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="O52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D53" s="25">
         <v>55</v>
@@ -4387,39 +4831,39 @@
         <v>1779</v>
       </c>
       <c r="F53" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G53" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L53" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M53" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="N53" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D54" s="25">
         <v>55</v>
@@ -4428,39 +4872,39 @@
         <v>1779</v>
       </c>
       <c r="F54" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G54" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L54" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M54" t="s">
+        <v>355</v>
+      </c>
+      <c r="N54" t="s">
         <v>351</v>
       </c>
-      <c r="N54" t="s">
-        <v>347</v>
-      </c>
       <c r="O54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D55" s="25">
         <v>55</v>
@@ -4469,39 +4913,39 @@
         <v>1779</v>
       </c>
       <c r="F55" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G55" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L55" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M55" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="O55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D56" s="25">
         <v>55</v>
@@ -4510,72 +4954,72 @@
         <v>1779</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56" s="8" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L56" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N56" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="O56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E57">
         <v>1792</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57" s="8"/>
       <c r="L57" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D58" s="25">
         <v>112</v>
@@ -4584,39 +5028,39 @@
         <v>1792</v>
       </c>
       <c r="F58" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G58" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58" s="8" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L58" t="s">
+        <v>375</v>
+      </c>
+      <c r="M58" t="s">
+        <v>376</v>
+      </c>
+      <c r="N58" t="s">
         <v>371</v>
       </c>
-      <c r="M58" t="s">
-        <v>372</v>
-      </c>
-      <c r="N58" t="s">
-        <v>367</v>
-      </c>
       <c r="O58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D59" s="25">
         <v>112</v>
@@ -4625,39 +5069,39 @@
         <v>1792</v>
       </c>
       <c r="F59" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G59" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59" s="8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L59" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M59" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N59" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="O59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D60" s="25">
         <v>112</v>
@@ -4666,36 +5110,36 @@
         <v>1792</v>
       </c>
       <c r="F60" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G60" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="M60" t="s">
+        <v>387</v>
+      </c>
+      <c r="N60" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="M60" t="s">
+      <c r="O60" t="s">
         <v>383</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="O60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D61" s="25">
         <v>112</v>
@@ -4704,39 +5148,39 @@
         <v>1792</v>
       </c>
       <c r="F61" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G61" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61" s="8" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L61" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M61" t="s">
+        <v>393</v>
+      </c>
+      <c r="N61" t="s">
         <v>389</v>
       </c>
-      <c r="N61" t="s">
-        <v>385</v>
-      </c>
       <c r="O61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D62" s="25">
         <v>112</v>
@@ -4745,80 +5189,80 @@
         <v>1792</v>
       </c>
       <c r="F62" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L62" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M62" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="O62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E63">
         <v>1792</v>
       </c>
       <c r="F63" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G63" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L63" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M63" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="O63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D64" s="25">
         <v>113</v>
@@ -4827,39 +5271,39 @@
         <v>1792</v>
       </c>
       <c r="F64" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G64" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64" s="8" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L64" t="s">
+        <v>414</v>
+      </c>
+      <c r="M64" t="s">
+        <v>415</v>
+      </c>
+      <c r="N64" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="M64" t="s">
-        <v>411</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>406</v>
-      </c>
       <c r="O64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D65" s="25">
         <v>113</v>
@@ -4868,39 +5312,39 @@
         <v>1792</v>
       </c>
       <c r="F65" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G65" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L65" t="s">
+        <v>421</v>
+      </c>
+      <c r="M65" t="s">
+        <v>422</v>
+      </c>
+      <c r="N65" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="M65" t="s">
-        <v>418</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="O65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D66" s="25">
         <v>113</v>
@@ -4909,39 +5353,39 @@
         <v>1792</v>
       </c>
       <c r="F66" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G66" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L66" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M66" t="s">
+        <v>428</v>
+      </c>
+      <c r="N66" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="O66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D67" s="25">
         <v>113</v>
@@ -4950,37 +5394,37 @@
         <v>1792</v>
       </c>
       <c r="F67" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G67" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L67" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M67" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="O67"/>
     </row>
     <row r="68" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D68" s="25">
         <v>113</v>
@@ -4989,39 +5433,39 @@
         <v>1792</v>
       </c>
       <c r="F68" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G68" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L68" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M68" t="s">
+        <v>439</v>
+      </c>
+      <c r="N68" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="N68" s="3" t="s">
-        <v>431</v>
-      </c>
       <c r="O68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D69" s="25">
         <v>113</v>
@@ -5030,39 +5474,39 @@
         <v>1792</v>
       </c>
       <c r="F69" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G69" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L69" t="s">
+        <v>445</v>
+      </c>
+      <c r="M69" t="s">
+        <v>446</v>
+      </c>
+      <c r="N69" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="M69" t="s">
-        <v>442</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>437</v>
-      </c>
       <c r="O69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D70" s="25">
         <v>113</v>
@@ -5071,72 +5515,72 @@
         <v>1793</v>
       </c>
       <c r="F70" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G70" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L70" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M70" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="E71">
         <v>1794</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71" s="7"/>
       <c r="L71" s="18" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M71" s="18" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="N71" s="7"/>
       <c r="O71"/>
     </row>
     <row r="72" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D72" s="25">
         <v>121</v>
@@ -5145,35 +5589,35 @@
         <v>1794</v>
       </c>
       <c r="F72" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G72" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M72" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="O72"/>
     </row>
     <row r="73" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D73" s="25">
         <v>121</v>
@@ -5182,39 +5626,39 @@
         <v>1794</v>
       </c>
       <c r="F73" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G73" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L73" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M73" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="O73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D74" s="25">
         <v>121</v>
@@ -5223,39 +5667,39 @@
         <v>1794</v>
       </c>
       <c r="F74" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G74" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L74" t="s">
+        <v>474</v>
+      </c>
+      <c r="M74" t="s">
+        <v>475</v>
+      </c>
+      <c r="N74" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="L74" t="s">
-        <v>470</v>
-      </c>
-      <c r="M74" t="s">
-        <v>471</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>465</v>
-      </c>
       <c r="O74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D75" s="25">
         <v>121</v>
@@ -5264,39 +5708,39 @@
         <v>1794</v>
       </c>
       <c r="F75" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G75" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L75" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M75" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="O75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C76" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D76" s="25">
         <v>121</v>
@@ -5305,37 +5749,37 @@
         <v>1794</v>
       </c>
       <c r="F76" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G76" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L76" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M76" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="O76"/>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D77" s="25">
         <v>121</v>
@@ -5344,39 +5788,39 @@
         <v>1794</v>
       </c>
       <c r="F77" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G77" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L77" t="s">
+        <v>489</v>
+      </c>
+      <c r="M77" t="s">
+        <v>490</v>
+      </c>
+      <c r="N77" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="M77" t="s">
-        <v>486</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>481</v>
-      </c>
       <c r="O77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D78" s="25">
         <v>121</v>
@@ -5385,39 +5829,39 @@
         <v>1794</v>
       </c>
       <c r="F78" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G78" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L78" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M78" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="O78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D79" s="25">
         <v>121</v>
@@ -5426,39 +5870,39 @@
         <v>1794</v>
       </c>
       <c r="F79" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G79" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L79" t="s">
+        <v>501</v>
+      </c>
+      <c r="M79" t="s">
+        <v>502</v>
+      </c>
+      <c r="N79" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="M79" t="s">
-        <v>498</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>493</v>
-      </c>
       <c r="O79" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D80" s="25">
         <v>156</v>
@@ -5467,43 +5911,43 @@
         <v>1801</v>
       </c>
       <c r="F80" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G80" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H80" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="I80" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="J80"/>
       <c r="K80" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L80" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M80" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="O80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D81" s="25">
         <v>156</v>
@@ -5512,43 +5956,43 @@
         <v>1801</v>
       </c>
       <c r="F81" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G81" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H81" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="I81" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="J81"/>
       <c r="K81" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L81" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="M81" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="O81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D82" s="25">
         <v>156</v>
@@ -5557,43 +6001,43 @@
         <v>1801</v>
       </c>
       <c r="F82" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G82" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H82" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="I82" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="J82"/>
       <c r="K82" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="L82" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M82" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="O82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D83" s="25">
         <v>156</v>
@@ -5602,43 +6046,43 @@
         <v>1801</v>
       </c>
       <c r="F83" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G83" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H83" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="I83" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="J83"/>
       <c r="K83" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="L83" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="M83" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="O83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D84" s="25">
         <v>156</v>
@@ -5647,43 +6091,43 @@
         <v>1801</v>
       </c>
       <c r="F84" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G84" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H84" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="I84" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="J84"/>
       <c r="K84" s="19" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L84" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="M84" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="O84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D85" s="25">
         <v>156</v>
@@ -5692,43 +6136,43 @@
         <v>1801</v>
       </c>
       <c r="F85" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G85" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H85" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="I85" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="J85"/>
       <c r="K85" s="19" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="L85" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="M85" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="O85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D86" s="25">
         <v>156</v>
@@ -5737,325 +6181,828 @@
         <v>1801</v>
       </c>
       <c r="F86" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="G86" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H86" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="I86" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="J86"/>
       <c r="K86" s="19" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="L86" t="s">
+        <v>560</v>
+      </c>
+      <c r="M86" t="s">
+        <v>561</v>
+      </c>
+      <c r="N86" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="M86" t="s">
-        <v>557</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>552</v>
-      </c>
       <c r="O86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87" s="25"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
+      <c r="A87" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" t="s">
+        <v>564</v>
+      </c>
+      <c r="D87" s="25">
+        <v>170</v>
+      </c>
+      <c r="E87">
+        <v>1803</v>
+      </c>
+      <c r="F87" t="s">
+        <v>572</v>
+      </c>
+      <c r="G87" t="s">
+        <v>571</v>
+      </c>
+      <c r="H87" t="s">
+        <v>569</v>
+      </c>
+      <c r="I87" t="s">
+        <v>570</v>
+      </c>
       <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="O87"/>
+      <c r="K87" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="L87" t="s">
+        <v>567</v>
+      </c>
+      <c r="M87" t="s">
+        <v>568</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="O87" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="88" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88" s="25"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
+      <c r="A88" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>564</v>
+      </c>
+      <c r="D88" s="25">
+        <v>170</v>
+      </c>
+      <c r="E88">
+        <v>1803</v>
+      </c>
+      <c r="F88" t="s">
+        <v>580</v>
+      </c>
+      <c r="G88" t="s">
+        <v>579</v>
+      </c>
+      <c r="H88" t="s">
+        <v>526</v>
+      </c>
+      <c r="I88" t="s">
+        <v>578</v>
+      </c>
       <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88"/>
+      <c r="K88" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L88" t="s">
+        <v>577</v>
+      </c>
+      <c r="M88" t="s">
+        <v>576</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="O88" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89" s="25"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
+      <c r="A89" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="B89" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" t="s">
+        <v>564</v>
+      </c>
+      <c r="D89" s="25">
+        <v>170</v>
+      </c>
+      <c r="E89">
+        <v>1803</v>
+      </c>
+      <c r="F89" t="s">
+        <v>586</v>
+      </c>
+      <c r="G89" t="s">
+        <v>588</v>
+      </c>
+      <c r="H89" t="s">
+        <v>585</v>
+      </c>
+      <c r="I89" t="s">
+        <v>587</v>
+      </c>
       <c r="J89"/>
-      <c r="K89" s="3"/>
-      <c r="L89"/>
-      <c r="M89"/>
-      <c r="N89" s="3"/>
-      <c r="O89"/>
+      <c r="K89" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="M89" t="s">
+        <v>584</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="O89" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="90" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90" s="25"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
+      <c r="A90" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" t="s">
+        <v>564</v>
+      </c>
+      <c r="D90" s="25">
+        <v>170</v>
+      </c>
+      <c r="E90">
+        <v>1803</v>
+      </c>
+      <c r="F90" t="s">
+        <v>590</v>
+      </c>
+      <c r="G90" t="s">
+        <v>597</v>
+      </c>
+      <c r="H90" t="s">
+        <v>595</v>
+      </c>
+      <c r="I90" t="s">
+        <v>596</v>
+      </c>
       <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
+      <c r="K90" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="L90" t="s">
+        <v>593</v>
+      </c>
+      <c r="M90" t="s">
+        <v>594</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="O90" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="91" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91" s="25"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
+      <c r="A91" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" t="s">
+        <v>564</v>
+      </c>
+      <c r="D91" s="25">
+        <v>170</v>
+      </c>
+      <c r="E91">
+        <v>1804</v>
+      </c>
+      <c r="F91" t="s">
+        <v>600</v>
+      </c>
+      <c r="G91" t="s">
+        <v>601</v>
+      </c>
+      <c r="H91" t="s">
+        <v>604</v>
+      </c>
+      <c r="I91" t="s">
+        <v>605</v>
+      </c>
       <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="O91"/>
+      <c r="K91" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="L91" t="s">
+        <v>603</v>
+      </c>
+      <c r="M91" t="s">
+        <v>602</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="O91" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="92" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92" s="25"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
+      <c r="A92" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" t="s">
+        <v>564</v>
+      </c>
+      <c r="D92" s="25">
+        <v>170</v>
+      </c>
+      <c r="E92">
+        <v>1804</v>
+      </c>
+      <c r="F92" t="s">
+        <v>608</v>
+      </c>
+      <c r="G92" t="s">
+        <v>609</v>
+      </c>
+      <c r="H92" t="s">
+        <v>612</v>
+      </c>
+      <c r="I92" t="s">
+        <v>613</v>
+      </c>
       <c r="J92"/>
-      <c r="K92"/>
-      <c r="L92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-      <c r="O92"/>
+      <c r="K92" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="L92" t="s">
+        <v>610</v>
+      </c>
+      <c r="M92" t="s">
+        <v>611</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="O92" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="93" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93" s="25"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
+      <c r="A93" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" t="s">
+        <v>564</v>
+      </c>
+      <c r="D93" s="25">
+        <v>170</v>
+      </c>
+      <c r="E93">
+        <v>1804</v>
+      </c>
+      <c r="F93" t="s">
+        <v>620</v>
+      </c>
+      <c r="G93" t="s">
+        <v>467</v>
+      </c>
+      <c r="H93" t="s">
+        <v>619</v>
+      </c>
+      <c r="I93" t="s">
+        <v>621</v>
+      </c>
       <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
-      <c r="O93"/>
+      <c r="K93" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="L93" t="s">
+        <v>617</v>
+      </c>
+      <c r="M93" t="s">
+        <v>618</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="O93" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94" s="25"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
+      <c r="A94" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" t="s">
+        <v>564</v>
+      </c>
+      <c r="D94" s="25">
+        <v>170</v>
+      </c>
+      <c r="E94">
+        <v>1804</v>
+      </c>
+      <c r="F94" t="s">
+        <v>627</v>
+      </c>
+      <c r="G94" t="s">
+        <v>626</v>
+      </c>
+      <c r="H94" t="s">
+        <v>624</v>
+      </c>
+      <c r="I94" t="s">
+        <v>625</v>
+      </c>
       <c r="J94"/>
-      <c r="K94"/>
-      <c r="L94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="O94"/>
+      <c r="K94" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="M94" t="s">
+        <v>584</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="O94" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95" s="25"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
+      <c r="A95" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="B95" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" t="s">
+        <v>634</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="E95">
+        <v>1804</v>
+      </c>
+      <c r="F95" t="s">
+        <v>630</v>
+      </c>
+      <c r="G95" t="s">
+        <v>631</v>
+      </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95"/>
-      <c r="K95"/>
-      <c r="L95"/>
-      <c r="M95"/>
-      <c r="N95"/>
-      <c r="O95"/>
+      <c r="K95" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="L95" t="s">
+        <v>632</v>
+      </c>
+      <c r="M95" t="s">
+        <v>419</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="O95" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="96" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96" s="25"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
+      <c r="A96" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="B96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" t="s">
+        <v>635</v>
+      </c>
+      <c r="D96" s="25">
+        <v>175</v>
+      </c>
+      <c r="E96">
+        <v>1804</v>
+      </c>
+      <c r="F96" t="s">
+        <v>643</v>
+      </c>
+      <c r="G96" t="s">
+        <v>638</v>
+      </c>
+      <c r="H96" t="s">
+        <v>642</v>
+      </c>
+      <c r="I96" t="s">
+        <v>644</v>
+      </c>
       <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96"/>
-      <c r="M96"/>
-      <c r="N96"/>
-      <c r="O96"/>
+      <c r="K96" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="L96" t="s">
+        <v>640</v>
+      </c>
+      <c r="M96" t="s">
+        <v>641</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="97" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97" s="25"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
+      <c r="A97" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="B97" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" t="s">
+        <v>635</v>
+      </c>
+      <c r="D97" s="25">
+        <v>175</v>
+      </c>
+      <c r="E97">
+        <v>1804</v>
+      </c>
+      <c r="F97" t="s">
+        <v>647</v>
+      </c>
+      <c r="G97" t="s">
+        <v>648</v>
+      </c>
+      <c r="H97" t="s">
+        <v>651</v>
+      </c>
+      <c r="I97" t="s">
+        <v>652</v>
+      </c>
       <c r="J97"/>
-      <c r="K97"/>
-      <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
+      <c r="K97" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="L97" t="s">
+        <v>649</v>
+      </c>
+      <c r="M97" t="s">
+        <v>650</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>645</v>
+      </c>
       <c r="O97"/>
     </row>
     <row r="98" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98" s="25"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
+      <c r="A98" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B98" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" t="s">
+        <v>635</v>
+      </c>
+      <c r="D98" s="25">
+        <v>175</v>
+      </c>
+      <c r="E98">
+        <v>1804</v>
+      </c>
+      <c r="F98" t="s">
+        <v>560</v>
+      </c>
+      <c r="G98" t="s">
+        <v>659</v>
+      </c>
+      <c r="H98" t="s">
+        <v>657</v>
+      </c>
+      <c r="I98" t="s">
+        <v>658</v>
+      </c>
       <c r="J98"/>
-      <c r="K98"/>
-      <c r="L98"/>
-      <c r="M98"/>
-      <c r="N98"/>
-      <c r="O98"/>
+      <c r="K98" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="L98" t="s">
+        <v>656</v>
+      </c>
+      <c r="M98" t="s">
+        <v>655</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="99" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99" s="25"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
+      <c r="A99" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" t="s">
+        <v>635</v>
+      </c>
+      <c r="D99" s="25">
+        <v>175</v>
+      </c>
+      <c r="E99">
+        <v>1805</v>
+      </c>
+      <c r="F99" t="s">
+        <v>665</v>
+      </c>
+      <c r="G99" t="s">
+        <v>667</v>
+      </c>
+      <c r="H99" t="s">
+        <v>664</v>
+      </c>
+      <c r="I99" t="s">
+        <v>666</v>
+      </c>
       <c r="J99"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="7"/>
-      <c r="O99"/>
+      <c r="K99" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="L99" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="M99" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="N99" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="O99" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="100" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100" s="25"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
+      <c r="A100" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" t="s">
+        <v>635</v>
+      </c>
+      <c r="D100" s="25">
+        <v>175</v>
+      </c>
+      <c r="E100">
+        <v>1805</v>
+      </c>
+      <c r="F100" t="s">
+        <v>676</v>
+      </c>
+      <c r="G100" t="s">
+        <v>675</v>
+      </c>
+      <c r="H100" t="s">
+        <v>673</v>
+      </c>
+      <c r="I100" t="s">
+        <v>674</v>
+      </c>
       <c r="J100"/>
-      <c r="K100"/>
-      <c r="L100"/>
-      <c r="M100"/>
-      <c r="N100"/>
-      <c r="O100"/>
+      <c r="K100" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="L100" t="s">
+        <v>672</v>
+      </c>
+      <c r="M100" t="s">
+        <v>671</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="101" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101" s="25"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
+      <c r="A101" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="B101" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" t="s">
+        <v>635</v>
+      </c>
+      <c r="D101" s="25">
+        <v>175</v>
+      </c>
+      <c r="E101">
+        <v>1805</v>
+      </c>
+      <c r="F101" t="s">
+        <v>684</v>
+      </c>
+      <c r="G101" t="s">
+        <v>685</v>
+      </c>
+      <c r="H101" t="s">
+        <v>682</v>
+      </c>
+      <c r="I101" t="s">
+        <v>683</v>
+      </c>
       <c r="J101"/>
-      <c r="K101"/>
-      <c r="L101"/>
-      <c r="M101"/>
-      <c r="N101"/>
-      <c r="O101"/>
+      <c r="K101" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="L101" t="s">
+        <v>681</v>
+      </c>
+      <c r="M101" t="s">
+        <v>680</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="O101" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="102" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102" s="25"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
+      <c r="A102" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" t="s">
+        <v>635</v>
+      </c>
+      <c r="D102" s="25">
+        <v>175</v>
+      </c>
+      <c r="E102">
+        <v>1805</v>
+      </c>
+      <c r="F102" t="s">
+        <v>693</v>
+      </c>
+      <c r="G102" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="H102" t="s">
+        <v>690</v>
+      </c>
+      <c r="I102" t="s">
+        <v>691</v>
+      </c>
       <c r="J102"/>
-      <c r="K102"/>
-      <c r="L102"/>
-      <c r="M102"/>
-      <c r="N102"/>
-      <c r="O102"/>
+      <c r="K102" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" t="s">
+        <v>688</v>
+      </c>
+      <c r="M102" t="s">
+        <v>689</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="O102" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="103" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103" s="25"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
+      <c r="A103" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="B103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" t="s">
+        <v>635</v>
+      </c>
+      <c r="D103" s="25">
+        <v>175</v>
+      </c>
+      <c r="E103">
+        <v>1805</v>
+      </c>
+      <c r="F103" t="s">
+        <v>700</v>
+      </c>
+      <c r="G103" t="s">
+        <v>701</v>
+      </c>
+      <c r="H103" t="s">
+        <v>682</v>
+      </c>
+      <c r="I103" t="s">
+        <v>699</v>
+      </c>
       <c r="J103"/>
-      <c r="K103"/>
-      <c r="L103"/>
-      <c r="M103"/>
-      <c r="N103"/>
+      <c r="K103" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="L103" t="s">
+        <v>698</v>
+      </c>
+      <c r="M103" t="s">
+        <v>697</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>695</v>
+      </c>
       <c r="O103"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N104"/>
+      <c r="A104" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="B104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" t="s">
+        <v>635</v>
+      </c>
+      <c r="D104" s="25">
+        <v>175</v>
+      </c>
+      <c r="E104">
+        <v>1805</v>
+      </c>
+      <c r="F104" t="s">
+        <v>527</v>
+      </c>
+      <c r="G104" t="s">
+        <v>529</v>
+      </c>
+      <c r="H104" t="s">
+        <v>526</v>
+      </c>
+      <c r="I104" t="s">
+        <v>706</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="L104" t="s">
+        <v>704</v>
+      </c>
+      <c r="M104" t="s">
+        <v>705</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="O104" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N105"/>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C916CC-059C-4696-B1C1-1D27BF61A6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F2B8AF-BF43-41AA-987F-4052B4965B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="799">
   <si>
     <t>Cognoms</t>
   </si>
@@ -142,9 +142,15 @@
     <t>23/03/1770</t>
   </si>
   <si>
+    <t>05/10/1806</t>
+  </si>
+  <si>
     <t>Historia</t>
   </si>
   <si>
+    <t>09/10/1806</t>
+  </si>
+  <si>
     <t>31/03/1779</t>
   </si>
   <si>
@@ -2192,6 +2198,276 @@
   </si>
   <si>
     <t>Pau Duart i Magdalena Alexandre</t>
+  </si>
+  <si>
+    <t>05 423</t>
+  </si>
+  <si>
+    <t>05-0006</t>
+  </si>
+  <si>
+    <t>5 , 6</t>
+  </si>
+  <si>
+    <t>05-005 - 05-0006</t>
+  </si>
+  <si>
+    <t>Josef Garriga (de Torrefeta) i Teresa Torrent (sonadell)</t>
+  </si>
+  <si>
+    <t>Andreu Betller (de Pons)</t>
+  </si>
+  <si>
+    <t>Garriga Betller?</t>
+  </si>
+  <si>
+    <t>15/06/1806</t>
+  </si>
+  <si>
+    <t>Niubó Bonjorn Maria Antonia Francesca</t>
+  </si>
+  <si>
+    <t>13/06/1806</t>
+  </si>
+  <si>
+    <t>Josep Arquero (Fadri)</t>
+  </si>
+  <si>
+    <t>Antonia (Donsella)(Mollerussa)</t>
+  </si>
+  <si>
+    <t>Carles Niubó (Cervera) i Antonia Planes</t>
+  </si>
+  <si>
+    <t>Antonio Niubó Planes</t>
+  </si>
+  <si>
+    <t>Mateu Bojorn i Paula Domenech (Aquesta de Golmés)</t>
+  </si>
+  <si>
+    <t>21/06/1806</t>
+  </si>
+  <si>
+    <t>Torres Carrera Silvestre Blasi Esteve</t>
+  </si>
+  <si>
+    <t>20/06/1806</t>
+  </si>
+  <si>
+    <t>Silvestre ¿?</t>
+  </si>
+  <si>
+    <t>Ignasia Carrera Galseran (Viuda)</t>
+  </si>
+  <si>
+    <t>Josep Torres i Mariangela Penella</t>
+  </si>
+  <si>
+    <t>Josep Torres Penella (Vilanova de Bellpuig)</t>
+  </si>
+  <si>
+    <t>Blasi Carrera i Ignasia Galseran</t>
+  </si>
+  <si>
+    <t>Antonia Carrera Galseran</t>
+  </si>
+  <si>
+    <t>09/06/1806</t>
+  </si>
+  <si>
+    <t>Marti Serallosa Josepa Maria Rosa</t>
+  </si>
+  <si>
+    <t>Antonia Senallosa</t>
+  </si>
+  <si>
+    <t>08/06/1806</t>
+  </si>
+  <si>
+    <t>Ramon Marti (Solter)</t>
+  </si>
+  <si>
+    <t>Antonia Senallosa (Donsella)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fransisco Senallosa i Josepa </t>
+  </si>
+  <si>
+    <t>Antoni Marti Mas</t>
+  </si>
+  <si>
+    <t>03/08/1806</t>
+  </si>
+  <si>
+    <t>Roig Arnau Roc Benedict Esteve</t>
+  </si>
+  <si>
+    <t>Mariana Arnau (Puigvert d'agramunt)</t>
+  </si>
+  <si>
+    <t>01/08/1806</t>
+  </si>
+  <si>
+    <t>Roc Coll (Fadri)</t>
+  </si>
+  <si>
+    <t>Teresa Solsona (Donsella)</t>
+  </si>
+  <si>
+    <t>Joan Roig i Teresa Peiño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio Arnau i Francesca (Puigvert) </t>
+  </si>
+  <si>
+    <t>Bages Martí Sebastia Josep Esteve</t>
+  </si>
+  <si>
+    <t>16/08/1806</t>
+  </si>
+  <si>
+    <t>Antonio Marti (Viudo)</t>
+  </si>
+  <si>
+    <t>Pau Bages i Teresa Patau (Vilagrasa)</t>
+  </si>
+  <si>
+    <t>Atnonio Marti i Francesa Solé</t>
+  </si>
+  <si>
+    <t>Pau Bages Patau (Vilagrasa)</t>
+  </si>
+  <si>
+    <t>Helena Marti Solé</t>
+  </si>
+  <si>
+    <t>15/08/1806</t>
+  </si>
+  <si>
+    <t>03/09/1806</t>
+  </si>
+  <si>
+    <t>Cascallo Falcó Ignasi Josep Esteve</t>
+  </si>
+  <si>
+    <t>Ignasi Sunyé (Fadrí)</t>
+  </si>
+  <si>
+    <t>Magdalena Cascalló (Donsella)</t>
+  </si>
+  <si>
+    <t>Manuel Cascalló i Magdalena Pujades</t>
+  </si>
+  <si>
+    <t>Antonio Falco i Antonia Sunyé (Ratera)</t>
+  </si>
+  <si>
+    <t>02/09/1806</t>
+  </si>
+  <si>
+    <t>Josep Cascallo Pujades</t>
+  </si>
+  <si>
+    <t>Antonia Falcó Sunyé</t>
+  </si>
+  <si>
+    <t>05-0008</t>
+  </si>
+  <si>
+    <t>Marti Mosset Florentina Maria</t>
+  </si>
+  <si>
+    <t>Josep Pons (Boticari)(Bellcaire)(Casat)</t>
+  </si>
+  <si>
+    <t>Josef Mosset i Margarita Codina (Ella de Manso de Montada)</t>
+  </si>
+  <si>
+    <t>Josep Martí Mas</t>
+  </si>
+  <si>
+    <t>Francesca Mosset Codina</t>
+  </si>
+  <si>
+    <t>08/10/1806</t>
+  </si>
+  <si>
+    <t>Fransisco Torrent (Casat)(Agramunt)</t>
+  </si>
+  <si>
+    <t>Emerenesa Folguera Torrent (Casada)(Castellsera)</t>
+  </si>
+  <si>
+    <t>Thomas Manyach i Maria Mas</t>
+  </si>
+  <si>
+    <t>Fransisco Torrent (Del Tossal) i Maria Cardona  (Agramunt)</t>
+  </si>
+  <si>
+    <t>Monyach Torrent Maria Francesca Rosa</t>
+  </si>
+  <si>
+    <t>Antonio Manyac Mas</t>
+  </si>
+  <si>
+    <t>Rosa Torrent Cardona (Agramunt)</t>
+  </si>
+  <si>
+    <t>15/10/1806</t>
+  </si>
+  <si>
+    <t>Cases Corbero Manuel Fransisco Pau</t>
+  </si>
+  <si>
+    <t>Fransisco Ortiz (Sastre)(Castellnou de Seana)</t>
+  </si>
+  <si>
+    <t>Teresa Bellve (Casada)(Mongai)</t>
+  </si>
+  <si>
+    <t>Antonio Cases Niubó</t>
+  </si>
+  <si>
+    <t>Pere Cases i Maria Niubó (ella de Claravalls)</t>
+  </si>
+  <si>
+    <t>Josef Corberó i Cecilia Bellve (de monclar)</t>
+  </si>
+  <si>
+    <t>Maria Rosa Corbero Bellve</t>
+  </si>
+  <si>
+    <t>20/10/1806</t>
+  </si>
+  <si>
+    <t>Pedrós Duart Fransisco Mateu Esteve</t>
+  </si>
+  <si>
+    <t>Fransisco Colell (Viudo)</t>
+  </si>
+  <si>
+    <t>Teresa Catarina Tarrago (Viuda)</t>
+  </si>
+  <si>
+    <t>Ignasi Pedrós (Vallverd) i Llucia Mas</t>
+  </si>
+  <si>
+    <t>03/11/1806</t>
+  </si>
+  <si>
+    <t>Mas Civit Domingo Antonio</t>
+  </si>
+  <si>
+    <t>Francesca Cascallo Mas (Casada)</t>
+  </si>
+  <si>
+    <t>Manuel Mata (casat)</t>
+  </si>
+  <si>
+    <t>Bartolome Mas i Magdalena Marti</t>
+  </si>
+  <si>
+    <t>Teresa Civit Ricart</t>
   </si>
 </sst>
 </file>
@@ -2704,8 +2980,8 @@
   <dimension ref="A1:Q17779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2736,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2778,21 +3054,21 @@
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="25">
         <v>3</v>
@@ -2801,35 +3077,35 @@
         <v>1770</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2" s="8"/>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O2"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="25">
         <v>3</v>
@@ -2838,37 +3114,37 @@
         <v>1770</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O3"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" s="25">
         <v>3</v>
@@ -2877,37 +3153,37 @@
         <v>1770</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O4"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="25">
         <v>3</v>
@@ -2916,37 +3192,37 @@
         <v>1770</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O5"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="25">
         <v>3</v>
@@ -2955,10 +3231,10 @@
         <v>1770</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2967,10 +3243,10 @@
         <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
@@ -2979,52 +3255,52 @@
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E7">
         <v>1770</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O7"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="25">
         <v>4</v>
@@ -3033,37 +3309,37 @@
         <v>1770</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O8"/>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" s="25">
         <v>4</v>
@@ -3072,37 +3348,37 @@
         <v>1770</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" t="s">
         <v>84</v>
       </c>
-      <c r="L9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" t="s">
-        <v>82</v>
-      </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O9"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="25">
         <v>4</v>
@@ -3111,37 +3387,37 @@
         <v>1770</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" t="s">
         <v>90</v>
-      </c>
-      <c r="N10" t="s">
-        <v>88</v>
       </c>
       <c r="O10"/>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11" s="25">
         <v>4</v>
@@ -3150,40 +3426,40 @@
         <v>1770</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" t="s">
         <v>98</v>
       </c>
-      <c r="L11" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s">
-        <v>96</v>
-      </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O11"/>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E12">
         <v>1770</v>
@@ -3197,19 +3473,19 @@
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O12"/>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D13" s="25">
         <v>13</v>
@@ -3218,35 +3494,35 @@
         <v>1771</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" s="8"/>
       <c r="L13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D14" s="25">
         <v>13</v>
@@ -3255,25 +3531,25 @@
         <v>1771</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" t="s">
+        <v>112</v>
+      </c>
+      <c r="N14" t="s">
         <v>109</v>
-      </c>
-      <c r="M14" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" t="s">
-        <v>107</v>
       </c>
       <c r="O14" t="s">
         <v>13</v>
@@ -3281,13 +3557,13 @@
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D15" s="25">
         <v>13</v>
@@ -3296,25 +3572,25 @@
         <v>1771</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" t="s">
         <v>114</v>
-      </c>
-      <c r="L15" t="s">
-        <v>115</v>
-      </c>
-      <c r="M15" t="s">
-        <v>116</v>
-      </c>
-      <c r="N15" t="s">
-        <v>112</v>
       </c>
       <c r="O15" t="s">
         <v>13</v>
@@ -3322,13 +3598,13 @@
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D16" s="25">
         <v>13</v>
@@ -3337,25 +3613,25 @@
         <v>1771</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16" s="28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O16" t="s">
         <v>13</v>
@@ -3363,13 +3639,13 @@
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D17" s="25">
         <v>13</v>
@@ -3378,25 +3654,25 @@
         <v>1771</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O17" t="s">
         <v>13</v>
@@ -3404,13 +3680,13 @@
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D18" s="25">
         <v>20</v>
@@ -3419,25 +3695,25 @@
         <v>1773</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18" s="28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O18" t="s">
         <v>13</v>
@@ -3445,13 +3721,13 @@
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D19" s="25">
         <v>20</v>
@@ -3460,25 +3736,25 @@
         <v>1773</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" t="s">
         <v>143</v>
-      </c>
-      <c r="L19" t="s">
-        <v>144</v>
-      </c>
-      <c r="M19" t="s">
-        <v>145</v>
-      </c>
-      <c r="N19" t="s">
-        <v>141</v>
       </c>
       <c r="O19" t="s">
         <v>13</v>
@@ -3486,13 +3762,13 @@
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D20" s="25">
         <v>20</v>
@@ -3501,25 +3777,25 @@
         <v>1773</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" s="28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O20" t="s">
         <v>13</v>
@@ -3527,13 +3803,13 @@
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D21" s="25">
         <v>20</v>
@@ -3542,25 +3818,25 @@
         <v>1773</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O21" t="s">
         <v>13</v>
@@ -3568,13 +3844,13 @@
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D22" s="25">
         <v>20</v>
@@ -3583,25 +3859,25 @@
         <v>1773</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22" s="28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O22" t="s">
         <v>13</v>
@@ -3609,13 +3885,13 @@
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D23" s="25">
         <v>20</v>
@@ -3624,25 +3900,25 @@
         <v>1773</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O23" t="s">
         <v>14</v>
@@ -3650,13 +3926,13 @@
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D24" s="25">
         <v>28</v>
@@ -3665,25 +3941,25 @@
         <v>1774</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O24" t="s">
         <v>13</v>
@@ -3691,13 +3967,13 @@
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D25" s="25">
         <v>28</v>
@@ -3706,25 +3982,25 @@
         <v>1774</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O25" t="s">
         <v>13</v>
@@ -3732,13 +4008,13 @@
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D26" s="25">
         <v>28</v>
@@ -3747,25 +4023,25 @@
         <v>1774</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M26" t="s">
+        <v>186</v>
+      </c>
+      <c r="N26" t="s">
         <v>184</v>
-      </c>
-      <c r="N26" t="s">
-        <v>182</v>
       </c>
       <c r="O26" t="s">
         <v>13</v>
@@ -3773,13 +4049,13 @@
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D27" s="25">
         <v>28</v>
@@ -3788,25 +4064,25 @@
         <v>1774</v>
       </c>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O27" t="s">
         <v>13</v>
@@ -3814,13 +4090,13 @@
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D28" s="25">
         <v>28</v>
@@ -3829,25 +4105,25 @@
         <v>1774</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O28" t="s">
         <v>13</v>
@@ -3855,13 +4131,13 @@
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D29" s="25">
         <v>28</v>
@@ -3870,25 +4146,25 @@
         <v>1774</v>
       </c>
       <c r="F29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O29" t="s">
         <v>13</v>
@@ -3896,13 +4172,13 @@
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D30" s="25">
         <v>32</v>
@@ -3911,25 +4187,25 @@
         <v>1774</v>
       </c>
       <c r="F30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N30" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O30" t="s">
         <v>13</v>
@@ -3937,13 +4213,13 @@
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D31" s="25">
         <v>32</v>
@@ -3952,25 +4228,25 @@
         <v>1774</v>
       </c>
       <c r="F31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O31" t="s">
         <v>13</v>
@@ -3978,13 +4254,13 @@
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D32" s="25">
         <v>32</v>
@@ -3993,25 +4269,25 @@
         <v>1774</v>
       </c>
       <c r="F32" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G32" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M32" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O32" t="s">
         <v>13</v>
@@ -4019,13 +4295,13 @@
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D33" s="25">
         <v>32</v>
@@ -4034,25 +4310,25 @@
         <v>1774</v>
       </c>
       <c r="F33" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N33" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O33" t="s">
         <v>13</v>
@@ -4060,13 +4336,13 @@
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D34" s="25">
         <v>32</v>
@@ -4075,25 +4351,25 @@
         <v>1774</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G34" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N34" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O34" t="s">
         <v>13</v>
@@ -4101,13 +4377,13 @@
     </row>
     <row r="35" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D35" s="25">
         <v>32</v>
@@ -4116,25 +4392,25 @@
         <v>1774</v>
       </c>
       <c r="F35" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M35" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N35" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O35" t="s">
         <v>13</v>
@@ -4142,40 +4418,40 @@
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E36">
         <v>1774</v>
       </c>
       <c r="F36" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G36" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L36" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M36" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N36" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O36" t="s">
         <v>13</v>
@@ -4183,40 +4459,40 @@
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E37">
         <v>1775</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L37" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M37" t="s">
+        <v>265</v>
+      </c>
+      <c r="N37" t="s">
         <v>263</v>
-      </c>
-      <c r="N37" t="s">
-        <v>261</v>
       </c>
       <c r="O37" t="s">
         <v>13</v>
@@ -4224,13 +4500,13 @@
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D38" s="25">
         <v>34</v>
@@ -4239,25 +4515,25 @@
         <v>1775</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G38" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L38" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M38" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O38" t="s">
         <v>13</v>
@@ -4265,13 +4541,13 @@
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D39" s="25">
         <v>34</v>
@@ -4280,25 +4556,25 @@
         <v>1775</v>
       </c>
       <c r="F39" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G39" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L39" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M39" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N39" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O39" t="s">
         <v>13</v>
@@ -4306,13 +4582,13 @@
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D40" s="25">
         <v>34</v>
@@ -4321,25 +4597,25 @@
         <v>1775</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G40" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L40" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M40" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N40" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O40" t="s">
         <v>13</v>
@@ -4347,13 +4623,13 @@
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D41" s="25">
         <v>34</v>
@@ -4362,25 +4638,25 @@
         <v>1775</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L41" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M41" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N41" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O41" t="s">
         <v>13</v>
@@ -4388,13 +4664,13 @@
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D42" s="25">
         <v>34</v>
@@ -4403,25 +4679,25 @@
         <v>1775</v>
       </c>
       <c r="F42" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G42" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L42" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M42" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N42" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O42" t="s">
         <v>13</v>
@@ -4429,36 +4705,36 @@
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E43">
         <v>1775</v>
       </c>
       <c r="F43" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O43" t="s">
         <v>13</v>
@@ -4466,16 +4742,16 @@
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>302</v>
-      </c>
-      <c r="B44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" t="s">
-        <v>299</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>300</v>
       </c>
       <c r="E44"/>
       <c r="G44"/>
@@ -4484,23 +4760,23 @@
       <c r="J44"/>
       <c r="K44" s="8"/>
       <c r="L44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M44" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D45" s="25">
         <v>43</v>
@@ -4509,25 +4785,25 @@
         <v>1777</v>
       </c>
       <c r="F45" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G45" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O45" t="s">
         <v>13</v>
@@ -4535,13 +4811,13 @@
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D46" s="25">
         <v>43</v>
@@ -4550,25 +4826,25 @@
         <v>1777</v>
       </c>
       <c r="F46" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G46" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L46" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M46" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N46" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O46" t="s">
         <v>13</v>
@@ -4576,13 +4852,13 @@
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D47" s="25">
         <v>43</v>
@@ -4591,25 +4867,25 @@
         <v>1777</v>
       </c>
       <c r="F47" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G47" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47" s="8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L47" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M47" t="s">
+        <v>319</v>
+      </c>
+      <c r="N47" t="s">
         <v>317</v>
-      </c>
-      <c r="N47" t="s">
-        <v>315</v>
       </c>
       <c r="O47" t="s">
         <v>13</v>
@@ -4617,13 +4893,13 @@
     </row>
     <row r="48" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D48" s="25">
         <v>43</v>
@@ -4632,25 +4908,25 @@
         <v>1777</v>
       </c>
       <c r="F48" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G48" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="L48" t="s">
+        <v>326</v>
+      </c>
+      <c r="M48" t="s">
+        <v>327</v>
+      </c>
+      <c r="N48" t="s">
         <v>323</v>
-      </c>
-      <c r="L48" t="s">
-        <v>324</v>
-      </c>
-      <c r="M48" t="s">
-        <v>325</v>
-      </c>
-      <c r="N48" t="s">
-        <v>321</v>
       </c>
       <c r="O48" t="s">
         <v>13</v>
@@ -4658,13 +4934,13 @@
     </row>
     <row r="49" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D49" s="25">
         <v>43</v>
@@ -4673,25 +4949,25 @@
         <v>1777</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L49" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M49" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N49" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O49" t="s">
         <v>13</v>
@@ -4699,13 +4975,13 @@
     </row>
     <row r="50" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D50" s="25">
         <v>43</v>
@@ -4714,10 +4990,10 @@
         <v>1777</v>
       </c>
       <c r="F50" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G50" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
@@ -4726,7 +5002,7 @@
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O50" t="s">
         <v>13</v>
@@ -4734,13 +5010,13 @@
     </row>
     <row r="51" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D51" s="25">
         <v>55</v>
@@ -4749,25 +5025,25 @@
         <v>1779</v>
       </c>
       <c r="F51" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G51" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L51" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M51" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N51" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O51" t="s">
         <v>13</v>
@@ -4775,13 +5051,13 @@
     </row>
     <row r="52" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D52" s="25">
         <v>55</v>
@@ -4790,10 +5066,10 @@
         <v>1779</v>
       </c>
       <c r="F52" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G52" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
@@ -4802,13 +5078,13 @@
         <v>35510</v>
       </c>
       <c r="L52" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M52" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O52" t="s">
         <v>13</v>
@@ -4816,13 +5092,13 @@
     </row>
     <row r="53" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D53" s="25">
         <v>55</v>
@@ -4831,25 +5107,25 @@
         <v>1779</v>
       </c>
       <c r="F53" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G53" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L53" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M53" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N53" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O53" t="s">
         <v>13</v>
@@ -4857,13 +5133,13 @@
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D54" s="25">
         <v>55</v>
@@ -4872,25 +5148,25 @@
         <v>1779</v>
       </c>
       <c r="F54" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G54" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L54" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M54" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="N54" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O54" t="s">
         <v>13</v>
@@ -4898,13 +5174,13 @@
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D55" s="25">
         <v>55</v>
@@ -4913,25 +5189,25 @@
         <v>1779</v>
       </c>
       <c r="F55" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G55" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M55" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O55" t="s">
         <v>13</v>
@@ -4939,13 +5215,13 @@
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D56" s="25">
         <v>55</v>
@@ -4954,25 +5230,25 @@
         <v>1779</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56" s="8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L56" t="s">
+        <v>366</v>
+      </c>
+      <c r="M56" t="s">
+        <v>200</v>
+      </c>
+      <c r="N56" t="s">
         <v>364</v>
-      </c>
-      <c r="M56" t="s">
-        <v>198</v>
-      </c>
-      <c r="N56" t="s">
-        <v>362</v>
       </c>
       <c r="O56" t="s">
         <v>13</v>
@@ -4980,46 +5256,46 @@
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E57">
         <v>1792</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57" s="8"/>
       <c r="L57" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M57" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D58" s="25">
         <v>112</v>
@@ -5028,25 +5304,25 @@
         <v>1792</v>
       </c>
       <c r="F58" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G58" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L58" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M58" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N58" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O58" t="s">
         <v>13</v>
@@ -5054,13 +5330,13 @@
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D59" s="25">
         <v>112</v>
@@ -5069,25 +5345,25 @@
         <v>1792</v>
       </c>
       <c r="F59" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G59" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L59" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N59" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O59" t="s">
         <v>13</v>
@@ -5095,13 +5371,13 @@
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D60" s="25">
         <v>112</v>
@@ -5110,36 +5386,36 @@
         <v>1792</v>
       </c>
       <c r="F60" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G60" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M60" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="O60" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D61" s="25">
         <v>112</v>
@@ -5148,25 +5424,25 @@
         <v>1792</v>
       </c>
       <c r="F61" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G61" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61" s="8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L61" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M61" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N61" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O61" t="s">
         <v>13</v>
@@ -5174,13 +5450,13 @@
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D62" s="25">
         <v>112</v>
@@ -5189,25 +5465,25 @@
         <v>1792</v>
       </c>
       <c r="F62" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L62" t="s">
+        <v>399</v>
+      </c>
+      <c r="M62" t="s">
+        <v>400</v>
+      </c>
+      <c r="N62" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="M62" t="s">
-        <v>398</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="O62" t="s">
         <v>14</v>
@@ -5215,40 +5491,40 @@
     </row>
     <row r="63" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E63">
         <v>1792</v>
       </c>
       <c r="F63" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G63" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L63" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M63" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O63" t="s">
         <v>13</v>
@@ -5256,13 +5532,13 @@
     </row>
     <row r="64" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D64" s="25">
         <v>113</v>
@@ -5271,25 +5547,25 @@
         <v>1792</v>
       </c>
       <c r="F64" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G64" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64" s="8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L64" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M64" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O64" t="s">
         <v>13</v>
@@ -5297,13 +5573,13 @@
     </row>
     <row r="65" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D65" s="25">
         <v>113</v>
@@ -5312,25 +5588,25 @@
         <v>1792</v>
       </c>
       <c r="F65" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G65" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L65" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M65" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="O65" t="s">
         <v>13</v>
@@ -5338,13 +5614,13 @@
     </row>
     <row r="66" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D66" s="25">
         <v>113</v>
@@ -5353,25 +5629,25 @@
         <v>1792</v>
       </c>
       <c r="F66" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G66" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L66" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M66" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O66" t="s">
         <v>13</v>
@@ -5379,13 +5655,13 @@
     </row>
     <row r="67" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D67" s="25">
         <v>113</v>
@@ -5394,37 +5670,37 @@
         <v>1792</v>
       </c>
       <c r="F67" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G67" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L67" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M67" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O67"/>
     </row>
     <row r="68" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D68" s="25">
         <v>113</v>
@@ -5433,25 +5709,25 @@
         <v>1792</v>
       </c>
       <c r="F68" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G68" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L68" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M68" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="O68" t="s">
         <v>13</v>
@@ -5459,13 +5735,13 @@
     </row>
     <row r="69" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D69" s="25">
         <v>113</v>
@@ -5474,25 +5750,25 @@
         <v>1792</v>
       </c>
       <c r="F69" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G69" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L69" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M69" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O69" t="s">
         <v>13</v>
@@ -5500,13 +5776,13 @@
     </row>
     <row r="70" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D70" s="25">
         <v>113</v>
@@ -5515,25 +5791,25 @@
         <v>1793</v>
       </c>
       <c r="F70" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G70" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L70" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M70" t="s">
         <v>19</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="O70" t="s">
         <v>13</v>
@@ -5541,46 +5817,46 @@
     </row>
     <row r="71" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
         <v>457</v>
       </c>
-      <c r="B71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" t="s">
-        <v>455</v>
-      </c>
       <c r="D71" s="26" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E71">
         <v>1794</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71" s="7"/>
       <c r="L71" s="18" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M71" s="18" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N71" s="7"/>
       <c r="O71"/>
     </row>
     <row r="72" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D72" s="25">
         <v>121</v>
@@ -5589,35 +5865,35 @@
         <v>1794</v>
       </c>
       <c r="F72" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G72" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M72" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O72"/>
     </row>
     <row r="73" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D73" s="25">
         <v>121</v>
@@ -5626,25 +5902,25 @@
         <v>1794</v>
       </c>
       <c r="F73" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G73" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L73" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M73" t="s">
         <v>20</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="O73" t="s">
         <v>13</v>
@@ -5652,13 +5928,13 @@
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D74" s="25">
         <v>121</v>
@@ -5667,25 +5943,25 @@
         <v>1794</v>
       </c>
       <c r="F74" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G74" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L74" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M74" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O74" t="s">
         <v>13</v>
@@ -5693,13 +5969,13 @@
     </row>
     <row r="75" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C75" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D75" s="25">
         <v>121</v>
@@ -5708,25 +5984,25 @@
         <v>1794</v>
       </c>
       <c r="F75" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G75" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L75" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M75" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O75" t="s">
         <v>13</v>
@@ -5734,13 +6010,13 @@
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D76" s="25">
         <v>121</v>
@@ -5749,37 +6025,37 @@
         <v>1794</v>
       </c>
       <c r="F76" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G76" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L76" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M76" t="s">
+        <v>485</v>
+      </c>
+      <c r="N76" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>481</v>
       </c>
       <c r="O76"/>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C77" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D77" s="25">
         <v>121</v>
@@ -5788,25 +6064,25 @@
         <v>1794</v>
       </c>
       <c r="F77" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G77" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L77" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M77" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="O77" t="s">
         <v>13</v>
@@ -5814,13 +6090,13 @@
     </row>
     <row r="78" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D78" s="25">
         <v>121</v>
@@ -5829,25 +6105,25 @@
         <v>1794</v>
       </c>
       <c r="F78" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G78" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L78" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M78" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O78" t="s">
         <v>13</v>
@@ -5855,13 +6131,13 @@
     </row>
     <row r="79" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D79" s="25">
         <v>121</v>
@@ -5870,25 +6146,25 @@
         <v>1794</v>
       </c>
       <c r="F79" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G79" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L79" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M79" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O79" t="s">
         <v>21</v>
@@ -5896,13 +6172,13 @@
     </row>
     <row r="80" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D80" s="25">
         <v>156</v>
@@ -5911,29 +6187,29 @@
         <v>1801</v>
       </c>
       <c r="F80" t="s">
+        <v>514</v>
+      </c>
+      <c r="G80" t="s">
+        <v>515</v>
+      </c>
+      <c r="H80" t="s">
         <v>512</v>
       </c>
-      <c r="G80" t="s">
+      <c r="I80" t="s">
         <v>513</v>
-      </c>
-      <c r="H80" t="s">
-        <v>510</v>
-      </c>
-      <c r="I80" t="s">
-        <v>511</v>
       </c>
       <c r="J80"/>
       <c r="K80" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L80" t="s">
+        <v>510</v>
+      </c>
+      <c r="M80" t="s">
+        <v>511</v>
+      </c>
+      <c r="N80" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="M80" t="s">
-        <v>509</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="O80" t="s">
         <v>13</v>
@@ -5941,13 +6217,13 @@
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C81" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D81" s="25">
         <v>156</v>
@@ -5956,29 +6232,29 @@
         <v>1801</v>
       </c>
       <c r="F81" t="s">
+        <v>522</v>
+      </c>
+      <c r="G81" t="s">
+        <v>523</v>
+      </c>
+      <c r="H81" t="s">
         <v>520</v>
       </c>
-      <c r="G81" t="s">
+      <c r="I81" t="s">
         <v>521</v>
-      </c>
-      <c r="H81" t="s">
-        <v>518</v>
-      </c>
-      <c r="I81" t="s">
-        <v>519</v>
       </c>
       <c r="J81"/>
       <c r="K81" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L81" t="s">
+        <v>519</v>
+      </c>
+      <c r="M81" t="s">
+        <v>518</v>
+      </c>
+      <c r="N81" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="M81" t="s">
-        <v>516</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>515</v>
       </c>
       <c r="O81" t="s">
         <v>13</v>
@@ -5986,13 +6262,13 @@
     </row>
     <row r="82" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D82" s="25">
         <v>156</v>
@@ -6001,29 +6277,29 @@
         <v>1801</v>
       </c>
       <c r="F82" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G82" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H82" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="I82" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J82"/>
       <c r="K82" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L82" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M82" t="s">
+        <v>527</v>
+      </c>
+      <c r="N82" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>523</v>
       </c>
       <c r="O82" t="s">
         <v>13</v>
@@ -6031,13 +6307,13 @@
     </row>
     <row r="83" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D83" s="25">
         <v>156</v>
@@ -6046,29 +6322,29 @@
         <v>1801</v>
       </c>
       <c r="F83" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G83" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H83" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="I83" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="J83"/>
       <c r="K83" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L83" t="s">
+        <v>535</v>
+      </c>
+      <c r="M83" t="s">
+        <v>536</v>
+      </c>
+      <c r="N83" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="M83" t="s">
-        <v>534</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>531</v>
       </c>
       <c r="O83" t="s">
         <v>15</v>
@@ -6076,13 +6352,13 @@
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D84" s="25">
         <v>156</v>
@@ -6091,29 +6367,29 @@
         <v>1801</v>
       </c>
       <c r="F84" t="s">
+        <v>547</v>
+      </c>
+      <c r="G84" t="s">
+        <v>548</v>
+      </c>
+      <c r="H84" t="s">
         <v>545</v>
       </c>
-      <c r="G84" t="s">
+      <c r="I84" t="s">
         <v>546</v>
-      </c>
-      <c r="H84" t="s">
-        <v>543</v>
-      </c>
-      <c r="I84" t="s">
-        <v>544</v>
       </c>
       <c r="J84"/>
       <c r="K84" s="19" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L84" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M84" t="s">
         <v>20</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O84" t="s">
         <v>13</v>
@@ -6121,13 +6397,13 @@
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D85" s="25">
         <v>156</v>
@@ -6136,29 +6412,29 @@
         <v>1801</v>
       </c>
       <c r="F85" t="s">
+        <v>556</v>
+      </c>
+      <c r="G85" t="s">
+        <v>555</v>
+      </c>
+      <c r="H85" t="s">
+        <v>553</v>
+      </c>
+      <c r="I85" t="s">
         <v>554</v>
-      </c>
-      <c r="G85" t="s">
-        <v>553</v>
-      </c>
-      <c r="H85" t="s">
-        <v>551</v>
-      </c>
-      <c r="I85" t="s">
-        <v>552</v>
       </c>
       <c r="J85"/>
       <c r="K85" s="19" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L85" t="s">
+        <v>552</v>
+      </c>
+      <c r="M85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N85" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="M85" t="s">
-        <v>499</v>
-      </c>
-      <c r="N85" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="O85" t="s">
         <v>13</v>
@@ -6166,13 +6442,13 @@
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D86" s="25">
         <v>156</v>
@@ -6181,29 +6457,29 @@
         <v>1801</v>
       </c>
       <c r="F86" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G86" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H86" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I86" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J86"/>
       <c r="K86" s="19" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L86" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M86" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="O86" t="s">
         <v>13</v>
@@ -6211,13 +6487,13 @@
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" t="s">
         <v>566</v>
-      </c>
-      <c r="B87" t="s">
-        <v>31</v>
-      </c>
-      <c r="C87" t="s">
-        <v>564</v>
       </c>
       <c r="D87" s="25">
         <v>170</v>
@@ -6226,29 +6502,29 @@
         <v>1803</v>
       </c>
       <c r="F87" t="s">
+        <v>574</v>
+      </c>
+      <c r="G87" t="s">
+        <v>573</v>
+      </c>
+      <c r="H87" t="s">
+        <v>571</v>
+      </c>
+      <c r="I87" t="s">
         <v>572</v>
-      </c>
-      <c r="G87" t="s">
-        <v>571</v>
-      </c>
-      <c r="H87" t="s">
-        <v>569</v>
-      </c>
-      <c r="I87" t="s">
-        <v>570</v>
       </c>
       <c r="J87"/>
       <c r="K87" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L87" t="s">
+        <v>569</v>
+      </c>
+      <c r="M87" t="s">
+        <v>570</v>
+      </c>
+      <c r="N87" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="M87" t="s">
-        <v>568</v>
-      </c>
-      <c r="N87" s="3" t="s">
-        <v>565</v>
       </c>
       <c r="O87" t="s">
         <v>13</v>
@@ -6256,13 +6532,13 @@
     </row>
     <row r="88" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C88" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D88" s="25">
         <v>170</v>
@@ -6271,43 +6547,43 @@
         <v>1803</v>
       </c>
       <c r="F88" t="s">
+        <v>582</v>
+      </c>
+      <c r="G88" t="s">
+        <v>581</v>
+      </c>
+      <c r="H88" t="s">
+        <v>528</v>
+      </c>
+      <c r="I88" t="s">
         <v>580</v>
-      </c>
-      <c r="G88" t="s">
-        <v>579</v>
-      </c>
-      <c r="H88" t="s">
-        <v>526</v>
-      </c>
-      <c r="I88" t="s">
-        <v>578</v>
       </c>
       <c r="J88"/>
       <c r="K88" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L88" t="s">
+        <v>579</v>
+      </c>
+      <c r="M88" t="s">
+        <v>578</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="O88" t="s">
         <v>577</v>
-      </c>
-      <c r="M88" t="s">
-        <v>576</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="O88" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C89" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D89" s="25">
         <v>170</v>
@@ -6316,26 +6592,26 @@
         <v>1803</v>
       </c>
       <c r="F89" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G89" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H89" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="I89" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="J89"/>
       <c r="K89" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M89" t="s">
+        <v>586</v>
+      </c>
+      <c r="N89" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>582</v>
       </c>
       <c r="O89" t="s">
         <v>13</v>
@@ -6343,13 +6619,13 @@
     </row>
     <row r="90" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C90" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D90" s="25">
         <v>170</v>
@@ -6358,29 +6634,29 @@
         <v>1803</v>
       </c>
       <c r="F90" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G90" t="s">
+        <v>599</v>
+      </c>
+      <c r="H90" t="s">
         <v>597</v>
       </c>
-      <c r="H90" t="s">
-        <v>595</v>
-      </c>
       <c r="I90" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="J90"/>
       <c r="K90" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L90" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M90" t="s">
+        <v>596</v>
+      </c>
+      <c r="N90" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="N90" s="3" t="s">
-        <v>592</v>
       </c>
       <c r="O90" t="s">
         <v>13</v>
@@ -6388,13 +6664,13 @@
     </row>
     <row r="91" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C91" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D91" s="25">
         <v>170</v>
@@ -6403,29 +6679,29 @@
         <v>1804</v>
       </c>
       <c r="F91" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G91" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H91" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="I91" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="J91"/>
       <c r="K91" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L91" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M91" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="O91" t="s">
         <v>13</v>
@@ -6433,13 +6709,13 @@
     </row>
     <row r="92" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C92" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D92" s="25">
         <v>170</v>
@@ -6448,29 +6724,29 @@
         <v>1804</v>
       </c>
       <c r="F92" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G92" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H92" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="I92" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="J92"/>
       <c r="K92" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L92" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M92" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="O92" t="s">
         <v>16</v>
@@ -6478,13 +6754,13 @@
     </row>
     <row r="93" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C93" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D93" s="25">
         <v>170</v>
@@ -6493,29 +6769,29 @@
         <v>1804</v>
       </c>
       <c r="F93" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G93" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H93" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="I93" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="J93"/>
       <c r="K93" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="L93" t="s">
+        <v>619</v>
+      </c>
+      <c r="M93" t="s">
+        <v>620</v>
+      </c>
+      <c r="N93" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="L93" t="s">
-        <v>617</v>
-      </c>
-      <c r="M93" t="s">
-        <v>618</v>
-      </c>
-      <c r="N93" s="3" t="s">
-        <v>614</v>
       </c>
       <c r="O93" t="s">
         <v>13</v>
@@ -6523,13 +6799,13 @@
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D94" s="25">
         <v>170</v>
@@ -6538,26 +6814,26 @@
         <v>1804</v>
       </c>
       <c r="F94" t="s">
+        <v>629</v>
+      </c>
+      <c r="G94" t="s">
+        <v>628</v>
+      </c>
+      <c r="H94" t="s">
+        <v>626</v>
+      </c>
+      <c r="I94" t="s">
         <v>627</v>
-      </c>
-      <c r="G94" t="s">
-        <v>626</v>
-      </c>
-      <c r="H94" t="s">
-        <v>624</v>
-      </c>
-      <c r="I94" t="s">
-        <v>625</v>
       </c>
       <c r="J94"/>
       <c r="K94" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="M94" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="O94" t="s">
         <v>13</v>
@@ -6565,40 +6841,40 @@
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C95" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E95">
         <v>1804</v>
       </c>
       <c r="F95" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G95" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="L95" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M95" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="O95" t="s">
         <v>13</v>
@@ -6606,13 +6882,13 @@
     </row>
     <row r="96" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C96" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D96" s="25">
         <v>175</v>
@@ -6621,29 +6897,29 @@
         <v>1804</v>
       </c>
       <c r="F96" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G96" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H96" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="I96" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="J96"/>
       <c r="K96" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="L96" t="s">
+        <v>642</v>
+      </c>
+      <c r="M96" t="s">
+        <v>643</v>
+      </c>
+      <c r="N96" s="3" t="s">
         <v>639</v>
-      </c>
-      <c r="L96" t="s">
-        <v>640</v>
-      </c>
-      <c r="M96" t="s">
-        <v>641</v>
-      </c>
-      <c r="N96" s="3" t="s">
-        <v>637</v>
       </c>
       <c r="O96" t="s">
         <v>13</v>
@@ -6651,13 +6927,13 @@
     </row>
     <row r="97" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C97" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D97" s="25">
         <v>175</v>
@@ -6666,41 +6942,41 @@
         <v>1804</v>
       </c>
       <c r="F97" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G97" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H97" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="I97" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="J97"/>
       <c r="K97" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="L97" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="M97" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="O97"/>
     </row>
     <row r="98" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C98" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D98" s="25">
         <v>175</v>
@@ -6709,26 +6985,26 @@
         <v>1804</v>
       </c>
       <c r="F98" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G98" t="s">
+        <v>661</v>
+      </c>
+      <c r="H98" t="s">
         <v>659</v>
       </c>
-      <c r="H98" t="s">
-        <v>657</v>
-      </c>
       <c r="I98" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="J98"/>
       <c r="K98" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="L98" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="M98" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="N98" s="3" t="s">
         <v>18</v>
@@ -6739,13 +7015,13 @@
     </row>
     <row r="99" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D99" s="25">
         <v>175</v>
@@ -6754,29 +7030,29 @@
         <v>1805</v>
       </c>
       <c r="F99" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="G99" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H99" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="I99" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="J99"/>
       <c r="K99" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="L99" s="18" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M99" s="18" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="O99" t="s">
         <v>13</v>
@@ -6784,13 +7060,13 @@
     </row>
     <row r="100" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C100" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D100" s="25">
         <v>175</v>
@@ -6799,29 +7075,29 @@
         <v>1805</v>
       </c>
       <c r="F100" t="s">
+        <v>678</v>
+      </c>
+      <c r="G100" t="s">
+        <v>677</v>
+      </c>
+      <c r="H100" t="s">
+        <v>675</v>
+      </c>
+      <c r="I100" t="s">
         <v>676</v>
-      </c>
-      <c r="G100" t="s">
-        <v>675</v>
-      </c>
-      <c r="H100" t="s">
-        <v>673</v>
-      </c>
-      <c r="I100" t="s">
-        <v>674</v>
       </c>
       <c r="J100"/>
       <c r="K100" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="L100" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="M100" t="s">
+        <v>673</v>
+      </c>
+      <c r="N100" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>669</v>
       </c>
       <c r="O100" t="s">
         <v>13</v>
@@ -6829,13 +7105,13 @@
     </row>
     <row r="101" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C101" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D101" s="25">
         <v>175</v>
@@ -6844,29 +7120,29 @@
         <v>1805</v>
       </c>
       <c r="F101" t="s">
+        <v>686</v>
+      </c>
+      <c r="G101" t="s">
+        <v>687</v>
+      </c>
+      <c r="H101" t="s">
         <v>684</v>
       </c>
-      <c r="G101" t="s">
+      <c r="I101" t="s">
         <v>685</v>
-      </c>
-      <c r="H101" t="s">
-        <v>682</v>
-      </c>
-      <c r="I101" t="s">
-        <v>683</v>
       </c>
       <c r="J101"/>
       <c r="K101" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="L101" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="M101" t="s">
+        <v>682</v>
+      </c>
+      <c r="N101" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>678</v>
       </c>
       <c r="O101" t="s">
         <v>13</v>
@@ -6874,13 +7150,13 @@
     </row>
     <row r="102" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C102" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D102" s="25">
         <v>175</v>
@@ -6889,29 +7165,29 @@
         <v>1805</v>
       </c>
       <c r="F102" t="s">
+        <v>695</v>
+      </c>
+      <c r="G102" s="30" t="s">
+        <v>694</v>
+      </c>
+      <c r="H102" t="s">
+        <v>692</v>
+      </c>
+      <c r="I102" t="s">
         <v>693</v>
-      </c>
-      <c r="G102" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="H102" t="s">
-        <v>690</v>
-      </c>
-      <c r="I102" t="s">
-        <v>691</v>
       </c>
       <c r="J102"/>
       <c r="K102" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L102" t="s">
+        <v>690</v>
+      </c>
+      <c r="M102" t="s">
+        <v>691</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>688</v>
-      </c>
-      <c r="M102" t="s">
-        <v>689</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>686</v>
       </c>
       <c r="O102" t="s">
         <v>17</v>
@@ -6919,13 +7195,13 @@
     </row>
     <row r="103" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D103" s="25">
         <v>175</v>
@@ -6934,41 +7210,41 @@
         <v>1805</v>
       </c>
       <c r="F103" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G103" t="s">
+        <v>703</v>
+      </c>
+      <c r="H103" t="s">
+        <v>684</v>
+      </c>
+      <c r="I103" t="s">
         <v>701</v>
-      </c>
-      <c r="H103" t="s">
-        <v>682</v>
-      </c>
-      <c r="I103" t="s">
-        <v>699</v>
       </c>
       <c r="J103"/>
       <c r="K103" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L103" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M103" t="s">
+        <v>699</v>
+      </c>
+      <c r="N103" s="3" t="s">
         <v>697</v>
-      </c>
-      <c r="N103" s="3" t="s">
-        <v>695</v>
       </c>
       <c r="O103"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D104" s="25">
         <v>175</v>
@@ -6977,103 +7253,557 @@
         <v>1805</v>
       </c>
       <c r="F104" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G104" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H104" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="I104" t="s">
+        <v>708</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="L104" t="s">
         <v>706</v>
       </c>
-      <c r="K104" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="L104" t="s">
+      <c r="M104" t="s">
+        <v>707</v>
+      </c>
+      <c r="N104" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="M104" t="s">
-        <v>705</v>
-      </c>
-      <c r="N104" s="3" t="s">
-        <v>702</v>
       </c>
       <c r="O104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="B105" t="s">
+        <v>709</v>
+      </c>
+      <c r="C105" t="s">
+        <v>712</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="E105">
+        <v>1806</v>
+      </c>
+      <c r="H105" t="s">
+        <v>713</v>
+      </c>
+      <c r="I105" t="s">
+        <v>714</v>
+      </c>
       <c r="N105"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N106"/>
+      <c r="A106" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="B106" t="s">
+        <v>709</v>
+      </c>
+      <c r="C106" t="s">
+        <v>710</v>
+      </c>
+      <c r="D106" s="25">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>1806</v>
+      </c>
+      <c r="F106" t="s">
+        <v>722</v>
+      </c>
+      <c r="G106" t="s">
+        <v>455</v>
+      </c>
+      <c r="H106" t="s">
+        <v>721</v>
+      </c>
+      <c r="I106" t="s">
+        <v>723</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="L106" t="s">
+        <v>719</v>
+      </c>
+      <c r="M106" t="s">
+        <v>720</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N107"/>
+      <c r="A107" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="B107" t="s">
+        <v>709</v>
+      </c>
+      <c r="C107" t="s">
+        <v>710</v>
+      </c>
+      <c r="D107" s="25">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>1806</v>
+      </c>
+      <c r="F107" t="s">
+        <v>730</v>
+      </c>
+      <c r="G107" t="s">
+        <v>732</v>
+      </c>
+      <c r="H107" t="s">
+        <v>729</v>
+      </c>
+      <c r="I107" t="s">
+        <v>731</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="L107" t="s">
+        <v>727</v>
+      </c>
+      <c r="M107" t="s">
+        <v>728</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="O107" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N108"/>
+      <c r="A108" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="B108" t="s">
+        <v>709</v>
+      </c>
+      <c r="C108" t="s">
+        <v>710</v>
+      </c>
+      <c r="D108" s="25">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>1806</v>
+      </c>
+      <c r="F108" t="s">
+        <v>740</v>
+      </c>
+      <c r="G108" t="s">
+        <v>735</v>
+      </c>
+      <c r="H108" t="s">
+        <v>693</v>
+      </c>
+      <c r="I108" t="s">
+        <v>739</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="L108" t="s">
+        <v>737</v>
+      </c>
+      <c r="M108" t="s">
+        <v>738</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="O108" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N109" s="3"/>
+      <c r="A109" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B109" t="s">
+        <v>709</v>
+      </c>
+      <c r="C109" t="s">
+        <v>710</v>
+      </c>
+      <c r="D109" s="25">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>1806</v>
+      </c>
+      <c r="F109" t="s">
+        <v>438</v>
+      </c>
+      <c r="G109" t="s">
+        <v>743</v>
+      </c>
+      <c r="H109" t="s">
+        <v>747</v>
+      </c>
+      <c r="I109" t="s">
+        <v>748</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="L109" t="s">
+        <v>745</v>
+      </c>
+      <c r="M109" t="s">
+        <v>746</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N110"/>
+      <c r="A110" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="B110" t="s">
+        <v>709</v>
+      </c>
+      <c r="C110" t="s">
+        <v>710</v>
+      </c>
+      <c r="D110" s="25">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>1806</v>
+      </c>
+      <c r="F110" t="s">
+        <v>754</v>
+      </c>
+      <c r="G110" t="s">
+        <v>755</v>
+      </c>
+      <c r="H110" t="s">
+        <v>752</v>
+      </c>
+      <c r="I110" t="s">
+        <v>753</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="L110" t="s">
+        <v>751</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N111"/>
+      <c r="A111" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="B111" t="s">
+        <v>709</v>
+      </c>
+      <c r="C111" t="s">
+        <v>710</v>
+      </c>
+      <c r="D111" s="25">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>1806</v>
+      </c>
+      <c r="F111" t="s">
+        <v>764</v>
+      </c>
+      <c r="G111" t="s">
+        <v>765</v>
+      </c>
+      <c r="H111" t="s">
+        <v>761</v>
+      </c>
+      <c r="I111" t="s">
+        <v>762</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="L111" t="s">
+        <v>759</v>
+      </c>
+      <c r="M111" t="s">
+        <v>760</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N112"/>
-    </row>
-    <row r="113" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N113"/>
-    </row>
-    <row r="114" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N114"/>
-    </row>
-    <row r="115" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N115"/>
-    </row>
-    <row r="116" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N116"/>
-    </row>
-    <row r="117" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="A112" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="B112" t="s">
+        <v>709</v>
+      </c>
+      <c r="C112" t="s">
+        <v>766</v>
+      </c>
+      <c r="D112" s="25">
+        <v>11</v>
+      </c>
+      <c r="E112">
+        <v>1806</v>
+      </c>
+      <c r="F112" t="s">
+        <v>770</v>
+      </c>
+      <c r="G112" t="s">
+        <v>771</v>
+      </c>
+      <c r="H112" t="s">
+        <v>693</v>
+      </c>
+      <c r="I112" t="s">
+        <v>769</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L112" t="s">
+        <v>768</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="B113" t="s">
+        <v>709</v>
+      </c>
+      <c r="C113" t="s">
+        <v>766</v>
+      </c>
+      <c r="D113" s="25">
+        <v>11</v>
+      </c>
+      <c r="E113">
+        <v>1806</v>
+      </c>
+      <c r="F113" t="s">
+        <v>778</v>
+      </c>
+      <c r="G113" t="s">
+        <v>779</v>
+      </c>
+      <c r="H113" t="s">
+        <v>775</v>
+      </c>
+      <c r="I113" t="s">
+        <v>776</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="L113" t="s">
+        <v>773</v>
+      </c>
+      <c r="M113" t="s">
+        <v>774</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="B114" t="s">
+        <v>709</v>
+      </c>
+      <c r="C114" t="s">
+        <v>766</v>
+      </c>
+      <c r="D114" s="25">
+        <v>11</v>
+      </c>
+      <c r="E114">
+        <v>1806</v>
+      </c>
+      <c r="F114" t="s">
+        <v>784</v>
+      </c>
+      <c r="G114" t="s">
+        <v>787</v>
+      </c>
+      <c r="H114" t="s">
+        <v>785</v>
+      </c>
+      <c r="I114" t="s">
+        <v>786</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="L114" t="s">
+        <v>782</v>
+      </c>
+      <c r="M114" t="s">
+        <v>783</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="O114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="B115" t="s">
+        <v>709</v>
+      </c>
+      <c r="C115" t="s">
+        <v>766</v>
+      </c>
+      <c r="D115" s="25">
+        <v>11</v>
+      </c>
+      <c r="E115">
+        <v>1806</v>
+      </c>
+      <c r="F115" t="s">
+        <v>529</v>
+      </c>
+      <c r="G115" t="s">
+        <v>531</v>
+      </c>
+      <c r="H115" t="s">
+        <v>792</v>
+      </c>
+      <c r="I115" t="s">
+        <v>623</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="L115" t="s">
+        <v>790</v>
+      </c>
+      <c r="M115" t="s">
+        <v>791</v>
+      </c>
+      <c r="N115" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="O115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="B116" t="s">
+        <v>709</v>
+      </c>
+      <c r="C116" t="s">
+        <v>766</v>
+      </c>
+      <c r="D116" s="25">
+        <v>11</v>
+      </c>
+      <c r="E116">
+        <v>1806</v>
+      </c>
+      <c r="F116" t="s">
+        <v>686</v>
+      </c>
+      <c r="G116" t="s">
+        <v>798</v>
+      </c>
+      <c r="H116" t="s">
+        <v>797</v>
+      </c>
+      <c r="I116" t="s">
+        <v>685</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="L116" t="s">
+        <v>796</v>
+      </c>
+      <c r="M116" t="s">
+        <v>795</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="O116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N117"/>
     </row>
-    <row r="118" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N118"/>
     </row>
-    <row r="119" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N119"/>
     </row>
-    <row r="120" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N120" s="7"/>
     </row>
-    <row r="121" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N121"/>
     </row>
-    <row r="122" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N122"/>
     </row>
-    <row r="123" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N123"/>
     </row>
-    <row r="124" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N124"/>
     </row>
-    <row r="125" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N125"/>
     </row>
-    <row r="126" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N126" s="3"/>
     </row>
-    <row r="127" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N127"/>
     </row>
-    <row r="128" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N128"/>
     </row>
     <row r="129" spans="14:14" x14ac:dyDescent="0.2">

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F2B8AF-BF43-41AA-987F-4052B4965B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BA9B5D-15F3-4CEE-89C1-CB955D57F361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="846">
   <si>
     <t>Cognoms</t>
   </si>
@@ -97,6 +97,9 @@
     <t>Nascut</t>
   </si>
   <si>
+    <t>Incognit</t>
+  </si>
+  <si>
     <t>Padri de bateig</t>
   </si>
   <si>
@@ -2468,6 +2471,144 @@
   </si>
   <si>
     <t>Teresa Civit Ricart</t>
+  </si>
+  <si>
+    <t>05-0023</t>
+  </si>
+  <si>
+    <t>05-0022 - 05-0023</t>
+  </si>
+  <si>
+    <t>Joan Gene i Rosa Querol</t>
+  </si>
+  <si>
+    <t>Ramon Farrer</t>
+  </si>
+  <si>
+    <t>Maria Rubies (Cubells)</t>
+  </si>
+  <si>
+    <t>Josep Bertran i Josepa Amiarol (Cubelles)</t>
+  </si>
+  <si>
+    <t>Gene Bertran</t>
+  </si>
+  <si>
+    <t>15/04/1809</t>
+  </si>
+  <si>
+    <t>14/04/1809</t>
+  </si>
+  <si>
+    <t>Novell Vergé Domingo Joseph Tomas</t>
+  </si>
+  <si>
+    <t>Magi Novell Pasqual</t>
+  </si>
+  <si>
+    <t>Jaume i Franseca Pasqual (Poal)</t>
+  </si>
+  <si>
+    <t>Ramon i Isabel Mas</t>
+  </si>
+  <si>
+    <t>Domingo Novell</t>
+  </si>
+  <si>
+    <t>Cecilia Sola</t>
+  </si>
+  <si>
+    <t>Rosa Vergé Mas</t>
+  </si>
+  <si>
+    <t>Novell Vergé Sense nom (Va neixer sense cap)</t>
+  </si>
+  <si>
+    <t>22/04/1809</t>
+  </si>
+  <si>
+    <t>Joseph Fransisco Thomas</t>
+  </si>
+  <si>
+    <t>Cirurgià</t>
+  </si>
+  <si>
+    <t>Esteve Figuera (LA Règula)</t>
+  </si>
+  <si>
+    <t>Teresa Oriola</t>
+  </si>
+  <si>
+    <t>Josep Figuera i Agna Rosa Roma</t>
+  </si>
+  <si>
+    <t>Marc Oriola i Francesca Riarol (Aquesta de Montgai)</t>
+  </si>
+  <si>
+    <t>Fransisca Riarol (Viuda)</t>
+  </si>
+  <si>
+    <t>Josep Atnonio Valles</t>
+  </si>
+  <si>
+    <t>4/03/1809</t>
+  </si>
+  <si>
+    <t>03/03/1809</t>
+  </si>
+  <si>
+    <t>Josep Valles i Anna Maria Sunyé</t>
+  </si>
+  <si>
+    <t>Antonio Lamarca (De Vilanova de Bellpuig) i Teresa Majoral</t>
+  </si>
+  <si>
+    <t>Maria Lamarca Majoral</t>
+  </si>
+  <si>
+    <t>Valles Lamarca Esperansa Teresa Antonia</t>
+  </si>
+  <si>
+    <t>05/05/1809</t>
+  </si>
+  <si>
+    <t>04/05/1809</t>
+  </si>
+  <si>
+    <t>Ramon Pedrós? (Casat)</t>
+  </si>
+  <si>
+    <t>Josepha Pedros Casada</t>
+  </si>
+  <si>
+    <t>Pedrós Duart Ramon Marc Antonio</t>
+  </si>
+  <si>
+    <t>06/05/1809</t>
+  </si>
+  <si>
+    <t>Esperansa Combella (Balaguer)</t>
+  </si>
+  <si>
+    <t>Antonio Combella (Balaguer) i Maria Jociats?</t>
+  </si>
+  <si>
+    <t>Joan Andreu moso Sanahuja</t>
+  </si>
+  <si>
+    <t>Madalena Combella (Soltera)(Balaguer)</t>
+  </si>
+  <si>
+    <t>Odon Andreu</t>
+  </si>
+  <si>
+    <t>Odon Andreu i Maria Castellana Sannahuja</t>
+  </si>
+  <si>
+    <t>Andreu Combella Helena Esperansa Antonia</t>
+  </si>
+  <si>
+    <t>NO DATA</t>
   </si>
 </sst>
 </file>
@@ -2980,8 +3121,8 @@
   <dimension ref="A1:Q17779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3012,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -3042,33 +3183,33 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="25">
         <v>3</v>
@@ -3077,35 +3218,35 @@
         <v>1770</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2" s="8"/>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="25">
         <v>3</v>
@@ -3114,37 +3255,37 @@
         <v>1770</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="25">
         <v>3</v>
@@ -3153,37 +3294,37 @@
         <v>1770</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O4"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="25">
         <v>3</v>
@@ -3192,37 +3333,37 @@
         <v>1770</v>
       </c>
       <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
         <v>55</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O5"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="25">
         <v>3</v>
@@ -3231,76 +3372,76 @@
         <v>1770</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O6"/>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E7">
         <v>1770</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O7"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="25">
         <v>4</v>
@@ -3309,37 +3450,37 @@
         <v>1770</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O8"/>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="25">
         <v>4</v>
@@ -3348,37 +3489,37 @@
         <v>1770</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O9"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="25">
         <v>4</v>
@@ -3387,37 +3528,37 @@
         <v>1770</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" t="s">
         <v>91</v>
-      </c>
-      <c r="M10" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" t="s">
-        <v>90</v>
       </c>
       <c r="O10"/>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="25">
         <v>4</v>
@@ -3426,40 +3567,40 @@
         <v>1770</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O11"/>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E12">
         <v>1770</v>
@@ -3473,19 +3614,19 @@
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O12"/>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" s="25">
         <v>13</v>
@@ -3494,35 +3635,35 @@
         <v>1771</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" s="8"/>
       <c r="L13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" s="25">
         <v>13</v>
@@ -3531,39 +3672,39 @@
         <v>1771</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" t="s">
         <v>110</v>
       </c>
-      <c r="L14" t="s">
-        <v>111</v>
-      </c>
-      <c r="M14" t="s">
-        <v>112</v>
-      </c>
-      <c r="N14" t="s">
-        <v>109</v>
-      </c>
       <c r="O14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" s="25">
         <v>13</v>
@@ -3572,39 +3713,39 @@
         <v>1771</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" s="25">
         <v>13</v>
@@ -3613,39 +3754,39 @@
         <v>1771</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17" s="25">
         <v>13</v>
@@ -3654,39 +3795,39 @@
         <v>1771</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D18" s="25">
         <v>20</v>
@@ -3695,39 +3836,39 @@
         <v>1773</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D19" s="25">
         <v>20</v>
@@ -3736,39 +3877,39 @@
         <v>1773</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D20" s="25">
         <v>20</v>
@@ -3777,39 +3918,39 @@
         <v>1773</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D21" s="25">
         <v>20</v>
@@ -3818,39 +3959,39 @@
         <v>1773</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D22" s="25">
         <v>20</v>
@@ -3859,39 +4000,39 @@
         <v>1773</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L22" t="s">
+        <v>163</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" t="s">
         <v>162</v>
       </c>
-      <c r="M22" t="s">
-        <v>43</v>
-      </c>
-      <c r="N22" t="s">
-        <v>161</v>
-      </c>
       <c r="O22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D23" s="25">
         <v>20</v>
@@ -3900,39 +4041,39 @@
         <v>1773</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D24" s="25">
         <v>28</v>
@@ -3941,39 +4082,39 @@
         <v>1774</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D25" s="25">
         <v>28</v>
@@ -3982,39 +4123,39 @@
         <v>1774</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D26" s="25">
         <v>28</v>
@@ -4023,39 +4164,39 @@
         <v>1774</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L26" t="s">
+        <v>186</v>
+      </c>
+      <c r="M26" t="s">
+        <v>187</v>
+      </c>
+      <c r="N26" t="s">
         <v>185</v>
       </c>
-      <c r="M26" t="s">
-        <v>186</v>
-      </c>
-      <c r="N26" t="s">
-        <v>184</v>
-      </c>
       <c r="O26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D27" s="25">
         <v>28</v>
@@ -4064,39 +4205,39 @@
         <v>1774</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D28" s="25">
         <v>28</v>
@@ -4105,39 +4246,39 @@
         <v>1774</v>
       </c>
       <c r="F28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D29" s="25">
         <v>28</v>
@@ -4146,39 +4287,39 @@
         <v>1774</v>
       </c>
       <c r="F29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D30" s="25">
         <v>32</v>
@@ -4187,39 +4328,39 @@
         <v>1774</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D31" s="25">
         <v>32</v>
@@ -4228,39 +4369,39 @@
         <v>1774</v>
       </c>
       <c r="F31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D32" s="25">
         <v>32</v>
@@ -4269,39 +4410,39 @@
         <v>1774</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D33" s="25">
         <v>32</v>
@@ -4310,39 +4451,39 @@
         <v>1774</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D34" s="25">
         <v>32</v>
@@ -4351,39 +4492,39 @@
         <v>1774</v>
       </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D35" s="25">
         <v>32</v>
@@ -4392,121 +4533,121 @@
         <v>1774</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E36">
         <v>1774</v>
       </c>
       <c r="F36" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G36" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E37">
         <v>1775</v>
       </c>
       <c r="F37" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s">
+        <v>265</v>
+      </c>
+      <c r="M37" t="s">
+        <v>266</v>
+      </c>
+      <c r="N37" t="s">
         <v>264</v>
       </c>
-      <c r="M37" t="s">
-        <v>265</v>
-      </c>
-      <c r="N37" t="s">
-        <v>263</v>
-      </c>
       <c r="O37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D38" s="25">
         <v>34</v>
@@ -4515,39 +4656,39 @@
         <v>1775</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D39" s="25">
         <v>34</v>
@@ -4556,39 +4697,39 @@
         <v>1775</v>
       </c>
       <c r="F39" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L39" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D40" s="25">
         <v>34</v>
@@ -4597,39 +4738,39 @@
         <v>1775</v>
       </c>
       <c r="F40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D41" s="25">
         <v>34</v>
@@ -4638,39 +4779,39 @@
         <v>1775</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M41" t="s">
+        <v>201</v>
+      </c>
+      <c r="N41" t="s">
         <v>287</v>
       </c>
-      <c r="M41" t="s">
-        <v>200</v>
-      </c>
-      <c r="N41" t="s">
-        <v>286</v>
-      </c>
       <c r="O41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D42" s="25">
         <v>34</v>
@@ -4679,79 +4820,79 @@
         <v>1775</v>
       </c>
       <c r="F42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E43">
         <v>1775</v>
       </c>
       <c r="F43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E44"/>
       <c r="G44"/>
@@ -4760,23 +4901,23 @@
       <c r="J44"/>
       <c r="K44" s="8"/>
       <c r="L44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M44" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D45" s="25">
         <v>43</v>
@@ -4785,39 +4926,39 @@
         <v>1777</v>
       </c>
       <c r="F45" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G45" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L45" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M45" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N45" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D46" s="25">
         <v>43</v>
@@ -4826,39 +4967,39 @@
         <v>1777</v>
       </c>
       <c r="F46" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M46" t="s">
+        <v>315</v>
+      </c>
+      <c r="N46" t="s">
         <v>314</v>
       </c>
-      <c r="N46" t="s">
-        <v>313</v>
-      </c>
       <c r="O46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D47" s="25">
         <v>43</v>
@@ -4867,39 +5008,39 @@
         <v>1777</v>
       </c>
       <c r="F47" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L47" t="s">
+        <v>321</v>
+      </c>
+      <c r="M47" t="s">
         <v>320</v>
       </c>
-      <c r="M47" t="s">
-        <v>319</v>
-      </c>
       <c r="N47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D48" s="25">
         <v>43</v>
@@ -4908,39 +5049,39 @@
         <v>1777</v>
       </c>
       <c r="F48" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L48" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M48" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D49" s="25">
         <v>43</v>
@@ -4949,39 +5090,39 @@
         <v>1777</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s">
+        <v>332</v>
+      </c>
+      <c r="M49" t="s">
+        <v>160</v>
+      </c>
+      <c r="N49" t="s">
         <v>331</v>
       </c>
-      <c r="M49" t="s">
-        <v>159</v>
-      </c>
-      <c r="N49" t="s">
-        <v>330</v>
-      </c>
       <c r="O49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D50" s="25">
         <v>43</v>
@@ -4990,10 +5131,10 @@
         <v>1777</v>
       </c>
       <c r="F50" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G50" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
@@ -5002,21 +5143,21 @@
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D51" s="25">
         <v>55</v>
@@ -5025,39 +5166,39 @@
         <v>1779</v>
       </c>
       <c r="F51" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N51" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D52" s="25">
         <v>55</v>
@@ -5066,10 +5207,10 @@
         <v>1779</v>
       </c>
       <c r="F52" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G52" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
@@ -5078,27 +5219,27 @@
         <v>35510</v>
       </c>
       <c r="L52" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D53" s="25">
         <v>55</v>
@@ -5107,39 +5248,39 @@
         <v>1779</v>
       </c>
       <c r="F53" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G53" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L53" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D54" s="25">
         <v>55</v>
@@ -5148,39 +5289,39 @@
         <v>1779</v>
       </c>
       <c r="F54" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G54" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N54" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D55" s="25">
         <v>55</v>
@@ -5189,39 +5330,39 @@
         <v>1779</v>
       </c>
       <c r="F55" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G55" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L55" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M55" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D56" s="25">
         <v>55</v>
@@ -5230,72 +5371,72 @@
         <v>1779</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="L56" t="s">
+        <v>367</v>
+      </c>
+      <c r="M56" t="s">
+        <v>201</v>
+      </c>
+      <c r="N56" t="s">
         <v>365</v>
       </c>
-      <c r="L56" t="s">
-        <v>366</v>
-      </c>
-      <c r="M56" t="s">
-        <v>200</v>
-      </c>
-      <c r="N56" t="s">
-        <v>364</v>
-      </c>
       <c r="O56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E57">
         <v>1792</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57" s="8"/>
       <c r="L57" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M57" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D58" s="25">
         <v>112</v>
@@ -5304,39 +5445,39 @@
         <v>1792</v>
       </c>
       <c r="F58" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L58" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M58" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N58" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D59" s="25">
         <v>112</v>
@@ -5345,39 +5486,39 @@
         <v>1792</v>
       </c>
       <c r="F59" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G59" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L59" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N59" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D60" s="25">
         <v>112</v>
@@ -5386,36 +5527,36 @@
         <v>1792</v>
       </c>
       <c r="F60" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G60" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M60" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O60" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D61" s="25">
         <v>112</v>
@@ -5424,39 +5565,39 @@
         <v>1792</v>
       </c>
       <c r="F61" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G61" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L61" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M61" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N61" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D62" s="25">
         <v>112</v>
@@ -5465,80 +5606,80 @@
         <v>1792</v>
       </c>
       <c r="F62" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L62" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M62" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E63">
         <v>1792</v>
       </c>
       <c r="F63" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G63" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M63" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D64" s="25">
         <v>113</v>
@@ -5547,39 +5688,39 @@
         <v>1792</v>
       </c>
       <c r="F64" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G64" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L64" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M64" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D65" s="25">
         <v>113</v>
@@ -5588,39 +5729,39 @@
         <v>1792</v>
       </c>
       <c r="F65" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G65" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L65" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M65" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D66" s="25">
         <v>113</v>
@@ -5629,39 +5770,39 @@
         <v>1792</v>
       </c>
       <c r="F66" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G66" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L66" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M66" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D67" s="25">
         <v>113</v>
@@ -5670,37 +5811,37 @@
         <v>1792</v>
       </c>
       <c r="F67" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G67" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L67" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M67" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O67"/>
     </row>
     <row r="68" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D68" s="25">
         <v>113</v>
@@ -5709,39 +5850,39 @@
         <v>1792</v>
       </c>
       <c r="F68" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G68" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L68" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M68" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C69" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D69" s="25">
         <v>113</v>
@@ -5750,39 +5891,39 @@
         <v>1792</v>
       </c>
       <c r="F69" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G69" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L69" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M69" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D70" s="25">
         <v>113</v>
@@ -5791,72 +5932,72 @@
         <v>1793</v>
       </c>
       <c r="F70" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G70" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L70" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>458</v>
+      </c>
+      <c r="D71" s="26" t="s">
         <v>459</v>
-      </c>
-      <c r="B71" t="s">
-        <v>33</v>
-      </c>
-      <c r="C71" t="s">
-        <v>457</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>458</v>
       </c>
       <c r="E71">
         <v>1794</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71" s="7"/>
       <c r="L71" s="18" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M71" s="18" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N71" s="7"/>
       <c r="O71"/>
     </row>
     <row r="72" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D72" s="25">
         <v>121</v>
@@ -5865,35 +6006,35 @@
         <v>1794</v>
       </c>
       <c r="F72" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G72" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="s">
+        <v>464</v>
+      </c>
+      <c r="M72" t="s">
+        <v>429</v>
+      </c>
+      <c r="N72" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="M72" t="s">
-        <v>428</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="O72"/>
     </row>
     <row r="73" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D73" s="25">
         <v>121</v>
@@ -5902,39 +6043,39 @@
         <v>1794</v>
       </c>
       <c r="F73" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G73" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L73" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D74" s="25">
         <v>121</v>
@@ -5943,39 +6084,39 @@
         <v>1794</v>
       </c>
       <c r="F74" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G74" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L74" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M74" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D75" s="25">
         <v>121</v>
@@ -5984,39 +6125,39 @@
         <v>1794</v>
       </c>
       <c r="F75" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G75" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L75" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C76" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D76" s="25">
         <v>121</v>
@@ -6025,37 +6166,37 @@
         <v>1794</v>
       </c>
       <c r="F76" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G76" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L76" t="s">
+        <v>485</v>
+      </c>
+      <c r="M76" t="s">
+        <v>486</v>
+      </c>
+      <c r="N76" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="M76" t="s">
-        <v>485</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="O76"/>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D77" s="25">
         <v>121</v>
@@ -6064,39 +6205,39 @@
         <v>1794</v>
       </c>
       <c r="F77" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G77" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L77" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M77" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C78" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D78" s="25">
         <v>121</v>
@@ -6105,39 +6246,39 @@
         <v>1794</v>
       </c>
       <c r="F78" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G78" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L78" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M78" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C79" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D79" s="25">
         <v>121</v>
@@ -6146,39 +6287,39 @@
         <v>1794</v>
       </c>
       <c r="F79" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G79" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L79" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" t="s">
         <v>507</v>
-      </c>
-      <c r="B80" t="s">
-        <v>33</v>
-      </c>
-      <c r="C80" t="s">
-        <v>506</v>
       </c>
       <c r="D80" s="25">
         <v>156</v>
@@ -6187,43 +6328,43 @@
         <v>1801</v>
       </c>
       <c r="F80" t="s">
+        <v>515</v>
+      </c>
+      <c r="G80" t="s">
+        <v>516</v>
+      </c>
+      <c r="H80" t="s">
+        <v>513</v>
+      </c>
+      <c r="I80" t="s">
         <v>514</v>
-      </c>
-      <c r="G80" t="s">
-        <v>515</v>
-      </c>
-      <c r="H80" t="s">
-        <v>512</v>
-      </c>
-      <c r="I80" t="s">
-        <v>513</v>
       </c>
       <c r="J80"/>
       <c r="K80" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="L80" t="s">
+        <v>511</v>
+      </c>
+      <c r="M80" t="s">
+        <v>512</v>
+      </c>
+      <c r="N80" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="L80" t="s">
-        <v>510</v>
-      </c>
-      <c r="M80" t="s">
-        <v>511</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>508</v>
-      </c>
       <c r="O80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D81" s="25">
         <v>156</v>
@@ -6232,43 +6373,43 @@
         <v>1801</v>
       </c>
       <c r="F81" t="s">
+        <v>523</v>
+      </c>
+      <c r="G81" t="s">
+        <v>524</v>
+      </c>
+      <c r="H81" t="s">
+        <v>521</v>
+      </c>
+      <c r="I81" t="s">
         <v>522</v>
-      </c>
-      <c r="G81" t="s">
-        <v>523</v>
-      </c>
-      <c r="H81" t="s">
-        <v>520</v>
-      </c>
-      <c r="I81" t="s">
-        <v>521</v>
       </c>
       <c r="J81"/>
       <c r="K81" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L81" t="s">
+        <v>520</v>
+      </c>
+      <c r="M81" t="s">
         <v>519</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>517</v>
-      </c>
       <c r="O81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D82" s="25">
         <v>156</v>
@@ -6277,43 +6418,43 @@
         <v>1801</v>
       </c>
       <c r="F82" t="s">
+        <v>530</v>
+      </c>
+      <c r="G82" t="s">
+        <v>532</v>
+      </c>
+      <c r="H82" t="s">
         <v>529</v>
       </c>
-      <c r="G82" t="s">
+      <c r="I82" t="s">
         <v>531</v>
-      </c>
-      <c r="H82" t="s">
-        <v>528</v>
-      </c>
-      <c r="I82" t="s">
-        <v>530</v>
       </c>
       <c r="J82"/>
       <c r="K82" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L82" t="s">
+        <v>527</v>
+      </c>
+      <c r="M82" t="s">
+        <v>528</v>
+      </c>
+      <c r="N82" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="M82" t="s">
-        <v>527</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="O82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D83" s="25">
         <v>156</v>
@@ -6322,43 +6463,43 @@
         <v>1801</v>
       </c>
       <c r="F83" t="s">
+        <v>539</v>
+      </c>
+      <c r="G83" t="s">
+        <v>541</v>
+      </c>
+      <c r="H83" t="s">
         <v>538</v>
       </c>
-      <c r="G83" t="s">
+      <c r="I83" t="s">
         <v>540</v>
-      </c>
-      <c r="H83" t="s">
-        <v>537</v>
-      </c>
-      <c r="I83" t="s">
-        <v>539</v>
       </c>
       <c r="J83"/>
       <c r="K83" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="L83" t="s">
+        <v>536</v>
+      </c>
+      <c r="M83" t="s">
+        <v>537</v>
+      </c>
+      <c r="N83" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="L83" t="s">
-        <v>535</v>
-      </c>
-      <c r="M83" t="s">
-        <v>536</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>533</v>
-      </c>
       <c r="O83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C84" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D84" s="25">
         <v>156</v>
@@ -6367,43 +6508,43 @@
         <v>1801</v>
       </c>
       <c r="F84" t="s">
+        <v>548</v>
+      </c>
+      <c r="G84" t="s">
+        <v>549</v>
+      </c>
+      <c r="H84" t="s">
+        <v>546</v>
+      </c>
+      <c r="I84" t="s">
         <v>547</v>
-      </c>
-      <c r="G84" t="s">
-        <v>548</v>
-      </c>
-      <c r="H84" t="s">
-        <v>545</v>
-      </c>
-      <c r="I84" t="s">
-        <v>546</v>
       </c>
       <c r="J84"/>
       <c r="K84" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="L84" t="s">
+        <v>545</v>
+      </c>
+      <c r="M84" t="s">
+        <v>21</v>
+      </c>
+      <c r="N84" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="L84" t="s">
-        <v>544</v>
-      </c>
-      <c r="M84" t="s">
-        <v>20</v>
-      </c>
-      <c r="N84" s="7" t="s">
-        <v>542</v>
-      </c>
       <c r="O84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C85" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D85" s="25">
         <v>156</v>
@@ -6412,43 +6553,43 @@
         <v>1801</v>
       </c>
       <c r="F85" t="s">
+        <v>557</v>
+      </c>
+      <c r="G85" t="s">
         <v>556</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
+        <v>554</v>
+      </c>
+      <c r="I85" t="s">
         <v>555</v>
-      </c>
-      <c r="H85" t="s">
-        <v>553</v>
-      </c>
-      <c r="I85" t="s">
-        <v>554</v>
       </c>
       <c r="J85"/>
       <c r="K85" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="L85" t="s">
+        <v>553</v>
+      </c>
+      <c r="M85" t="s">
+        <v>502</v>
+      </c>
+      <c r="N85" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="L85" t="s">
-        <v>552</v>
-      </c>
-      <c r="M85" t="s">
-        <v>501</v>
-      </c>
-      <c r="N85" s="3" t="s">
-        <v>550</v>
-      </c>
       <c r="O85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D86" s="25">
         <v>156</v>
@@ -6457,43 +6598,43 @@
         <v>1801</v>
       </c>
       <c r="F86" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G86" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H86" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I86" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J86"/>
       <c r="K86" s="19" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L86" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M86" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D87" s="25">
         <v>170</v>
@@ -6502,43 +6643,43 @@
         <v>1803</v>
       </c>
       <c r="F87" t="s">
+        <v>575</v>
+      </c>
+      <c r="G87" t="s">
         <v>574</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
+        <v>572</v>
+      </c>
+      <c r="I87" t="s">
         <v>573</v>
-      </c>
-      <c r="H87" t="s">
-        <v>571</v>
-      </c>
-      <c r="I87" t="s">
-        <v>572</v>
       </c>
       <c r="J87"/>
       <c r="K87" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L87" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M87" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D88" s="25">
         <v>170</v>
@@ -6547,43 +6688,43 @@
         <v>1803</v>
       </c>
       <c r="F88" t="s">
+        <v>583</v>
+      </c>
+      <c r="G88" t="s">
         <v>582</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
+        <v>529</v>
+      </c>
+      <c r="I88" t="s">
         <v>581</v>
-      </c>
-      <c r="H88" t="s">
-        <v>528</v>
-      </c>
-      <c r="I88" t="s">
-        <v>580</v>
       </c>
       <c r="J88"/>
       <c r="K88" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L88" t="s">
+        <v>580</v>
+      </c>
+      <c r="M88" t="s">
         <v>579</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="O88" t="s">
         <v>578</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="O88" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D89" s="25">
         <v>170</v>
@@ -6592,40 +6733,40 @@
         <v>1803</v>
       </c>
       <c r="F89" t="s">
+        <v>589</v>
+      </c>
+      <c r="G89" t="s">
+        <v>591</v>
+      </c>
+      <c r="H89" t="s">
         <v>588</v>
       </c>
-      <c r="G89" t="s">
+      <c r="I89" t="s">
         <v>590</v>
-      </c>
-      <c r="H89" t="s">
-        <v>587</v>
-      </c>
-      <c r="I89" t="s">
-        <v>589</v>
       </c>
       <c r="J89"/>
       <c r="K89" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="M89" t="s">
+        <v>587</v>
+      </c>
+      <c r="N89" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="M89" t="s">
-        <v>586</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>584</v>
-      </c>
       <c r="O89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D90" s="25">
         <v>170</v>
@@ -6634,43 +6775,43 @@
         <v>1803</v>
       </c>
       <c r="F90" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G90" t="s">
+        <v>600</v>
+      </c>
+      <c r="H90" t="s">
+        <v>598</v>
+      </c>
+      <c r="I90" t="s">
         <v>599</v>
-      </c>
-      <c r="H90" t="s">
-        <v>597</v>
-      </c>
-      <c r="I90" t="s">
-        <v>598</v>
       </c>
       <c r="J90"/>
       <c r="K90" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L90" t="s">
+        <v>596</v>
+      </c>
+      <c r="M90" t="s">
+        <v>597</v>
+      </c>
+      <c r="N90" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="M90" t="s">
-        <v>596</v>
-      </c>
-      <c r="N90" s="3" t="s">
-        <v>594</v>
-      </c>
       <c r="O90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D91" s="25">
         <v>170</v>
@@ -6679,43 +6820,43 @@
         <v>1804</v>
       </c>
       <c r="F91" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G91" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H91" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I91" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J91"/>
       <c r="K91" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L91" t="s">
+        <v>606</v>
+      </c>
+      <c r="M91" t="s">
         <v>605</v>
       </c>
-      <c r="M91" t="s">
-        <v>604</v>
-      </c>
       <c r="N91" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C92" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D92" s="25">
         <v>170</v>
@@ -6724,43 +6865,43 @@
         <v>1804</v>
       </c>
       <c r="F92" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G92" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H92" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I92" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="J92"/>
       <c r="K92" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L92" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M92" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C93" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D93" s="25">
         <v>170</v>
@@ -6769,43 +6910,43 @@
         <v>1804</v>
       </c>
       <c r="F93" t="s">
+        <v>623</v>
+      </c>
+      <c r="G93" t="s">
+        <v>470</v>
+      </c>
+      <c r="H93" t="s">
         <v>622</v>
       </c>
-      <c r="G93" t="s">
-        <v>469</v>
-      </c>
-      <c r="H93" t="s">
-        <v>621</v>
-      </c>
       <c r="I93" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="J93"/>
       <c r="K93" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L93" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M93" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C94" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D94" s="25">
         <v>170</v>
@@ -6814,81 +6955,81 @@
         <v>1804</v>
       </c>
       <c r="F94" t="s">
+        <v>630</v>
+      </c>
+      <c r="G94" t="s">
         <v>629</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
+        <v>627</v>
+      </c>
+      <c r="I94" t="s">
         <v>628</v>
-      </c>
-      <c r="H94" t="s">
-        <v>626</v>
-      </c>
-      <c r="I94" t="s">
-        <v>627</v>
       </c>
       <c r="J94"/>
       <c r="K94" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M94" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C95" t="s">
+        <v>637</v>
+      </c>
+      <c r="D95" s="26" t="s">
         <v>636</v>
-      </c>
-      <c r="D95" s="26" t="s">
-        <v>635</v>
       </c>
       <c r="E95">
         <v>1804</v>
       </c>
       <c r="F95" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G95" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L95" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M95" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" t="s">
         <v>638</v>
-      </c>
-      <c r="B96" t="s">
-        <v>33</v>
-      </c>
-      <c r="C96" t="s">
-        <v>637</v>
       </c>
       <c r="D96" s="25">
         <v>175</v>
@@ -6897,43 +7038,43 @@
         <v>1804</v>
       </c>
       <c r="F96" t="s">
+        <v>646</v>
+      </c>
+      <c r="G96" t="s">
+        <v>641</v>
+      </c>
+      <c r="H96" t="s">
         <v>645</v>
       </c>
-      <c r="G96" t="s">
-        <v>640</v>
-      </c>
-      <c r="H96" t="s">
-        <v>644</v>
-      </c>
       <c r="I96" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J96"/>
       <c r="K96" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L96" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M96" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C97" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D97" s="25">
         <v>175</v>
@@ -6942,41 +7083,41 @@
         <v>1804</v>
       </c>
       <c r="F97" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G97" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H97" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I97" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="J97"/>
       <c r="K97" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L97" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M97" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O97"/>
     </row>
     <row r="98" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C98" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D98" s="25">
         <v>175</v>
@@ -6985,43 +7126,43 @@
         <v>1804</v>
       </c>
       <c r="F98" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G98" t="s">
+        <v>662</v>
+      </c>
+      <c r="H98" t="s">
+        <v>660</v>
+      </c>
+      <c r="I98" t="s">
         <v>661</v>
-      </c>
-      <c r="H98" t="s">
-        <v>659</v>
-      </c>
-      <c r="I98" t="s">
-        <v>660</v>
       </c>
       <c r="J98"/>
       <c r="K98" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L98" t="s">
+        <v>659</v>
+      </c>
+      <c r="M98" t="s">
         <v>658</v>
       </c>
-      <c r="M98" t="s">
-        <v>657</v>
-      </c>
       <c r="N98" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D99" s="25">
         <v>175</v>
@@ -7030,43 +7171,43 @@
         <v>1805</v>
       </c>
       <c r="F99" t="s">
+        <v>668</v>
+      </c>
+      <c r="G99" t="s">
+        <v>670</v>
+      </c>
+      <c r="H99" t="s">
         <v>667</v>
       </c>
-      <c r="G99" t="s">
+      <c r="I99" t="s">
         <v>669</v>
-      </c>
-      <c r="H99" t="s">
-        <v>666</v>
-      </c>
-      <c r="I99" t="s">
-        <v>668</v>
       </c>
       <c r="J99"/>
       <c r="K99" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L99" s="18" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M99" s="18" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="O99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C100" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D100" s="25">
         <v>175</v>
@@ -7075,43 +7216,43 @@
         <v>1805</v>
       </c>
       <c r="F100" t="s">
+        <v>679</v>
+      </c>
+      <c r="G100" t="s">
         <v>678</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
+        <v>676</v>
+      </c>
+      <c r="I100" t="s">
         <v>677</v>
-      </c>
-      <c r="H100" t="s">
-        <v>675</v>
-      </c>
-      <c r="I100" t="s">
-        <v>676</v>
       </c>
       <c r="J100"/>
       <c r="K100" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L100" t="s">
+        <v>675</v>
+      </c>
+      <c r="M100" t="s">
         <v>674</v>
       </c>
-      <c r="M100" t="s">
-        <v>673</v>
-      </c>
       <c r="N100" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="O100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C101" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D101" s="25">
         <v>175</v>
@@ -7120,43 +7261,43 @@
         <v>1805</v>
       </c>
       <c r="F101" t="s">
+        <v>687</v>
+      </c>
+      <c r="G101" t="s">
+        <v>688</v>
+      </c>
+      <c r="H101" t="s">
+        <v>685</v>
+      </c>
+      <c r="I101" t="s">
         <v>686</v>
-      </c>
-      <c r="G101" t="s">
-        <v>687</v>
-      </c>
-      <c r="H101" t="s">
-        <v>684</v>
-      </c>
-      <c r="I101" t="s">
-        <v>685</v>
       </c>
       <c r="J101"/>
       <c r="K101" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="L101" t="s">
+        <v>684</v>
+      </c>
+      <c r="M101" t="s">
+        <v>683</v>
+      </c>
+      <c r="N101" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="L101" t="s">
-        <v>683</v>
-      </c>
-      <c r="M101" t="s">
-        <v>682</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>680</v>
-      </c>
       <c r="O101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C102" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D102" s="25">
         <v>175</v>
@@ -7165,43 +7306,43 @@
         <v>1805</v>
       </c>
       <c r="F102" t="s">
+        <v>696</v>
+      </c>
+      <c r="G102" s="30" t="s">
         <v>695</v>
       </c>
-      <c r="G102" s="30" t="s">
+      <c r="H102" t="s">
+        <v>693</v>
+      </c>
+      <c r="I102" t="s">
         <v>694</v>
-      </c>
-      <c r="H102" t="s">
-        <v>692</v>
-      </c>
-      <c r="I102" t="s">
-        <v>693</v>
       </c>
       <c r="J102"/>
       <c r="K102" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L102" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M102" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C103" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D103" s="25">
         <v>175</v>
@@ -7210,41 +7351,41 @@
         <v>1805</v>
       </c>
       <c r="F103" t="s">
+        <v>703</v>
+      </c>
+      <c r="G103" t="s">
+        <v>704</v>
+      </c>
+      <c r="H103" t="s">
+        <v>685</v>
+      </c>
+      <c r="I103" t="s">
         <v>702</v>
-      </c>
-      <c r="G103" t="s">
-        <v>703</v>
-      </c>
-      <c r="H103" t="s">
-        <v>684</v>
-      </c>
-      <c r="I103" t="s">
-        <v>701</v>
       </c>
       <c r="J103"/>
       <c r="K103" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="L103" t="s">
+        <v>701</v>
+      </c>
+      <c r="M103" t="s">
+        <v>700</v>
+      </c>
+      <c r="N103" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="L103" t="s">
-        <v>700</v>
-      </c>
-      <c r="M103" t="s">
-        <v>699</v>
-      </c>
-      <c r="N103" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="O103"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C104" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D104" s="25">
         <v>175</v>
@@ -7253,66 +7394,66 @@
         <v>1805</v>
       </c>
       <c r="F104" t="s">
+        <v>530</v>
+      </c>
+      <c r="G104" t="s">
+        <v>532</v>
+      </c>
+      <c r="H104" t="s">
         <v>529</v>
       </c>
-      <c r="G104" t="s">
-        <v>531</v>
-      </c>
-      <c r="H104" t="s">
-        <v>528</v>
-      </c>
       <c r="I104" t="s">
+        <v>709</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="L104" t="s">
+        <v>707</v>
+      </c>
+      <c r="M104" t="s">
         <v>708</v>
       </c>
-      <c r="K104" s="7" t="s">
+      <c r="N104" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="L104" t="s">
-        <v>706</v>
-      </c>
-      <c r="M104" t="s">
-        <v>707</v>
-      </c>
-      <c r="N104" s="3" t="s">
-        <v>704</v>
-      </c>
       <c r="O104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B105" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C105" t="s">
+        <v>713</v>
+      </c>
+      <c r="D105" s="17" t="s">
         <v>712</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>711</v>
       </c>
       <c r="E105">
         <v>1806</v>
       </c>
       <c r="H105" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="I105" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="N105"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B106" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C106" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D106" s="25">
         <v>6</v>
@@ -7321,39 +7462,39 @@
         <v>1806</v>
       </c>
       <c r="F106" t="s">
+        <v>723</v>
+      </c>
+      <c r="G106" t="s">
+        <v>456</v>
+      </c>
+      <c r="H106" t="s">
         <v>722</v>
       </c>
-      <c r="G106" t="s">
-        <v>455</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
+        <v>724</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="L106" t="s">
+        <v>720</v>
+      </c>
+      <c r="M106" t="s">
         <v>721</v>
       </c>
-      <c r="I106" t="s">
-        <v>723</v>
-      </c>
-      <c r="K106" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="L106" t="s">
-        <v>719</v>
-      </c>
-      <c r="M106" t="s">
-        <v>720</v>
-      </c>
       <c r="N106" s="3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B107" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C107" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D107" s="25">
         <v>6</v>
@@ -7362,42 +7503,42 @@
         <v>1806</v>
       </c>
       <c r="F107" t="s">
+        <v>731</v>
+      </c>
+      <c r="G107" t="s">
+        <v>733</v>
+      </c>
+      <c r="H107" t="s">
         <v>730</v>
       </c>
-      <c r="G107" t="s">
+      <c r="I107" t="s">
         <v>732</v>
       </c>
-      <c r="H107" t="s">
+      <c r="K107" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="L107" t="s">
+        <v>728</v>
+      </c>
+      <c r="M107" t="s">
         <v>729</v>
       </c>
-      <c r="I107" t="s">
-        <v>731</v>
-      </c>
-      <c r="K107" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="L107" t="s">
-        <v>727</v>
-      </c>
-      <c r="M107" t="s">
-        <v>728</v>
-      </c>
       <c r="N107" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B108" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C108" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D108" s="25">
         <v>6</v>
@@ -7406,42 +7547,42 @@
         <v>1806</v>
       </c>
       <c r="F108" t="s">
+        <v>741</v>
+      </c>
+      <c r="G108" t="s">
+        <v>736</v>
+      </c>
+      <c r="H108" t="s">
+        <v>694</v>
+      </c>
+      <c r="I108" t="s">
         <v>740</v>
       </c>
-      <c r="G108" t="s">
-        <v>735</v>
-      </c>
-      <c r="H108" t="s">
-        <v>693</v>
-      </c>
-      <c r="I108" t="s">
+      <c r="K108" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="L108" t="s">
+        <v>738</v>
+      </c>
+      <c r="M108" t="s">
         <v>739</v>
       </c>
-      <c r="K108" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="L108" t="s">
-        <v>737</v>
-      </c>
-      <c r="M108" t="s">
-        <v>738</v>
-      </c>
       <c r="N108" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B109" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C109" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D109" s="25">
         <v>6</v>
@@ -7450,39 +7591,39 @@
         <v>1806</v>
       </c>
       <c r="F109" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G109" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H109" t="s">
+        <v>748</v>
+      </c>
+      <c r="I109" t="s">
+        <v>749</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="L109" t="s">
+        <v>746</v>
+      </c>
+      <c r="M109" t="s">
         <v>747</v>
       </c>
-      <c r="I109" t="s">
-        <v>748</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>744</v>
-      </c>
-      <c r="L109" t="s">
-        <v>745</v>
-      </c>
-      <c r="M109" t="s">
-        <v>746</v>
-      </c>
       <c r="N109" s="3" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B110" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C110" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D110" s="25">
         <v>6</v>
@@ -7491,36 +7632,36 @@
         <v>1806</v>
       </c>
       <c r="F110" t="s">
+        <v>755</v>
+      </c>
+      <c r="G110" t="s">
+        <v>756</v>
+      </c>
+      <c r="H110" t="s">
+        <v>753</v>
+      </c>
+      <c r="I110" t="s">
         <v>754</v>
       </c>
-      <c r="G110" t="s">
-        <v>755</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="K110" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="L110" t="s">
         <v>752</v>
       </c>
-      <c r="I110" t="s">
-        <v>753</v>
-      </c>
-      <c r="K110" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="L110" t="s">
-        <v>751</v>
-      </c>
       <c r="N110" s="3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B111" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C111" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D111" s="25">
         <v>6</v>
@@ -7529,39 +7670,39 @@
         <v>1806</v>
       </c>
       <c r="F111" t="s">
+        <v>765</v>
+      </c>
+      <c r="G111" t="s">
+        <v>766</v>
+      </c>
+      <c r="H111" t="s">
+        <v>762</v>
+      </c>
+      <c r="I111" t="s">
+        <v>763</v>
+      </c>
+      <c r="K111" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="G111" t="s">
-        <v>765</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="L111" t="s">
+        <v>760</v>
+      </c>
+      <c r="M111" t="s">
         <v>761</v>
       </c>
-      <c r="I111" t="s">
-        <v>762</v>
-      </c>
-      <c r="K111" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="L111" t="s">
-        <v>759</v>
-      </c>
-      <c r="M111" t="s">
-        <v>760</v>
-      </c>
       <c r="N111" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="B112" t="s">
+        <v>710</v>
+      </c>
+      <c r="C112" t="s">
         <v>767</v>
-      </c>
-      <c r="B112" t="s">
-        <v>709</v>
-      </c>
-      <c r="C112" t="s">
-        <v>766</v>
       </c>
       <c r="D112" s="25">
         <v>11</v>
@@ -7570,39 +7711,39 @@
         <v>1806</v>
       </c>
       <c r="F112" t="s">
+        <v>771</v>
+      </c>
+      <c r="G112" t="s">
+        <v>772</v>
+      </c>
+      <c r="H112" t="s">
+        <v>694</v>
+      </c>
+      <c r="I112" t="s">
         <v>770</v>
       </c>
-      <c r="G112" t="s">
-        <v>771</v>
-      </c>
-      <c r="H112" t="s">
-        <v>693</v>
-      </c>
-      <c r="I112" t="s">
+      <c r="K112" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L112" t="s">
         <v>769</v>
       </c>
-      <c r="K112" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L112" t="s">
-        <v>768</v>
-      </c>
       <c r="N112" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B113" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C113" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D113" s="25">
         <v>11</v>
@@ -7611,42 +7752,42 @@
         <v>1806</v>
       </c>
       <c r="F113" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G113" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H113" t="s">
+        <v>776</v>
+      </c>
+      <c r="I113" t="s">
+        <v>777</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="L113" t="s">
+        <v>774</v>
+      </c>
+      <c r="M113" t="s">
         <v>775</v>
       </c>
-      <c r="I113" t="s">
-        <v>776</v>
-      </c>
-      <c r="K113" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="L113" t="s">
-        <v>773</v>
-      </c>
-      <c r="M113" t="s">
-        <v>774</v>
-      </c>
       <c r="N113" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B114" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C114" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D114" s="25">
         <v>11</v>
@@ -7655,42 +7796,42 @@
         <v>1806</v>
       </c>
       <c r="F114" t="s">
+        <v>785</v>
+      </c>
+      <c r="G114" t="s">
+        <v>788</v>
+      </c>
+      <c r="H114" t="s">
+        <v>786</v>
+      </c>
+      <c r="I114" t="s">
+        <v>787</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="L114" t="s">
+        <v>783</v>
+      </c>
+      <c r="M114" t="s">
         <v>784</v>
       </c>
-      <c r="G114" t="s">
-        <v>787</v>
-      </c>
-      <c r="H114" t="s">
-        <v>785</v>
-      </c>
-      <c r="I114" t="s">
-        <v>786</v>
-      </c>
-      <c r="K114" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="L114" t="s">
-        <v>782</v>
-      </c>
-      <c r="M114" t="s">
-        <v>783</v>
-      </c>
       <c r="N114" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="O114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B115" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C115" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D115" s="25">
         <v>11</v>
@@ -7699,42 +7840,42 @@
         <v>1806</v>
       </c>
       <c r="F115" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G115" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H115" t="s">
+        <v>793</v>
+      </c>
+      <c r="I115" t="s">
+        <v>624</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="L115" t="s">
+        <v>791</v>
+      </c>
+      <c r="M115" t="s">
         <v>792</v>
       </c>
-      <c r="I115" t="s">
-        <v>623</v>
-      </c>
-      <c r="K115" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="L115" t="s">
-        <v>790</v>
-      </c>
-      <c r="M115" t="s">
-        <v>791</v>
-      </c>
       <c r="N115" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B116" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C116" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D116" s="25">
         <v>11</v>
@@ -7743,59 +7884,346 @@
         <v>1806</v>
       </c>
       <c r="F116" t="s">
+        <v>687</v>
+      </c>
+      <c r="G116" t="s">
+        <v>799</v>
+      </c>
+      <c r="H116" t="s">
+        <v>798</v>
+      </c>
+      <c r="I116" t="s">
         <v>686</v>
       </c>
-      <c r="G116" t="s">
-        <v>798</v>
-      </c>
-      <c r="H116" t="s">
+      <c r="K116" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="L116" t="s">
         <v>797</v>
       </c>
-      <c r="I116" t="s">
-        <v>685</v>
-      </c>
-      <c r="K116" s="7" t="s">
+      <c r="M116" t="s">
+        <v>796</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="O116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="B117" t="s">
+        <v>710</v>
+      </c>
+      <c r="C117" t="s">
+        <v>801</v>
+      </c>
+      <c r="D117" s="25">
+        <v>40</v>
+      </c>
+      <c r="E117">
+        <v>1809</v>
+      </c>
+      <c r="H117" t="s">
+        <v>802</v>
+      </c>
+      <c r="I117" t="s">
+        <v>805</v>
+      </c>
+      <c r="L117" t="s">
+        <v>803</v>
+      </c>
+      <c r="M117" t="s">
+        <v>804</v>
+      </c>
+      <c r="N117"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="B118" t="s">
+        <v>710</v>
+      </c>
+      <c r="C118" t="s">
+        <v>800</v>
+      </c>
+      <c r="D118" s="25">
+        <v>40</v>
+      </c>
+      <c r="E118">
+        <v>1809</v>
+      </c>
+      <c r="F118" t="s">
+        <v>810</v>
+      </c>
+      <c r="G118" t="s">
+        <v>815</v>
+      </c>
+      <c r="H118" t="s">
+        <v>811</v>
+      </c>
+      <c r="I118" t="s">
+        <v>812</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="L118" t="s">
+        <v>813</v>
+      </c>
+      <c r="M118" t="s">
+        <v>814</v>
+      </c>
+      <c r="N118" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="O118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="B119" t="s">
+        <v>710</v>
+      </c>
+      <c r="C119" t="s">
+        <v>800</v>
+      </c>
+      <c r="D119" s="25">
+        <v>40</v>
+      </c>
+      <c r="E119">
+        <v>1809</v>
+      </c>
+      <c r="F119" t="s">
+        <v>810</v>
+      </c>
+      <c r="G119" t="s">
+        <v>815</v>
+      </c>
+      <c r="H119" t="s">
+        <v>811</v>
+      </c>
+      <c r="I119" t="s">
+        <v>812</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="N119" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="O119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="B120" t="s">
+        <v>710</v>
+      </c>
+      <c r="C120" t="s">
+        <v>800</v>
+      </c>
+      <c r="D120" s="25">
+        <v>40</v>
+      </c>
+      <c r="E120">
+        <v>1809</v>
+      </c>
+      <c r="F120" t="s">
+        <v>820</v>
+      </c>
+      <c r="G120" t="s">
+        <v>821</v>
+      </c>
+      <c r="H120" t="s">
+        <v>822</v>
+      </c>
+      <c r="I120" t="s">
+        <v>823</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="M120" t="s">
+        <v>824</v>
+      </c>
+      <c r="N120" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="O120" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>710</v>
+      </c>
+      <c r="C121" t="s">
+        <v>800</v>
+      </c>
+      <c r="D121" s="25">
+        <v>40</v>
+      </c>
+      <c r="E121">
+        <v>1809</v>
+      </c>
+      <c r="N121"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="B122" t="s">
+        <v>710</v>
+      </c>
+      <c r="C122" t="s">
+        <v>800</v>
+      </c>
+      <c r="D122" s="25">
+        <v>40</v>
+      </c>
+      <c r="E122">
+        <v>1809</v>
+      </c>
+      <c r="F122" t="s">
+        <v>825</v>
+      </c>
+      <c r="G122" t="s">
+        <v>830</v>
+      </c>
+      <c r="H122" t="s">
+        <v>828</v>
+      </c>
+      <c r="I122" t="s">
+        <v>829</v>
+      </c>
+      <c r="K122" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="N122" t="s">
+        <v>826</v>
+      </c>
+      <c r="O122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="B123" t="s">
+        <v>710</v>
+      </c>
+      <c r="C123" t="s">
+        <v>800</v>
+      </c>
+      <c r="D123" s="25">
+        <v>40</v>
+      </c>
+      <c r="E123">
+        <v>1809</v>
+      </c>
+      <c r="F123" t="s">
+        <v>530</v>
+      </c>
+      <c r="G123" t="s">
+        <v>532</v>
+      </c>
+      <c r="H123" t="s">
         <v>793</v>
       </c>
-      <c r="L116" t="s">
-        <v>796</v>
-      </c>
-      <c r="M116" t="s">
-        <v>795</v>
-      </c>
-      <c r="N116" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="O116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N117"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N118"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N119"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N120" s="7"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N121"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N122"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N123"/>
+      <c r="I123" t="s">
+        <v>624</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="L123" t="s">
+        <v>834</v>
+      </c>
+      <c r="M123" t="s">
+        <v>835</v>
+      </c>
+      <c r="N123" t="s">
+        <v>832</v>
+      </c>
+      <c r="O123" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N124"/>
+      <c r="A124" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="B124" t="s">
+        <v>710</v>
+      </c>
+      <c r="C124" t="s">
+        <v>800</v>
+      </c>
+      <c r="D124" s="25">
+        <v>40</v>
+      </c>
+      <c r="E124">
+        <v>1809</v>
+      </c>
+      <c r="F124" t="s">
+        <v>842</v>
+      </c>
+      <c r="G124" t="s">
+        <v>838</v>
+      </c>
+      <c r="H124" t="s">
+        <v>843</v>
+      </c>
+      <c r="I124" t="s">
+        <v>839</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="L124" t="s">
+        <v>840</v>
+      </c>
+      <c r="M124" t="s">
+        <v>841</v>
+      </c>
+      <c r="N124" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N125"/>
+      <c r="A125" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="B125" t="s">
+        <v>710</v>
+      </c>
+      <c r="C125" t="s">
+        <v>800</v>
+      </c>
+      <c r="D125" s="25">
+        <v>40</v>
+      </c>
+      <c r="E125">
+        <v>1809</v>
+      </c>
+      <c r="N125" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N126" s="3"/>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6885A960-7439-4051-B070-CBABF6982C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EB9092-3371-4841-92BF-935AD42124D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="945">
   <si>
     <t>Cognoms</t>
   </si>
@@ -2608,6 +2608,9 @@
     <t>Andreu Combella Helena Esperansa Antonia</t>
   </si>
   <si>
+    <t>NO DATA</t>
+  </si>
+  <si>
     <t>Manquen Dades</t>
   </si>
   <si>
@@ -2711,6 +2714,198 @@
   </si>
   <si>
     <t>Fransisco Marti...</t>
+  </si>
+  <si>
+    <t>05-0077 - 05-0078</t>
+  </si>
+  <si>
+    <t>05-0078</t>
+  </si>
+  <si>
+    <t>149 , 150</t>
+  </si>
+  <si>
+    <t>avia materna</t>
+  </si>
+  <si>
+    <t>Fabregat Torrent  Josep Ramon</t>
+  </si>
+  <si>
+    <t>14/04/1816</t>
+  </si>
+  <si>
+    <t>Josef Torrent i Maria Cascalló</t>
+  </si>
+  <si>
+    <t>Josef Valles Fabregat (Casat)</t>
+  </si>
+  <si>
+    <t>Josef Torrent (Avi Matern)</t>
+  </si>
+  <si>
+    <t>Antonia Torrent Cascallo (Tieta)</t>
+  </si>
+  <si>
+    <t>Fransisca Torrent Cascalló</t>
+  </si>
+  <si>
+    <t>Fransisco Fabregat Roger</t>
+  </si>
+  <si>
+    <t>Torrent Cascalló Antonia</t>
+  </si>
+  <si>
+    <t>26/04/1816</t>
+  </si>
+  <si>
+    <t>Jaume Torrent</t>
+  </si>
+  <si>
+    <t>Magdalena Cascalló</t>
+  </si>
+  <si>
+    <t>Traginer i Pages</t>
+  </si>
+  <si>
+    <t>Pere Cascalló i Maria Ricart (aquesta de la Fuliola)</t>
+  </si>
+  <si>
+    <t>Antonia Corberó (Viuda)(Vellcaire pero vivint a Linyola)</t>
+  </si>
+  <si>
+    <t>Antoni Torrent i Maria Theresa Mas</t>
+  </si>
+  <si>
+    <t>18/05/1816</t>
+  </si>
+  <si>
+    <t>150 , 151</t>
+  </si>
+  <si>
+    <t>Pedrós Duart Ramon Pere</t>
+  </si>
+  <si>
+    <t>Josep Pedrós (Vallverd)</t>
+  </si>
+  <si>
+    <t>Josef Navau (Traginer)</t>
+  </si>
+  <si>
+    <t>20/05/1816</t>
+  </si>
+  <si>
+    <t>Vinassa Cascalló Cecilia Quiteria</t>
+  </si>
+  <si>
+    <t>Miquel Vinassa (Anglesola) i Margarita Cases (Cedó</t>
+  </si>
+  <si>
+    <t>Josef Vinassa Cases (Anglesola)</t>
+  </si>
+  <si>
+    <t>05-0078 - 05-0079</t>
+  </si>
+  <si>
+    <t>151 , 152</t>
+  </si>
+  <si>
+    <t>05-0229 - 05-0230</t>
+  </si>
+  <si>
+    <t>05-0230</t>
+  </si>
+  <si>
+    <t>Maria Teresa Mas Civit</t>
+  </si>
+  <si>
+    <t>Domingo Mas i Maria Teresa Civit (Pagesos)</t>
+  </si>
+  <si>
+    <t>Ramon Vergé i Cecilia Solé (Pagesos)</t>
+  </si>
+  <si>
+    <t>Mas Vergé</t>
+  </si>
+  <si>
+    <t>22/05/1831</t>
+  </si>
+  <si>
+    <t>21/05/1831</t>
+  </si>
+  <si>
+    <t>Pedrós Marti Maria Antonia Fransisca</t>
+  </si>
+  <si>
+    <t>Antonia Marti Senallosa</t>
+  </si>
+  <si>
+    <t>Josep Pedros i Maria Duart (Pagesos)</t>
+  </si>
+  <si>
+    <t>Antonio Marti i Antonia Senallosa</t>
+  </si>
+  <si>
+    <t>Fransisco Pedrós Duart</t>
+  </si>
+  <si>
+    <t>Maria Rosa Martí Senallosa</t>
+  </si>
+  <si>
+    <t>113 , 114</t>
+  </si>
+  <si>
+    <t>02/06/1831</t>
+  </si>
+  <si>
+    <t>01/06/1831</t>
+  </si>
+  <si>
+    <t>Rosa Civit Cascalló</t>
+  </si>
+  <si>
+    <t>Mateu Civit i Mariangela Mas</t>
+  </si>
+  <si>
+    <t>Josep Aranñes  (Ager) i Teresa Aranunt</t>
+  </si>
+  <si>
+    <t>Roger Aranés Josep Fransisco Antonio</t>
+  </si>
+  <si>
+    <t>Jaume Roger Mas</t>
+  </si>
+  <si>
+    <t>Margarita Aranés Aranunt (Santa Linya)</t>
+  </si>
+  <si>
+    <t>Marti Aleu Maria Teresa</t>
+  </si>
+  <si>
+    <t>05/06/1831</t>
+  </si>
+  <si>
+    <t>Maria Teresa Aleu (Gerri)</t>
+  </si>
+  <si>
+    <t>Joan Martí i Francesca Jovells (Aquesta de Bellpuig)</t>
+  </si>
+  <si>
+    <t>Pasqual Aleu i Maria Teresa Fabregues</t>
+  </si>
+  <si>
+    <t>Josep Martí Jovells</t>
+  </si>
+  <si>
+    <t>Fransisca Aleu Fabregues (Gerri)</t>
+  </si>
+  <si>
+    <t>04/06/1831</t>
+  </si>
+  <si>
+    <t>Josep Martí Martí</t>
+  </si>
+  <si>
+    <t>17/06/1831</t>
   </si>
 </sst>
 </file>
@@ -3223,8 +3418,8 @@
   <dimension ref="A1:Q17780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D130" sqref="D130"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8309,7 +8504,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B125" t="s">
         <v>710</v>
@@ -8329,13 +8524,13 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B126" t="s">
         <v>710</v>
       </c>
       <c r="C126" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D126" s="25">
         <v>96</v>
@@ -8353,30 +8548,30 @@
         <v>793</v>
       </c>
       <c r="I126" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="L126" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="M126" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B127" t="s">
         <v>710</v>
       </c>
       <c r="C127" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D127" s="25">
         <v>96</v>
@@ -8385,28 +8580,28 @@
         <v>1813</v>
       </c>
       <c r="F127" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G127" t="s">
+        <v>860</v>
+      </c>
+      <c r="H127" t="s">
         <v>859</v>
       </c>
-      <c r="H127" t="s">
-        <v>858</v>
-      </c>
       <c r="I127" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="L127" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="M127" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N127" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="O127" t="s">
         <v>14</v>
@@ -8414,57 +8609,57 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B128" t="s">
         <v>710</v>
       </c>
       <c r="C128" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E128">
         <v>1813</v>
       </c>
       <c r="F128" t="s">
+        <v>871</v>
+      </c>
+      <c r="G128" t="s">
+        <v>872</v>
+      </c>
+      <c r="H128" t="s">
+        <v>867</v>
+      </c>
+      <c r="I128" t="s">
+        <v>868</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="L128" t="s">
+        <v>869</v>
+      </c>
+      <c r="M128" t="s">
         <v>870</v>
       </c>
-      <c r="G128" t="s">
-        <v>871</v>
-      </c>
-      <c r="H128" t="s">
+      <c r="N128" t="s">
+        <v>864</v>
+      </c>
+      <c r="O128" t="s">
         <v>866</v>
-      </c>
-      <c r="I128" t="s">
-        <v>867</v>
-      </c>
-      <c r="K128" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="L128" t="s">
-        <v>868</v>
-      </c>
-      <c r="M128" t="s">
-        <v>869</v>
-      </c>
-      <c r="N128" t="s">
-        <v>863</v>
-      </c>
-      <c r="O128" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B129" t="s">
         <v>710</v>
       </c>
       <c r="C129" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D129" s="25">
         <v>97</v>
@@ -8473,28 +8668,28 @@
         <v>1813</v>
       </c>
       <c r="F129" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G129" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H129" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="I129" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="L129" t="s">
+        <v>875</v>
+      </c>
+      <c r="M129" t="s">
         <v>874</v>
       </c>
-      <c r="M129" t="s">
-        <v>873</v>
-      </c>
       <c r="N129" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="O129" t="s">
         <v>14</v>
@@ -8502,65 +8697,393 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B130" t="s">
         <v>710</v>
       </c>
       <c r="C130" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E130">
         <v>1813</v>
       </c>
       <c r="F130" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G130" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H130" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="N130" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="O130" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="B131" t="s">
+        <v>710</v>
+      </c>
+      <c r="C131" t="s">
+        <v>881</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="E131">
+        <v>1816</v>
+      </c>
+      <c r="L131" t="s">
+        <v>888</v>
+      </c>
+      <c r="M131" t="s">
+        <v>884</v>
+      </c>
       <c r="N131"/>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N132"/>
+      <c r="A132" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="B132" t="s">
+        <v>710</v>
+      </c>
+      <c r="C132" t="s">
+        <v>882</v>
+      </c>
+      <c r="D132" s="6">
+        <v>150</v>
+      </c>
+      <c r="E132">
+        <v>1816</v>
+      </c>
+      <c r="F132" t="s">
+        <v>892</v>
+      </c>
+      <c r="G132" t="s">
+        <v>891</v>
+      </c>
+      <c r="H132" t="s">
+        <v>669</v>
+      </c>
+      <c r="I132" t="s">
+        <v>887</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="L132" t="s">
+        <v>889</v>
+      </c>
+      <c r="M132" t="s">
+        <v>890</v>
+      </c>
+      <c r="N132" t="s">
+        <v>886</v>
+      </c>
+      <c r="O132" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N133"/>
+      <c r="A133" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="B133" t="s">
+        <v>710</v>
+      </c>
+      <c r="C133" t="s">
+        <v>882</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="E133">
+        <v>1816</v>
+      </c>
+      <c r="F133" t="s">
+        <v>895</v>
+      </c>
+      <c r="G133" t="s">
+        <v>896</v>
+      </c>
+      <c r="H133" t="s">
+        <v>900</v>
+      </c>
+      <c r="I133" t="s">
+        <v>898</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="M133" t="s">
+        <v>899</v>
+      </c>
+      <c r="N133" t="s">
+        <v>894</v>
+      </c>
+      <c r="O133" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N134"/>
+      <c r="A134" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="B134" t="s">
+        <v>710</v>
+      </c>
+      <c r="C134" t="s">
+        <v>882</v>
+      </c>
+      <c r="D134" s="6">
+        <v>151</v>
+      </c>
+      <c r="E134">
+        <v>1816</v>
+      </c>
+      <c r="F134" t="s">
+        <v>904</v>
+      </c>
+      <c r="G134" t="s">
+        <v>470</v>
+      </c>
+      <c r="H134" t="s">
+        <v>793</v>
+      </c>
+      <c r="I134" t="s">
+        <v>852</v>
+      </c>
+      <c r="K134" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="L134" t="s">
+        <v>905</v>
+      </c>
+      <c r="M134" t="s">
+        <v>890</v>
+      </c>
+      <c r="N134" t="s">
+        <v>901</v>
+      </c>
+      <c r="O134" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N135"/>
+      <c r="A135" s="27" t="s">
+        <v>907</v>
+      </c>
+      <c r="B135" t="s">
+        <v>710</v>
+      </c>
+      <c r="C135" t="s">
+        <v>910</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>911</v>
+      </c>
+      <c r="E135">
+        <v>1816</v>
+      </c>
+      <c r="F135" t="s">
+        <v>909</v>
+      </c>
+      <c r="G135" t="s">
+        <v>453</v>
+      </c>
+      <c r="H135" t="s">
+        <v>908</v>
+      </c>
+      <c r="I135" t="s">
+        <v>898</v>
+      </c>
+      <c r="N135" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" s="27" t="s">
+        <v>917</v>
+      </c>
+      <c r="B136" t="s">
+        <v>710</v>
+      </c>
+      <c r="C136" t="s">
+        <v>912</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="E136">
+        <v>1831</v>
+      </c>
+      <c r="H136" t="s">
+        <v>915</v>
+      </c>
+      <c r="I136" t="s">
+        <v>916</v>
+      </c>
+      <c r="L136" t="s">
+        <v>92</v>
+      </c>
+      <c r="M136" t="s">
+        <v>914</v>
+      </c>
       <c r="N136"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N137"/>
+      <c r="A137" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="B137" t="s">
+        <v>710</v>
+      </c>
+      <c r="C137" t="s">
+        <v>913</v>
+      </c>
+      <c r="D137" s="6">
+        <v>113</v>
+      </c>
+      <c r="E137">
+        <v>1831</v>
+      </c>
+      <c r="F137" t="s">
+        <v>924</v>
+      </c>
+      <c r="G137" t="s">
+        <v>925</v>
+      </c>
+      <c r="H137" t="s">
+        <v>922</v>
+      </c>
+      <c r="I137" t="s">
+        <v>923</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="L137" t="s">
+        <v>43</v>
+      </c>
+      <c r="M137" t="s">
+        <v>921</v>
+      </c>
+      <c r="N137" t="s">
+        <v>918</v>
+      </c>
+      <c r="O137" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N138"/>
+      <c r="A138" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="B138" t="s">
+        <v>710</v>
+      </c>
+      <c r="C138" t="s">
+        <v>913</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>926</v>
+      </c>
+      <c r="E138">
+        <v>1831</v>
+      </c>
+      <c r="F138" t="s">
+        <v>933</v>
+      </c>
+      <c r="G138" t="s">
+        <v>934</v>
+      </c>
+      <c r="H138" t="s">
+        <v>930</v>
+      </c>
+      <c r="I138" t="s">
+        <v>931</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="L138" t="s">
+        <v>580</v>
+      </c>
+      <c r="M138" t="s">
+        <v>929</v>
+      </c>
+      <c r="N138" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N139"/>
+      <c r="A139" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="B139" t="s">
+        <v>710</v>
+      </c>
+      <c r="C139" t="s">
+        <v>913</v>
+      </c>
+      <c r="D139" s="6">
+        <v>114</v>
+      </c>
+      <c r="E139">
+        <v>1831</v>
+      </c>
+      <c r="F139" t="s">
+        <v>940</v>
+      </c>
+      <c r="G139" t="s">
+        <v>941</v>
+      </c>
+      <c r="H139" t="s">
+        <v>938</v>
+      </c>
+      <c r="I139" t="s">
+        <v>939</v>
+      </c>
+      <c r="K139" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="M139" t="s">
+        <v>937</v>
+      </c>
+      <c r="N139" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N140"/>
+      <c r="A140" s="27" t="s">
+        <v>943</v>
+      </c>
+      <c r="B140" t="s">
+        <v>710</v>
+      </c>
+      <c r="C140" t="s">
+        <v>913</v>
+      </c>
+      <c r="D140" s="6">
+        <v>114</v>
+      </c>
+      <c r="E140">
+        <v>1831</v>
+      </c>
+      <c r="N140" t="s">
+        <v>944</v>
+      </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N141" s="3"/>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EB9092-3371-4841-92BF-935AD42124D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD9AABB-0165-4847-B454-4A67E325DC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="998">
   <si>
     <t>Cognoms</t>
   </si>
@@ -2833,6 +2833,9 @@
     <t>21/05/1831</t>
   </si>
   <si>
+    <t>Maria Rosa Martí</t>
+  </si>
+  <si>
     <t>Pedrós Marti Maria Antonia Fransisca</t>
   </si>
   <si>
@@ -2906,6 +2909,162 @@
   </si>
   <si>
     <t>17/06/1831</t>
+  </si>
+  <si>
+    <t>04 423</t>
+  </si>
+  <si>
+    <t>05-0264</t>
+  </si>
+  <si>
+    <t>19/01/1834</t>
+  </si>
+  <si>
+    <t>17/01/1834</t>
+  </si>
+  <si>
+    <t>Pujol Roger Pere Domingo</t>
+  </si>
+  <si>
+    <t>Pere Valldellou (Solter)(Balaguer)</t>
+  </si>
+  <si>
+    <t>Margarita Pujol</t>
+  </si>
+  <si>
+    <t>Domingo Pujol i Maria Torres (Castellserà)</t>
+  </si>
+  <si>
+    <t>Josep Roger i Maria Anna Antillach (Pages)(Gerp)</t>
+  </si>
+  <si>
+    <t>Ignasi Pujol Torres</t>
+  </si>
+  <si>
+    <t>Antonia Roger Antillach (Gerp)</t>
+  </si>
+  <si>
+    <t>509 , 510</t>
+  </si>
+  <si>
+    <t>Josep Mas Giné (Casat)</t>
+  </si>
+  <si>
+    <t>Maria Martí Batlle (Casada)</t>
+  </si>
+  <si>
+    <t>Antonio Giné i Maria Clara Cascalló</t>
+  </si>
+  <si>
+    <t>Josep Giné Cascalló</t>
+  </si>
+  <si>
+    <t>Teresa Espervé</t>
+  </si>
+  <si>
+    <t>Giné Espervé Clara Josepa</t>
+  </si>
+  <si>
+    <t>Josep Espervé (La Masana) i Teresa Civit</t>
+  </si>
+  <si>
+    <t>510 , 511</t>
+  </si>
+  <si>
+    <t>05-0264 - 05-0265</t>
+  </si>
+  <si>
+    <t>25/01/1834</t>
+  </si>
+  <si>
+    <t>24/01/1834</t>
+  </si>
+  <si>
+    <t>Pedrós Martí Clara Josepa</t>
+  </si>
+  <si>
+    <t>Josep Senallosa (Casat)</t>
+  </si>
+  <si>
+    <t>Maria Marti Batlle</t>
+  </si>
+  <si>
+    <t>Pedrós Marti Josefa Cecilia</t>
+  </si>
+  <si>
+    <t>Josepa Giné Pedrós</t>
+  </si>
+  <si>
+    <t>Ramon Marti (el Palau)</t>
+  </si>
+  <si>
+    <t>05-0265</t>
+  </si>
+  <si>
+    <t>07/02/1834</t>
+  </si>
+  <si>
+    <t>06/02/1834</t>
+  </si>
+  <si>
+    <t>Gispert Vilalta Miquel Josep</t>
+  </si>
+  <si>
+    <t>Miquel Gispert (Fadri)</t>
+  </si>
+  <si>
+    <t>Antonia Gispert (Donsella)</t>
+  </si>
+  <si>
+    <t>Josep Gispert i Fransisca Rogé (Pagesos)</t>
+  </si>
+  <si>
+    <t>Alex Vilalta (Golmés) i Maria Anna Palau (El Palau)</t>
+  </si>
+  <si>
+    <t>Antonio Gispert Rogé</t>
+  </si>
+  <si>
+    <t>Rosa Vilalta Palau (Golmés)</t>
+  </si>
+  <si>
+    <t>11/02/1834</t>
+  </si>
+  <si>
+    <t>10/02/1834</t>
+  </si>
+  <si>
+    <t>Manuel Pasqual (El Poal)</t>
+  </si>
+  <si>
+    <t>Rosa Violant</t>
+  </si>
+  <si>
+    <t>Pasqual Violant Fransisco Asis? Manuel</t>
+  </si>
+  <si>
+    <t>Fransisco de Asis Civit Gispert (Casat)</t>
+  </si>
+  <si>
+    <t>Maria Pasqual Monfa (San Marti de Maldà)(vivint a Poal)</t>
+  </si>
+  <si>
+    <t>Antonio Pasqual (St Marti de Maldà) i Teresa Boldú (Arbeca)(Vivint al Poal)</t>
+  </si>
+  <si>
+    <t>Ramon Violant i Maria Torrent</t>
+  </si>
+  <si>
+    <t>Catulles? Mata Ignasia</t>
+  </si>
+  <si>
+    <t>11/??/1834</t>
+  </si>
+  <si>
+    <t>05-0265 - 05-0266</t>
+  </si>
+  <si>
+    <t>511 , 512</t>
   </si>
 </sst>
 </file>
@@ -3419,7 +3578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A140" sqref="A140"/>
+      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8944,7 +9103,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B137" t="s">
         <v>710</v>
@@ -8959,16 +9118,16 @@
         <v>1831</v>
       </c>
       <c r="F137" t="s">
+        <v>925</v>
+      </c>
+      <c r="G137" t="s">
+        <v>926</v>
+      </c>
+      <c r="H137" t="s">
+        <v>923</v>
+      </c>
+      <c r="I137" t="s">
         <v>924</v>
-      </c>
-      <c r="G137" t="s">
-        <v>925</v>
-      </c>
-      <c r="H137" t="s">
-        <v>922</v>
-      </c>
-      <c r="I137" t="s">
-        <v>923</v>
       </c>
       <c r="K137" s="7" t="s">
         <v>919</v>
@@ -8977,7 +9136,7 @@
         <v>43</v>
       </c>
       <c r="M137" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="N137" t="s">
         <v>918</v>
@@ -8988,7 +9147,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B138" t="s">
         <v>710</v>
@@ -8997,39 +9156,39 @@
         <v>913</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E138">
         <v>1831</v>
       </c>
       <c r="F138" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G138" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H138" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="I138" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="L138" t="s">
         <v>580</v>
       </c>
       <c r="M138" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="N138" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B139" t="s">
         <v>710</v>
@@ -9044,30 +9203,30 @@
         <v>1831</v>
       </c>
       <c r="F139" t="s">
+        <v>941</v>
+      </c>
+      <c r="G139" t="s">
+        <v>942</v>
+      </c>
+      <c r="H139" t="s">
+        <v>939</v>
+      </c>
+      <c r="I139" t="s">
         <v>940</v>
       </c>
-      <c r="G139" t="s">
-        <v>941</v>
-      </c>
-      <c r="H139" t="s">
+      <c r="K139" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="M139" t="s">
         <v>938</v>
       </c>
-      <c r="I139" t="s">
-        <v>939</v>
-      </c>
-      <c r="K139" s="7" t="s">
-        <v>942</v>
-      </c>
-      <c r="M139" t="s">
+      <c r="N139" t="s">
         <v>937</v>
-      </c>
-      <c r="N139" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B140" t="s">
         <v>710</v>
@@ -9082,67 +9241,324 @@
         <v>1831</v>
       </c>
       <c r="N140" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N141" s="3"/>
+      <c r="A141" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="B141" t="s">
+        <v>946</v>
+      </c>
+      <c r="C141" t="s">
+        <v>947</v>
+      </c>
+      <c r="D141" s="6">
+        <v>509</v>
+      </c>
+      <c r="E141">
+        <v>1834</v>
+      </c>
+      <c r="F141" t="s">
+        <v>955</v>
+      </c>
+      <c r="G141" t="s">
+        <v>956</v>
+      </c>
+      <c r="H141" t="s">
+        <v>953</v>
+      </c>
+      <c r="I141" t="s">
+        <v>954</v>
+      </c>
+      <c r="K141" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="L141" t="s">
+        <v>951</v>
+      </c>
+      <c r="M141" t="s">
+        <v>952</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="O141" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N142"/>
+      <c r="A142" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="B142" t="s">
+        <v>946</v>
+      </c>
+      <c r="C142" t="s">
+        <v>947</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="E142">
+        <v>1834</v>
+      </c>
+      <c r="F142" t="s">
+        <v>961</v>
+      </c>
+      <c r="G142" t="s">
+        <v>962</v>
+      </c>
+      <c r="H142" t="s">
+        <v>960</v>
+      </c>
+      <c r="I142" t="s">
+        <v>964</v>
+      </c>
+      <c r="K142" s="7">
+        <v>12436</v>
+      </c>
+      <c r="L142" t="s">
+        <v>958</v>
+      </c>
+      <c r="M142" t="s">
+        <v>959</v>
+      </c>
+      <c r="N142" s="3">
+        <v>12438</v>
+      </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N143"/>
+      <c r="A143" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="B143" t="s">
+        <v>946</v>
+      </c>
+      <c r="C143" t="s">
+        <v>947</v>
+      </c>
+      <c r="D143" s="6">
+        <v>510</v>
+      </c>
+      <c r="E143">
+        <v>1834</v>
+      </c>
+      <c r="F143" t="s">
+        <v>925</v>
+      </c>
+      <c r="G143" t="s">
+        <v>920</v>
+      </c>
+      <c r="H143" t="s">
+        <v>923</v>
+      </c>
+      <c r="I143" t="s">
+        <v>924</v>
+      </c>
+      <c r="K143" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="L143" t="s">
+        <v>970</v>
+      </c>
+      <c r="M143" t="s">
+        <v>971</v>
+      </c>
+      <c r="N143" t="s">
+        <v>967</v>
+      </c>
+      <c r="O143" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N144"/>
-    </row>
-    <row r="145" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N145"/>
-    </row>
-    <row r="146" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N146"/>
-    </row>
-    <row r="147" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N147"/>
-    </row>
-    <row r="148" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="A144" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="B144" t="s">
+        <v>946</v>
+      </c>
+      <c r="C144" t="s">
+        <v>966</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="E144">
+        <v>1834</v>
+      </c>
+      <c r="F144" t="s">
+        <v>925</v>
+      </c>
+      <c r="G144" t="s">
+        <v>920</v>
+      </c>
+      <c r="H144" t="s">
+        <v>923</v>
+      </c>
+      <c r="I144" t="s">
+        <v>924</v>
+      </c>
+      <c r="K144" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="L144" t="s">
+        <v>974</v>
+      </c>
+      <c r="M144" t="s">
+        <v>973</v>
+      </c>
+      <c r="N144" t="s">
+        <v>967</v>
+      </c>
+      <c r="O144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="B145" t="s">
+        <v>946</v>
+      </c>
+      <c r="C145" t="s">
+        <v>975</v>
+      </c>
+      <c r="D145" s="6">
+        <v>511</v>
+      </c>
+      <c r="E145">
+        <v>1834</v>
+      </c>
+      <c r="F145" t="s">
+        <v>983</v>
+      </c>
+      <c r="G145" t="s">
+        <v>984</v>
+      </c>
+      <c r="H145" t="s">
+        <v>981</v>
+      </c>
+      <c r="I145" t="s">
+        <v>982</v>
+      </c>
+      <c r="K145" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="L145" t="s">
+        <v>979</v>
+      </c>
+      <c r="M145" t="s">
+        <v>980</v>
+      </c>
+      <c r="N145" t="s">
+        <v>976</v>
+      </c>
+      <c r="O145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="B146" t="s">
+        <v>946</v>
+      </c>
+      <c r="C146" t="s">
+        <v>975</v>
+      </c>
+      <c r="D146" s="6">
+        <v>511</v>
+      </c>
+      <c r="E146">
+        <v>1834</v>
+      </c>
+      <c r="F146" t="s">
+        <v>987</v>
+      </c>
+      <c r="G146" t="s">
+        <v>988</v>
+      </c>
+      <c r="H146" t="s">
+        <v>992</v>
+      </c>
+      <c r="I146" t="s">
+        <v>993</v>
+      </c>
+      <c r="K146" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="L146" t="s">
+        <v>990</v>
+      </c>
+      <c r="M146" t="s">
+        <v>991</v>
+      </c>
+      <c r="N146" t="s">
+        <v>985</v>
+      </c>
+      <c r="O146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" s="27" t="s">
+        <v>994</v>
+      </c>
+      <c r="B147" t="s">
+        <v>946</v>
+      </c>
+      <c r="C147" t="s">
+        <v>996</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="N147" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N148"/>
     </row>
-    <row r="149" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N149"/>
     </row>
-    <row r="150" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N150" s="3"/>
     </row>
-    <row r="151" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N151" s="7"/>
     </row>
-    <row r="152" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N152"/>
     </row>
-    <row r="153" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N153"/>
     </row>
-    <row r="154" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N154"/>
     </row>
-    <row r="155" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N155"/>
     </row>
-    <row r="156" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N156"/>
     </row>
-    <row r="157" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N157"/>
     </row>
-    <row r="158" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N158"/>
     </row>
-    <row r="159" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N159" s="3"/>
     </row>
-    <row r="160" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N160"/>
     </row>
     <row r="161" spans="14:14" x14ac:dyDescent="0.2">

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD9AABB-0165-4847-B454-4A67E325DC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AB29C2-1A69-4254-9CE0-220FF0C79A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="1087">
   <si>
     <t>Cognoms</t>
   </si>
@@ -100,6 +100,9 @@
     <t>Incognit</t>
   </si>
   <si>
+    <t>30/05/1843</t>
+  </si>
+  <si>
     <t>Padri de bateig</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
     <t>Carreter</t>
   </si>
   <si>
+    <t>Miquel Pedrós</t>
+  </si>
+  <si>
     <t>Traginer</t>
   </si>
   <si>
@@ -145,12 +151,18 @@
     <t>23/03/1770</t>
   </si>
   <si>
+    <t>24/05/1843</t>
+  </si>
+  <si>
     <t>05/10/1806</t>
   </si>
   <si>
     <t>Historia</t>
   </si>
   <si>
+    <t>04/05/1843</t>
+  </si>
+  <si>
     <t>09/10/1806</t>
   </si>
   <si>
@@ -3065,6 +3077,261 @@
   </si>
   <si>
     <t>511 , 512</t>
+  </si>
+  <si>
+    <t>534 , 535</t>
+  </si>
+  <si>
+    <t>Fransisco Prats (Boticari) i Rosa Moragues</t>
+  </si>
+  <si>
+    <t>Josep Novell i Anna Maria Vergé</t>
+  </si>
+  <si>
+    <t>Prats Novell</t>
+  </si>
+  <si>
+    <t>05-0276 - 05-0277</t>
+  </si>
+  <si>
+    <t>05-0277</t>
+  </si>
+  <si>
+    <t>30/09/1834</t>
+  </si>
+  <si>
+    <t>29/09/1834</t>
+  </si>
+  <si>
+    <t>Pedrós Martí Jaume Josep</t>
+  </si>
+  <si>
+    <t>Jaume Pujades (Casat)</t>
+  </si>
+  <si>
+    <t>Josep Pedrós i Maria Duart</t>
+  </si>
+  <si>
+    <t>Onofre Martí i Esperansa Pou (Palau)</t>
+  </si>
+  <si>
+    <t>Rosa Martí Pou</t>
+  </si>
+  <si>
+    <t>Ramón Pedrós Duart</t>
+  </si>
+  <si>
+    <t>535 , 536</t>
+  </si>
+  <si>
+    <t>15/10/1834</t>
+  </si>
+  <si>
+    <t>14/10/1834</t>
+  </si>
+  <si>
+    <t>Mas Ortis Antonio Ramon</t>
+  </si>
+  <si>
+    <t>Antonio Mas (Casat)</t>
+  </si>
+  <si>
+    <t>Ignés Aldomà Vallés (Casada)</t>
+  </si>
+  <si>
+    <t>Antonio Mas i Fransisca Cascalló</t>
+  </si>
+  <si>
+    <t>Josep Ortis i Maria Anna Serra (Claravalls)</t>
+  </si>
+  <si>
+    <t>Josep Mas Cascalló</t>
+  </si>
+  <si>
+    <t>Teresa Ortis Serra (Claravalls)</t>
+  </si>
+  <si>
+    <t>19/10/1834</t>
+  </si>
+  <si>
+    <t>18/10/1834</t>
+  </si>
+  <si>
+    <t>Rosa Valles</t>
+  </si>
+  <si>
+    <t>Mata Vallés Fransisco Manuel</t>
+  </si>
+  <si>
+    <t>Fransisco Ramon (Casat)(Anglesola)</t>
+  </si>
+  <si>
+    <t>Antonia Valles Sucarrat (Casada)</t>
+  </si>
+  <si>
+    <t>Bartolomeu Mata i Josefa Ramon</t>
+  </si>
+  <si>
+    <t>Jaume Mata Ramon</t>
+  </si>
+  <si>
+    <t>05-0346 - 05-0347</t>
+  </si>
+  <si>
+    <t>730 , 731</t>
+  </si>
+  <si>
+    <t>27/04/1843</t>
+  </si>
+  <si>
+    <t>Sol Roger Margarida Raimunda</t>
+  </si>
+  <si>
+    <t>Magdalena Roger Cascalló (Donsella)</t>
+  </si>
+  <si>
+    <t>Antonio Sol (Cirurgià)(Fadrí)(Guisona)(vivint a Lleida)</t>
+  </si>
+  <si>
+    <t>Anton Sol (Lleida) i Maria Betran (Guissona)</t>
+  </si>
+  <si>
+    <t>Ramon Roger i Teresa Cascalló</t>
+  </si>
+  <si>
+    <t>Cecilia Roger Cascalló</t>
+  </si>
+  <si>
+    <t>Joan Sol Betran (Guisona)</t>
+  </si>
+  <si>
+    <t>05-0347</t>
+  </si>
+  <si>
+    <t>03/05/1843</t>
+  </si>
+  <si>
+    <t>Ginesta Druet Maria Antonia</t>
+  </si>
+  <si>
+    <t>Ramon Bonjorn (Casat) (Palau)</t>
+  </si>
+  <si>
+    <t>Fransisca Mas Bové</t>
+  </si>
+  <si>
+    <t>Josep Gnestà (del Manjo Escamsa Annejo) i Paula Folguera</t>
+  </si>
+  <si>
+    <t>Antono Ginesta Folguera</t>
+  </si>
+  <si>
+    <t>Jaume Druet i Antonia Mas</t>
+  </si>
+  <si>
+    <t>Paula Druet Mas</t>
+  </si>
+  <si>
+    <t>12/05/1843</t>
+  </si>
+  <si>
+    <t>11/05/1843</t>
+  </si>
+  <si>
+    <t>Ignasi Sucarrat</t>
+  </si>
+  <si>
+    <t>Casimira Sisterè (Madrid)</t>
+  </si>
+  <si>
+    <t>731 , 732</t>
+  </si>
+  <si>
+    <t>Sucarrat Sisteré Maria Fransisca</t>
+  </si>
+  <si>
+    <t>Fransisco Cisteré (Viudo)</t>
+  </si>
+  <si>
+    <t>Maria Sucarrat Miraso (Viuda)(Avia Materna)</t>
+  </si>
+  <si>
+    <t>Vicent Sucarrat i Maria Mirasó</t>
+  </si>
+  <si>
+    <t>Fransisco Cisteré i Rosa Moset</t>
+  </si>
+  <si>
+    <t>Ramon Pedrós</t>
+  </si>
+  <si>
+    <t>Rosa Marti</t>
+  </si>
+  <si>
+    <t>Pedrós Marti Maria Fransisca</t>
+  </si>
+  <si>
+    <t>Fransisco Pedrós  (Casat)</t>
+  </si>
+  <si>
+    <t>Maria Pujades Serret (Vallfogona de ¿?)</t>
+  </si>
+  <si>
+    <t>Onofre Marti i Esperansa Pou (Aquesta de Palau)</t>
+  </si>
+  <si>
+    <t>31/05/1843</t>
+  </si>
+  <si>
+    <t>05-0347 - 05-0348</t>
+  </si>
+  <si>
+    <t>732 , 733</t>
+  </si>
+  <si>
+    <t>Theresa Vilaplana</t>
+  </si>
+  <si>
+    <t>Felip Vilaplana</t>
+  </si>
+  <si>
+    <t>Theresa Amorgall</t>
+  </si>
+  <si>
+    <t>Josep Amorgall?</t>
+  </si>
+  <si>
+    <t>Amorgall? Vilaplana Felip Joan</t>
+  </si>
+  <si>
+    <t>05-0352 - 05-0353</t>
+  </si>
+  <si>
+    <t>742 , 743</t>
+  </si>
+  <si>
+    <t>Maria Rosa Tarragó</t>
+  </si>
+  <si>
+    <t>Pedrós Tarragó Jaume Josep</t>
+  </si>
+  <si>
+    <t>Jaume Tarragó (Viudo)</t>
+  </si>
+  <si>
+    <t>Josefa Giné Pedrós (Casada)</t>
+  </si>
+  <si>
+    <t>Fransisco Pedrós i Cecilia Civit</t>
+  </si>
+  <si>
+    <t>Antonio Tarragó i Magdalena Braquer (Aquesta de Mollerussa)</t>
+  </si>
+  <si>
+    <t>??/12/1843</t>
+  </si>
+  <si>
+    <t>05-0353</t>
   </si>
 </sst>
 </file>
@@ -3578,7 +3845,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
+      <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3609,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -3639,33 +3906,33 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2" s="25">
         <v>3</v>
@@ -3674,35 +3941,35 @@
         <v>1770</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2" s="8"/>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O2"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D3" s="25">
         <v>3</v>
@@ -3711,37 +3978,37 @@
         <v>1770</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O3"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" s="25">
         <v>3</v>
@@ -3750,37 +4017,37 @@
         <v>1770</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" t="s">
         <v>51</v>
-      </c>
-      <c r="M4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" t="s">
-        <v>47</v>
       </c>
       <c r="O4"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" s="25">
         <v>3</v>
@@ -3789,37 +4056,37 @@
         <v>1770</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
         <v>58</v>
-      </c>
-      <c r="M5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" t="s">
-        <v>54</v>
       </c>
       <c r="O5"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6" s="25">
         <v>3</v>
@@ -3828,76 +4095,76 @@
         <v>1770</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O6"/>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E7">
         <v>1770</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
         <v>70</v>
-      </c>
-      <c r="M7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" t="s">
-        <v>66</v>
       </c>
       <c r="O7"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D8" s="25">
         <v>4</v>
@@ -3906,37 +4173,37 @@
         <v>1770</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" t="s">
         <v>78</v>
-      </c>
-      <c r="N8" t="s">
-        <v>74</v>
       </c>
       <c r="O8"/>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D9" s="25">
         <v>4</v>
@@ -3945,37 +4212,37 @@
         <v>1770</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" t="s">
         <v>85</v>
-      </c>
-      <c r="N9" t="s">
-        <v>81</v>
       </c>
       <c r="O9"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D10" s="25">
         <v>4</v>
@@ -3984,37 +4251,37 @@
         <v>1770</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O10"/>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D11" s="25">
         <v>4</v>
@@ -4023,40 +4290,40 @@
         <v>1770</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" t="s">
         <v>99</v>
-      </c>
-      <c r="N11" t="s">
-        <v>95</v>
       </c>
       <c r="O11"/>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E12">
         <v>1770</v>
@@ -4070,19 +4337,19 @@
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O12"/>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D13" s="25">
         <v>13</v>
@@ -4091,35 +4358,35 @@
         <v>1771</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" s="8"/>
       <c r="L13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D14" s="25">
         <v>13</v>
@@ -4128,39 +4395,39 @@
         <v>1771</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D15" s="25">
         <v>13</v>
@@ -4169,39 +4436,39 @@
         <v>1771</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M15" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" t="s">
         <v>119</v>
       </c>
-      <c r="N15" t="s">
-        <v>115</v>
-      </c>
       <c r="O15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D16" s="25">
         <v>13</v>
@@ -4210,39 +4477,39 @@
         <v>1771</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16" s="28" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L16" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" t="s">
         <v>126</v>
       </c>
-      <c r="M16" t="s">
-        <v>127</v>
-      </c>
-      <c r="N16" t="s">
-        <v>122</v>
-      </c>
       <c r="O16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D17" s="25">
         <v>13</v>
@@ -4251,39 +4518,39 @@
         <v>1771</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17" s="8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" t="s">
         <v>133</v>
       </c>
-      <c r="M17" t="s">
-        <v>134</v>
-      </c>
-      <c r="N17" t="s">
-        <v>129</v>
-      </c>
       <c r="O17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D18" s="25">
         <v>20</v>
@@ -4292,39 +4559,39 @@
         <v>1773</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18" s="28" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18" t="s">
         <v>141</v>
       </c>
-      <c r="M18" t="s">
-        <v>142</v>
-      </c>
-      <c r="N18" t="s">
-        <v>137</v>
-      </c>
       <c r="O18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D19" s="25">
         <v>20</v>
@@ -4333,39 +4600,39 @@
         <v>1773</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G19" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M19" t="s">
+        <v>152</v>
+      </c>
+      <c r="N19" t="s">
         <v>148</v>
       </c>
-      <c r="N19" t="s">
-        <v>144</v>
-      </c>
       <c r="O19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D20" s="25">
         <v>20</v>
@@ -4374,39 +4641,39 @@
         <v>1773</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" s="28" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M20" t="s">
+        <v>158</v>
+      </c>
+      <c r="N20" t="s">
         <v>154</v>
       </c>
-      <c r="N20" t="s">
-        <v>150</v>
-      </c>
       <c r="O20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D21" s="25">
         <v>20</v>
@@ -4415,39 +4682,39 @@
         <v>1773</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L21" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M21" t="s">
+        <v>164</v>
+      </c>
+      <c r="N21" t="s">
         <v>160</v>
       </c>
-      <c r="N21" t="s">
-        <v>156</v>
-      </c>
       <c r="O21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D22" s="25">
         <v>20</v>
@@ -4456,39 +4723,39 @@
         <v>1773</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22" s="28" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D23" s="25">
         <v>20</v>
@@ -4497,39 +4764,39 @@
         <v>1773</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G23" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" t="s">
+        <v>174</v>
+      </c>
+      <c r="N23" t="s">
         <v>169</v>
       </c>
-      <c r="M23" t="s">
-        <v>170</v>
-      </c>
-      <c r="N23" t="s">
-        <v>165</v>
-      </c>
       <c r="O23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D24" s="25">
         <v>28</v>
@@ -4538,39 +4805,39 @@
         <v>1774</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G24" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M24" t="s">
+        <v>180</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="O24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D25" s="25">
         <v>28</v>
@@ -4579,39 +4846,39 @@
         <v>1774</v>
       </c>
       <c r="F25" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G25" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M25" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="N25" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D26" s="25">
         <v>28</v>
@@ -4620,39 +4887,39 @@
         <v>1774</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26" s="8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M26" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N26" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D27" s="25">
         <v>28</v>
@@ -4661,39 +4928,39 @@
         <v>1774</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G27" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L27" t="s">
+        <v>198</v>
+      </c>
+      <c r="M27" t="s">
+        <v>199</v>
+      </c>
+      <c r="N27" t="s">
         <v>193</v>
       </c>
-      <c r="L27" t="s">
-        <v>194</v>
-      </c>
-      <c r="M27" t="s">
-        <v>195</v>
-      </c>
-      <c r="N27" t="s">
-        <v>189</v>
-      </c>
       <c r="O27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D28" s="25">
         <v>28</v>
@@ -4702,39 +4969,39 @@
         <v>1774</v>
       </c>
       <c r="F28" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G28" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28" s="8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s">
+        <v>204</v>
+      </c>
+      <c r="M28" t="s">
+        <v>205</v>
+      </c>
+      <c r="N28" t="s">
         <v>200</v>
       </c>
-      <c r="M28" t="s">
-        <v>201</v>
-      </c>
-      <c r="N28" t="s">
-        <v>196</v>
-      </c>
       <c r="O28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D29" s="25">
         <v>28</v>
@@ -4743,39 +5010,39 @@
         <v>1774</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G29" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29" s="8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L29" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s">
+        <v>211</v>
+      </c>
+      <c r="N29" t="s">
         <v>207</v>
       </c>
-      <c r="N29" t="s">
-        <v>203</v>
-      </c>
       <c r="O29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D30" s="25">
         <v>32</v>
@@ -4784,39 +5051,39 @@
         <v>1774</v>
       </c>
       <c r="F30" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G30" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L30" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M30" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="N30" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="O30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D31" s="25">
         <v>32</v>
@@ -4825,39 +5092,39 @@
         <v>1774</v>
       </c>
       <c r="F31" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G31" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" s="8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L31" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M31" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N31" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="O31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D32" s="25">
         <v>32</v>
@@ -4866,39 +5133,39 @@
         <v>1774</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G32" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32" s="8" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L32" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M32" t="s">
+        <v>230</v>
+      </c>
+      <c r="N32" t="s">
         <v>226</v>
       </c>
-      <c r="N32" t="s">
-        <v>222</v>
-      </c>
       <c r="O32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D33" s="25">
         <v>32</v>
@@ -4907,39 +5174,39 @@
         <v>1774</v>
       </c>
       <c r="F33" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G33" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33" s="8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s">
+        <v>236</v>
+      </c>
+      <c r="M33" t="s">
+        <v>237</v>
+      </c>
+      <c r="N33" t="s">
         <v>232</v>
       </c>
-      <c r="M33" t="s">
-        <v>233</v>
-      </c>
-      <c r="N33" t="s">
-        <v>228</v>
-      </c>
       <c r="O33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D34" s="25">
         <v>32</v>
@@ -4948,39 +5215,39 @@
         <v>1774</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G34" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34" s="8" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L34" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M34" t="s">
+        <v>243</v>
+      </c>
+      <c r="N34" t="s">
         <v>239</v>
       </c>
-      <c r="N34" t="s">
-        <v>235</v>
-      </c>
       <c r="O34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D35" s="25">
         <v>32</v>
@@ -4989,121 +5256,121 @@
         <v>1774</v>
       </c>
       <c r="F35" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M35" t="s">
+        <v>249</v>
+      </c>
+      <c r="N35" t="s">
         <v>245</v>
       </c>
-      <c r="N35" t="s">
-        <v>241</v>
-      </c>
       <c r="O35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E36">
         <v>1774</v>
       </c>
       <c r="F36" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G36" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36" s="8" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L36" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" t="s">
+        <v>256</v>
+      </c>
+      <c r="N36" t="s">
         <v>251</v>
       </c>
-      <c r="M36" t="s">
-        <v>252</v>
-      </c>
-      <c r="N36" t="s">
-        <v>247</v>
-      </c>
       <c r="O36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E37">
         <v>1775</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G37" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N37" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="O37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D38" s="25">
         <v>34</v>
@@ -5112,39 +5379,39 @@
         <v>1775</v>
       </c>
       <c r="F38" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G38" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s">
+        <v>276</v>
+      </c>
+      <c r="M38" t="s">
+        <v>277</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="M38" t="s">
-        <v>273</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="O38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D39" s="25">
         <v>34</v>
@@ -5153,39 +5420,39 @@
         <v>1775</v>
       </c>
       <c r="F39" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G39" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39" s="8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L39" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M39" t="s">
+        <v>283</v>
+      </c>
+      <c r="N39" t="s">
         <v>279</v>
       </c>
-      <c r="N39" t="s">
-        <v>275</v>
-      </c>
       <c r="O39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D40" s="25">
         <v>34</v>
@@ -5194,39 +5461,39 @@
         <v>1775</v>
       </c>
       <c r="F40" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G40" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L40" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M40" t="s">
+        <v>289</v>
+      </c>
+      <c r="N40" t="s">
         <v>285</v>
       </c>
-      <c r="N40" t="s">
-        <v>281</v>
-      </c>
       <c r="O40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D41" s="25">
         <v>34</v>
@@ -5235,39 +5502,39 @@
         <v>1775</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41" s="8" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L41" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M41" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N41" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="O41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D42" s="25">
         <v>34</v>
@@ -5276,79 +5543,79 @@
         <v>1775</v>
       </c>
       <c r="F42" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G42" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L42" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M42" t="s">
+        <v>298</v>
+      </c>
+      <c r="N42" t="s">
         <v>294</v>
       </c>
-      <c r="N42" t="s">
-        <v>290</v>
-      </c>
       <c r="O42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E43">
         <v>1775</v>
       </c>
       <c r="F43" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G43" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43" s="8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E44"/>
       <c r="G44"/>
@@ -5357,23 +5624,23 @@
       <c r="J44"/>
       <c r="K44" s="8"/>
       <c r="L44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M44" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D45" s="25">
         <v>43</v>
@@ -5382,39 +5649,39 @@
         <v>1777</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G45" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45" s="8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s">
+        <v>314</v>
+      </c>
+      <c r="M45" t="s">
+        <v>315</v>
+      </c>
+      <c r="N45" t="s">
         <v>310</v>
       </c>
-      <c r="M45" t="s">
-        <v>311</v>
-      </c>
-      <c r="N45" t="s">
-        <v>306</v>
-      </c>
       <c r="O45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
         <v>317</v>
-      </c>
-      <c r="B46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" t="s">
-        <v>313</v>
       </c>
       <c r="D46" s="25">
         <v>43</v>
@@ -5423,39 +5690,39 @@
         <v>1777</v>
       </c>
       <c r="F46" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G46" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46" s="8" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M46" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="N46" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D47" s="25">
         <v>43</v>
@@ -5464,39 +5731,39 @@
         <v>1777</v>
       </c>
       <c r="F47" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G47" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47" s="8" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L47" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M47" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N47" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="O47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D48" s="25">
         <v>43</v>
@@ -5505,39 +5772,39 @@
         <v>1777</v>
       </c>
       <c r="F48" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G48" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48" s="8" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L48" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M48" t="s">
+        <v>332</v>
+      </c>
+      <c r="N48" t="s">
         <v>328</v>
       </c>
-      <c r="N48" t="s">
-        <v>324</v>
-      </c>
       <c r="O48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D49" s="25">
         <v>43</v>
@@ -5546,39 +5813,39 @@
         <v>1777</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49" s="8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L49" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N49" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D50" s="25">
         <v>43</v>
@@ -5587,10 +5854,10 @@
         <v>1777</v>
       </c>
       <c r="F50" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G50" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
@@ -5599,21 +5866,21 @@
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="O50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
         <v>342</v>
-      </c>
-      <c r="B51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" t="s">
-        <v>338</v>
       </c>
       <c r="D51" s="25">
         <v>55</v>
@@ -5622,39 +5889,39 @@
         <v>1779</v>
       </c>
       <c r="F51" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G51" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L51" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M51" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N51" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="O51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D52" s="25">
         <v>55</v>
@@ -5663,10 +5930,10 @@
         <v>1779</v>
       </c>
       <c r="F52" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G52" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
@@ -5675,27 +5942,27 @@
         <v>35510</v>
       </c>
       <c r="L52" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M52" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D53" s="25">
         <v>55</v>
@@ -5704,39 +5971,39 @@
         <v>1779</v>
       </c>
       <c r="F53" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G53" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L53" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M53" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N53" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D54" s="25">
         <v>55</v>
@@ -5745,39 +6012,39 @@
         <v>1779</v>
       </c>
       <c r="F54" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G54" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54" s="8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L54" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M54" t="s">
+        <v>362</v>
+      </c>
+      <c r="N54" t="s">
         <v>358</v>
       </c>
-      <c r="N54" t="s">
-        <v>354</v>
-      </c>
       <c r="O54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D55" s="25">
         <v>55</v>
@@ -5786,39 +6053,39 @@
         <v>1779</v>
       </c>
       <c r="F55" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G55" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L55" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M55" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="O55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D56" s="25">
         <v>55</v>
@@ -5827,72 +6094,72 @@
         <v>1779</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56" s="8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L56" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M56" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N56" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="O56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E57">
         <v>1792</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57" s="8"/>
       <c r="L57" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M57" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D58" s="25">
         <v>112</v>
@@ -5901,39 +6168,39 @@
         <v>1792</v>
       </c>
       <c r="F58" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G58" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58" s="8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L58" t="s">
+        <v>382</v>
+      </c>
+      <c r="M58" t="s">
+        <v>383</v>
+      </c>
+      <c r="N58" t="s">
         <v>378</v>
       </c>
-      <c r="M58" t="s">
-        <v>379</v>
-      </c>
-      <c r="N58" t="s">
-        <v>374</v>
-      </c>
       <c r="O58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D59" s="25">
         <v>112</v>
@@ -5942,39 +6209,39 @@
         <v>1792</v>
       </c>
       <c r="F59" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G59" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59" s="8" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L59" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M59" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N59" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="O59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D60" s="25">
         <v>112</v>
@@ -5983,36 +6250,36 @@
         <v>1792</v>
       </c>
       <c r="F60" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G60" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="M60" t="s">
+        <v>394</v>
+      </c>
+      <c r="N60" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="M60" t="s">
+      <c r="O60" t="s">
         <v>390</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="O60" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D61" s="25">
         <v>112</v>
@@ -6021,39 +6288,39 @@
         <v>1792</v>
       </c>
       <c r="F61" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G61" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61" s="8" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L61" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M61" t="s">
+        <v>400</v>
+      </c>
+      <c r="N61" t="s">
         <v>396</v>
       </c>
-      <c r="N61" t="s">
-        <v>392</v>
-      </c>
       <c r="O61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D62" s="25">
         <v>112</v>
@@ -6062,80 +6329,80 @@
         <v>1792</v>
       </c>
       <c r="F62" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G62" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L62" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M62" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="O62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E63">
         <v>1792</v>
       </c>
       <c r="F63" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G63" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L63" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M63" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="O63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D64" s="25">
         <v>113</v>
@@ -6144,39 +6411,39 @@
         <v>1792</v>
       </c>
       <c r="F64" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G64" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64" s="8" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L64" t="s">
+        <v>421</v>
+      </c>
+      <c r="M64" t="s">
+        <v>422</v>
+      </c>
+      <c r="N64" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="M64" t="s">
-        <v>418</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="O64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D65" s="25">
         <v>113</v>
@@ -6185,39 +6452,39 @@
         <v>1792</v>
       </c>
       <c r="F65" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G65" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L65" t="s">
+        <v>428</v>
+      </c>
+      <c r="M65" t="s">
+        <v>429</v>
+      </c>
+      <c r="N65" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="M65" t="s">
-        <v>425</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="O65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D66" s="25">
         <v>113</v>
@@ -6226,39 +6493,39 @@
         <v>1792</v>
       </c>
       <c r="F66" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G66" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L66" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M66" t="s">
+        <v>435</v>
+      </c>
+      <c r="N66" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>427</v>
-      </c>
       <c r="O66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D67" s="25">
         <v>113</v>
@@ -6267,37 +6534,37 @@
         <v>1792</v>
       </c>
       <c r="F67" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G67" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L67" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M67" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="O67"/>
     </row>
     <row r="68" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D68" s="25">
         <v>113</v>
@@ -6306,39 +6573,39 @@
         <v>1792</v>
       </c>
       <c r="F68" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G68" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L68" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M68" t="s">
+        <v>446</v>
+      </c>
+      <c r="N68" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="N68" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="O68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D69" s="25">
         <v>113</v>
@@ -6347,39 +6614,39 @@
         <v>1792</v>
       </c>
       <c r="F69" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G69" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L69" t="s">
+        <v>452</v>
+      </c>
+      <c r="M69" t="s">
+        <v>453</v>
+      </c>
+      <c r="N69" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="M69" t="s">
-        <v>449</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>444</v>
-      </c>
       <c r="O69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D70" s="25">
         <v>113</v>
@@ -6388,72 +6655,72 @@
         <v>1793</v>
       </c>
       <c r="F70" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G70" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L70" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E71">
         <v>1794</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71" s="7"/>
       <c r="L71" s="18" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M71" s="18" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="N71" s="7"/>
       <c r="O71"/>
     </row>
     <row r="72" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D72" s="25">
         <v>121</v>
@@ -6462,35 +6729,35 @@
         <v>1794</v>
       </c>
       <c r="F72" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G72" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M72" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="O72"/>
     </row>
     <row r="73" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D73" s="25">
         <v>121</v>
@@ -6499,39 +6766,39 @@
         <v>1794</v>
       </c>
       <c r="F73" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G73" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L73" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D74" s="25">
         <v>121</v>
@@ -6540,39 +6807,39 @@
         <v>1794</v>
       </c>
       <c r="F74" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G74" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L74" t="s">
+        <v>481</v>
+      </c>
+      <c r="M74" t="s">
+        <v>482</v>
+      </c>
+      <c r="N74" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="L74" t="s">
-        <v>477</v>
-      </c>
-      <c r="M74" t="s">
-        <v>478</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="O74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D75" s="25">
         <v>121</v>
@@ -6581,39 +6848,39 @@
         <v>1794</v>
       </c>
       <c r="F75" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G75" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L75" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M75" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D76" s="25">
         <v>121</v>
@@ -6622,37 +6889,37 @@
         <v>1794</v>
       </c>
       <c r="F76" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G76" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L76" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M76" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="O76"/>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D77" s="25">
         <v>121</v>
@@ -6661,39 +6928,39 @@
         <v>1794</v>
       </c>
       <c r="F77" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G77" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="L77" t="s">
+        <v>496</v>
+      </c>
+      <c r="M77" t="s">
+        <v>497</v>
+      </c>
+      <c r="N77" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="M77" t="s">
-        <v>493</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>488</v>
-      </c>
       <c r="O77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D78" s="25">
         <v>121</v>
@@ -6702,39 +6969,39 @@
         <v>1794</v>
       </c>
       <c r="F78" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G78" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L78" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M78" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="O78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D79" s="25">
         <v>121</v>
@@ -6743,39 +7010,39 @@
         <v>1794</v>
       </c>
       <c r="F79" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G79" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L79" t="s">
+        <v>508</v>
+      </c>
+      <c r="M79" t="s">
+        <v>509</v>
+      </c>
+      <c r="N79" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="M79" t="s">
-        <v>505</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="O79" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D80" s="25">
         <v>156</v>
@@ -6784,43 +7051,43 @@
         <v>1801</v>
       </c>
       <c r="F80" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G80" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H80" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="I80" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="J80"/>
       <c r="K80" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L80" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="M80" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="O80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D81" s="25">
         <v>156</v>
@@ -6829,43 +7096,43 @@
         <v>1801</v>
       </c>
       <c r="F81" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G81" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H81" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="I81" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="J81"/>
       <c r="K81" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L81" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M81" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="O81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D82" s="25">
         <v>156</v>
@@ -6874,43 +7141,43 @@
         <v>1801</v>
       </c>
       <c r="F82" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G82" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H82" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="I82" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="J82"/>
       <c r="K82" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="L82" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="M82" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="O82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D83" s="25">
         <v>156</v>
@@ -6919,43 +7186,43 @@
         <v>1801</v>
       </c>
       <c r="F83" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G83" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H83" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="I83" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="J83"/>
       <c r="K83" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="L83" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="M83" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="O83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D84" s="25">
         <v>156</v>
@@ -6964,43 +7231,43 @@
         <v>1801</v>
       </c>
       <c r="F84" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G84" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H84" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="I84" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="J84"/>
       <c r="K84" s="19" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="L84" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="M84" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="O84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D85" s="25">
         <v>156</v>
@@ -7009,43 +7276,43 @@
         <v>1801</v>
       </c>
       <c r="F85" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G85" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H85" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="I85" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="J85"/>
       <c r="K85" s="19" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L85" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M85" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="O85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D86" s="25">
         <v>156</v>
@@ -7054,43 +7321,43 @@
         <v>1801</v>
       </c>
       <c r="F86" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G86" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H86" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="I86" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="J86"/>
       <c r="K86" s="19" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="L86" t="s">
+        <v>567</v>
+      </c>
+      <c r="M86" t="s">
+        <v>568</v>
+      </c>
+      <c r="N86" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="M86" t="s">
-        <v>564</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>559</v>
-      </c>
       <c r="O86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C87" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D87" s="25">
         <v>170</v>
@@ -7099,43 +7366,43 @@
         <v>1803</v>
       </c>
       <c r="F87" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="G87" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H87" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="I87" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="J87"/>
       <c r="K87" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="L87" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="M87" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="O87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C88" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D88" s="25">
         <v>170</v>
@@ -7144,43 +7411,43 @@
         <v>1803</v>
       </c>
       <c r="F88" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="G88" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H88" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="I88" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="J88"/>
       <c r="K88" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="L88" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="M88" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="O88" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D89" s="25">
         <v>170</v>
@@ -7189,40 +7456,40 @@
         <v>1803</v>
       </c>
       <c r="F89" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="G89" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="H89" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="I89" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="J89"/>
       <c r="K89" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="M89" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="O89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D90" s="25">
         <v>170</v>
@@ -7231,43 +7498,43 @@
         <v>1803</v>
       </c>
       <c r="F90" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G90" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="H90" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I90" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="J90"/>
       <c r="K90" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="L90" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="M90" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="O90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D91" s="25">
         <v>170</v>
@@ -7276,43 +7543,43 @@
         <v>1804</v>
       </c>
       <c r="F91" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="G91" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="H91" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="I91" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="J91"/>
       <c r="K91" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L91" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="M91" t="s">
+        <v>609</v>
+      </c>
+      <c r="N91" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>601</v>
-      </c>
       <c r="O91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D92" s="25">
         <v>170</v>
@@ -7321,43 +7588,43 @@
         <v>1804</v>
       </c>
       <c r="F92" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="G92" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="H92" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="I92" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="J92"/>
       <c r="K92" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="L92" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="M92" t="s">
+        <v>618</v>
+      </c>
+      <c r="N92" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="N92" s="3" t="s">
-        <v>610</v>
-      </c>
       <c r="O92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C93" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D93" s="25">
         <v>170</v>
@@ -7366,43 +7633,43 @@
         <v>1804</v>
       </c>
       <c r="F93" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G93" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H93" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="I93" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="J93"/>
       <c r="K93" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="L93" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="M93" t="s">
+        <v>625</v>
+      </c>
+      <c r="N93" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="N93" s="3" t="s">
-        <v>617</v>
-      </c>
       <c r="O93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D94" s="25">
         <v>170</v>
@@ -7411,81 +7678,81 @@
         <v>1804</v>
       </c>
       <c r="F94" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="G94" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="H94" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="I94" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="J94"/>
       <c r="K94" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="M94" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="O94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E95">
         <v>1804</v>
       </c>
       <c r="F95" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="G95" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="L95" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="M95" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="O95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D96" s="25">
         <v>175</v>
@@ -7494,43 +7761,43 @@
         <v>1804</v>
       </c>
       <c r="F96" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="G96" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H96" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I96" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="J96"/>
       <c r="K96" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="L96" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="M96" t="s">
+        <v>648</v>
+      </c>
+      <c r="N96" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="N96" s="3" t="s">
-        <v>640</v>
-      </c>
       <c r="O96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D97" s="25">
         <v>175</v>
@@ -7539,41 +7806,41 @@
         <v>1804</v>
       </c>
       <c r="F97" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="G97" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="H97" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="I97" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="J97"/>
       <c r="K97" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="L97" t="s">
+        <v>656</v>
+      </c>
+      <c r="M97" t="s">
+        <v>657</v>
+      </c>
+      <c r="N97" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="M97" t="s">
-        <v>653</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>648</v>
       </c>
       <c r="O97"/>
     </row>
     <row r="98" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D98" s="25">
         <v>175</v>
@@ -7582,43 +7849,43 @@
         <v>1804</v>
       </c>
       <c r="F98" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="G98" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="H98" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="I98" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="J98"/>
       <c r="K98" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="L98" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="M98" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D99" s="25">
         <v>175</v>
@@ -7627,43 +7894,43 @@
         <v>1805</v>
       </c>
       <c r="F99" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="G99" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="H99" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="I99" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="J99"/>
       <c r="K99" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="L99" s="18" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="M99" s="18" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="O99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D100" s="25">
         <v>175</v>
@@ -7672,43 +7939,43 @@
         <v>1805</v>
       </c>
       <c r="F100" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="G100" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="H100" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="I100" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="J100"/>
       <c r="K100" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="L100" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="M100" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="O100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D101" s="25">
         <v>175</v>
@@ -7717,43 +7984,43 @@
         <v>1805</v>
       </c>
       <c r="F101" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="G101" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H101" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="I101" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="J101"/>
       <c r="K101" s="7" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="L101" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="M101" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="O101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D102" s="25">
         <v>175</v>
@@ -7762,43 +8029,43 @@
         <v>1805</v>
       </c>
       <c r="F102" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="H102" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I102" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J102"/>
       <c r="K102" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L102" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="M102" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="O102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D103" s="25">
         <v>175</v>
@@ -7807,41 +8074,41 @@
         <v>1805</v>
       </c>
       <c r="F103" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="G103" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="H103" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="I103" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="J103"/>
       <c r="K103" s="7" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="L103" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="M103" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="O103"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C104" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D104" s="25">
         <v>175</v>
@@ -7850,66 +8117,66 @@
         <v>1805</v>
       </c>
       <c r="F104" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G104" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H104" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="I104" t="s">
+        <v>713</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="L104" t="s">
+        <v>711</v>
+      </c>
+      <c r="M104" t="s">
+        <v>712</v>
+      </c>
+      <c r="N104" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="K104" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="L104" t="s">
-        <v>707</v>
-      </c>
-      <c r="M104" t="s">
-        <v>708</v>
-      </c>
-      <c r="N104" s="3" t="s">
-        <v>705</v>
-      </c>
       <c r="O104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="B105" t="s">
+        <v>714</v>
+      </c>
+      <c r="C105" t="s">
+        <v>717</v>
+      </c>
+      <c r="D105" s="17" t="s">
         <v>716</v>
-      </c>
-      <c r="B105" t="s">
-        <v>710</v>
-      </c>
-      <c r="C105" t="s">
-        <v>713</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>712</v>
       </c>
       <c r="E105">
         <v>1806</v>
       </c>
       <c r="H105" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="I105" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="N105"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B106" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C106" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D106" s="25">
         <v>6</v>
@@ -7918,39 +8185,39 @@
         <v>1806</v>
       </c>
       <c r="F106" t="s">
+        <v>727</v>
+      </c>
+      <c r="G106" t="s">
+        <v>460</v>
+      </c>
+      <c r="H106" t="s">
+        <v>726</v>
+      </c>
+      <c r="I106" t="s">
+        <v>728</v>
+      </c>
+      <c r="K106" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="G106" t="s">
-        <v>456</v>
-      </c>
-      <c r="H106" t="s">
-        <v>722</v>
-      </c>
-      <c r="I106" t="s">
+      <c r="L106" t="s">
         <v>724</v>
       </c>
-      <c r="K106" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="L106" t="s">
-        <v>720</v>
-      </c>
       <c r="M106" t="s">
+        <v>725</v>
+      </c>
+      <c r="N106" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="N106" s="3" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B107" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C107" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D107" s="25">
         <v>6</v>
@@ -7959,42 +8226,42 @@
         <v>1806</v>
       </c>
       <c r="F107" t="s">
+        <v>735</v>
+      </c>
+      <c r="G107" t="s">
+        <v>737</v>
+      </c>
+      <c r="H107" t="s">
+        <v>734</v>
+      </c>
+      <c r="I107" t="s">
+        <v>736</v>
+      </c>
+      <c r="K107" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="G107" t="s">
+      <c r="L107" t="s">
+        <v>732</v>
+      </c>
+      <c r="M107" t="s">
         <v>733</v>
       </c>
-      <c r="H107" t="s">
-        <v>730</v>
-      </c>
-      <c r="I107" t="s">
-        <v>732</v>
-      </c>
-      <c r="K107" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="L107" t="s">
-        <v>728</v>
-      </c>
-      <c r="M107" t="s">
+      <c r="N107" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="N107" s="3" t="s">
-        <v>725</v>
-      </c>
       <c r="O107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B108" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C108" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D108" s="25">
         <v>6</v>
@@ -8003,42 +8270,42 @@
         <v>1806</v>
       </c>
       <c r="F108" t="s">
+        <v>745</v>
+      </c>
+      <c r="G108" t="s">
+        <v>740</v>
+      </c>
+      <c r="H108" t="s">
+        <v>698</v>
+      </c>
+      <c r="I108" t="s">
+        <v>744</v>
+      </c>
+      <c r="K108" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="G108" t="s">
-        <v>736</v>
-      </c>
-      <c r="H108" t="s">
-        <v>694</v>
-      </c>
-      <c r="I108" t="s">
-        <v>740</v>
-      </c>
-      <c r="K108" s="7" t="s">
-        <v>737</v>
-      </c>
       <c r="L108" t="s">
+        <v>742</v>
+      </c>
+      <c r="M108" t="s">
+        <v>743</v>
+      </c>
+      <c r="N108" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="M108" t="s">
-        <v>739</v>
-      </c>
-      <c r="N108" s="3" t="s">
-        <v>734</v>
-      </c>
       <c r="O108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B109" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C109" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D109" s="25">
         <v>6</v>
@@ -8047,39 +8314,39 @@
         <v>1806</v>
       </c>
       <c r="F109" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G109" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="H109" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="I109" t="s">
+        <v>753</v>
+      </c>
+      <c r="K109" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="K109" s="7" t="s">
-        <v>745</v>
-      </c>
       <c r="L109" t="s">
+        <v>750</v>
+      </c>
+      <c r="M109" t="s">
+        <v>751</v>
+      </c>
+      <c r="N109" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="M109" t="s">
-        <v>747</v>
-      </c>
-      <c r="N109" s="3" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B110" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C110" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D110" s="25">
         <v>6</v>
@@ -8088,36 +8355,36 @@
         <v>1806</v>
       </c>
       <c r="F110" t="s">
+        <v>759</v>
+      </c>
+      <c r="G110" t="s">
+        <v>760</v>
+      </c>
+      <c r="H110" t="s">
+        <v>757</v>
+      </c>
+      <c r="I110" t="s">
+        <v>758</v>
+      </c>
+      <c r="K110" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="G110" t="s">
+      <c r="L110" t="s">
         <v>756</v>
       </c>
-      <c r="H110" t="s">
-        <v>753</v>
-      </c>
-      <c r="I110" t="s">
-        <v>754</v>
-      </c>
-      <c r="K110" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="L110" t="s">
-        <v>752</v>
-      </c>
       <c r="N110" s="3" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B111" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C111" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D111" s="25">
         <v>6</v>
@@ -8126,39 +8393,39 @@
         <v>1806</v>
       </c>
       <c r="F111" t="s">
+        <v>769</v>
+      </c>
+      <c r="G111" t="s">
+        <v>770</v>
+      </c>
+      <c r="H111" t="s">
+        <v>766</v>
+      </c>
+      <c r="I111" t="s">
+        <v>767</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="L111" t="s">
+        <v>764</v>
+      </c>
+      <c r="M111" t="s">
         <v>765</v>
       </c>
-      <c r="G111" t="s">
-        <v>766</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="N111" s="3" t="s">
         <v>762</v>
-      </c>
-      <c r="I111" t="s">
-        <v>763</v>
-      </c>
-      <c r="K111" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="L111" t="s">
-        <v>760</v>
-      </c>
-      <c r="M111" t="s">
-        <v>761</v>
-      </c>
-      <c r="N111" s="3" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B112" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C112" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D112" s="25">
         <v>11</v>
@@ -8167,39 +8434,39 @@
         <v>1806</v>
       </c>
       <c r="F112" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="G112" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="H112" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I112" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L112" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="B113" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C113" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D113" s="25">
         <v>11</v>
@@ -8208,42 +8475,42 @@
         <v>1806</v>
       </c>
       <c r="F113" t="s">
+        <v>783</v>
+      </c>
+      <c r="G113" t="s">
+        <v>784</v>
+      </c>
+      <c r="H113" t="s">
+        <v>780</v>
+      </c>
+      <c r="I113" t="s">
+        <v>781</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="L113" t="s">
+        <v>778</v>
+      </c>
+      <c r="M113" t="s">
         <v>779</v>
       </c>
-      <c r="G113" t="s">
-        <v>780</v>
-      </c>
-      <c r="H113" t="s">
-        <v>776</v>
-      </c>
-      <c r="I113" t="s">
-        <v>777</v>
-      </c>
-      <c r="K113" s="7" t="s">
-        <v>773</v>
-      </c>
-      <c r="L113" t="s">
-        <v>774</v>
-      </c>
-      <c r="M113" t="s">
-        <v>775</v>
-      </c>
       <c r="N113" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B114" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C114" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D114" s="25">
         <v>11</v>
@@ -8252,42 +8519,42 @@
         <v>1806</v>
       </c>
       <c r="F114" t="s">
+        <v>789</v>
+      </c>
+      <c r="G114" t="s">
+        <v>792</v>
+      </c>
+      <c r="H114" t="s">
+        <v>790</v>
+      </c>
+      <c r="I114" t="s">
+        <v>791</v>
+      </c>
+      <c r="K114" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="G114" t="s">
+      <c r="L114" t="s">
+        <v>787</v>
+      </c>
+      <c r="M114" t="s">
         <v>788</v>
       </c>
-      <c r="H114" t="s">
-        <v>786</v>
-      </c>
-      <c r="I114" t="s">
-        <v>787</v>
-      </c>
-      <c r="K114" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="L114" t="s">
-        <v>783</v>
-      </c>
-      <c r="M114" t="s">
-        <v>784</v>
-      </c>
       <c r="N114" s="3" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="O114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B115" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C115" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D115" s="25">
         <v>11</v>
@@ -8296,42 +8563,42 @@
         <v>1806</v>
       </c>
       <c r="F115" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G115" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H115" t="s">
+        <v>797</v>
+      </c>
+      <c r="I115" t="s">
+        <v>628</v>
+      </c>
+      <c r="K115" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="I115" t="s">
-        <v>624</v>
-      </c>
-      <c r="K115" s="7" t="s">
-        <v>789</v>
-      </c>
       <c r="L115" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="M115" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="O115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B116" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C116" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D116" s="25">
         <v>11</v>
@@ -8340,42 +8607,42 @@
         <v>1806</v>
       </c>
       <c r="F116" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="G116" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="H116" t="s">
+        <v>802</v>
+      </c>
+      <c r="I116" t="s">
+        <v>690</v>
+      </c>
+      <c r="K116" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="I116" t="s">
-        <v>686</v>
-      </c>
-      <c r="K116" s="7" t="s">
-        <v>794</v>
-      </c>
       <c r="L116" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="M116" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="O116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B117" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C117" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D117" s="25">
         <v>40</v>
@@ -8384,28 +8651,28 @@
         <v>1809</v>
       </c>
       <c r="H117" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="I117" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="L117" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="M117" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="N117"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B118" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C118" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D118" s="25">
         <v>40</v>
@@ -8414,42 +8681,42 @@
         <v>1809</v>
       </c>
       <c r="F118" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="G118" t="s">
+        <v>819</v>
+      </c>
+      <c r="H118" t="s">
         <v>815</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
+        <v>816</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="L118" t="s">
+        <v>817</v>
+      </c>
+      <c r="M118" t="s">
+        <v>818</v>
+      </c>
+      <c r="N118" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="I118" t="s">
-        <v>812</v>
-      </c>
-      <c r="K118" s="7" t="s">
-        <v>808</v>
-      </c>
-      <c r="L118" t="s">
-        <v>813</v>
-      </c>
-      <c r="M118" t="s">
-        <v>814</v>
-      </c>
-      <c r="N118" s="3" t="s">
-        <v>807</v>
-      </c>
       <c r="O118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B119" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C119" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D119" s="25">
         <v>40</v>
@@ -8458,36 +8725,36 @@
         <v>1809</v>
       </c>
       <c r="F119" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="G119" t="s">
+        <v>819</v>
+      </c>
+      <c r="H119" t="s">
         <v>815</v>
       </c>
-      <c r="H119" t="s">
-        <v>811</v>
-      </c>
       <c r="I119" t="s">
+        <v>816</v>
+      </c>
+      <c r="K119" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="K119" s="7" t="s">
-        <v>808</v>
-      </c>
       <c r="N119" s="7" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="O119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="B120" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C120" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D120" s="25">
         <v>40</v>
@@ -8496,28 +8763,28 @@
         <v>1809</v>
       </c>
       <c r="F120" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="G120" t="s">
+        <v>825</v>
+      </c>
+      <c r="H120" t="s">
+        <v>826</v>
+      </c>
+      <c r="I120" t="s">
+        <v>827</v>
+      </c>
+      <c r="K120" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="H120" t="s">
-        <v>822</v>
-      </c>
-      <c r="I120" t="s">
+      <c r="M120" t="s">
+        <v>828</v>
+      </c>
+      <c r="N120" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="O120" t="s">
         <v>823</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>817</v>
-      </c>
-      <c r="M120" t="s">
-        <v>824</v>
-      </c>
-      <c r="N120" s="7" t="s">
-        <v>817</v>
-      </c>
-      <c r="O120" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
@@ -8525,10 +8792,10 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C121" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D121" s="25">
         <v>40</v>
@@ -8540,13 +8807,13 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B122" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C122" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D122" s="25">
         <v>40</v>
@@ -8555,36 +8822,36 @@
         <v>1809</v>
       </c>
       <c r="F122" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="G122" t="s">
+        <v>834</v>
+      </c>
+      <c r="H122" t="s">
+        <v>832</v>
+      </c>
+      <c r="I122" t="s">
+        <v>833</v>
+      </c>
+      <c r="K122" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="N122" t="s">
         <v>830</v>
       </c>
-      <c r="H122" t="s">
-        <v>828</v>
-      </c>
-      <c r="I122" t="s">
-        <v>829</v>
-      </c>
-      <c r="K122" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="N122" t="s">
-        <v>826</v>
-      </c>
       <c r="O122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="B123" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C123" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D123" s="25">
         <v>40</v>
@@ -8593,42 +8860,42 @@
         <v>1809</v>
       </c>
       <c r="F123" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G123" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H123" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="I123" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="L123" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="M123" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="N123" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="O123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="B124" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C124" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D124" s="25">
         <v>40</v>
@@ -8637,39 +8904,39 @@
         <v>1809</v>
       </c>
       <c r="F124" t="s">
+        <v>846</v>
+      </c>
+      <c r="G124" t="s">
         <v>842</v>
       </c>
-      <c r="G124" t="s">
-        <v>838</v>
-      </c>
       <c r="H124" t="s">
+        <v>847</v>
+      </c>
+      <c r="I124" t="s">
         <v>843</v>
       </c>
-      <c r="I124" t="s">
-        <v>839</v>
-      </c>
       <c r="K124" s="7" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="L124" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="M124" t="s">
+        <v>845</v>
+      </c>
+      <c r="N124" t="s">
         <v>841</v>
-      </c>
-      <c r="N124" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="B125" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C125" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D125" s="25">
         <v>40</v>
@@ -8678,18 +8945,18 @@
         <v>1809</v>
       </c>
       <c r="N125" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="B126" t="s">
+        <v>714</v>
+      </c>
+      <c r="C126" t="s">
         <v>851</v>
-      </c>
-      <c r="B126" t="s">
-        <v>710</v>
-      </c>
-      <c r="C126" t="s">
-        <v>847</v>
       </c>
       <c r="D126" s="25">
         <v>96</v>
@@ -8698,39 +8965,39 @@
         <v>1813</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G126" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H126" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="I126" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="L126" t="s">
+        <v>858</v>
+      </c>
+      <c r="M126" t="s">
+        <v>859</v>
+      </c>
+      <c r="N126" s="3" t="s">
         <v>854</v>
-      </c>
-      <c r="M126" t="s">
-        <v>855</v>
-      </c>
-      <c r="N126" s="3" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B127" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C127" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="D127" s="25">
         <v>96</v>
@@ -8739,86 +9006,86 @@
         <v>1813</v>
       </c>
       <c r="F127" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="G127" t="s">
+        <v>864</v>
+      </c>
+      <c r="H127" t="s">
+        <v>863</v>
+      </c>
+      <c r="I127" t="s">
+        <v>865</v>
+      </c>
+      <c r="K127" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="H127" t="s">
-        <v>859</v>
-      </c>
-      <c r="I127" t="s">
-        <v>861</v>
-      </c>
-      <c r="K127" s="8" t="s">
-        <v>856</v>
-      </c>
       <c r="L127" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="M127" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="N127" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="O127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B128" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C128" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="E128">
         <v>1813</v>
       </c>
       <c r="F128" t="s">
+        <v>875</v>
+      </c>
+      <c r="G128" t="s">
+        <v>876</v>
+      </c>
+      <c r="H128" t="s">
         <v>871</v>
       </c>
-      <c r="G128" t="s">
+      <c r="I128" t="s">
         <v>872</v>
       </c>
-      <c r="H128" t="s">
-        <v>867</v>
-      </c>
-      <c r="I128" t="s">
+      <c r="K128" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="K128" s="8" t="s">
-        <v>864</v>
-      </c>
       <c r="L128" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="M128" t="s">
+        <v>874</v>
+      </c>
+      <c r="N128" t="s">
+        <v>868</v>
+      </c>
+      <c r="O128" t="s">
         <v>870</v>
-      </c>
-      <c r="N128" t="s">
-        <v>864</v>
-      </c>
-      <c r="O128" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B129" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C129" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="D129" s="25">
         <v>97</v>
@@ -8827,98 +9094,98 @@
         <v>1813</v>
       </c>
       <c r="F129" t="s">
+        <v>875</v>
+      </c>
+      <c r="G129" t="s">
+        <v>876</v>
+      </c>
+      <c r="H129" t="s">
         <v>871</v>
       </c>
-      <c r="G129" t="s">
+      <c r="I129" t="s">
         <v>872</v>
       </c>
-      <c r="H129" t="s">
-        <v>867</v>
-      </c>
-      <c r="I129" t="s">
+      <c r="K129" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="K129" s="8" t="s">
-        <v>864</v>
-      </c>
       <c r="L129" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="M129" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="N129" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="O129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B130" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C130" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="E130">
         <v>1813</v>
       </c>
       <c r="F130" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="G130" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H130" t="s">
+        <v>884</v>
+      </c>
+      <c r="N130" t="s">
         <v>880</v>
       </c>
-      <c r="N130" t="s">
-        <v>876</v>
-      </c>
       <c r="O130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B131" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C131" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="E131">
         <v>1816</v>
       </c>
       <c r="L131" t="s">
+        <v>892</v>
+      </c>
+      <c r="M131" t="s">
         <v>888</v>
-      </c>
-      <c r="M131" t="s">
-        <v>884</v>
       </c>
       <c r="N131"/>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B132" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C132" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="D132" s="6">
         <v>150</v>
@@ -8927,83 +9194,83 @@
         <v>1816</v>
       </c>
       <c r="F132" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="G132" t="s">
+        <v>895</v>
+      </c>
+      <c r="H132" t="s">
+        <v>673</v>
+      </c>
+      <c r="I132" t="s">
         <v>891</v>
       </c>
-      <c r="H132" t="s">
-        <v>669</v>
-      </c>
-      <c r="I132" t="s">
-        <v>887</v>
-      </c>
       <c r="K132" s="8" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="L132" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="M132" t="s">
+        <v>894</v>
+      </c>
+      <c r="N132" t="s">
         <v>890</v>
       </c>
-      <c r="N132" t="s">
-        <v>886</v>
-      </c>
       <c r="O132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B133" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C133" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="E133">
         <v>1816</v>
       </c>
       <c r="F133" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="G133" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="H133" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="I133" t="s">
+        <v>902</v>
+      </c>
+      <c r="K133" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="K133" s="7" t="s">
-        <v>894</v>
-      </c>
       <c r="M133" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="N133" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="O133" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B134" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C134" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="D134" s="6">
         <v>151</v>
@@ -9012,104 +9279,104 @@
         <v>1816</v>
       </c>
       <c r="F134" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="G134" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H134" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="I134" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="L134" t="s">
+        <v>909</v>
+      </c>
+      <c r="M134" t="s">
+        <v>894</v>
+      </c>
+      <c r="N134" t="s">
         <v>905</v>
       </c>
-      <c r="M134" t="s">
-        <v>890</v>
-      </c>
-      <c r="N134" t="s">
-        <v>901</v>
-      </c>
       <c r="O134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B135" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C135" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="E135">
         <v>1816</v>
       </c>
       <c r="F135" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="G135" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H135" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I135" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="N135" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B136" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C136" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E136">
         <v>1831</v>
       </c>
       <c r="H136" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="I136" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="L136" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M136" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="N136"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="B137" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C137" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="D137" s="6">
         <v>113</v>
@@ -9118,83 +9385,83 @@
         <v>1831</v>
       </c>
       <c r="F137" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="G137" t="s">
+        <v>930</v>
+      </c>
+      <c r="H137" t="s">
+        <v>927</v>
+      </c>
+      <c r="I137" t="s">
+        <v>928</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="L137" t="s">
+        <v>47</v>
+      </c>
+      <c r="M137" t="s">
         <v>926</v>
       </c>
-      <c r="H137" t="s">
-        <v>923</v>
-      </c>
-      <c r="I137" t="s">
-        <v>924</v>
-      </c>
-      <c r="K137" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="L137" t="s">
-        <v>43</v>
-      </c>
-      <c r="M137" t="s">
+      <c r="N137" t="s">
         <v>922</v>
       </c>
-      <c r="N137" t="s">
-        <v>918</v>
-      </c>
       <c r="O137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="B138" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C138" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="E138">
         <v>1831</v>
       </c>
       <c r="F138" t="s">
+        <v>938</v>
+      </c>
+      <c r="G138" t="s">
+        <v>939</v>
+      </c>
+      <c r="H138" t="s">
+        <v>935</v>
+      </c>
+      <c r="I138" t="s">
+        <v>936</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="L138" t="s">
+        <v>584</v>
+      </c>
+      <c r="M138" t="s">
         <v>934</v>
       </c>
-      <c r="G138" t="s">
-        <v>935</v>
-      </c>
-      <c r="H138" t="s">
-        <v>931</v>
-      </c>
-      <c r="I138" t="s">
+      <c r="N138" t="s">
         <v>932</v>
-      </c>
-      <c r="K138" s="7" t="s">
-        <v>929</v>
-      </c>
-      <c r="L138" t="s">
-        <v>580</v>
-      </c>
-      <c r="M138" t="s">
-        <v>930</v>
-      </c>
-      <c r="N138" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="B139" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C139" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="D139" s="6">
         <v>114</v>
@@ -9203,36 +9470,36 @@
         <v>1831</v>
       </c>
       <c r="F139" t="s">
+        <v>945</v>
+      </c>
+      <c r="G139" t="s">
+        <v>946</v>
+      </c>
+      <c r="H139" t="s">
+        <v>943</v>
+      </c>
+      <c r="I139" t="s">
+        <v>944</v>
+      </c>
+      <c r="K139" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="M139" t="s">
+        <v>942</v>
+      </c>
+      <c r="N139" t="s">
         <v>941</v>
-      </c>
-      <c r="G139" t="s">
-        <v>942</v>
-      </c>
-      <c r="H139" t="s">
-        <v>939</v>
-      </c>
-      <c r="I139" t="s">
-        <v>940</v>
-      </c>
-      <c r="K139" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="M139" t="s">
-        <v>938</v>
-      </c>
-      <c r="N139" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="B140" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C140" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="D140" s="6">
         <v>114</v>
@@ -9241,18 +9508,18 @@
         <v>1831</v>
       </c>
       <c r="N140" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="B141" t="s">
         <v>950</v>
       </c>
-      <c r="B141" t="s">
-        <v>946</v>
-      </c>
       <c r="C141" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="D141" s="6">
         <v>509</v>
@@ -9261,69 +9528,69 @@
         <v>1834</v>
       </c>
       <c r="F141" t="s">
+        <v>959</v>
+      </c>
+      <c r="G141" t="s">
+        <v>960</v>
+      </c>
+      <c r="H141" t="s">
+        <v>957</v>
+      </c>
+      <c r="I141" t="s">
+        <v>958</v>
+      </c>
+      <c r="K141" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="L141" t="s">
         <v>955</v>
       </c>
-      <c r="G141" t="s">
+      <c r="M141" t="s">
         <v>956</v>
       </c>
-      <c r="H141" t="s">
-        <v>953</v>
-      </c>
-      <c r="I141" t="s">
-        <v>954</v>
-      </c>
-      <c r="K141" s="7" t="s">
-        <v>949</v>
-      </c>
-      <c r="L141" t="s">
-        <v>951</v>
-      </c>
-      <c r="M141" t="s">
+      <c r="N141" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="N141" s="3" t="s">
-        <v>948</v>
-      </c>
       <c r="O141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="B142" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="C142" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="E142">
         <v>1834</v>
       </c>
       <c r="F142" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="G142" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="H142" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="I142" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="K142" s="7">
         <v>12436</v>
       </c>
       <c r="L142" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="M142" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="N142" s="3">
         <v>12438</v>
@@ -9331,13 +9598,13 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="B143" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="C143" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="D143" s="6">
         <v>510</v>
@@ -9346,86 +9613,86 @@
         <v>1834</v>
       </c>
       <c r="F143" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="G143" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="H143" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="I143" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="L143" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="M143" t="s">
+        <v>975</v>
+      </c>
+      <c r="N143" t="s">
         <v>971</v>
       </c>
-      <c r="N143" t="s">
-        <v>967</v>
-      </c>
       <c r="O143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="B144" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="C144" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="E144">
         <v>1834</v>
       </c>
       <c r="F144" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="G144" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="H144" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="I144" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="L144" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="M144" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="N144" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="O144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="B145" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="C145" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="D145" s="6">
         <v>511</v>
@@ -9434,42 +9701,42 @@
         <v>1834</v>
       </c>
       <c r="F145" t="s">
+        <v>987</v>
+      </c>
+      <c r="G145" t="s">
+        <v>988</v>
+      </c>
+      <c r="H145" t="s">
+        <v>985</v>
+      </c>
+      <c r="I145" t="s">
+        <v>986</v>
+      </c>
+      <c r="K145" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="L145" t="s">
         <v>983</v>
       </c>
-      <c r="G145" t="s">
+      <c r="M145" t="s">
         <v>984</v>
       </c>
-      <c r="H145" t="s">
-        <v>981</v>
-      </c>
-      <c r="I145" t="s">
-        <v>982</v>
-      </c>
-      <c r="K145" s="7" t="s">
-        <v>977</v>
-      </c>
-      <c r="L145" t="s">
-        <v>979</v>
-      </c>
-      <c r="M145" t="s">
+      <c r="N145" t="s">
         <v>980</v>
       </c>
-      <c r="N145" t="s">
-        <v>976</v>
-      </c>
       <c r="O145" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="B146" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="C146" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="D146" s="6">
         <v>511</v>
@@ -9478,81 +9745,466 @@
         <v>1834</v>
       </c>
       <c r="F146" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="G146" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="H146" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="I146" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="L146" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="M146" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="N146" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="O146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="B147" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="C147" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>997</v>
+        <v>1001</v>
+      </c>
+      <c r="E147">
+        <v>1834</v>
       </c>
       <c r="N147" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" s="27" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B148" t="s">
+        <v>950</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E148">
+        <v>1834</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1004</v>
+      </c>
       <c r="N148"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N149"/>
+      <c r="A149" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B149" t="s">
+        <v>950</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D149" s="6">
+        <v>535</v>
+      </c>
+      <c r="E149">
+        <v>1834</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K149" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L149" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M149" t="s">
+        <v>474</v>
+      </c>
+      <c r="N149" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N150" s="3"/>
+      <c r="A150" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B150" t="s">
+        <v>950</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E150">
+        <v>1834</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K150" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L150" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M150" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="O150" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N151" s="7"/>
+      <c r="A151" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B151" t="s">
+        <v>950</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D151" s="6">
+        <v>536</v>
+      </c>
+      <c r="E151">
+        <v>1834</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K151" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L151" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M151" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N151" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="O151" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A152" s="27" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B152" t="s">
+        <v>950</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E152">
+        <v>1843</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K152" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L152" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M152" t="s">
+        <v>1038</v>
+      </c>
       <c r="N152"/>
+      <c r="O152" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N153"/>
+      <c r="A153" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B153" t="s">
+        <v>950</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D153" s="6">
+        <v>731</v>
+      </c>
+      <c r="E153">
+        <v>1843</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K153" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L153" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M153" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N153" t="s">
+        <v>29</v>
+      </c>
+      <c r="O153" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N154"/>
+      <c r="A154" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B154" t="s">
+        <v>950</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E154">
+        <v>1843</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K154" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L154" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M154" t="s">
+        <v>1060</v>
+      </c>
+      <c r="N154" t="s">
+        <v>1053</v>
+      </c>
+      <c r="O154" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N155"/>
+      <c r="A155" s="11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B155" t="s">
+        <v>950</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D155" s="6">
+        <v>732</v>
+      </c>
+      <c r="E155">
+        <v>1843</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H155" t="s">
+        <v>927</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K155" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L155" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M155" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N155" t="s">
+        <v>26</v>
+      </c>
+      <c r="O155" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N156"/>
+      <c r="A156" s="27" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B156" t="s">
+        <v>950</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E156">
+        <v>1843</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K156" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L156" t="s">
+        <v>1073</v>
+      </c>
+      <c r="M156" t="s">
+        <v>1074</v>
+      </c>
+      <c r="N156" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N157"/>
+      <c r="A157" s="27" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B157" t="s">
+        <v>950</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E157">
+        <v>1843</v>
+      </c>
+      <c r="F157" t="s">
+        <v>19</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K157" s="8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L157" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M157" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N157" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>950</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D158" s="6">
+        <v>743</v>
+      </c>
+      <c r="E158">
+        <v>1844</v>
+      </c>
       <c r="N158"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AB29C2-1A69-4254-9CE0-220FF0C79A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194442A4-2D32-43E7-86BD-2C7CDCF0617A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1213">
   <si>
     <t>Cognoms</t>
   </si>
@@ -1819,6 +1819,9 @@
     <t>07/11/1803</t>
   </si>
   <si>
+    <t>Fransisco Pedrós</t>
+  </si>
+  <si>
     <t>Armer</t>
   </si>
   <si>
@@ -2008,6 +2011,9 @@
     <t>05/12/1804</t>
   </si>
   <si>
+    <t>Pau Fabregat</t>
+  </si>
+  <si>
     <t>Maria Cuberes</t>
   </si>
   <si>
@@ -2923,9 +2929,6 @@
     <t>17/06/1831</t>
   </si>
   <si>
-    <t>04 423</t>
-  </si>
-  <si>
     <t>05-0264</t>
   </si>
   <si>
@@ -3310,9 +3313,6 @@
     <t>742 , 743</t>
   </si>
   <si>
-    <t>Maria Rosa Tarragó</t>
-  </si>
-  <si>
     <t>Pedrós Tarragó Jaume Josep</t>
   </si>
   <si>
@@ -3332,6 +3332,384 @@
   </si>
   <si>
     <t>05-0353</t>
+  </si>
+  <si>
+    <t>09/01/1844</t>
+  </si>
+  <si>
+    <t>08/01/1844</t>
+  </si>
+  <si>
+    <t>Serra Vilaplana Jaume Antonio</t>
+  </si>
+  <si>
+    <t>Jaume Vilaplana (Casat)(Cendrosa pertanyent a Vallverd)</t>
+  </si>
+  <si>
+    <t>Fransisca Serra Folguera (Viuda)</t>
+  </si>
+  <si>
+    <t>Josep Serra i Manuela Roger</t>
+  </si>
+  <si>
+    <t>Antonio Vilaplana (La Cendrosa) i Maria Rosa Mas</t>
+  </si>
+  <si>
+    <t>18/02/1844</t>
+  </si>
+  <si>
+    <t>Palou Gine Antonia Theresa</t>
+  </si>
+  <si>
+    <t>Fransisco Palou (Casat)</t>
+  </si>
+  <si>
+    <t>Antonia Pallisé Niubó (Els Arcs)</t>
+  </si>
+  <si>
+    <t>Anton Palou i Teresa Lamarca</t>
+  </si>
+  <si>
+    <t>Fransisco Giné i Magdalena Niubó</t>
+  </si>
+  <si>
+    <t>Antonio Serra Roger</t>
+  </si>
+  <si>
+    <t>Jaume Palou Lamarca</t>
+  </si>
+  <si>
+    <t>Antonia Gine Niubó</t>
+  </si>
+  <si>
+    <t>Raimunda Vilaplana Mas (La cendrosa pertanyent a Vallverd)</t>
+  </si>
+  <si>
+    <t>Maria Rosa Tarragó Braquer</t>
+  </si>
+  <si>
+    <t>Vergé Trepat Rosa</t>
+  </si>
+  <si>
+    <t>22/02/1844</t>
+  </si>
+  <si>
+    <t>20/02/1844</t>
+  </si>
+  <si>
+    <t>Antonia Trepat</t>
+  </si>
+  <si>
+    <t>Rosa Mas Vergé</t>
+  </si>
+  <si>
+    <t>Ramon Vergé i Cecilia Solé</t>
+  </si>
+  <si>
+    <t>Josep Trepat i Isabel Giné</t>
+  </si>
+  <si>
+    <t>26/02/1844</t>
+  </si>
+  <si>
+    <t>24/02/1844</t>
+  </si>
+  <si>
+    <t>Pedrós Martí Maria Fulgenia</t>
+  </si>
+  <si>
+    <t>Antoni Marti (Fadrí)</t>
+  </si>
+  <si>
+    <t>Maria Andreu (Donsella)</t>
+  </si>
+  <si>
+    <t>05-0354</t>
+  </si>
+  <si>
+    <t>05-0353 - 05-0354</t>
+  </si>
+  <si>
+    <t>743 , 744</t>
+  </si>
+  <si>
+    <t>15/03/1844</t>
+  </si>
+  <si>
+    <t>14/03/1844</t>
+  </si>
+  <si>
+    <t>Anton Perelló (Albera)</t>
+  </si>
+  <si>
+    <t>Fransisca Olivé (Castellnou de las alujas?)</t>
+  </si>
+  <si>
+    <t>Perelló Olivé Jaume Joan</t>
+  </si>
+  <si>
+    <t>Jaume Perelló (Casat) (Golmés)</t>
+  </si>
+  <si>
+    <t>Antonia Ginestà (Casada)</t>
+  </si>
+  <si>
+    <t>Jaume Perelló Albeitar? I Magdalena Soliva (Golmés)</t>
+  </si>
+  <si>
+    <t>Fransisco Olivé (Castellnou) i Victoria Miró (Prenyonosa)</t>
+  </si>
+  <si>
+    <t>27/03/1844</t>
+  </si>
+  <si>
+    <t>26/03/1844</t>
+  </si>
+  <si>
+    <t>Manuel Bonell (Poal)</t>
+  </si>
+  <si>
+    <t>Fransisca Palou</t>
+  </si>
+  <si>
+    <t>Bonell Palou Josep Antonio</t>
+  </si>
+  <si>
+    <t>Josep Bonell (Casat)(Poal)(Vivint a Bellvis)</t>
+  </si>
+  <si>
+    <t>Teresa Palou Lamarca (Casada)</t>
+  </si>
+  <si>
+    <t>Magi Bonell (Poal) i Rosa Roma (de linyola vivint a Poal)</t>
+  </si>
+  <si>
+    <t>Antonio Palou i Theresa Lamarca</t>
+  </si>
+  <si>
+    <t>16/04/1844</t>
+  </si>
+  <si>
+    <t>Manuel Prats</t>
+  </si>
+  <si>
+    <t>Quiterua Novell</t>
+  </si>
+  <si>
+    <t>Prats Novell Paula Maria</t>
+  </si>
+  <si>
+    <t>Roc Cercós (Montgai)</t>
+  </si>
+  <si>
+    <t>Paula Arqués (Casada)(Juneda)</t>
+  </si>
+  <si>
+    <t>Cecilia Serret (Ibars)</t>
+  </si>
+  <si>
+    <t>Fabregat Serret Antonio Josep</t>
+  </si>
+  <si>
+    <t>Antonio Serret (Ibars)(Casat)</t>
+  </si>
+  <si>
+    <t>Maria Fabregat Cuberes? (Casada)(Preixens)</t>
+  </si>
+  <si>
+    <t>Fransisco Fabregat i Fransisca Torrent</t>
+  </si>
+  <si>
+    <t>Antonio Serret (Ibars) i Theresa Vilagines (Barbens vivint a ibars)</t>
+  </si>
+  <si>
+    <t>09 425</t>
+  </si>
+  <si>
+    <t>09-0142</t>
+  </si>
+  <si>
+    <t>24/07/1859</t>
+  </si>
+  <si>
+    <t>23/07/1859</t>
+  </si>
+  <si>
+    <t>Josep Cercós (Montgai)</t>
+  </si>
+  <si>
+    <t>Josepa Martí (El Pedrís)</t>
+  </si>
+  <si>
+    <t>Pedrós Martí Maria Teresa Josepa</t>
+  </si>
+  <si>
+    <t>Anton Cercós (Casat)</t>
+  </si>
+  <si>
+    <t>Maria Teresa Sellart (Cubells)</t>
+  </si>
+  <si>
+    <t>Ramon Cercós i Cecilia Cercos? (Mongai)</t>
+  </si>
+  <si>
+    <t>Josep Marti i Magdalena Petit</t>
+  </si>
+  <si>
+    <t>26/08/1859</t>
+  </si>
+  <si>
+    <t>25/08/1859</t>
+  </si>
+  <si>
+    <t>Jaume Civit (Poal)</t>
+  </si>
+  <si>
+    <t>Teresa Marti (Pedris)</t>
+  </si>
+  <si>
+    <t>Civit Marti Antonia Maria Josepa</t>
+  </si>
+  <si>
+    <t>Josep Marti (Viudo)</t>
+  </si>
+  <si>
+    <t>Antonia Majoral (Casada) (es de linyola pero viu al Poal)</t>
+  </si>
+  <si>
+    <t>Antonio Civit i Antonia Majoral</t>
+  </si>
+  <si>
+    <t>07 424</t>
+  </si>
+  <si>
+    <t>07-0030</t>
+  </si>
+  <si>
+    <t>27/06/1848</t>
+  </si>
+  <si>
+    <t>26/06/1848</t>
+  </si>
+  <si>
+    <t>Apoloni Marti (Cabanabona?)</t>
+  </si>
+  <si>
+    <t>Maria Antonia Oriola</t>
+  </si>
+  <si>
+    <t>Marti Oriola Silvestre Josep</t>
+  </si>
+  <si>
+    <t>Silvestre Torres (Casat)</t>
+  </si>
+  <si>
+    <t>Estefania Galceran Oriaola (Casada)</t>
+  </si>
+  <si>
+    <t>Andreu Martí i Josepa Ramon (Cabanabona)</t>
+  </si>
+  <si>
+    <t>Josep Oriola i Maria Carrera</t>
+  </si>
+  <si>
+    <t>Marti Marti Josep</t>
+  </si>
+  <si>
+    <t>29/06/1848</t>
+  </si>
+  <si>
+    <t>Sastre</t>
+  </si>
+  <si>
+    <t>Barthomeu Marti (Palau)</t>
+  </si>
+  <si>
+    <t>Josepa Marti (Pedrís)</t>
+  </si>
+  <si>
+    <t>Maria Angela Galceran Marti (Viuda)</t>
+  </si>
+  <si>
+    <t>Ramon Marti i Cecilia Combella (El palau, els dos)</t>
+  </si>
+  <si>
+    <t>Andreu Marti i Josepa Ramon (Cabanabona)</t>
+  </si>
+  <si>
+    <t>21/07/1848</t>
+  </si>
+  <si>
+    <t>Ignasia Sunyé</t>
+  </si>
+  <si>
+    <t>Pedrós Sunyé Antonio Josep</t>
+  </si>
+  <si>
+    <t>Antonio Valles Sunyé (Casat)</t>
+  </si>
+  <si>
+    <t>Joan Sunyé i Theresa Mir (Bellvis els dos)</t>
+  </si>
+  <si>
+    <t>14/08/1848</t>
+  </si>
+  <si>
+    <t>13/08/1848</t>
+  </si>
+  <si>
+    <t>Pedrós Martí Miquel Bartomeu</t>
+  </si>
+  <si>
+    <t>Miquel Pedrós Civit (Casat)</t>
+  </si>
+  <si>
+    <t>Josepa Martí Martí (Casada) (Mas del coronel El pedrís)</t>
+  </si>
+  <si>
+    <t>15/08/1848</t>
+  </si>
+  <si>
+    <t>Maria Clua (Rubió)</t>
+  </si>
+  <si>
+    <t>Gine Clua Magdalena Maria</t>
+  </si>
+  <si>
+    <t>Baltasar Clua (Casat)(Rubió)</t>
+  </si>
+  <si>
+    <t>Magdalena Giné Cascalló</t>
+  </si>
+  <si>
+    <t>Josep Giné i Magdalena Cascalló</t>
+  </si>
+  <si>
+    <t>Mariano Clua (Rubió) i Maria Macià (Boldú)</t>
+  </si>
+  <si>
+    <t>23/08/1848</t>
+  </si>
+  <si>
+    <t>Solé Roca Josep Antonio</t>
+  </si>
+  <si>
+    <t>Josep Solé</t>
+  </si>
+  <si>
+    <t>Candida Solé Brufau</t>
+  </si>
+  <si>
+    <t>Ramon Solé i Manuela Corberó (Aquesta de Bellcaire)</t>
+  </si>
+  <si>
+    <t>Joan Roca i Maria Cabriol (El Palau)</t>
+  </si>
+  <si>
+    <t>Ramon Solé Corberó</t>
+  </si>
+  <si>
+    <t>Theresa Roca Cabriol (El Palau)</t>
   </si>
 </sst>
 </file>
@@ -3844,8 +4222,8 @@
   <dimension ref="A1:Q17780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B173" sqref="B173:C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3956,7 +4334,7 @@
       <c r="M2" t="s">
         <v>50</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="8" t="s">
         <v>40</v>
       </c>
       <c r="O2"/>
@@ -3995,7 +4373,7 @@
       <c r="M3" t="s">
         <v>48</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="8" t="s">
         <v>40</v>
       </c>
       <c r="O3"/>
@@ -4034,7 +4412,7 @@
       <c r="M4" t="s">
         <v>56</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="8" t="s">
         <v>51</v>
       </c>
       <c r="O4"/>
@@ -4073,7 +4451,7 @@
       <c r="M5" t="s">
         <v>63</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="8" t="s">
         <v>58</v>
       </c>
       <c r="O5"/>
@@ -4112,7 +4490,7 @@
       <c r="M6" t="s">
         <v>68</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="8" t="s">
         <v>25</v>
       </c>
       <c r="O6"/>
@@ -4151,7 +4529,7 @@
       <c r="M7" t="s">
         <v>75</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="8" t="s">
         <v>70</v>
       </c>
       <c r="O7"/>
@@ -4190,7 +4568,7 @@
       <c r="M8" t="s">
         <v>82</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O8"/>
@@ -4229,7 +4607,7 @@
       <c r="M9" t="s">
         <v>89</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="8" t="s">
         <v>85</v>
       </c>
       <c r="O9"/>
@@ -4268,7 +4646,7 @@
       <c r="M10" t="s">
         <v>97</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="8" t="s">
         <v>95</v>
       </c>
       <c r="O10"/>
@@ -4307,7 +4685,7 @@
       <c r="M11" t="s">
         <v>103</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="8" t="s">
         <v>99</v>
       </c>
       <c r="O11"/>
@@ -4336,7 +4714,7 @@
       <c r="K12" s="8"/>
       <c r="L12"/>
       <c r="M12"/>
-      <c r="N12" t="s">
+      <c r="N12" s="8" t="s">
         <v>99</v>
       </c>
       <c r="O12"/>
@@ -4373,7 +4751,7 @@
       <c r="M13" t="s">
         <v>113</v>
       </c>
-      <c r="N13"/>
+      <c r="N13" s="8"/>
       <c r="O13" t="s">
         <v>108</v>
       </c>
@@ -4412,7 +4790,7 @@
       <c r="M14" t="s">
         <v>117</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="8" t="s">
         <v>114</v>
       </c>
       <c r="O14" t="s">
@@ -4453,7 +4831,7 @@
       <c r="M15" t="s">
         <v>123</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="8" t="s">
         <v>119</v>
       </c>
       <c r="O15" t="s">
@@ -4494,7 +4872,7 @@
       <c r="M16" t="s">
         <v>131</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="8" t="s">
         <v>126</v>
       </c>
       <c r="O16" t="s">
@@ -4535,7 +4913,7 @@
       <c r="M17" t="s">
         <v>138</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="8" t="s">
         <v>133</v>
       </c>
       <c r="O17" t="s">
@@ -4576,7 +4954,7 @@
       <c r="M18" t="s">
         <v>146</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="8" t="s">
         <v>141</v>
       </c>
       <c r="O18" t="s">
@@ -4617,7 +4995,7 @@
       <c r="M19" t="s">
         <v>152</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="8" t="s">
         <v>148</v>
       </c>
       <c r="O19" t="s">
@@ -4658,7 +5036,7 @@
       <c r="M20" t="s">
         <v>158</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="8" t="s">
         <v>154</v>
       </c>
       <c r="O20" t="s">
@@ -4699,7 +5077,7 @@
       <c r="M21" t="s">
         <v>164</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="8" t="s">
         <v>160</v>
       </c>
       <c r="O21" t="s">
@@ -4740,7 +5118,7 @@
       <c r="M22" t="s">
         <v>48</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="8" t="s">
         <v>166</v>
       </c>
       <c r="O22" t="s">
@@ -4781,7 +5159,7 @@
       <c r="M23" t="s">
         <v>174</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="8" t="s">
         <v>169</v>
       </c>
       <c r="O23" t="s">
@@ -4822,7 +5200,7 @@
       <c r="M24" t="s">
         <v>180</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="7" t="s">
         <v>176</v>
       </c>
       <c r="O24" t="s">
@@ -4863,7 +5241,7 @@
       <c r="M25" t="s">
         <v>187</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="8" t="s">
         <v>176</v>
       </c>
       <c r="O25" t="s">
@@ -4904,7 +5282,7 @@
       <c r="M26" t="s">
         <v>191</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="8" t="s">
         <v>189</v>
       </c>
       <c r="O26" t="s">
@@ -4945,7 +5323,7 @@
       <c r="M27" t="s">
         <v>199</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="8" t="s">
         <v>193</v>
       </c>
       <c r="O27" t="s">
@@ -4986,7 +5364,7 @@
       <c r="M28" t="s">
         <v>205</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="8" t="s">
         <v>200</v>
       </c>
       <c r="O28" t="s">
@@ -5027,7 +5405,7 @@
       <c r="M29" t="s">
         <v>211</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="8" t="s">
         <v>207</v>
       </c>
       <c r="O29" t="s">
@@ -5068,7 +5446,7 @@
       <c r="M30" t="s">
         <v>217</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="8" t="s">
         <v>226</v>
       </c>
       <c r="O30" t="s">
@@ -5109,7 +5487,7 @@
       <c r="M31" t="s">
         <v>224</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="8" t="s">
         <v>226</v>
       </c>
       <c r="O31" t="s">
@@ -5150,7 +5528,7 @@
       <c r="M32" t="s">
         <v>230</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="8" t="s">
         <v>226</v>
       </c>
       <c r="O32" t="s">
@@ -5191,7 +5569,7 @@
       <c r="M33" t="s">
         <v>237</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="8" t="s">
         <v>232</v>
       </c>
       <c r="O33" t="s">
@@ -5232,7 +5610,7 @@
       <c r="M34" t="s">
         <v>243</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="8" t="s">
         <v>239</v>
       </c>
       <c r="O34" t="s">
@@ -5273,7 +5651,7 @@
       <c r="M35" t="s">
         <v>249</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="8" t="s">
         <v>245</v>
       </c>
       <c r="O35" t="s">
@@ -5314,7 +5692,7 @@
       <c r="M36" t="s">
         <v>256</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="8" t="s">
         <v>251</v>
       </c>
       <c r="O36" t="s">
@@ -5355,7 +5733,7 @@
       <c r="M37" t="s">
         <v>270</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="8" t="s">
         <v>268</v>
       </c>
       <c r="O37" t="s">
@@ -5396,7 +5774,7 @@
       <c r="M38" t="s">
         <v>277</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="7" t="s">
         <v>272</v>
       </c>
       <c r="O38" t="s">
@@ -5437,7 +5815,7 @@
       <c r="M39" t="s">
         <v>283</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="8" t="s">
         <v>279</v>
       </c>
       <c r="O39" t="s">
@@ -5478,7 +5856,7 @@
       <c r="M40" t="s">
         <v>289</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="8" t="s">
         <v>285</v>
       </c>
       <c r="O40" t="s">
@@ -5519,7 +5897,7 @@
       <c r="M41" t="s">
         <v>205</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="8" t="s">
         <v>291</v>
       </c>
       <c r="O41" t="s">
@@ -5560,7 +5938,7 @@
       <c r="M42" t="s">
         <v>298</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="8" t="s">
         <v>294</v>
       </c>
       <c r="O42" t="s">
@@ -5597,7 +5975,7 @@
       </c>
       <c r="L43"/>
       <c r="M43"/>
-      <c r="N43" t="s">
+      <c r="N43" s="8" t="s">
         <v>300</v>
       </c>
       <c r="O43" t="s">
@@ -5629,7 +6007,7 @@
       <c r="M44" t="s">
         <v>308</v>
       </c>
-      <c r="N44"/>
+      <c r="N44" s="8"/>
       <c r="O44"/>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -5666,7 +6044,7 @@
       <c r="M45" t="s">
         <v>315</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="8" t="s">
         <v>310</v>
       </c>
       <c r="O45" t="s">
@@ -5707,7 +6085,7 @@
       <c r="M46" t="s">
         <v>319</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N46" s="8" t="s">
         <v>318</v>
       </c>
       <c r="O46" t="s">
@@ -5748,7 +6126,7 @@
       <c r="M47" t="s">
         <v>324</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="8" t="s">
         <v>322</v>
       </c>
       <c r="O47" t="s">
@@ -5789,7 +6167,7 @@
       <c r="M48" t="s">
         <v>332</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N48" s="8" t="s">
         <v>328</v>
       </c>
       <c r="O48" t="s">
@@ -5830,7 +6208,7 @@
       <c r="M49" t="s">
         <v>164</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" s="8" t="s">
         <v>335</v>
       </c>
       <c r="O49" t="s">
@@ -5865,7 +6243,7 @@
       <c r="K50" s="8"/>
       <c r="L50"/>
       <c r="M50"/>
-      <c r="N50" t="s">
+      <c r="N50" s="8" t="s">
         <v>338</v>
       </c>
       <c r="O50" t="s">
@@ -5906,7 +6284,7 @@
       <c r="M51" t="s">
         <v>205</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" s="8" t="s">
         <v>343</v>
       </c>
       <c r="O51" t="s">
@@ -5947,7 +6325,7 @@
       <c r="M52" t="s">
         <v>350</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="N52" s="7" t="s">
         <v>352</v>
       </c>
       <c r="O52" t="s">
@@ -5988,7 +6366,7 @@
       <c r="M53" t="s">
         <v>356</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="8" t="s">
         <v>31</v>
       </c>
       <c r="O53" t="s">
@@ -6029,7 +6407,7 @@
       <c r="M54" t="s">
         <v>362</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N54" s="8" t="s">
         <v>358</v>
       </c>
       <c r="O54" t="s">
@@ -6070,7 +6448,7 @@
       <c r="M55" t="s">
         <v>319</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="N55" s="7" t="s">
         <v>364</v>
       </c>
       <c r="O55" t="s">
@@ -6111,7 +6489,7 @@
       <c r="M56" t="s">
         <v>205</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N56" s="8" t="s">
         <v>369</v>
       </c>
       <c r="O56" t="s">
@@ -6148,7 +6526,7 @@
       <c r="M57" t="s">
         <v>376</v>
       </c>
-      <c r="N57"/>
+      <c r="N57" s="8"/>
       <c r="O57"/>
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -6185,7 +6563,7 @@
       <c r="M58" t="s">
         <v>383</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="8" t="s">
         <v>378</v>
       </c>
       <c r="O58" t="s">
@@ -6226,7 +6604,7 @@
       <c r="M59" t="s">
         <v>123</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59" s="8" t="s">
         <v>385</v>
       </c>
       <c r="O59" t="s">
@@ -6264,7 +6642,7 @@
       <c r="M60" t="s">
         <v>394</v>
       </c>
-      <c r="N60" s="3" t="s">
+      <c r="N60" s="7" t="s">
         <v>389</v>
       </c>
       <c r="O60" t="s">
@@ -6305,7 +6683,7 @@
       <c r="M61" t="s">
         <v>400</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61" s="8" t="s">
         <v>396</v>
       </c>
       <c r="O61" t="s">
@@ -6346,7 +6724,7 @@
       <c r="M62" t="s">
         <v>405</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="N62" s="7" t="s">
         <v>402</v>
       </c>
       <c r="O62" t="s">
@@ -6387,7 +6765,7 @@
       <c r="M63" t="s">
         <v>415</v>
       </c>
-      <c r="N63" s="3" t="s">
+      <c r="N63" s="7" t="s">
         <v>407</v>
       </c>
       <c r="O63" t="s">
@@ -6428,7 +6806,7 @@
       <c r="M64" t="s">
         <v>422</v>
       </c>
-      <c r="N64" s="3" t="s">
+      <c r="N64" s="7" t="s">
         <v>417</v>
       </c>
       <c r="O64" t="s">
@@ -6469,7 +6847,7 @@
       <c r="M65" t="s">
         <v>429</v>
       </c>
-      <c r="N65" s="3" t="s">
+      <c r="N65" s="7" t="s">
         <v>424</v>
       </c>
       <c r="O65" t="s">
@@ -6510,7 +6888,7 @@
       <c r="M66" t="s">
         <v>435</v>
       </c>
-      <c r="N66" s="3" t="s">
+      <c r="N66" s="7" t="s">
         <v>431</v>
       </c>
       <c r="O66" t="s">
@@ -6551,7 +6929,7 @@
       <c r="M67" t="s">
         <v>441</v>
       </c>
-      <c r="N67" s="3" t="s">
+      <c r="N67" s="7" t="s">
         <v>431</v>
       </c>
       <c r="O67"/>
@@ -6590,7 +6968,7 @@
       <c r="M68" t="s">
         <v>446</v>
       </c>
-      <c r="N68" s="3" t="s">
+      <c r="N68" s="7" t="s">
         <v>442</v>
       </c>
       <c r="O68" t="s">
@@ -6631,7 +7009,7 @@
       <c r="M69" t="s">
         <v>453</v>
       </c>
-      <c r="N69" s="3" t="s">
+      <c r="N69" s="7" t="s">
         <v>448</v>
       </c>
       <c r="O69" t="s">
@@ -6672,7 +7050,7 @@
       <c r="M70" t="s">
         <v>22</v>
       </c>
-      <c r="N70" s="3" t="s">
+      <c r="N70" s="7" t="s">
         <v>455</v>
       </c>
       <c r="O70" t="s">
@@ -6737,14 +7115,14 @@
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
-      <c r="K72"/>
+      <c r="K72" s="8"/>
       <c r="L72" t="s">
         <v>468</v>
       </c>
       <c r="M72" t="s">
         <v>433</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="N72" s="7" t="s">
         <v>467</v>
       </c>
       <c r="O72"/>
@@ -6783,7 +7161,7 @@
       <c r="M73" t="s">
         <v>23</v>
       </c>
-      <c r="N73" s="3" t="s">
+      <c r="N73" s="7" t="s">
         <v>472</v>
       </c>
       <c r="O73" t="s">
@@ -6824,7 +7202,7 @@
       <c r="M74" t="s">
         <v>482</v>
       </c>
-      <c r="N74" s="3" t="s">
+      <c r="N74" s="7" t="s">
         <v>476</v>
       </c>
       <c r="O74" t="s">
@@ -6865,7 +7243,7 @@
       <c r="M75" t="s">
         <v>53</v>
       </c>
-      <c r="N75" s="3" t="s">
+      <c r="N75" s="7" t="s">
         <v>484</v>
       </c>
       <c r="O75" t="s">
@@ -6906,7 +7284,7 @@
       <c r="M76" t="s">
         <v>490</v>
       </c>
-      <c r="N76" s="3" t="s">
+      <c r="N76" s="7" t="s">
         <v>488</v>
       </c>
       <c r="O76"/>
@@ -6945,7 +7323,7 @@
       <c r="M77" t="s">
         <v>497</v>
       </c>
-      <c r="N77" s="3" t="s">
+      <c r="N77" s="7" t="s">
         <v>492</v>
       </c>
       <c r="O77" t="s">
@@ -6986,7 +7364,7 @@
       <c r="M78" t="s">
         <v>502</v>
       </c>
-      <c r="N78" s="3" t="s">
+      <c r="N78" s="7" t="s">
         <v>499</v>
       </c>
       <c r="O78" t="s">
@@ -7027,7 +7405,7 @@
       <c r="M79" t="s">
         <v>509</v>
       </c>
-      <c r="N79" s="3" t="s">
+      <c r="N79" s="7" t="s">
         <v>504</v>
       </c>
       <c r="O79" t="s">
@@ -7072,7 +7450,7 @@
       <c r="M80" t="s">
         <v>516</v>
       </c>
-      <c r="N80" s="3" t="s">
+      <c r="N80" s="7" t="s">
         <v>513</v>
       </c>
       <c r="O80" t="s">
@@ -7117,7 +7495,7 @@
       <c r="M81" t="s">
         <v>523</v>
       </c>
-      <c r="N81" s="3" t="s">
+      <c r="N81" s="7" t="s">
         <v>522</v>
       </c>
       <c r="O81" t="s">
@@ -7162,7 +7540,7 @@
       <c r="M82" t="s">
         <v>532</v>
       </c>
-      <c r="N82" s="3" t="s">
+      <c r="N82" s="7" t="s">
         <v>530</v>
       </c>
       <c r="O82" t="s">
@@ -7207,7 +7585,7 @@
       <c r="M83" t="s">
         <v>541</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="N83" s="7" t="s">
         <v>538</v>
       </c>
       <c r="O83" t="s">
@@ -7297,7 +7675,7 @@
       <c r="M85" t="s">
         <v>506</v>
       </c>
-      <c r="N85" s="3" t="s">
+      <c r="N85" s="7" t="s">
         <v>555</v>
       </c>
       <c r="O85" t="s">
@@ -7342,7 +7720,7 @@
       <c r="M86" t="s">
         <v>568</v>
       </c>
-      <c r="N86" s="3" t="s">
+      <c r="N86" s="7" t="s">
         <v>563</v>
       </c>
       <c r="O86" t="s">
@@ -7387,7 +7765,7 @@
       <c r="M87" t="s">
         <v>575</v>
       </c>
-      <c r="N87" s="3" t="s">
+      <c r="N87" s="7" t="s">
         <v>572</v>
       </c>
       <c r="O87" t="s">
@@ -7411,37 +7789,37 @@
         <v>1803</v>
       </c>
       <c r="F88" t="s">
+        <v>588</v>
+      </c>
+      <c r="G88" t="s">
         <v>587</v>
-      </c>
-      <c r="G88" t="s">
-        <v>586</v>
       </c>
       <c r="H88" t="s">
         <v>533</v>
       </c>
       <c r="I88" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="J88"/>
       <c r="K88" s="7" t="s">
         <v>581</v>
       </c>
       <c r="L88" t="s">
+        <v>585</v>
+      </c>
+      <c r="M88" t="s">
         <v>584</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="O88" t="s">
         <v>583</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="O88" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B89" t="s">
         <v>38</v>
@@ -7456,26 +7834,26 @@
         <v>1803</v>
       </c>
       <c r="F89" t="s">
+        <v>594</v>
+      </c>
+      <c r="G89" t="s">
+        <v>596</v>
+      </c>
+      <c r="H89" t="s">
         <v>593</v>
       </c>
-      <c r="G89" t="s">
+      <c r="I89" t="s">
         <v>595</v>
-      </c>
-      <c r="H89" t="s">
-        <v>592</v>
-      </c>
-      <c r="I89" t="s">
-        <v>594</v>
       </c>
       <c r="J89"/>
       <c r="K89" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="M89" t="s">
+        <v>592</v>
+      </c>
+      <c r="N89" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="M89" t="s">
-        <v>591</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="O89" t="s">
         <v>15</v>
@@ -7483,7 +7861,7 @@
     </row>
     <row r="90" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B90" t="s">
         <v>38</v>
@@ -7498,29 +7876,29 @@
         <v>1803</v>
       </c>
       <c r="F90" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G90" t="s">
+        <v>605</v>
+      </c>
+      <c r="H90" t="s">
+        <v>603</v>
+      </c>
+      <c r="I90" t="s">
         <v>604</v>
-      </c>
-      <c r="H90" t="s">
-        <v>602</v>
-      </c>
-      <c r="I90" t="s">
-        <v>603</v>
       </c>
       <c r="J90"/>
       <c r="K90" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L90" t="s">
+        <v>601</v>
+      </c>
+      <c r="M90" t="s">
+        <v>602</v>
+      </c>
+      <c r="N90" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="M90" t="s">
-        <v>601</v>
-      </c>
-      <c r="N90" s="3" t="s">
-        <v>599</v>
       </c>
       <c r="O90" t="s">
         <v>15</v>
@@ -7528,7 +7906,7 @@
     </row>
     <row r="91" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B91" t="s">
         <v>38</v>
@@ -7543,29 +7921,29 @@
         <v>1804</v>
       </c>
       <c r="F91" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G91" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I91" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J91"/>
       <c r="K91" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L91" t="s">
+        <v>611</v>
+      </c>
+      <c r="M91" t="s">
         <v>610</v>
       </c>
-      <c r="M91" t="s">
-        <v>609</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>605</v>
+      <c r="N91" s="7" t="s">
+        <v>606</v>
       </c>
       <c r="O91" t="s">
         <v>15</v>
@@ -7573,7 +7951,7 @@
     </row>
     <row r="92" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B92" t="s">
         <v>38</v>
@@ -7588,29 +7966,29 @@
         <v>1804</v>
       </c>
       <c r="F92" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G92" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H92" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="I92" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J92"/>
       <c r="K92" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L92" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M92" t="s">
-        <v>618</v>
-      </c>
-      <c r="N92" s="3" t="s">
-        <v>614</v>
+        <v>619</v>
+      </c>
+      <c r="N92" s="7" t="s">
+        <v>615</v>
       </c>
       <c r="O92" t="s">
         <v>18</v>
@@ -7618,7 +7996,7 @@
     </row>
     <row r="93" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B93" t="s">
         <v>38</v>
@@ -7633,29 +8011,29 @@
         <v>1804</v>
       </c>
       <c r="F93" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G93" t="s">
         <v>474</v>
       </c>
       <c r="H93" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I93" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="J93"/>
       <c r="K93" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L93" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M93" t="s">
-        <v>625</v>
-      </c>
-      <c r="N93" s="3" t="s">
-        <v>621</v>
+        <v>626</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>622</v>
       </c>
       <c r="O93" t="s">
         <v>15</v>
@@ -7663,7 +8041,7 @@
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B94" t="s">
         <v>38</v>
@@ -7678,26 +8056,26 @@
         <v>1804</v>
       </c>
       <c r="F94" t="s">
+        <v>635</v>
+      </c>
+      <c r="G94" t="s">
         <v>634</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
+        <v>632</v>
+      </c>
+      <c r="I94" t="s">
         <v>633</v>
-      </c>
-      <c r="H94" t="s">
-        <v>631</v>
-      </c>
-      <c r="I94" t="s">
-        <v>632</v>
       </c>
       <c r="J94"/>
       <c r="K94" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M94" t="s">
-        <v>591</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>630</v>
+        <v>592</v>
+      </c>
+      <c r="N94" s="7" t="s">
+        <v>631</v>
       </c>
       <c r="O94" t="s">
         <v>15</v>
@@ -7705,40 +8083,40 @@
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B95" t="s">
         <v>38</v>
       </c>
       <c r="C95" t="s">
+        <v>642</v>
+      </c>
+      <c r="D95" s="26" t="s">
         <v>641</v>
-      </c>
-      <c r="D95" s="26" t="s">
-        <v>640</v>
       </c>
       <c r="E95">
         <v>1804</v>
       </c>
       <c r="F95" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G95" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L95" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M95" t="s">
         <v>426</v>
       </c>
-      <c r="N95" s="3" t="s">
-        <v>636</v>
+      <c r="N95" s="7" t="s">
+        <v>637</v>
       </c>
       <c r="O95" t="s">
         <v>15</v>
@@ -7746,13 +8124,13 @@
     </row>
     <row r="96" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B96" t="s">
         <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D96" s="25">
         <v>175</v>
@@ -7761,29 +8139,29 @@
         <v>1804</v>
       </c>
       <c r="F96" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G96" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H96" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="I96" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="J96"/>
       <c r="K96" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="L96" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M96" t="s">
-        <v>648</v>
-      </c>
-      <c r="N96" s="3" t="s">
-        <v>644</v>
+        <v>650</v>
+      </c>
+      <c r="N96" s="7" t="s">
+        <v>645</v>
       </c>
       <c r="O96" t="s">
         <v>15</v>
@@ -7791,13 +8169,13 @@
     </row>
     <row r="97" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B97" t="s">
         <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D97" s="25">
         <v>175</v>
@@ -7806,41 +8184,41 @@
         <v>1804</v>
       </c>
       <c r="F97" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G97" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H97" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="I97" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="J97"/>
       <c r="K97" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="L97" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="M97" t="s">
-        <v>657</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>652</v>
+        <v>659</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>654</v>
       </c>
       <c r="O97"/>
     </row>
     <row r="98" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B98" t="s">
         <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D98" s="25">
         <v>175</v>
@@ -7852,25 +8230,25 @@
         <v>567</v>
       </c>
       <c r="G98" t="s">
+        <v>668</v>
+      </c>
+      <c r="H98" t="s">
         <v>666</v>
       </c>
-      <c r="H98" t="s">
-        <v>664</v>
-      </c>
       <c r="I98" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="J98"/>
       <c r="K98" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="L98" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="M98" t="s">
-        <v>662</v>
-      </c>
-      <c r="N98" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="N98" s="7" t="s">
         <v>21</v>
       </c>
       <c r="O98" t="s">
@@ -7879,13 +8257,13 @@
     </row>
     <row r="99" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B99" t="s">
         <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D99" s="25">
         <v>175</v>
@@ -7894,29 +8272,29 @@
         <v>1805</v>
       </c>
       <c r="F99" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G99" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H99" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I99" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="J99"/>
       <c r="K99" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L99" s="18" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M99" s="18" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="O99" t="s">
         <v>15</v>
@@ -7924,13 +8302,13 @@
     </row>
     <row r="100" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B100" t="s">
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D100" s="25">
         <v>175</v>
@@ -7939,29 +8317,29 @@
         <v>1805</v>
       </c>
       <c r="F100" t="s">
+        <v>685</v>
+      </c>
+      <c r="G100" t="s">
+        <v>684</v>
+      </c>
+      <c r="H100" t="s">
+        <v>682</v>
+      </c>
+      <c r="I100" t="s">
         <v>683</v>
-      </c>
-      <c r="G100" t="s">
-        <v>682</v>
-      </c>
-      <c r="H100" t="s">
-        <v>680</v>
-      </c>
-      <c r="I100" t="s">
-        <v>681</v>
       </c>
       <c r="J100"/>
       <c r="K100" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="L100" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="M100" t="s">
+        <v>680</v>
+      </c>
+      <c r="N100" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>676</v>
       </c>
       <c r="O100" t="s">
         <v>15</v>
@@ -7969,13 +8347,13 @@
     </row>
     <row r="101" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B101" t="s">
         <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D101" s="25">
         <v>175</v>
@@ -7984,29 +8362,29 @@
         <v>1805</v>
       </c>
       <c r="F101" t="s">
+        <v>693</v>
+      </c>
+      <c r="G101" t="s">
+        <v>694</v>
+      </c>
+      <c r="H101" t="s">
         <v>691</v>
       </c>
-      <c r="G101" t="s">
+      <c r="I101" t="s">
         <v>692</v>
-      </c>
-      <c r="H101" t="s">
-        <v>689</v>
-      </c>
-      <c r="I101" t="s">
-        <v>690</v>
       </c>
       <c r="J101"/>
       <c r="K101" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="L101" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="M101" t="s">
+        <v>689</v>
+      </c>
+      <c r="N101" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>685</v>
       </c>
       <c r="O101" t="s">
         <v>15</v>
@@ -8014,13 +8392,13 @@
     </row>
     <row r="102" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B102" t="s">
         <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D102" s="25">
         <v>175</v>
@@ -8029,29 +8407,29 @@
         <v>1805</v>
       </c>
       <c r="F102" t="s">
+        <v>702</v>
+      </c>
+      <c r="G102" s="30" t="s">
+        <v>701</v>
+      </c>
+      <c r="H102" t="s">
+        <v>699</v>
+      </c>
+      <c r="I102" t="s">
         <v>700</v>
-      </c>
-      <c r="G102" s="30" t="s">
-        <v>699</v>
-      </c>
-      <c r="H102" t="s">
-        <v>697</v>
-      </c>
-      <c r="I102" t="s">
-        <v>698</v>
       </c>
       <c r="J102"/>
       <c r="K102" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L102" t="s">
+        <v>697</v>
+      </c>
+      <c r="M102" t="s">
+        <v>698</v>
+      </c>
+      <c r="N102" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="M102" t="s">
-        <v>696</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>693</v>
       </c>
       <c r="O102" t="s">
         <v>20</v>
@@ -8059,13 +8437,13 @@
     </row>
     <row r="103" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B103" t="s">
         <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D103" s="25">
         <v>175</v>
@@ -8074,41 +8452,41 @@
         <v>1805</v>
       </c>
       <c r="F103" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="G103" t="s">
+        <v>710</v>
+      </c>
+      <c r="H103" t="s">
+        <v>691</v>
+      </c>
+      <c r="I103" t="s">
         <v>708</v>
-      </c>
-      <c r="H103" t="s">
-        <v>689</v>
-      </c>
-      <c r="I103" t="s">
-        <v>706</v>
       </c>
       <c r="J103"/>
       <c r="K103" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="L103" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M103" t="s">
+        <v>706</v>
+      </c>
+      <c r="N103" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="N103" s="3" t="s">
-        <v>702</v>
       </c>
       <c r="O103"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B104" t="s">
         <v>38</v>
       </c>
       <c r="C104" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D104" s="25">
         <v>175</v>
@@ -8126,19 +8504,19 @@
         <v>533</v>
       </c>
       <c r="I104" t="s">
+        <v>715</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="L104" t="s">
         <v>713</v>
       </c>
-      <c r="K104" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="L104" t="s">
+      <c r="M104" t="s">
+        <v>714</v>
+      </c>
+      <c r="N104" s="7" t="s">
         <v>711</v>
-      </c>
-      <c r="M104" t="s">
-        <v>712</v>
-      </c>
-      <c r="N104" s="3" t="s">
-        <v>709</v>
       </c>
       <c r="O104" t="s">
         <v>15</v>
@@ -8146,37 +8524,36 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B105" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C105" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E105">
         <v>1806</v>
       </c>
       <c r="H105" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="I105" t="s">
-        <v>719</v>
-      </c>
-      <c r="N105"/>
+        <v>721</v>
+      </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B106" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C106" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D106" s="25">
         <v>6</v>
@@ -8185,39 +8562,39 @@
         <v>1806</v>
       </c>
       <c r="F106" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G106" t="s">
         <v>460</v>
       </c>
       <c r="H106" t="s">
+        <v>728</v>
+      </c>
+      <c r="I106" t="s">
+        <v>730</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="L106" t="s">
         <v>726</v>
       </c>
-      <c r="I106" t="s">
-        <v>728</v>
-      </c>
-      <c r="K106" s="7" t="s">
+      <c r="M106" t="s">
+        <v>727</v>
+      </c>
+      <c r="N106" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="L106" t="s">
-        <v>724</v>
-      </c>
-      <c r="M106" t="s">
-        <v>725</v>
-      </c>
-      <c r="N106" s="3" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B107" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C107" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D107" s="25">
         <v>6</v>
@@ -8226,28 +8603,28 @@
         <v>1806</v>
       </c>
       <c r="F107" t="s">
+        <v>737</v>
+      </c>
+      <c r="G107" t="s">
+        <v>739</v>
+      </c>
+      <c r="H107" t="s">
+        <v>736</v>
+      </c>
+      <c r="I107" t="s">
+        <v>738</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="L107" t="s">
+        <v>734</v>
+      </c>
+      <c r="M107" t="s">
         <v>735</v>
       </c>
-      <c r="G107" t="s">
-        <v>737</v>
-      </c>
-      <c r="H107" t="s">
-        <v>734</v>
-      </c>
-      <c r="I107" t="s">
-        <v>736</v>
-      </c>
-      <c r="K107" s="7" t="s">
+      <c r="N107" s="7" t="s">
         <v>731</v>
-      </c>
-      <c r="L107" t="s">
-        <v>732</v>
-      </c>
-      <c r="M107" t="s">
-        <v>733</v>
-      </c>
-      <c r="N107" s="3" t="s">
-        <v>729</v>
       </c>
       <c r="O107" t="s">
         <v>15</v>
@@ -8255,13 +8632,13 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B108" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C108" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D108" s="25">
         <v>6</v>
@@ -8270,28 +8647,28 @@
         <v>1806</v>
       </c>
       <c r="F108" t="s">
+        <v>747</v>
+      </c>
+      <c r="G108" t="s">
+        <v>742</v>
+      </c>
+      <c r="H108" t="s">
+        <v>700</v>
+      </c>
+      <c r="I108" t="s">
+        <v>746</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="L108" t="s">
+        <v>744</v>
+      </c>
+      <c r="M108" t="s">
         <v>745</v>
       </c>
-      <c r="G108" t="s">
+      <c r="N108" s="7" t="s">
         <v>740</v>
-      </c>
-      <c r="H108" t="s">
-        <v>698</v>
-      </c>
-      <c r="I108" t="s">
-        <v>744</v>
-      </c>
-      <c r="K108" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="L108" t="s">
-        <v>742</v>
-      </c>
-      <c r="M108" t="s">
-        <v>743</v>
-      </c>
-      <c r="N108" s="3" t="s">
-        <v>738</v>
       </c>
       <c r="O108" t="s">
         <v>15</v>
@@ -8299,13 +8676,13 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B109" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C109" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D109" s="25">
         <v>6</v>
@@ -8317,36 +8694,36 @@
         <v>443</v>
       </c>
       <c r="G109" t="s">
+        <v>750</v>
+      </c>
+      <c r="H109" t="s">
+        <v>754</v>
+      </c>
+      <c r="I109" t="s">
+        <v>755</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="L109" t="s">
+        <v>752</v>
+      </c>
+      <c r="M109" t="s">
+        <v>753</v>
+      </c>
+      <c r="N109" s="7" t="s">
         <v>748</v>
-      </c>
-      <c r="H109" t="s">
-        <v>752</v>
-      </c>
-      <c r="I109" t="s">
-        <v>753</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="L109" t="s">
-        <v>750</v>
-      </c>
-      <c r="M109" t="s">
-        <v>751</v>
-      </c>
-      <c r="N109" s="3" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B110" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C110" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D110" s="25">
         <v>6</v>
@@ -8355,36 +8732,36 @@
         <v>1806</v>
       </c>
       <c r="F110" t="s">
+        <v>761</v>
+      </c>
+      <c r="G110" t="s">
+        <v>762</v>
+      </c>
+      <c r="H110" t="s">
         <v>759</v>
       </c>
-      <c r="G110" t="s">
+      <c r="I110" t="s">
         <v>760</v>
       </c>
-      <c r="H110" t="s">
+      <c r="K110" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="I110" t="s">
+      <c r="L110" t="s">
         <v>758</v>
       </c>
-      <c r="K110" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="L110" t="s">
-        <v>756</v>
-      </c>
-      <c r="N110" s="3" t="s">
-        <v>761</v>
+      <c r="N110" s="7" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B111" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C111" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D111" s="25">
         <v>6</v>
@@ -8393,39 +8770,39 @@
         <v>1806</v>
       </c>
       <c r="F111" t="s">
+        <v>771</v>
+      </c>
+      <c r="G111" t="s">
+        <v>772</v>
+      </c>
+      <c r="H111" t="s">
+        <v>768</v>
+      </c>
+      <c r="I111" t="s">
         <v>769</v>
       </c>
-      <c r="G111" t="s">
+      <c r="K111" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="H111" t="s">
+      <c r="L111" t="s">
         <v>766</v>
       </c>
-      <c r="I111" t="s">
+      <c r="M111" t="s">
         <v>767</v>
       </c>
-      <c r="K111" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="L111" t="s">
+      <c r="N111" s="7" t="s">
         <v>764</v>
-      </c>
-      <c r="M111" t="s">
-        <v>765</v>
-      </c>
-      <c r="N111" s="3" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B112" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C112" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D112" s="25">
         <v>11</v>
@@ -8434,24 +8811,24 @@
         <v>1806</v>
       </c>
       <c r="F112" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G112" t="s">
+        <v>778</v>
+      </c>
+      <c r="H112" t="s">
+        <v>700</v>
+      </c>
+      <c r="I112" t="s">
         <v>776</v>
-      </c>
-      <c r="H112" t="s">
-        <v>698</v>
-      </c>
-      <c r="I112" t="s">
-        <v>774</v>
       </c>
       <c r="K112" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L112" t="s">
-        <v>773</v>
-      </c>
-      <c r="N112" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="N112" s="7" t="s">
         <v>27</v>
       </c>
       <c r="O112" t="s">
@@ -8460,13 +8837,13 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B113" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C113" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D113" s="25">
         <v>11</v>
@@ -8475,27 +8852,27 @@
         <v>1806</v>
       </c>
       <c r="F113" t="s">
+        <v>785</v>
+      </c>
+      <c r="G113" t="s">
+        <v>786</v>
+      </c>
+      <c r="H113" t="s">
+        <v>782</v>
+      </c>
+      <c r="I113" t="s">
         <v>783</v>
       </c>
-      <c r="G113" t="s">
-        <v>784</v>
-      </c>
-      <c r="H113" t="s">
+      <c r="K113" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="L113" t="s">
         <v>780</v>
       </c>
-      <c r="I113" t="s">
+      <c r="M113" t="s">
         <v>781</v>
       </c>
-      <c r="K113" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="L113" t="s">
-        <v>778</v>
-      </c>
-      <c r="M113" t="s">
-        <v>779</v>
-      </c>
-      <c r="N113" s="3" t="s">
+      <c r="N113" s="7" t="s">
         <v>30</v>
       </c>
       <c r="O113" t="s">
@@ -8504,13 +8881,13 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B114" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C114" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D114" s="25">
         <v>11</v>
@@ -8519,28 +8896,28 @@
         <v>1806</v>
       </c>
       <c r="F114" t="s">
+        <v>791</v>
+      </c>
+      <c r="G114" t="s">
+        <v>794</v>
+      </c>
+      <c r="H114" t="s">
+        <v>792</v>
+      </c>
+      <c r="I114" t="s">
+        <v>793</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="L114" t="s">
         <v>789</v>
       </c>
-      <c r="G114" t="s">
-        <v>792</v>
-      </c>
-      <c r="H114" t="s">
+      <c r="M114" t="s">
         <v>790</v>
       </c>
-      <c r="I114" t="s">
-        <v>791</v>
-      </c>
-      <c r="K114" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="L114" t="s">
+      <c r="N114" s="7" t="s">
         <v>787</v>
-      </c>
-      <c r="M114" t="s">
-        <v>788</v>
-      </c>
-      <c r="N114" s="3" t="s">
-        <v>785</v>
       </c>
       <c r="O114" t="s">
         <v>15</v>
@@ -8548,13 +8925,13 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B115" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C115" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D115" s="25">
         <v>11</v>
@@ -8569,22 +8946,22 @@
         <v>536</v>
       </c>
       <c r="H115" t="s">
+        <v>799</v>
+      </c>
+      <c r="I115" t="s">
+        <v>629</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="L115" t="s">
         <v>797</v>
       </c>
-      <c r="I115" t="s">
-        <v>628</v>
-      </c>
-      <c r="K115" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="L115" t="s">
+      <c r="M115" t="s">
+        <v>798</v>
+      </c>
+      <c r="N115" s="7" t="s">
         <v>795</v>
-      </c>
-      <c r="M115" t="s">
-        <v>796</v>
-      </c>
-      <c r="N115" s="3" t="s">
-        <v>793</v>
       </c>
       <c r="O115" t="s">
         <v>15</v>
@@ -8592,13 +8969,13 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B116" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C116" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D116" s="25">
         <v>11</v>
@@ -8607,28 +8984,28 @@
         <v>1806</v>
       </c>
       <c r="F116" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G116" t="s">
+        <v>805</v>
+      </c>
+      <c r="H116" t="s">
+        <v>804</v>
+      </c>
+      <c r="I116" t="s">
+        <v>692</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="L116" t="s">
         <v>803</v>
       </c>
-      <c r="H116" t="s">
+      <c r="M116" t="s">
         <v>802</v>
       </c>
-      <c r="I116" t="s">
-        <v>690</v>
-      </c>
-      <c r="K116" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="L116" t="s">
-        <v>801</v>
-      </c>
-      <c r="M116" t="s">
+      <c r="N116" s="7" t="s">
         <v>800</v>
-      </c>
-      <c r="N116" s="3" t="s">
-        <v>798</v>
       </c>
       <c r="O116" t="s">
         <v>15</v>
@@ -8636,13 +9013,13 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B117" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C117" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D117" s="25">
         <v>40</v>
@@ -8651,28 +9028,27 @@
         <v>1809</v>
       </c>
       <c r="H117" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="I117" t="s">
+        <v>811</v>
+      </c>
+      <c r="L117" t="s">
         <v>809</v>
       </c>
-      <c r="L117" t="s">
-        <v>807</v>
-      </c>
       <c r="M117" t="s">
-        <v>808</v>
-      </c>
-      <c r="N117"/>
+        <v>810</v>
+      </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B118" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C118" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D118" s="25">
         <v>40</v>
@@ -8681,28 +9057,28 @@
         <v>1809</v>
       </c>
       <c r="F118" t="s">
+        <v>816</v>
+      </c>
+      <c r="G118" t="s">
+        <v>821</v>
+      </c>
+      <c r="H118" t="s">
+        <v>817</v>
+      </c>
+      <c r="I118" t="s">
+        <v>818</v>
+      </c>
+      <c r="K118" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="G118" t="s">
+      <c r="L118" t="s">
         <v>819</v>
       </c>
-      <c r="H118" t="s">
-        <v>815</v>
-      </c>
-      <c r="I118" t="s">
-        <v>816</v>
-      </c>
-      <c r="K118" s="7" t="s">
-        <v>812</v>
-      </c>
-      <c r="L118" t="s">
-        <v>817</v>
-      </c>
       <c r="M118" t="s">
-        <v>818</v>
-      </c>
-      <c r="N118" s="3" t="s">
-        <v>811</v>
+        <v>820</v>
+      </c>
+      <c r="N118" s="7" t="s">
+        <v>813</v>
       </c>
       <c r="O118" t="s">
         <v>15</v>
@@ -8710,13 +9086,13 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B119" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C119" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D119" s="25">
         <v>40</v>
@@ -8725,22 +9101,22 @@
         <v>1809</v>
       </c>
       <c r="F119" t="s">
+        <v>816</v>
+      </c>
+      <c r="G119" t="s">
+        <v>821</v>
+      </c>
+      <c r="H119" t="s">
+        <v>817</v>
+      </c>
+      <c r="I119" t="s">
+        <v>818</v>
+      </c>
+      <c r="K119" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="G119" t="s">
-        <v>819</v>
-      </c>
-      <c r="H119" t="s">
-        <v>815</v>
-      </c>
-      <c r="I119" t="s">
-        <v>816</v>
-      </c>
-      <c r="K119" s="7" t="s">
-        <v>812</v>
-      </c>
       <c r="N119" s="7" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="O119" t="s">
         <v>15</v>
@@ -8748,13 +9124,13 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B120" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C120" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D120" s="25">
         <v>40</v>
@@ -8763,28 +9139,28 @@
         <v>1809</v>
       </c>
       <c r="F120" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G120" t="s">
+        <v>827</v>
+      </c>
+      <c r="H120" t="s">
+        <v>828</v>
+      </c>
+      <c r="I120" t="s">
+        <v>829</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="M120" t="s">
+        <v>830</v>
+      </c>
+      <c r="N120" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="O120" t="s">
         <v>825</v>
-      </c>
-      <c r="H120" t="s">
-        <v>826</v>
-      </c>
-      <c r="I120" t="s">
-        <v>827</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="M120" t="s">
-        <v>828</v>
-      </c>
-      <c r="N120" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="O120" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
@@ -8792,10 +9168,10 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C121" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D121" s="25">
         <v>40</v>
@@ -8803,17 +9179,16 @@
       <c r="E121">
         <v>1809</v>
       </c>
-      <c r="N121"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B122" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C122" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D122" s="25">
         <v>40</v>
@@ -8822,22 +9197,22 @@
         <v>1809</v>
       </c>
       <c r="F122" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="G122" t="s">
+        <v>836</v>
+      </c>
+      <c r="H122" t="s">
         <v>834</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
+        <v>835</v>
+      </c>
+      <c r="K122" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="N122" s="8" t="s">
         <v>832</v>
-      </c>
-      <c r="I122" t="s">
-        <v>833</v>
-      </c>
-      <c r="K122" s="7" t="s">
-        <v>831</v>
-      </c>
-      <c r="N122" t="s">
-        <v>830</v>
       </c>
       <c r="O122" t="s">
         <v>15</v>
@@ -8845,13 +9220,13 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B123" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C123" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D123" s="25">
         <v>40</v>
@@ -8866,22 +9241,22 @@
         <v>536</v>
       </c>
       <c r="H123" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="I123" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="L123" t="s">
+        <v>840</v>
+      </c>
+      <c r="M123" t="s">
+        <v>841</v>
+      </c>
+      <c r="N123" s="8" t="s">
         <v>838</v>
-      </c>
-      <c r="M123" t="s">
-        <v>839</v>
-      </c>
-      <c r="N123" t="s">
-        <v>836</v>
       </c>
       <c r="O123" t="s">
         <v>15</v>
@@ -8889,13 +9264,13 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B124" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C124" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D124" s="25">
         <v>40</v>
@@ -8904,39 +9279,39 @@
         <v>1809</v>
       </c>
       <c r="F124" t="s">
+        <v>848</v>
+      </c>
+      <c r="G124" t="s">
+        <v>844</v>
+      </c>
+      <c r="H124" t="s">
+        <v>849</v>
+      </c>
+      <c r="I124" t="s">
+        <v>845</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="L124" t="s">
         <v>846</v>
       </c>
-      <c r="G124" t="s">
-        <v>842</v>
-      </c>
-      <c r="H124" t="s">
+      <c r="M124" t="s">
         <v>847</v>
       </c>
-      <c r="I124" t="s">
+      <c r="N124" s="8" t="s">
         <v>843</v>
-      </c>
-      <c r="K124" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="L124" t="s">
-        <v>844</v>
-      </c>
-      <c r="M124" t="s">
-        <v>845</v>
-      </c>
-      <c r="N124" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B125" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C125" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D125" s="25">
         <v>40</v>
@@ -8944,19 +9319,19 @@
       <c r="E125">
         <v>1809</v>
       </c>
-      <c r="N125" t="s">
-        <v>841</v>
+      <c r="N125" s="8" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B126" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C126" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D126" s="25">
         <v>96</v>
@@ -8971,33 +9346,33 @@
         <v>474</v>
       </c>
       <c r="H126" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="I126" t="s">
+        <v>858</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="L126" t="s">
+        <v>860</v>
+      </c>
+      <c r="M126" t="s">
+        <v>861</v>
+      </c>
+      <c r="N126" s="7" t="s">
         <v>856</v>
-      </c>
-      <c r="K126" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="L126" t="s">
-        <v>858</v>
-      </c>
-      <c r="M126" t="s">
-        <v>859</v>
-      </c>
-      <c r="N126" s="3" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B127" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C127" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D127" s="25">
         <v>96</v>
@@ -9006,28 +9381,28 @@
         <v>1813</v>
       </c>
       <c r="F127" t="s">
+        <v>864</v>
+      </c>
+      <c r="G127" t="s">
+        <v>866</v>
+      </c>
+      <c r="H127" t="s">
+        <v>865</v>
+      </c>
+      <c r="I127" t="s">
+        <v>867</v>
+      </c>
+      <c r="K127" s="8" t="s">
         <v>862</v>
       </c>
-      <c r="G127" t="s">
-        <v>864</v>
-      </c>
-      <c r="H127" t="s">
-        <v>863</v>
-      </c>
-      <c r="I127" t="s">
-        <v>865</v>
-      </c>
-      <c r="K127" s="8" t="s">
-        <v>860</v>
-      </c>
       <c r="L127" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="M127" t="s">
-        <v>867</v>
-      </c>
-      <c r="N127" t="s">
-        <v>860</v>
+        <v>869</v>
+      </c>
+      <c r="N127" s="8" t="s">
+        <v>862</v>
       </c>
       <c r="O127" t="s">
         <v>15</v>
@@ -9035,57 +9410,57 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B128" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C128" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E128">
         <v>1813</v>
       </c>
       <c r="F128" t="s">
+        <v>877</v>
+      </c>
+      <c r="G128" t="s">
+        <v>878</v>
+      </c>
+      <c r="H128" t="s">
+        <v>873</v>
+      </c>
+      <c r="I128" t="s">
+        <v>874</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="L128" t="s">
         <v>875</v>
       </c>
-      <c r="G128" t="s">
+      <c r="M128" t="s">
         <v>876</v>
       </c>
-      <c r="H128" t="s">
-        <v>871</v>
-      </c>
-      <c r="I128" t="s">
+      <c r="N128" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="O128" t="s">
         <v>872</v>
-      </c>
-      <c r="K128" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="L128" t="s">
-        <v>873</v>
-      </c>
-      <c r="M128" t="s">
-        <v>874</v>
-      </c>
-      <c r="N128" t="s">
-        <v>868</v>
-      </c>
-      <c r="O128" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B129" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C129" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D129" s="25">
         <v>97</v>
@@ -9094,28 +9469,28 @@
         <v>1813</v>
       </c>
       <c r="F129" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="G129" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H129" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="I129" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="L129" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="M129" t="s">
-        <v>878</v>
-      </c>
-      <c r="N129" t="s">
-        <v>868</v>
+        <v>880</v>
+      </c>
+      <c r="N129" s="8" t="s">
+        <v>870</v>
       </c>
       <c r="O129" t="s">
         <v>15</v>
@@ -9123,31 +9498,31 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B130" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C130" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="E130">
         <v>1813</v>
       </c>
       <c r="F130" t="s">
+        <v>884</v>
+      </c>
+      <c r="G130" t="s">
+        <v>885</v>
+      </c>
+      <c r="H130" t="s">
+        <v>886</v>
+      </c>
+      <c r="N130" s="8" t="s">
         <v>882</v>
-      </c>
-      <c r="G130" t="s">
-        <v>883</v>
-      </c>
-      <c r="H130" t="s">
-        <v>884</v>
-      </c>
-      <c r="N130" t="s">
-        <v>880</v>
       </c>
       <c r="O130" t="s">
         <v>15</v>
@@ -9155,37 +9530,36 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B131" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C131" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="E131">
         <v>1816</v>
       </c>
       <c r="L131" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="M131" t="s">
-        <v>888</v>
-      </c>
-      <c r="N131"/>
+        <v>890</v>
+      </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B132" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C132" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D132" s="6">
         <v>150</v>
@@ -9194,28 +9568,28 @@
         <v>1816</v>
       </c>
       <c r="F132" t="s">
+        <v>898</v>
+      </c>
+      <c r="G132" t="s">
+        <v>897</v>
+      </c>
+      <c r="H132" t="s">
+        <v>675</v>
+      </c>
+      <c r="I132" t="s">
+        <v>893</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="L132" t="s">
+        <v>895</v>
+      </c>
+      <c r="M132" t="s">
         <v>896</v>
       </c>
-      <c r="G132" t="s">
-        <v>895</v>
-      </c>
-      <c r="H132" t="s">
-        <v>673</v>
-      </c>
-      <c r="I132" t="s">
-        <v>891</v>
-      </c>
-      <c r="K132" s="8" t="s">
-        <v>890</v>
-      </c>
-      <c r="L132" t="s">
-        <v>893</v>
-      </c>
-      <c r="M132" t="s">
-        <v>894</v>
-      </c>
-      <c r="N132" t="s">
-        <v>890</v>
+      <c r="N132" s="8" t="s">
+        <v>892</v>
       </c>
       <c r="O132" t="s">
         <v>15</v>
@@ -9223,54 +9597,54 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B133" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C133" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E133">
         <v>1816</v>
       </c>
       <c r="F133" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="G133" t="s">
+        <v>902</v>
+      </c>
+      <c r="H133" t="s">
+        <v>906</v>
+      </c>
+      <c r="I133" t="s">
+        <v>904</v>
+      </c>
+      <c r="K133" s="7" t="s">
         <v>900</v>
       </c>
-      <c r="H133" t="s">
-        <v>904</v>
-      </c>
-      <c r="I133" t="s">
-        <v>902</v>
-      </c>
-      <c r="K133" s="7" t="s">
-        <v>898</v>
-      </c>
       <c r="M133" t="s">
+        <v>905</v>
+      </c>
+      <c r="N133" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="O133" t="s">
         <v>903</v>
-      </c>
-      <c r="N133" t="s">
-        <v>898</v>
-      </c>
-      <c r="O133" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B134" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C134" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D134" s="6">
         <v>151</v>
@@ -9279,28 +9653,28 @@
         <v>1816</v>
       </c>
       <c r="F134" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="G134" t="s">
         <v>474</v>
       </c>
       <c r="H134" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="I134" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="L134" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="M134" t="s">
-        <v>894</v>
-      </c>
-      <c r="N134" t="s">
-        <v>905</v>
+        <v>896</v>
+      </c>
+      <c r="N134" s="8" t="s">
+        <v>907</v>
       </c>
       <c r="O134" t="s">
         <v>15</v>
@@ -9308,45 +9682,45 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B135" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C135" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E135">
         <v>1816</v>
       </c>
       <c r="F135" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="G135" t="s">
         <v>457</v>
       </c>
       <c r="H135" t="s">
+        <v>914</v>
+      </c>
+      <c r="I135" t="s">
+        <v>904</v>
+      </c>
+      <c r="N135" s="8" t="s">
         <v>912</v>
-      </c>
-      <c r="I135" t="s">
-        <v>902</v>
-      </c>
-      <c r="N135" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B136" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C136" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D136" s="17" t="s">
         <v>411</v>
@@ -9355,28 +9729,27 @@
         <v>1831</v>
       </c>
       <c r="H136" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="I136" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="L136" t="s">
         <v>96</v>
       </c>
       <c r="M136" t="s">
-        <v>918</v>
-      </c>
-      <c r="N136"/>
+        <v>920</v>
+      </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B137" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C137" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D137" s="6">
         <v>113</v>
@@ -9385,28 +9758,28 @@
         <v>1831</v>
       </c>
       <c r="F137" t="s">
+        <v>931</v>
+      </c>
+      <c r="G137" t="s">
+        <v>932</v>
+      </c>
+      <c r="H137" t="s">
         <v>929</v>
       </c>
-      <c r="G137" t="s">
+      <c r="I137" t="s">
         <v>930</v>
       </c>
-      <c r="H137" t="s">
-        <v>927</v>
-      </c>
-      <c r="I137" t="s">
-        <v>928</v>
-      </c>
       <c r="K137" s="7" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="L137" t="s">
         <v>47</v>
       </c>
       <c r="M137" t="s">
-        <v>926</v>
-      </c>
-      <c r="N137" t="s">
-        <v>922</v>
+        <v>928</v>
+      </c>
+      <c r="N137" s="8" t="s">
+        <v>924</v>
       </c>
       <c r="O137" t="s">
         <v>15</v>
@@ -9414,54 +9787,54 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B138" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C138" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E138">
         <v>1831</v>
       </c>
       <c r="F138" t="s">
+        <v>940</v>
+      </c>
+      <c r="G138" t="s">
+        <v>941</v>
+      </c>
+      <c r="H138" t="s">
+        <v>937</v>
+      </c>
+      <c r="I138" t="s">
         <v>938</v>
       </c>
-      <c r="G138" t="s">
-        <v>939</v>
-      </c>
-      <c r="H138" t="s">
+      <c r="K138" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="I138" t="s">
+      <c r="L138" t="s">
+        <v>585</v>
+      </c>
+      <c r="M138" t="s">
         <v>936</v>
       </c>
-      <c r="K138" s="7" t="s">
-        <v>933</v>
-      </c>
-      <c r="L138" t="s">
-        <v>584</v>
-      </c>
-      <c r="M138" t="s">
+      <c r="N138" s="8" t="s">
         <v>934</v>
-      </c>
-      <c r="N138" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B139" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C139" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D139" s="6">
         <v>114</v>
@@ -9470,36 +9843,36 @@
         <v>1831</v>
       </c>
       <c r="F139" t="s">
+        <v>947</v>
+      </c>
+      <c r="G139" t="s">
+        <v>948</v>
+      </c>
+      <c r="H139" t="s">
         <v>945</v>
       </c>
-      <c r="G139" t="s">
+      <c r="I139" t="s">
         <v>946</v>
       </c>
-      <c r="H139" t="s">
+      <c r="K139" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="M139" t="s">
+        <v>944</v>
+      </c>
+      <c r="N139" s="8" t="s">
         <v>943</v>
-      </c>
-      <c r="I139" t="s">
-        <v>944</v>
-      </c>
-      <c r="K139" s="7" t="s">
-        <v>947</v>
-      </c>
-      <c r="M139" t="s">
-        <v>942</v>
-      </c>
-      <c r="N139" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B140" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C140" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D140" s="6">
         <v>114</v>
@@ -9507,19 +9880,19 @@
       <c r="E140">
         <v>1831</v>
       </c>
-      <c r="N140" t="s">
-        <v>949</v>
+      <c r="N140" s="8" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B141" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C141" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D141" s="6">
         <v>509</v>
@@ -9528,28 +9901,28 @@
         <v>1834</v>
       </c>
       <c r="F141" t="s">
+        <v>960</v>
+      </c>
+      <c r="G141" t="s">
+        <v>961</v>
+      </c>
+      <c r="H141" t="s">
+        <v>958</v>
+      </c>
+      <c r="I141" t="s">
         <v>959</v>
       </c>
-      <c r="G141" t="s">
-        <v>960</v>
-      </c>
-      <c r="H141" t="s">
+      <c r="K141" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="L141" t="s">
+        <v>956</v>
+      </c>
+      <c r="M141" t="s">
         <v>957</v>
       </c>
-      <c r="I141" t="s">
-        <v>958</v>
-      </c>
-      <c r="K141" s="7" t="s">
+      <c r="N141" s="7" t="s">
         <v>953</v>
-      </c>
-      <c r="L141" t="s">
-        <v>955</v>
-      </c>
-      <c r="M141" t="s">
-        <v>956</v>
-      </c>
-      <c r="N141" s="3" t="s">
-        <v>952</v>
       </c>
       <c r="O141" t="s">
         <v>15</v>
@@ -9557,54 +9930,54 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B142" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C142" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E142">
         <v>1834</v>
       </c>
       <c r="F142" t="s">
+        <v>966</v>
+      </c>
+      <c r="G142" t="s">
+        <v>967</v>
+      </c>
+      <c r="H142" t="s">
         <v>965</v>
       </c>
-      <c r="G142" t="s">
-        <v>966</v>
-      </c>
-      <c r="H142" t="s">
-        <v>964</v>
-      </c>
       <c r="I142" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K142" s="7">
         <v>12436</v>
       </c>
       <c r="L142" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="M142" t="s">
-        <v>963</v>
-      </c>
-      <c r="N142" s="3">
+        <v>964</v>
+      </c>
+      <c r="N142" s="7">
         <v>12438</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B143" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C143" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D143" s="6">
         <v>510</v>
@@ -9613,28 +9986,28 @@
         <v>1834</v>
       </c>
       <c r="F143" t="s">
+        <v>931</v>
+      </c>
+      <c r="G143" t="s">
+        <v>926</v>
+      </c>
+      <c r="H143" t="s">
         <v>929</v>
       </c>
-      <c r="G143" t="s">
-        <v>924</v>
-      </c>
-      <c r="H143" t="s">
-        <v>927</v>
-      </c>
       <c r="I143" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="K143" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="L143" t="s">
+        <v>975</v>
+      </c>
+      <c r="M143" t="s">
+        <v>976</v>
+      </c>
+      <c r="N143" s="8" t="s">
         <v>972</v>
-      </c>
-      <c r="L143" t="s">
-        <v>974</v>
-      </c>
-      <c r="M143" t="s">
-        <v>975</v>
-      </c>
-      <c r="N143" t="s">
-        <v>971</v>
       </c>
       <c r="O143" t="s">
         <v>15</v>
@@ -9642,43 +10015,43 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B144" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C144" t="s">
+        <v>971</v>
+      </c>
+      <c r="D144" s="17" t="s">
         <v>970</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>969</v>
       </c>
       <c r="E144">
         <v>1834</v>
       </c>
       <c r="F144" t="s">
+        <v>931</v>
+      </c>
+      <c r="G144" t="s">
+        <v>926</v>
+      </c>
+      <c r="H144" t="s">
         <v>929</v>
       </c>
-      <c r="G144" t="s">
-        <v>924</v>
-      </c>
-      <c r="H144" t="s">
-        <v>927</v>
-      </c>
       <c r="I144" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="K144" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="L144" t="s">
+        <v>979</v>
+      </c>
+      <c r="M144" t="s">
+        <v>978</v>
+      </c>
+      <c r="N144" s="8" t="s">
         <v>972</v>
-      </c>
-      <c r="L144" t="s">
-        <v>978</v>
-      </c>
-      <c r="M144" t="s">
-        <v>977</v>
-      </c>
-      <c r="N144" t="s">
-        <v>971</v>
       </c>
       <c r="O144" t="s">
         <v>15</v>
@@ -9686,13 +10059,13 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B145" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C145" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D145" s="6">
         <v>511</v>
@@ -9701,28 +10074,28 @@
         <v>1834</v>
       </c>
       <c r="F145" t="s">
+        <v>988</v>
+      </c>
+      <c r="G145" t="s">
+        <v>989</v>
+      </c>
+      <c r="H145" t="s">
+        <v>986</v>
+      </c>
+      <c r="I145" t="s">
         <v>987</v>
       </c>
-      <c r="G145" t="s">
-        <v>988</v>
-      </c>
-      <c r="H145" t="s">
+      <c r="K145" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="L145" t="s">
+        <v>984</v>
+      </c>
+      <c r="M145" t="s">
         <v>985</v>
       </c>
-      <c r="I145" t="s">
-        <v>986</v>
-      </c>
-      <c r="K145" s="7" t="s">
+      <c r="N145" s="8" t="s">
         <v>981</v>
-      </c>
-      <c r="L145" t="s">
-        <v>983</v>
-      </c>
-      <c r="M145" t="s">
-        <v>984</v>
-      </c>
-      <c r="N145" t="s">
-        <v>980</v>
       </c>
       <c r="O145" t="s">
         <v>20</v>
@@ -9730,13 +10103,13 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B146" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C146" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D146" s="6">
         <v>511</v>
@@ -9745,28 +10118,28 @@
         <v>1834</v>
       </c>
       <c r="F146" t="s">
+        <v>992</v>
+      </c>
+      <c r="G146" t="s">
+        <v>993</v>
+      </c>
+      <c r="H146" t="s">
+        <v>997</v>
+      </c>
+      <c r="I146" t="s">
+        <v>998</v>
+      </c>
+      <c r="K146" s="7" t="s">
         <v>991</v>
       </c>
-      <c r="G146" t="s">
-        <v>992</v>
-      </c>
-      <c r="H146" t="s">
+      <c r="L146" t="s">
+        <v>995</v>
+      </c>
+      <c r="M146" t="s">
         <v>996</v>
       </c>
-      <c r="I146" t="s">
-        <v>997</v>
-      </c>
-      <c r="K146" s="7" t="s">
+      <c r="N146" s="8" t="s">
         <v>990</v>
-      </c>
-      <c r="L146" t="s">
-        <v>994</v>
-      </c>
-      <c r="M146" t="s">
-        <v>995</v>
-      </c>
-      <c r="N146" t="s">
-        <v>989</v>
       </c>
       <c r="O146" t="s">
         <v>15</v>
@@ -9774,57 +10147,56 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B147" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C147" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E147">
         <v>1834</v>
       </c>
-      <c r="N147" t="s">
-        <v>999</v>
+      <c r="N147" s="8" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B148" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C148" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E148">
         <v>1834</v>
       </c>
       <c r="H148" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I148" t="s">
-        <v>1004</v>
-      </c>
-      <c r="N148"/>
+        <v>1005</v>
+      </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B149" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C149" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D149" s="6">
         <v>535</v>
@@ -9833,69 +10205,69 @@
         <v>1834</v>
       </c>
       <c r="F149" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G149" t="s">
         <v>1015</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I149" t="s">
         <v>1014</v>
       </c>
-      <c r="H149" t="s">
+      <c r="K149" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L149" t="s">
         <v>1012</v>
-      </c>
-      <c r="I149" t="s">
-        <v>1013</v>
-      </c>
-      <c r="K149" s="7" t="s">
-        <v>1009</v>
-      </c>
-      <c r="L149" t="s">
-        <v>1011</v>
       </c>
       <c r="M149" t="s">
         <v>474</v>
       </c>
-      <c r="N149" t="s">
-        <v>1008</v>
+      <c r="N149" s="8" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B150" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C150" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E150">
         <v>1834</v>
       </c>
       <c r="F150" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I150" t="s">
         <v>1024</v>
       </c>
-      <c r="G150" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H150" t="s">
+      <c r="K150" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L150" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M150" t="s">
         <v>1022</v>
       </c>
-      <c r="I150" t="s">
-        <v>1023</v>
-      </c>
-      <c r="K150" s="7" t="s">
+      <c r="N150" s="7" t="s">
         <v>1018</v>
-      </c>
-      <c r="L150" t="s">
-        <v>1020</v>
-      </c>
-      <c r="M150" t="s">
-        <v>1021</v>
-      </c>
-      <c r="N150" s="3" t="s">
-        <v>1017</v>
       </c>
       <c r="O150" t="s">
         <v>15</v>
@@ -9903,13 +10275,13 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B151" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C151" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D151" s="6">
         <v>536</v>
@@ -9918,25 +10290,25 @@
         <v>1834</v>
       </c>
       <c r="F151" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H151" t="s">
         <v>1033</v>
       </c>
-      <c r="G151" t="s">
+      <c r="K151" s="7" t="s">
         <v>1028</v>
       </c>
-      <c r="H151" t="s">
+      <c r="L151" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M151" t="s">
         <v>1032</v>
       </c>
-      <c r="K151" s="7" t="s">
+      <c r="N151" s="7" t="s">
         <v>1027</v>
-      </c>
-      <c r="L151" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M151" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N151" s="7" t="s">
-        <v>1026</v>
       </c>
       <c r="O151" t="s">
         <v>15</v>
@@ -9944,55 +10316,54 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B152" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C152" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E152">
         <v>1843</v>
       </c>
       <c r="F152" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G152" t="s">
         <v>1043</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I152" t="s">
         <v>1042</v>
       </c>
-      <c r="H152" t="s">
+      <c r="K152" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L152" t="s">
         <v>1040</v>
       </c>
-      <c r="I152" t="s">
-        <v>1041</v>
-      </c>
-      <c r="K152" s="7" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L152" t="s">
+      <c r="M152" t="s">
         <v>1039</v>
       </c>
-      <c r="M152" t="s">
-        <v>1038</v>
-      </c>
-      <c r="N152"/>
       <c r="O152" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B153" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C153" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D153" s="6">
         <v>731</v>
@@ -10001,27 +10372,27 @@
         <v>1843</v>
       </c>
       <c r="F153" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H153" t="s">
         <v>1050</v>
       </c>
-      <c r="G153" t="s">
+      <c r="I153" t="s">
         <v>1052</v>
       </c>
-      <c r="H153" t="s">
+      <c r="K153" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L153" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M153" t="s">
         <v>1049</v>
       </c>
-      <c r="I153" t="s">
-        <v>1051</v>
-      </c>
-      <c r="K153" s="7" t="s">
-        <v>1045</v>
-      </c>
-      <c r="L153" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M153" t="s">
-        <v>1048</v>
-      </c>
-      <c r="N153" t="s">
+      <c r="N153" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O153" t="s">
@@ -10030,43 +10401,43 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B154" t="s">
+        <v>716</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D154" s="17" t="s">
         <v>1058</v>
-      </c>
-      <c r="B154" t="s">
-        <v>950</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>1057</v>
       </c>
       <c r="E154">
         <v>1843</v>
       </c>
       <c r="F154" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K154" s="7" t="s">
         <v>1055</v>
       </c>
-      <c r="G154" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H154" t="s">
+      <c r="L154" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M154" t="s">
         <v>1061</v>
       </c>
-      <c r="I154" t="s">
-        <v>1062</v>
-      </c>
-      <c r="K154" s="7" t="s">
+      <c r="N154" s="8" t="s">
         <v>1054</v>
-      </c>
-      <c r="L154" t="s">
-        <v>1059</v>
-      </c>
-      <c r="M154" t="s">
-        <v>1060</v>
-      </c>
-      <c r="N154" t="s">
-        <v>1053</v>
       </c>
       <c r="O154" t="s">
         <v>15</v>
@@ -10074,13 +10445,13 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B155" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C155" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D155" s="6">
         <v>732</v>
@@ -10089,27 +10460,27 @@
         <v>1843</v>
       </c>
       <c r="F155" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G155" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H155" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="I155" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="K155" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L155" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="M155" t="s">
-        <v>1067</v>
-      </c>
-      <c r="N155" t="s">
+        <v>1068</v>
+      </c>
+      <c r="N155" s="8" t="s">
         <v>26</v>
       </c>
       <c r="O155" t="s">
@@ -10118,37 +10489,37 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B156" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C156" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E156">
         <v>1843</v>
       </c>
       <c r="F156" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G156" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="K156" s="7" t="s">
         <v>9</v>
       </c>
       <c r="L156" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M156" t="s">
-        <v>1074</v>
-      </c>
-      <c r="N156" t="s">
-        <v>1069</v>
+        <v>1075</v>
+      </c>
+      <c r="N156" s="8" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
@@ -10156,13 +10527,13 @@
         <v>1080</v>
       </c>
       <c r="B157" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C157" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E157">
         <v>1843</v>
@@ -10171,7 +10542,7 @@
         <v>19</v>
       </c>
       <c r="G157" t="s">
-        <v>1079</v>
+        <v>1104</v>
       </c>
       <c r="H157" t="s">
         <v>1083</v>
@@ -10188,13 +10559,16 @@
       <c r="M157" t="s">
         <v>1082</v>
       </c>
-      <c r="N157" t="s">
+      <c r="N157" s="8" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A158" s="11" t="s">
+        <v>1089</v>
+      </c>
       <c r="B158" t="s">
-        <v>950</v>
+        <v>716</v>
       </c>
       <c r="C158" t="s">
         <v>1086</v>
@@ -10205,60 +10579,662 @@
       <c r="E158">
         <v>1844</v>
       </c>
-      <c r="N158"/>
+      <c r="F158" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K158" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L158" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M158" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N158" s="8" t="s">
+        <v>1087</v>
+      </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N159" s="3"/>
+      <c r="A159" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B159" t="s">
+        <v>716</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D159" s="6">
+        <v>743</v>
+      </c>
+      <c r="E159">
+        <v>1844</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G159" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K159" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L159" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M159" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N159" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="O159" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N160"/>
-    </row>
-    <row r="161" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N161"/>
-    </row>
-    <row r="162" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N162"/>
-    </row>
-    <row r="163" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N163"/>
-    </row>
-    <row r="164" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N164" s="7"/>
-    </row>
-    <row r="165" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N165"/>
-    </row>
-    <row r="166" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N166"/>
-    </row>
-    <row r="167" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N167"/>
-    </row>
-    <row r="168" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N168"/>
-    </row>
-    <row r="169" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N169"/>
-    </row>
-    <row r="170" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N170"/>
-    </row>
-    <row r="171" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N171"/>
-    </row>
-    <row r="172" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N172" s="3"/>
-    </row>
-    <row r="173" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N173"/>
-    </row>
-    <row r="174" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="A160" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B160" t="s">
+        <v>716</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D160" s="6">
+        <v>743</v>
+      </c>
+      <c r="E160">
+        <v>1844</v>
+      </c>
+      <c r="F160" t="s">
+        <v>93</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K160" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="M160" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N160" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A161" s="11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B161" t="s">
+        <v>716</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E161">
+        <v>1844</v>
+      </c>
+      <c r="F161" t="s">
+        <v>582</v>
+      </c>
+      <c r="G161" t="s">
+        <v>926</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I161" t="s">
+        <v>930</v>
+      </c>
+      <c r="K161" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L161" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M161" t="s">
+        <v>1116</v>
+      </c>
+      <c r="N161" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="O161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A162" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B162" t="s">
+        <v>716</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D162" s="6">
+        <v>744</v>
+      </c>
+      <c r="E162">
+        <v>1844</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1128</v>
+      </c>
+      <c r="K162" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L162" t="s">
+        <v>1125</v>
+      </c>
+      <c r="M162" t="s">
+        <v>1126</v>
+      </c>
+      <c r="N162" s="8" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A163" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B163" t="s">
+        <v>716</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D163" s="6">
+        <v>744</v>
+      </c>
+      <c r="E163">
+        <v>1844</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K163" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L163" t="s">
+        <v>1134</v>
+      </c>
+      <c r="M163" t="s">
+        <v>1135</v>
+      </c>
+      <c r="N163" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="O163" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A164" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B164" t="s">
+        <v>716</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D164" s="6">
+        <v>745</v>
+      </c>
+      <c r="E164">
+        <v>1844</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K164" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="L164" t="s">
+        <v>1142</v>
+      </c>
+      <c r="M164" t="s">
+        <v>1143</v>
+      </c>
+      <c r="N164" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A165" s="11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B165" t="s">
+        <v>716</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D165" s="6">
+        <v>745</v>
+      </c>
+      <c r="E165">
+        <v>1844</v>
+      </c>
+      <c r="F165" t="s">
+        <v>646</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1149</v>
+      </c>
+      <c r="K165" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="L165" t="s">
+        <v>1146</v>
+      </c>
+      <c r="M165" t="s">
+        <v>1147</v>
+      </c>
+      <c r="N165" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A166" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D166" s="6">
+        <v>178</v>
+      </c>
+      <c r="E166">
+        <v>1859</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K166" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="L166" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M166" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N166" s="8" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A167" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D167" s="6">
+        <v>178</v>
+      </c>
+      <c r="E167">
+        <v>1859</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L167" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M167" t="s">
+        <v>1167</v>
+      </c>
+      <c r="N167" s="8" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A168" s="11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E168">
+        <v>1848</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K168" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="L168" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M168" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N168" s="8" t="s">
+        <v>1171</v>
+      </c>
+      <c r="O168" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A169" s="11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E169">
+        <v>1848</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1186</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K169" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="M169" t="s">
+        <v>1185</v>
+      </c>
+      <c r="N169" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="O169" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A170" s="11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E170">
+        <v>1848</v>
+      </c>
+      <c r="F170" t="s">
+        <v>47</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K170" s="7" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L170" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M170" t="s">
+        <v>978</v>
+      </c>
+      <c r="N170" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="O170" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A171" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E171">
+        <v>1848</v>
+      </c>
+      <c r="F171" t="s">
+        <v>582</v>
+      </c>
+      <c r="G171" t="s">
+        <v>926</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I171" t="s">
+        <v>930</v>
+      </c>
+      <c r="K171" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L171" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M171" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N171" s="8" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A172" s="11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E172">
+        <v>1848</v>
+      </c>
+      <c r="F172" t="s">
+        <v>88</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1204</v>
+      </c>
+      <c r="K172" s="7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="L172" t="s">
+        <v>1201</v>
+      </c>
+      <c r="M172" t="s">
+        <v>1202</v>
+      </c>
+      <c r="N172" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="O172" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A173" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E173">
+        <v>1848</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K173" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L173" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M173" t="s">
+        <v>1208</v>
+      </c>
+      <c r="N173" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="O173" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N174"/>
     </row>
-    <row r="175" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N175"/>
     </row>
-    <row r="176" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N176"/>
     </row>
     <row r="177" spans="7:14" x14ac:dyDescent="0.2">

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194442A4-2D32-43E7-86BD-2C7CDCF0617A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEDCE37-3D10-4E26-BFEB-CF7803CDE847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baptismes" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1201">
   <si>
     <t>Cognoms</t>
   </si>
@@ -1231,12 +1231,6 @@
     <t>28/11/1792</t>
   </si>
   <si>
-    <t>Joseph Pedrós Mas</t>
-  </si>
-  <si>
-    <t>Maria Duart Xandre</t>
-  </si>
-  <si>
     <t>Pedrós Duart Maria Ignasia</t>
   </si>
   <si>
@@ -1330,9 +1324,6 @@
     <t>Anton Martí Mas</t>
   </si>
   <si>
-    <t>Josepas Senellosa</t>
-  </si>
-  <si>
     <t>29/11/1792</t>
   </si>
   <si>
@@ -1492,9 +1483,6 @@
     <t>08/11/1794</t>
   </si>
   <si>
-    <t>Joseph Pedrós</t>
-  </si>
-  <si>
     <t>Maria Duart</t>
   </si>
   <si>
@@ -1678,9 +1666,6 @@
     <t>Josep Pedrós Mas</t>
   </si>
   <si>
-    <t>Mariano Duart i Magdalena Alexandre</t>
-  </si>
-  <si>
     <t>Maria Duart Alexandre</t>
   </si>
   <si>
@@ -1819,9 +1804,6 @@
     <t>07/11/1803</t>
   </si>
   <si>
-    <t>Fransisco Pedrós</t>
-  </si>
-  <si>
     <t>Armer</t>
   </si>
   <si>
@@ -1954,15 +1936,6 @@
     <t>Cecilia Pedrós</t>
   </si>
   <si>
-    <t>Ignasi Pedrós i Llucia Pujades</t>
-  </si>
-  <si>
-    <t>Josep Pedrós Pujades</t>
-  </si>
-  <si>
-    <t>Mariano Duart (barbens) i Magdalena Alexandre</t>
-  </si>
-  <si>
     <t>Viladevait Ribera Ignasi Pau</t>
   </si>
   <si>
@@ -2218,9 +2191,6 @@
     <t>Rosa Colell (Donsella)</t>
   </si>
   <si>
-    <t>Pau Duart i Magdalena Alexandre</t>
-  </si>
-  <si>
     <t>05 423</t>
   </si>
   <si>
@@ -2644,12 +2614,6 @@
     <t>31/05/1813</t>
   </si>
   <si>
-    <t>Pedrós Duart Ignacio Marcos Peregnin</t>
-  </si>
-  <si>
-    <t>Mariano Duart (Barvens) i Magdalena Alexandre</t>
-  </si>
-  <si>
     <t>01/06/1813</t>
   </si>
   <si>
@@ -2803,9 +2767,6 @@
     <t>Pedrós Duart Ramon Pere</t>
   </si>
   <si>
-    <t>Josep Pedrós (Vallverd)</t>
-  </si>
-  <si>
     <t>Josef Navau (Traginer)</t>
   </si>
   <si>
@@ -2851,9 +2812,6 @@
     <t>21/05/1831</t>
   </si>
   <si>
-    <t>Maria Rosa Martí</t>
-  </si>
-  <si>
     <t>Pedrós Marti Maria Antonia Fransisca</t>
   </si>
   <si>
@@ -3112,9 +3070,6 @@
     <t>Jaume Pujades (Casat)</t>
   </si>
   <si>
-    <t>Josep Pedrós i Maria Duart</t>
-  </si>
-  <si>
     <t>Onofre Martí i Esperansa Pou (Palau)</t>
   </si>
   <si>
@@ -3265,12 +3220,6 @@
     <t>Fransisco Cisteré i Rosa Moset</t>
   </si>
   <si>
-    <t>Ramon Pedrós</t>
-  </si>
-  <si>
-    <t>Rosa Marti</t>
-  </si>
-  <si>
     <t>Pedrós Marti Maria Fransisca</t>
   </si>
   <si>
@@ -3541,9 +3490,6 @@
     <t>Josepa Martí (El Pedrís)</t>
   </si>
   <si>
-    <t>Pedrós Martí Maria Teresa Josepa</t>
-  </si>
-  <si>
     <t>Anton Cercós (Casat)</t>
   </si>
   <si>
@@ -3710,6 +3656,24 @@
   </si>
   <si>
     <t>Theresa Roca Cabriol (El Palau)</t>
+  </si>
+  <si>
+    <t>Cercós Martí Maria Teresa Josepa</t>
+  </si>
+  <si>
+    <t>Rosa Marti Pou</t>
+  </si>
+  <si>
+    <t>Josep Pedrós Mas (Vallverd)</t>
+  </si>
+  <si>
+    <t>Mariano Duart (Barbens) i Magdalena Alexandre</t>
+  </si>
+  <si>
+    <t>Pedrós Duart Ignasi Marcos Peregnin</t>
+  </si>
+  <si>
+    <t>Josepa Senellosa</t>
   </si>
 </sst>
 </file>
@@ -4222,8 +4186,8 @@
   <dimension ref="A1:Q17780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173:C173"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6507,7 +6471,7 @@
         <v>374</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E57">
         <v>1792</v>
@@ -6572,7 +6536,7 @@
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
@@ -6587,10 +6551,10 @@
         <v>1792</v>
       </c>
       <c r="F59" t="s">
-        <v>386</v>
+        <v>530</v>
       </c>
       <c r="G59" t="s">
-        <v>387</v>
+        <v>531</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
@@ -6613,7 +6577,7 @@
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
@@ -6628,30 +6592,30 @@
         <v>1792</v>
       </c>
       <c r="F60" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G60" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M60" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O60" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s">
         <v>38</v>
@@ -6666,25 +6630,25 @@
         <v>1792</v>
       </c>
       <c r="F61" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G61" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L61" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M61" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O61" t="s">
         <v>15</v>
@@ -6692,7 +6656,7 @@
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s">
         <v>38</v>
@@ -6707,7 +6671,7 @@
         <v>1792</v>
       </c>
       <c r="F62" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G62" t="s">
         <v>53</v>
@@ -6716,16 +6680,16 @@
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L62" t="s">
         <v>402</v>
       </c>
-      <c r="L62" t="s">
-        <v>404</v>
-      </c>
       <c r="M62" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O62" t="s">
         <v>16</v>
@@ -6733,40 +6697,40 @@
     </row>
     <row r="63" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s">
         <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E63">
         <v>1792</v>
       </c>
       <c r="F63" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G63" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L63" t="s">
         <v>33</v>
       </c>
       <c r="M63" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O63" t="s">
         <v>15</v>
@@ -6774,13 +6738,13 @@
     </row>
     <row r="64" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B64" t="s">
         <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D64" s="25">
         <v>113</v>
@@ -6789,25 +6753,25 @@
         <v>1792</v>
       </c>
       <c r="F64" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G64" t="s">
-        <v>419</v>
+        <v>1200</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L64" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M64" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O64" t="s">
         <v>15</v>
@@ -6815,13 +6779,13 @@
     </row>
     <row r="65" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D65" s="25">
         <v>113</v>
@@ -6830,25 +6794,25 @@
         <v>1792</v>
       </c>
       <c r="F65" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G65" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L65" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M65" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O65" t="s">
         <v>15</v>
@@ -6856,13 +6820,13 @@
     </row>
     <row r="66" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D66" s="25">
         <v>113</v>
@@ -6871,25 +6835,25 @@
         <v>1792</v>
       </c>
       <c r="F66" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G66" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L66" t="s">
         <v>431</v>
       </c>
-      <c r="L66" t="s">
-        <v>434</v>
-      </c>
       <c r="M66" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O66" t="s">
         <v>15</v>
@@ -6897,13 +6861,13 @@
     </row>
     <row r="67" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D67" s="25">
         <v>113</v>
@@ -6912,37 +6876,37 @@
         <v>1792</v>
       </c>
       <c r="F67" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G67" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L67" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M67" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O67"/>
     </row>
     <row r="68" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D68" s="25">
         <v>113</v>
@@ -6951,25 +6915,25 @@
         <v>1792</v>
       </c>
       <c r="F68" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G68" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L68" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O68" t="s">
         <v>15</v>
@@ -6977,13 +6941,13 @@
     </row>
     <row r="69" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D69" s="25">
         <v>113</v>
@@ -6992,25 +6956,25 @@
         <v>1792</v>
       </c>
       <c r="F69" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G69" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L69" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M69" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="O69" t="s">
         <v>15</v>
@@ -7018,13 +6982,13 @@
     </row>
     <row r="70" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B70" t="s">
         <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D70" s="25">
         <v>113</v>
@@ -7033,25 +6997,25 @@
         <v>1793</v>
       </c>
       <c r="F70" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G70" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L70" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M70" t="s">
         <v>22</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="O70" t="s">
         <v>15</v>
@@ -7059,46 +7023,46 @@
     </row>
     <row r="71" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s">
         <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E71">
         <v>1794</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71" s="7"/>
       <c r="L71" s="18" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M71" s="18" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="N71" s="7"/>
       <c r="O71"/>
     </row>
     <row r="72" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B72" t="s">
         <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D72" s="25">
         <v>121</v>
@@ -7107,35 +7071,35 @@
         <v>1794</v>
       </c>
       <c r="F72" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G72" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72" s="8"/>
       <c r="L72" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M72" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="O72"/>
     </row>
     <row r="73" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B73" t="s">
         <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D73" s="25">
         <v>121</v>
@@ -7144,25 +7108,25 @@
         <v>1794</v>
       </c>
       <c r="F73" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="G73" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L73" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M73" t="s">
         <v>23</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O73" t="s">
         <v>15</v>
@@ -7170,13 +7134,13 @@
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B74" t="s">
         <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D74" s="25">
         <v>121</v>
@@ -7185,25 +7149,25 @@
         <v>1794</v>
       </c>
       <c r="F74" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G74" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L74" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M74" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O74" t="s">
         <v>15</v>
@@ -7211,13 +7175,13 @@
     </row>
     <row r="75" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B75" t="s">
         <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D75" s="25">
         <v>121</v>
@@ -7226,25 +7190,25 @@
         <v>1794</v>
       </c>
       <c r="F75" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G75" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L75" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="M75" t="s">
         <v>53</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="O75" t="s">
         <v>15</v>
@@ -7252,13 +7216,13 @@
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B76" t="s">
         <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D76" s="25">
         <v>121</v>
@@ -7267,37 +7231,37 @@
         <v>1794</v>
       </c>
       <c r="F76" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G76" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L76" t="s">
+        <v>485</v>
+      </c>
+      <c r="M76" t="s">
+        <v>486</v>
+      </c>
+      <c r="N76" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="L76" t="s">
-        <v>489</v>
-      </c>
-      <c r="M76" t="s">
-        <v>490</v>
-      </c>
-      <c r="N76" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="O76"/>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B77" t="s">
         <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D77" s="25">
         <v>121</v>
@@ -7306,25 +7270,25 @@
         <v>1794</v>
       </c>
       <c r="F77" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G77" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L77" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M77" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="O77" t="s">
         <v>15</v>
@@ -7332,13 +7296,13 @@
     </row>
     <row r="78" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B78" t="s">
         <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D78" s="25">
         <v>121</v>
@@ -7347,25 +7311,25 @@
         <v>1794</v>
       </c>
       <c r="F78" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G78" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L78" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M78" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="O78" t="s">
         <v>15</v>
@@ -7373,13 +7337,13 @@
     </row>
     <row r="79" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B79" t="s">
         <v>38</v>
       </c>
       <c r="C79" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D79" s="25">
         <v>121</v>
@@ -7388,25 +7352,25 @@
         <v>1794</v>
       </c>
       <c r="F79" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G79" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L79" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M79" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="O79" t="s">
         <v>24</v>
@@ -7414,13 +7378,13 @@
     </row>
     <row r="80" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B80" t="s">
         <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D80" s="25">
         <v>156</v>
@@ -7429,29 +7393,29 @@
         <v>1801</v>
       </c>
       <c r="F80" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G80" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H80" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I80" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J80"/>
       <c r="K80" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="L80" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="M80" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="O80" t="s">
         <v>15</v>
@@ -7459,13 +7423,13 @@
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B81" t="s">
         <v>38</v>
       </c>
       <c r="C81" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D81" s="25">
         <v>156</v>
@@ -7474,29 +7438,29 @@
         <v>1801</v>
       </c>
       <c r="F81" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G81" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H81" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I81" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J81"/>
       <c r="K81" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L81" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M81" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="N81" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="O81" t="s">
         <v>15</v>
@@ -7504,13 +7468,13 @@
     </row>
     <row r="82" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B82" t="s">
         <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D82" s="25">
         <v>156</v>
@@ -7519,29 +7483,29 @@
         <v>1801</v>
       </c>
       <c r="F82" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G82" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H82" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I82" t="s">
-        <v>535</v>
+        <v>1198</v>
       </c>
       <c r="J82"/>
       <c r="K82" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="L82" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M82" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="O82" t="s">
         <v>15</v>
@@ -7549,13 +7513,13 @@
     </row>
     <row r="83" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B83" t="s">
         <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D83" s="25">
         <v>156</v>
@@ -7564,29 +7528,29 @@
         <v>1801</v>
       </c>
       <c r="F83" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G83" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H83" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="I83" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J83"/>
       <c r="K83" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="L83" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="M83" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="O83" t="s">
         <v>17</v>
@@ -7594,13 +7558,13 @@
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B84" t="s">
         <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D84" s="25">
         <v>156</v>
@@ -7609,29 +7573,29 @@
         <v>1801</v>
       </c>
       <c r="F84" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G84" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H84" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I84" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="J84"/>
       <c r="K84" s="19" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="L84" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="M84" t="s">
         <v>23</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="O84" t="s">
         <v>15</v>
@@ -7639,13 +7603,13 @@
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B85" t="s">
         <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D85" s="25">
         <v>156</v>
@@ -7654,29 +7618,29 @@
         <v>1801</v>
       </c>
       <c r="F85" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G85" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H85" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I85" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="J85"/>
       <c r="K85" s="19" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="L85" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="M85" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O85" t="s">
         <v>15</v>
@@ -7684,13 +7648,13 @@
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B86" t="s">
         <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D86" s="25">
         <v>156</v>
@@ -7699,29 +7663,29 @@
         <v>1801</v>
       </c>
       <c r="F86" t="s">
+        <v>559</v>
+      </c>
+      <c r="G86" t="s">
+        <v>560</v>
+      </c>
+      <c r="H86" t="s">
         <v>564</v>
       </c>
-      <c r="G86" t="s">
+      <c r="I86" t="s">
         <v>565</v>
-      </c>
-      <c r="H86" t="s">
-        <v>569</v>
-      </c>
-      <c r="I86" t="s">
-        <v>570</v>
       </c>
       <c r="J86"/>
       <c r="K86" s="19" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L86" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="M86" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="O86" t="s">
         <v>15</v>
@@ -7729,13 +7693,13 @@
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B87" t="s">
         <v>38</v>
       </c>
       <c r="C87" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D87" s="25">
         <v>170</v>
@@ -7744,29 +7708,29 @@
         <v>1803</v>
       </c>
       <c r="F87" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G87" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H87" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="I87" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="J87"/>
       <c r="K87" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="L87" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="M87" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="O87" t="s">
         <v>15</v>
@@ -7774,13 +7738,13 @@
     </row>
     <row r="88" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B88" t="s">
         <v>38</v>
       </c>
       <c r="C88" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D88" s="25">
         <v>170</v>
@@ -7789,43 +7753,43 @@
         <v>1803</v>
       </c>
       <c r="F88" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G88" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="H88" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I88" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="J88"/>
       <c r="K88" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L88" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="M88" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="O88" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B89" t="s">
         <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D89" s="25">
         <v>170</v>
@@ -7834,26 +7798,26 @@
         <v>1803</v>
       </c>
       <c r="F89" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G89" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="H89" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="I89" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="J89"/>
       <c r="K89" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="M89" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="O89" t="s">
         <v>15</v>
@@ -7861,13 +7825,13 @@
     </row>
     <row r="90" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B90" t="s">
         <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D90" s="25">
         <v>170</v>
@@ -7876,29 +7840,29 @@
         <v>1803</v>
       </c>
       <c r="F90" t="s">
+        <v>592</v>
+      </c>
+      <c r="G90" t="s">
+        <v>599</v>
+      </c>
+      <c r="H90" t="s">
+        <v>597</v>
+      </c>
+      <c r="I90" t="s">
         <v>598</v>
-      </c>
-      <c r="G90" t="s">
-        <v>605</v>
-      </c>
-      <c r="H90" t="s">
-        <v>603</v>
-      </c>
-      <c r="I90" t="s">
-        <v>604</v>
       </c>
       <c r="J90"/>
       <c r="K90" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="L90" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="M90" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="O90" t="s">
         <v>15</v>
@@ -7906,13 +7870,13 @@
     </row>
     <row r="91" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B91" t="s">
         <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D91" s="25">
         <v>170</v>
@@ -7921,29 +7885,29 @@
         <v>1804</v>
       </c>
       <c r="F91" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G91" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H91" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="I91" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="J91"/>
       <c r="K91" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="L91" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="M91" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="O91" t="s">
         <v>15</v>
@@ -7951,13 +7915,13 @@
     </row>
     <row r="92" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B92" t="s">
         <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D92" s="25">
         <v>170</v>
@@ -7966,29 +7930,29 @@
         <v>1804</v>
       </c>
       <c r="F92" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G92" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="H92" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="I92" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="J92"/>
       <c r="K92" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="L92" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="M92" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="O92" t="s">
         <v>18</v>
@@ -7996,13 +7960,13 @@
     </row>
     <row r="93" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B93" t="s">
         <v>38</v>
       </c>
       <c r="C93" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D93" s="25">
         <v>170</v>
@@ -8011,29 +7975,29 @@
         <v>1804</v>
       </c>
       <c r="F93" t="s">
-        <v>628</v>
+        <v>530</v>
       </c>
       <c r="G93" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="H93" t="s">
-        <v>627</v>
+        <v>529</v>
       </c>
       <c r="I93" t="s">
-        <v>629</v>
+        <v>1198</v>
       </c>
       <c r="J93"/>
       <c r="K93" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="L93" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="M93" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="O93" t="s">
         <v>15</v>
@@ -8041,13 +8005,13 @@
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B94" t="s">
         <v>38</v>
       </c>
       <c r="C94" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D94" s="25">
         <v>170</v>
@@ -8056,26 +8020,26 @@
         <v>1804</v>
       </c>
       <c r="F94" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="G94" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="H94" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="I94" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="J94"/>
       <c r="K94" s="7" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="M94" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="N94" s="7" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="O94" t="s">
         <v>15</v>
@@ -8083,40 +8047,40 @@
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="B95" t="s">
         <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="E95">
         <v>1804</v>
       </c>
       <c r="F95" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G95" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="L95" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="M95" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="O95" t="s">
         <v>15</v>
@@ -8124,13 +8088,13 @@
     </row>
     <row r="96" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B96" t="s">
         <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D96" s="25">
         <v>175</v>
@@ -8139,29 +8103,29 @@
         <v>1804</v>
       </c>
       <c r="F96" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G96" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="H96" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I96" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="J96"/>
       <c r="K96" s="7" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="L96" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="M96" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="O96" t="s">
         <v>15</v>
@@ -8169,13 +8133,13 @@
     </row>
     <row r="97" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B97" t="s">
         <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D97" s="25">
         <v>175</v>
@@ -8184,41 +8148,41 @@
         <v>1804</v>
       </c>
       <c r="F97" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G97" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="H97" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="I97" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="J97"/>
       <c r="K97" s="7" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="L97" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="M97" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="O97"/>
     </row>
     <row r="98" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B98" t="s">
         <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D98" s="25">
         <v>175</v>
@@ -8227,26 +8191,26 @@
         <v>1804</v>
       </c>
       <c r="F98" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G98" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="H98" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="I98" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="J98"/>
       <c r="K98" s="7" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="L98" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="M98" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="N98" s="7" t="s">
         <v>21</v>
@@ -8257,13 +8221,13 @@
     </row>
     <row r="99" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B99" t="s">
         <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D99" s="25">
         <v>175</v>
@@ -8272,29 +8236,29 @@
         <v>1805</v>
       </c>
       <c r="F99" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G99" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="H99" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="I99" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="J99"/>
       <c r="K99" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="L99" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="M99" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="N99" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="L99" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="M99" s="18" t="s">
-        <v>672</v>
-      </c>
-      <c r="N99" s="7" t="s">
-        <v>679</v>
       </c>
       <c r="O99" t="s">
         <v>15</v>
@@ -8302,13 +8266,13 @@
     </row>
     <row r="100" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="B100" t="s">
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D100" s="25">
         <v>175</v>
@@ -8317,29 +8281,29 @@
         <v>1805</v>
       </c>
       <c r="F100" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="G100" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="H100" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="I100" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="J100"/>
       <c r="K100" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="L100" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="M100" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="O100" t="s">
         <v>15</v>
@@ -8347,13 +8311,13 @@
     </row>
     <row r="101" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="B101" t="s">
         <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D101" s="25">
         <v>175</v>
@@ -8362,29 +8326,29 @@
         <v>1805</v>
       </c>
       <c r="F101" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="G101" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="H101" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="I101" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="J101"/>
       <c r="K101" s="7" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="L101" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="M101" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="O101" t="s">
         <v>15</v>
@@ -8392,13 +8356,13 @@
     </row>
     <row r="102" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B102" t="s">
         <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D102" s="25">
         <v>175</v>
@@ -8407,29 +8371,29 @@
         <v>1805</v>
       </c>
       <c r="F102" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="H102" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="I102" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="J102"/>
       <c r="K102" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L102" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="M102" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="O102" t="s">
         <v>20</v>
@@ -8437,13 +8401,13 @@
     </row>
     <row r="103" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="B103" t="s">
         <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D103" s="25">
         <v>175</v>
@@ -8452,41 +8416,41 @@
         <v>1805</v>
       </c>
       <c r="F103" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="G103" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H103" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="I103" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="J103"/>
       <c r="K103" s="7" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="L103" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="M103" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="O103"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B104" t="s">
         <v>38</v>
       </c>
       <c r="C104" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D104" s="25">
         <v>175</v>
@@ -8495,28 +8459,28 @@
         <v>1805</v>
       </c>
       <c r="F104" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G104" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H104" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I104" t="s">
-        <v>715</v>
+        <v>1198</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="L104" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="M104" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="O104" t="s">
         <v>15</v>
@@ -8524,36 +8488,36 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="B105" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C105" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="E105">
         <v>1806</v>
       </c>
       <c r="H105" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="I105" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B106" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C106" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="D106" s="25">
         <v>6</v>
@@ -8562,39 +8526,39 @@
         <v>1806</v>
       </c>
       <c r="F106" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="G106" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H106" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="I106" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="L106" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="M106" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B107" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C107" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="D107" s="25">
         <v>6</v>
@@ -8603,28 +8567,28 @@
         <v>1806</v>
       </c>
       <c r="F107" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="G107" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="H107" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="I107" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="L107" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="M107" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="O107" t="s">
         <v>15</v>
@@ -8632,13 +8596,13 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="B108" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C108" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="D108" s="25">
         <v>6</v>
@@ -8647,28 +8611,28 @@
         <v>1806</v>
       </c>
       <c r="F108" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="G108" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="H108" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="I108" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="L108" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="M108" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="O108" t="s">
         <v>15</v>
@@ -8676,13 +8640,13 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B109" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C109" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="D109" s="25">
         <v>6</v>
@@ -8691,39 +8655,39 @@
         <v>1806</v>
       </c>
       <c r="F109" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G109" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="H109" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="I109" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="L109" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="M109" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="B110" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C110" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="D110" s="25">
         <v>6</v>
@@ -8732,36 +8696,36 @@
         <v>1806</v>
       </c>
       <c r="F110" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="G110" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="H110" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="I110" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="L110" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B111" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C111" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="D111" s="25">
         <v>6</v>
@@ -8770,39 +8734,39 @@
         <v>1806</v>
       </c>
       <c r="F111" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="G111" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H111" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="I111" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="L111" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="M111" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="B112" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C112" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D112" s="25">
         <v>11</v>
@@ -8811,22 +8775,22 @@
         <v>1806</v>
       </c>
       <c r="F112" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="G112" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="H112" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="I112" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="K112" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L112" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="N112" s="7" t="s">
         <v>27</v>
@@ -8837,13 +8801,13 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="B113" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C113" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D113" s="25">
         <v>11</v>
@@ -8852,25 +8816,25 @@
         <v>1806</v>
       </c>
       <c r="F113" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="G113" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="H113" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="I113" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="L113" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="M113" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="N113" s="7" t="s">
         <v>30</v>
@@ -8881,13 +8845,13 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="B114" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C114" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D114" s="25">
         <v>11</v>
@@ -8896,28 +8860,28 @@
         <v>1806</v>
       </c>
       <c r="F114" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="G114" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="H114" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="I114" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="L114" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="M114" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="O114" t="s">
         <v>15</v>
@@ -8925,13 +8889,13 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="B115" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C115" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D115" s="25">
         <v>11</v>
@@ -8940,28 +8904,28 @@
         <v>1806</v>
       </c>
       <c r="F115" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G115" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H115" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="I115" t="s">
-        <v>629</v>
+        <v>1198</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="L115" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="M115" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="O115" t="s">
         <v>15</v>
@@ -8969,13 +8933,13 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="B116" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C116" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D116" s="25">
         <v>11</v>
@@ -8984,28 +8948,28 @@
         <v>1806</v>
       </c>
       <c r="F116" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="G116" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="H116" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="I116" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="L116" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="M116" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="O116" t="s">
         <v>15</v>
@@ -9013,13 +8977,13 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="B117" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C117" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="D117" s="25">
         <v>40</v>
@@ -9028,27 +8992,27 @@
         <v>1809</v>
       </c>
       <c r="H117" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="I117" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="L117" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="M117" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="B118" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C118" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D118" s="25">
         <v>40</v>
@@ -9057,28 +9021,28 @@
         <v>1809</v>
       </c>
       <c r="F118" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="G118" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="H118" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="I118" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="L118" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="M118" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="N118" s="7" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="O118" t="s">
         <v>15</v>
@@ -9086,13 +9050,13 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="B119" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C119" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D119" s="25">
         <v>40</v>
@@ -9101,22 +9065,22 @@
         <v>1809</v>
       </c>
       <c r="F119" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="G119" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="H119" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="I119" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="N119" s="7" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="O119" t="s">
         <v>15</v>
@@ -9124,13 +9088,13 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B120" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C120" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D120" s="25">
         <v>40</v>
@@ -9139,28 +9103,28 @@
         <v>1809</v>
       </c>
       <c r="F120" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="G120" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="H120" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="I120" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="M120" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="N120" s="7" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="O120" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
@@ -9168,10 +9132,10 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C121" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D121" s="25">
         <v>40</v>
@@ -9182,13 +9146,13 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B122" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C122" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D122" s="25">
         <v>40</v>
@@ -9197,22 +9161,22 @@
         <v>1809</v>
       </c>
       <c r="F122" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="G122" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="H122" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="I122" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="N122" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="O122" t="s">
         <v>15</v>
@@ -9220,13 +9184,13 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="B123" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C123" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D123" s="25">
         <v>40</v>
@@ -9235,28 +9199,28 @@
         <v>1809</v>
       </c>
       <c r="F123" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G123" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H123" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="I123" t="s">
-        <v>629</v>
+        <v>1198</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="L123" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="M123" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="O123" t="s">
         <v>15</v>
@@ -9264,13 +9228,13 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="B124" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C124" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D124" s="25">
         <v>40</v>
@@ -9279,39 +9243,39 @@
         <v>1809</v>
       </c>
       <c r="F124" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="G124" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="H124" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="I124" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="L124" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="M124" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="N124" s="8" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="B125" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C125" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D125" s="25">
         <v>40</v>
@@ -9320,18 +9284,18 @@
         <v>1809</v>
       </c>
       <c r="N125" s="8" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>857</v>
+        <v>1199</v>
       </c>
       <c r="B126" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C126" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="D126" s="25">
         <v>96</v>
@@ -9340,39 +9304,39 @@
         <v>1813</v>
       </c>
       <c r="F126" t="s">
-        <v>47</v>
+        <v>530</v>
       </c>
       <c r="G126" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="H126" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="I126" t="s">
-        <v>858</v>
+        <v>1198</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="L126" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="M126" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="N126" s="7" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="B127" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C127" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="D127" s="25">
         <v>96</v>
@@ -9381,28 +9345,28 @@
         <v>1813</v>
       </c>
       <c r="F127" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="G127" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="H127" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="I127" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="L127" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="M127" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="N127" s="8" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="O127" t="s">
         <v>15</v>
@@ -9410,57 +9374,57 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="B128" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C128" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="E128">
         <v>1813</v>
       </c>
       <c r="F128" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="G128" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="H128" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="I128" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="L128" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="M128" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="N128" s="8" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="O128" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="B129" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C129" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="D129" s="25">
         <v>97</v>
@@ -9469,28 +9433,28 @@
         <v>1813</v>
       </c>
       <c r="F129" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="G129" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="H129" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="I129" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="L129" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="M129" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="N129" s="8" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="O129" t="s">
         <v>15</v>
@@ -9498,31 +9462,31 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="B130" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C130" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="E130">
         <v>1813</v>
       </c>
       <c r="F130" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="G130" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="H130" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="N130" s="8" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="O130" t="s">
         <v>15</v>
@@ -9530,36 +9494,36 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="B131" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C131" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="E131">
         <v>1816</v>
       </c>
       <c r="L131" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="M131" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="B132" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C132" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="D132" s="6">
         <v>150</v>
@@ -9568,28 +9532,28 @@
         <v>1816</v>
       </c>
       <c r="F132" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="G132" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="H132" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="I132" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="L132" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="M132" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="N132" s="8" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="O132" t="s">
         <v>15</v>
@@ -9597,54 +9561,54 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="B133" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C133" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="E133">
         <v>1816</v>
       </c>
       <c r="F133" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="G133" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="H133" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="I133" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="M133" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="N133" s="8" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="O133" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="B134" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C134" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="D134" s="6">
         <v>151</v>
@@ -9653,28 +9617,28 @@
         <v>1816</v>
       </c>
       <c r="F134" t="s">
-        <v>910</v>
+        <v>1197</v>
       </c>
       <c r="G134" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="H134" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="I134" t="s">
-        <v>858</v>
+        <v>1198</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="L134" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="M134" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="N134" s="8" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="O134" t="s">
         <v>15</v>
@@ -9682,74 +9646,74 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="B135" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C135" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="E135">
         <v>1816</v>
       </c>
       <c r="F135" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="G135" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H135" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="I135" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="N135" s="8" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="B136" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C136" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E136">
         <v>1831</v>
       </c>
       <c r="H136" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="I136" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="L136" t="s">
         <v>96</v>
       </c>
       <c r="M136" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="B137" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C137" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="D137" s="6">
         <v>113</v>
@@ -9758,28 +9722,28 @@
         <v>1831</v>
       </c>
       <c r="F137" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="G137" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="H137" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="I137" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="L137" t="s">
         <v>47</v>
       </c>
       <c r="M137" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="N137" s="8" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="O137" t="s">
         <v>15</v>
@@ -9787,54 +9751,54 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B138" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C138" t="s">
+        <v>906</v>
+      </c>
+      <c r="D138" s="17" t="s">
         <v>919</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>933</v>
       </c>
       <c r="E138">
         <v>1831</v>
       </c>
       <c r="F138" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="G138" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="H138" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="I138" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="L138" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="M138" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="N138" s="8" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="B139" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C139" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="D139" s="6">
         <v>114</v>
@@ -9843,36 +9807,36 @@
         <v>1831</v>
       </c>
       <c r="F139" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="G139" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="H139" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="I139" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
       <c r="M139" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="N139" s="8" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
       <c r="B140" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C140" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="D140" s="6">
         <v>114</v>
@@ -9881,18 +9845,18 @@
         <v>1831</v>
       </c>
       <c r="N140" s="8" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="B141" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C141" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="D141" s="6">
         <v>509</v>
@@ -9901,28 +9865,28 @@
         <v>1834</v>
       </c>
       <c r="F141" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="G141" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="H141" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="I141" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="L141" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="M141" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="N141" s="7" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="O141" t="s">
         <v>15</v>
@@ -9930,40 +9894,40 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="B142" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C142" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="E142">
         <v>1834</v>
       </c>
       <c r="F142" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
       <c r="G142" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="H142" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="I142" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
       <c r="K142" s="7">
         <v>12436</v>
       </c>
       <c r="L142" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="M142" t="s">
-        <v>964</v>
+        <v>950</v>
       </c>
       <c r="N142" s="7">
         <v>12438</v>
@@ -9971,13 +9935,13 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="B143" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C143" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="D143" s="6">
         <v>510</v>
@@ -9986,28 +9950,28 @@
         <v>1834</v>
       </c>
       <c r="F143" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="G143" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="H143" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="I143" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="L143" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="M143" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="N143" s="8" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="O143" t="s">
         <v>15</v>
@@ -10015,43 +9979,43 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="B144" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C144" t="s">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="E144">
         <v>1834</v>
       </c>
       <c r="F144" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="G144" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="H144" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="I144" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="L144" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="M144" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="N144" s="8" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="O144" t="s">
         <v>15</v>
@@ -10059,13 +10023,13 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="B145" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C145" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="D145" s="6">
         <v>511</v>
@@ -10074,28 +10038,28 @@
         <v>1834</v>
       </c>
       <c r="F145" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
       <c r="G145" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="H145" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="I145" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="K145" s="7" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="L145" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="M145" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="N145" s="8" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="O145" t="s">
         <v>20</v>
@@ -10103,13 +10067,13 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="B146" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C146" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="D146" s="6">
         <v>511</v>
@@ -10118,28 +10082,28 @@
         <v>1834</v>
       </c>
       <c r="F146" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="G146" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="H146" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="I146" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="L146" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="M146" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="N146" s="8" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="O146" t="s">
         <v>15</v>
@@ -10147,56 +10111,56 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B147" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C147" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="E147">
         <v>1834</v>
       </c>
       <c r="N147" s="8" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="B148" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C148" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="E148">
         <v>1834</v>
       </c>
       <c r="H148" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="I148" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
       <c r="B149" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C149" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="D149" s="6">
         <v>535</v>
@@ -10205,69 +10169,69 @@
         <v>1834</v>
       </c>
       <c r="F149" t="s">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="G149" t="s">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="H149" t="s">
-        <v>1013</v>
+        <v>915</v>
       </c>
       <c r="I149" t="s">
-        <v>1014</v>
+        <v>999</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="L149" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="M149" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N149" s="8" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="B150" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C150" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>1017</v>
+        <v>1002</v>
       </c>
       <c r="E150">
         <v>1834</v>
       </c>
       <c r="F150" t="s">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="G150" t="s">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="H150" t="s">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="I150" t="s">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>1019</v>
+        <v>1004</v>
       </c>
       <c r="L150" t="s">
-        <v>1021</v>
+        <v>1006</v>
       </c>
       <c r="M150" t="s">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="N150" s="7" t="s">
-        <v>1018</v>
+        <v>1003</v>
       </c>
       <c r="O150" t="s">
         <v>15</v>
@@ -10275,13 +10239,13 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27" t="s">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="B151" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C151" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="D151" s="6">
         <v>536</v>
@@ -10290,25 +10254,25 @@
         <v>1834</v>
       </c>
       <c r="F151" t="s">
-        <v>1034</v>
+        <v>1019</v>
       </c>
       <c r="G151" t="s">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="H151" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="L151" t="s">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="M151" t="s">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="N151" s="7" t="s">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="O151" t="s">
         <v>15</v>
@@ -10316,54 +10280,54 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27" t="s">
-        <v>1038</v>
+        <v>1023</v>
       </c>
       <c r="B152" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C152" t="s">
-        <v>1035</v>
+        <v>1020</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>1036</v>
+        <v>1021</v>
       </c>
       <c r="E152">
         <v>1843</v>
       </c>
       <c r="F152" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="G152" t="s">
-        <v>1043</v>
+        <v>1028</v>
       </c>
       <c r="H152" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="I152" t="s">
-        <v>1042</v>
+        <v>1027</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>1037</v>
+        <v>1022</v>
       </c>
       <c r="L152" t="s">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="M152" t="s">
-        <v>1039</v>
+        <v>1024</v>
       </c>
       <c r="O152" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="B153" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C153" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="D153" s="6">
         <v>731</v>
@@ -10372,25 +10336,25 @@
         <v>1843</v>
       </c>
       <c r="F153" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="G153" t="s">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="H153" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="I153" t="s">
-        <v>1052</v>
+        <v>1037</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="L153" t="s">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="M153" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="N153" s="8" t="s">
         <v>29</v>
@@ -10401,43 +10365,43 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="B154" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C154" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>1058</v>
+        <v>1043</v>
       </c>
       <c r="E154">
         <v>1843</v>
       </c>
       <c r="F154" t="s">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="G154" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="H154" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="I154" t="s">
-        <v>1063</v>
+        <v>1048</v>
       </c>
       <c r="K154" s="7" t="s">
-        <v>1055</v>
+        <v>1040</v>
       </c>
       <c r="L154" t="s">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="M154" t="s">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="N154" s="8" t="s">
-        <v>1054</v>
+        <v>1039</v>
       </c>
       <c r="O154" t="s">
         <v>15</v>
@@ -10445,13 +10409,13 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
-        <v>1066</v>
+        <v>1049</v>
       </c>
       <c r="B155" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C155" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="D155" s="6">
         <v>732</v>
@@ -10460,25 +10424,25 @@
         <v>1843</v>
       </c>
       <c r="F155" t="s">
-        <v>1064</v>
+        <v>1001</v>
       </c>
       <c r="G155" t="s">
-        <v>1065</v>
+        <v>1196</v>
       </c>
       <c r="H155" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="I155" t="s">
-        <v>1069</v>
+        <v>1052</v>
       </c>
       <c r="K155" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L155" t="s">
-        <v>1067</v>
+        <v>1050</v>
       </c>
       <c r="M155" t="s">
-        <v>1068</v>
+        <v>1051</v>
       </c>
       <c r="N155" s="8" t="s">
         <v>26</v>
@@ -10489,51 +10453,51 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27" t="s">
-        <v>1077</v>
+        <v>1060</v>
       </c>
       <c r="B156" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C156" t="s">
-        <v>1071</v>
+        <v>1054</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>1072</v>
+        <v>1055</v>
       </c>
       <c r="E156">
         <v>1843</v>
       </c>
       <c r="F156" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="G156" t="s">
-        <v>1073</v>
+        <v>1056</v>
       </c>
       <c r="K156" s="7" t="s">
         <v>9</v>
       </c>
       <c r="L156" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
       <c r="M156" t="s">
-        <v>1075</v>
+        <v>1058</v>
       </c>
       <c r="N156" s="8" t="s">
-        <v>1070</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
       <c r="B157" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C157" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
       <c r="E157">
         <v>1843</v>
@@ -10542,36 +10506,36 @@
         <v>19</v>
       </c>
       <c r="G157" t="s">
-        <v>1104</v>
+        <v>1087</v>
       </c>
       <c r="H157" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="I157" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
       <c r="L157" t="s">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="M157" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="N157" s="8" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
-        <v>1089</v>
+        <v>1072</v>
       </c>
       <c r="B158" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C158" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="D158" s="6">
         <v>743</v>
@@ -10580,39 +10544,39 @@
         <v>1844</v>
       </c>
       <c r="F158" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="G158" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="H158" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
       <c r="I158" t="s">
-        <v>1093</v>
+        <v>1076</v>
       </c>
       <c r="K158" s="7" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="L158" t="s">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="M158" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="N158" s="8" t="s">
-        <v>1087</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
-        <v>1095</v>
+        <v>1078</v>
       </c>
       <c r="B159" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C159" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="D159" s="6">
         <v>743</v>
@@ -10621,28 +10585,28 @@
         <v>1844</v>
       </c>
       <c r="F159" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="G159" t="s">
-        <v>1102</v>
+        <v>1085</v>
       </c>
       <c r="H159" t="s">
-        <v>1098</v>
+        <v>1081</v>
       </c>
       <c r="I159" t="s">
-        <v>1099</v>
+        <v>1082</v>
       </c>
       <c r="K159" s="7" t="s">
-        <v>1094</v>
+        <v>1077</v>
       </c>
       <c r="L159" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="M159" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="N159" s="7" t="s">
-        <v>1094</v>
+        <v>1077</v>
       </c>
       <c r="O159" t="s">
         <v>15</v>
@@ -10650,13 +10614,13 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
-        <v>1105</v>
+        <v>1088</v>
       </c>
       <c r="B160" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C160" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="D160" s="6">
         <v>743</v>
@@ -10668,22 +10632,22 @@
         <v>93</v>
       </c>
       <c r="G160" t="s">
-        <v>1108</v>
+        <v>1091</v>
       </c>
       <c r="H160" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
       <c r="I160" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="K160" s="7" t="s">
-        <v>1107</v>
+        <v>1090</v>
       </c>
       <c r="M160" t="s">
-        <v>1109</v>
+        <v>1092</v>
       </c>
       <c r="N160" s="8" t="s">
-        <v>1106</v>
+        <v>1089</v>
       </c>
       <c r="O160" t="s">
         <v>15</v>
@@ -10691,43 +10655,43 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
-        <v>1114</v>
+        <v>1097</v>
       </c>
       <c r="B161" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C161" t="s">
-        <v>1118</v>
+        <v>1101</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
       <c r="E161">
         <v>1844</v>
       </c>
       <c r="F161" t="s">
-        <v>582</v>
+        <v>917</v>
       </c>
       <c r="G161" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="H161" t="s">
-        <v>1013</v>
+        <v>915</v>
       </c>
       <c r="I161" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="K161" s="7" t="s">
-        <v>1113</v>
+        <v>1096</v>
       </c>
       <c r="L161" t="s">
-        <v>1115</v>
+        <v>1098</v>
       </c>
       <c r="M161" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
       <c r="N161" s="8" t="s">
-        <v>1112</v>
+        <v>1095</v>
       </c>
       <c r="O161" t="s">
         <v>15</v>
@@ -10735,13 +10699,13 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
-        <v>1124</v>
+        <v>1107</v>
       </c>
       <c r="B162" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C162" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="D162" s="6">
         <v>744</v>
@@ -10750,39 +10714,39 @@
         <v>1844</v>
       </c>
       <c r="F162" t="s">
-        <v>1122</v>
+        <v>1105</v>
       </c>
       <c r="G162" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
       <c r="H162" t="s">
-        <v>1127</v>
+        <v>1110</v>
       </c>
       <c r="I162" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
       <c r="K162" s="7" t="s">
-        <v>1121</v>
+        <v>1104</v>
       </c>
       <c r="L162" t="s">
-        <v>1125</v>
+        <v>1108</v>
       </c>
       <c r="M162" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
       <c r="N162" s="8" t="s">
-        <v>1120</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
-        <v>1133</v>
+        <v>1116</v>
       </c>
       <c r="B163" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C163" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="D163" s="6">
         <v>744</v>
@@ -10791,28 +10755,28 @@
         <v>1844</v>
       </c>
       <c r="F163" t="s">
-        <v>1131</v>
+        <v>1114</v>
       </c>
       <c r="G163" t="s">
-        <v>1132</v>
+        <v>1115</v>
       </c>
       <c r="H163" t="s">
-        <v>1136</v>
+        <v>1119</v>
       </c>
       <c r="I163" t="s">
-        <v>1137</v>
+        <v>1120</v>
       </c>
       <c r="K163" s="7" t="s">
-        <v>1130</v>
+        <v>1113</v>
       </c>
       <c r="L163" t="s">
-        <v>1134</v>
+        <v>1117</v>
       </c>
       <c r="M163" t="s">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="N163" s="8" t="s">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="O163" t="s">
         <v>15</v>
@@ -10820,13 +10784,13 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
-        <v>1141</v>
+        <v>1124</v>
       </c>
       <c r="B164" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C164" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="D164" s="6">
         <v>745</v>
@@ -10835,28 +10799,28 @@
         <v>1844</v>
       </c>
       <c r="F164" t="s">
-        <v>1139</v>
+        <v>1122</v>
       </c>
       <c r="G164" t="s">
-        <v>1140</v>
+        <v>1123</v>
       </c>
       <c r="H164" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="I164" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="K164" s="7" t="s">
-        <v>1138</v>
+        <v>1121</v>
       </c>
       <c r="L164" t="s">
-        <v>1142</v>
+        <v>1125</v>
       </c>
       <c r="M164" t="s">
-        <v>1143</v>
+        <v>1126</v>
       </c>
       <c r="N164" s="7" t="s">
-        <v>1138</v>
+        <v>1121</v>
       </c>
       <c r="O164" t="s">
         <v>15</v>
@@ -10864,13 +10828,13 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
-        <v>1145</v>
+        <v>1128</v>
       </c>
       <c r="B165" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C165" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="D165" s="6">
         <v>745</v>
@@ -10879,28 +10843,28 @@
         <v>1844</v>
       </c>
       <c r="F165" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G165" t="s">
-        <v>1144</v>
+        <v>1127</v>
       </c>
       <c r="H165" t="s">
-        <v>1148</v>
+        <v>1131</v>
       </c>
       <c r="I165" t="s">
-        <v>1149</v>
+        <v>1132</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>1138</v>
+        <v>1121</v>
       </c>
       <c r="L165" t="s">
-        <v>1146</v>
+        <v>1129</v>
       </c>
       <c r="M165" t="s">
-        <v>1147</v>
+        <v>1130</v>
       </c>
       <c r="N165" s="8" t="s">
-        <v>1138</v>
+        <v>1121</v>
       </c>
       <c r="O165" t="s">
         <v>15</v>
@@ -10908,13 +10872,13 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
-        <v>1156</v>
+        <v>1195</v>
       </c>
       <c r="B166" t="s">
-        <v>1150</v>
+        <v>1133</v>
       </c>
       <c r="C166" t="s">
-        <v>1151</v>
+        <v>1134</v>
       </c>
       <c r="D166" s="6">
         <v>178</v>
@@ -10923,39 +10887,39 @@
         <v>1859</v>
       </c>
       <c r="F166" t="s">
-        <v>1154</v>
+        <v>1137</v>
       </c>
       <c r="G166" t="s">
-        <v>1155</v>
+        <v>1138</v>
       </c>
       <c r="H166" t="s">
-        <v>1159</v>
+        <v>1141</v>
       </c>
       <c r="I166" t="s">
-        <v>1160</v>
+        <v>1142</v>
       </c>
       <c r="K166" s="7" t="s">
-        <v>1153</v>
+        <v>1136</v>
       </c>
       <c r="L166" t="s">
-        <v>1157</v>
+        <v>1139</v>
       </c>
       <c r="M166" t="s">
-        <v>1158</v>
+        <v>1140</v>
       </c>
       <c r="N166" s="8" t="s">
-        <v>1152</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
-        <v>1165</v>
+        <v>1147</v>
       </c>
       <c r="B167" t="s">
-        <v>1150</v>
+        <v>1133</v>
       </c>
       <c r="C167" t="s">
-        <v>1151</v>
+        <v>1134</v>
       </c>
       <c r="D167" s="6">
         <v>178</v>
@@ -10964,66 +10928,66 @@
         <v>1859</v>
       </c>
       <c r="F167" t="s">
-        <v>1163</v>
+        <v>1145</v>
       </c>
       <c r="G167" t="s">
-        <v>1164</v>
+        <v>1146</v>
       </c>
       <c r="H167" t="s">
-        <v>1168</v>
+        <v>1150</v>
       </c>
       <c r="I167" t="s">
-        <v>1160</v>
+        <v>1142</v>
       </c>
       <c r="K167" s="7" t="s">
-        <v>1162</v>
+        <v>1144</v>
       </c>
       <c r="L167" t="s">
-        <v>1166</v>
+        <v>1148</v>
       </c>
       <c r="M167" t="s">
-        <v>1167</v>
+        <v>1149</v>
       </c>
       <c r="N167" s="8" t="s">
-        <v>1161</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
-        <v>1175</v>
+        <v>1157</v>
       </c>
       <c r="B168" t="s">
-        <v>1169</v>
+        <v>1151</v>
       </c>
       <c r="C168" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
       <c r="E168">
         <v>1848</v>
       </c>
       <c r="F168" t="s">
-        <v>1173</v>
+        <v>1155</v>
       </c>
       <c r="G168" t="s">
-        <v>1174</v>
+        <v>1156</v>
       </c>
       <c r="H168" t="s">
-        <v>1178</v>
+        <v>1160</v>
       </c>
       <c r="I168" t="s">
-        <v>1179</v>
+        <v>1161</v>
       </c>
       <c r="K168" s="7" t="s">
-        <v>1172</v>
+        <v>1154</v>
       </c>
       <c r="L168" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
       <c r="M168" t="s">
-        <v>1177</v>
+        <v>1159</v>
       </c>
       <c r="N168" s="8" t="s">
-        <v>1171</v>
+        <v>1153</v>
       </c>
       <c r="O168" t="s">
         <v>15</v>
@@ -11031,51 +10995,51 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
-        <v>1180</v>
+        <v>1162</v>
       </c>
       <c r="B169" t="s">
-        <v>1169</v>
+        <v>1151</v>
       </c>
       <c r="C169" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
       <c r="E169">
         <v>1848</v>
       </c>
       <c r="F169" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
       <c r="G169" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
       <c r="H169" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
       <c r="I169" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
       <c r="K169" s="8" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
       <c r="M169" t="s">
-        <v>1185</v>
+        <v>1167</v>
       </c>
       <c r="N169" s="8" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
       <c r="O169" t="s">
-        <v>1182</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
-        <v>1190</v>
+        <v>1172</v>
       </c>
       <c r="B170" t="s">
-        <v>1169</v>
+        <v>1151</v>
       </c>
       <c r="C170" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
       <c r="E170">
         <v>1848</v>
@@ -11084,25 +11048,25 @@
         <v>47</v>
       </c>
       <c r="G170" t="s">
-        <v>1189</v>
+        <v>1171</v>
       </c>
       <c r="H170" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="I170" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="K170" s="7" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="L170" t="s">
-        <v>1191</v>
+        <v>1173</v>
       </c>
       <c r="M170" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="N170" s="8" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="O170" t="s">
         <v>15</v>
@@ -11110,51 +11074,51 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
-        <v>1195</v>
+        <v>1177</v>
       </c>
       <c r="B171" t="s">
-        <v>1169</v>
+        <v>1151</v>
       </c>
       <c r="C171" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
       <c r="E171">
         <v>1848</v>
       </c>
       <c r="F171" t="s">
-        <v>582</v>
+        <v>917</v>
       </c>
       <c r="G171" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="H171" t="s">
-        <v>1013</v>
+        <v>915</v>
       </c>
       <c r="I171" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="K171" s="7" t="s">
-        <v>1194</v>
+        <v>1176</v>
       </c>
       <c r="L171" t="s">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="M171" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
       <c r="N171" s="8" t="s">
-        <v>1193</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="B172" t="s">
-        <v>1169</v>
+        <v>1151</v>
       </c>
       <c r="C172" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
       <c r="E172">
         <v>1848</v>
@@ -11163,25 +11127,25 @@
         <v>88</v>
       </c>
       <c r="G172" t="s">
-        <v>1199</v>
+        <v>1181</v>
       </c>
       <c r="H172" t="s">
-        <v>1203</v>
+        <v>1185</v>
       </c>
       <c r="I172" t="s">
-        <v>1204</v>
+        <v>1186</v>
       </c>
       <c r="K172" s="7" t="s">
-        <v>1193</v>
+        <v>1175</v>
       </c>
       <c r="L172" t="s">
-        <v>1201</v>
+        <v>1183</v>
       </c>
       <c r="M172" t="s">
-        <v>1202</v>
+        <v>1184</v>
       </c>
       <c r="N172" s="3" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="O172" t="s">
         <v>15</v>
@@ -11189,40 +11153,40 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
-        <v>1206</v>
+        <v>1188</v>
       </c>
       <c r="B173" t="s">
-        <v>1169</v>
+        <v>1151</v>
       </c>
       <c r="C173" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
       <c r="E173">
         <v>1848</v>
       </c>
       <c r="F173" t="s">
-        <v>1211</v>
+        <v>1193</v>
       </c>
       <c r="G173" t="s">
-        <v>1212</v>
+        <v>1194</v>
       </c>
       <c r="H173" t="s">
-        <v>1209</v>
+        <v>1191</v>
       </c>
       <c r="I173" t="s">
-        <v>1210</v>
+        <v>1192</v>
       </c>
       <c r="K173" s="8" t="s">
-        <v>1205</v>
+        <v>1187</v>
       </c>
       <c r="L173" t="s">
-        <v>1207</v>
+        <v>1189</v>
       </c>
       <c r="M173" t="s">
-        <v>1208</v>
+        <v>1190</v>
       </c>
       <c r="N173" s="8" t="s">
-        <v>1205</v>
+        <v>1187</v>
       </c>
       <c r="O173" t="s">
         <v>15</v>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEDCE37-3D10-4E26-BFEB-CF7803CDE847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302E1DFE-1B86-4C79-A8EE-F8B90ADF2C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,15 +199,9 @@
     <t>Mariano Duart</t>
   </si>
   <si>
-    <t>Magdalena Xandre</t>
-  </si>
-  <si>
     <t>Josep Galceran</t>
   </si>
   <si>
-    <t>Duart Xandre Francesca Teresa</t>
-  </si>
-  <si>
     <t>Domingo Pedrós Fabregat</t>
   </si>
   <si>
@@ -427,9 +421,6 @@
     <t>Raimunda Solá</t>
   </si>
   <si>
-    <t>Duart Xandre Pere Joan Ramon</t>
-  </si>
-  <si>
     <t>15/11/1771</t>
   </si>
   <si>
@@ -649,9 +640,6 @@
     <t>Anna Maria Solsona</t>
   </si>
   <si>
-    <t>Duart Xandre Anna Maria Josepha</t>
-  </si>
-  <si>
     <t>27/04/1774</t>
   </si>
   <si>
@@ -1084,9 +1072,6 @@
     <t>Ramon Folguera</t>
   </si>
   <si>
-    <t>Duart Xandre Paula Magdalena</t>
-  </si>
-  <si>
     <t>09/02/1777</t>
   </si>
   <si>
@@ -1189,9 +1174,6 @@
     <t>Joseph Galceran</t>
   </si>
   <si>
-    <t>Duart Xandre Manuela Bahista</t>
-  </si>
-  <si>
     <t>03-0114</t>
   </si>
   <si>
@@ -3674,6 +3656,24 @@
   </si>
   <si>
     <t>Josepa Senellosa</t>
+  </si>
+  <si>
+    <t>Magdalena Alexandre</t>
+  </si>
+  <si>
+    <t>Duart Alexandre Francesca Teresa</t>
+  </si>
+  <si>
+    <t>Duart Alexandre Pere Joan Ramon</t>
+  </si>
+  <si>
+    <t>Duart Alexandre Anna Maria Josepha</t>
+  </si>
+  <si>
+    <t>Duart Alexandre Paula Magdalena</t>
+  </si>
+  <si>
+    <t>Duart Alexandre Manuela Bahista</t>
   </si>
 </sst>
 </file>
@@ -4186,8 +4186,8 @@
   <dimension ref="A1:Q17780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>44</v>
+        <v>1196</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -4286,17 +4286,17 @@
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>1195</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2" s="8"/>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>40</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -4320,10 +4320,10 @@
         <v>1770</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -4332,10 +4332,10 @@
         <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>40</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -4359,31 +4359,31 @@
         <v>1770</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
-      </c>
       <c r="N4" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O4"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
@@ -4398,31 +4398,31 @@
         <v>1770</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="s">
         <v>61</v>
       </c>
-      <c r="L5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
-      </c>
       <c r="N5" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O5"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -4437,10 +4437,10 @@
         <v>1770</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -4449,10 +4449,10 @@
         <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>25</v>
@@ -4461,52 +4461,52 @@
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E7">
         <v>1770</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" t="s">
         <v>73</v>
       </c>
-      <c r="L7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" t="s">
-        <v>75</v>
-      </c>
       <c r="N7" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O7"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="25">
         <v>4</v>
@@ -4515,37 +4515,37 @@
         <v>1770</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O8"/>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" s="25">
         <v>4</v>
@@ -4554,37 +4554,37 @@
         <v>1770</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O9"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="25">
         <v>4</v>
@@ -4593,37 +4593,37 @@
         <v>1770</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" t="s">
         <v>95</v>
       </c>
-      <c r="L10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" t="s">
-        <v>97</v>
-      </c>
       <c r="N10" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O10"/>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="25">
         <v>4</v>
@@ -4632,40 +4632,40 @@
         <v>1770</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O11"/>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E12">
         <v>1770</v>
@@ -4679,19 +4679,19 @@
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O12"/>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13" s="25">
         <v>13</v>
@@ -4700,35 +4700,35 @@
         <v>1771</v>
       </c>
       <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
         <v>109</v>
-      </c>
-      <c r="G13" t="s">
-        <v>111</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" s="8"/>
       <c r="L13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>118</v>
+        <v>1197</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="25">
         <v>13</v>
@@ -4740,22 +4740,22 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>1195</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" t="s">
         <v>115</v>
       </c>
-      <c r="L14" t="s">
-        <v>116</v>
-      </c>
-      <c r="M14" t="s">
-        <v>117</v>
-      </c>
       <c r="N14" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O14" t="s">
         <v>15</v>
@@ -4763,13 +4763,13 @@
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" s="25">
         <v>13</v>
@@ -4778,25 +4778,25 @@
         <v>1771</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O15" t="s">
         <v>15</v>
@@ -4804,13 +4804,13 @@
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D16" s="25">
         <v>13</v>
@@ -4819,25 +4819,25 @@
         <v>1771</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O16" t="s">
         <v>15</v>
@@ -4845,13 +4845,13 @@
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D17" s="25">
         <v>13</v>
@@ -4860,25 +4860,25 @@
         <v>1771</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O17" t="s">
         <v>15</v>
@@ -4886,13 +4886,13 @@
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D18" s="25">
         <v>20</v>
@@ -4901,25 +4901,25 @@
         <v>1773</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O18" t="s">
         <v>15</v>
@@ -4927,13 +4927,13 @@
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D19" s="25">
         <v>20</v>
@@ -4942,25 +4942,25 @@
         <v>1773</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O19" t="s">
         <v>15</v>
@@ -4968,13 +4968,13 @@
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D20" s="25">
         <v>20</v>
@@ -4983,25 +4983,25 @@
         <v>1773</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" t="s">
         <v>154</v>
       </c>
-      <c r="L20" t="s">
-        <v>157</v>
-      </c>
       <c r="M20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O20" t="s">
         <v>15</v>
@@ -5009,13 +5009,13 @@
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D21" s="25">
         <v>20</v>
@@ -5024,25 +5024,25 @@
         <v>1773</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" t="s">
         <v>160</v>
       </c>
-      <c r="L21" t="s">
-        <v>163</v>
-      </c>
       <c r="M21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O21" t="s">
         <v>15</v>
@@ -5050,13 +5050,13 @@
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D22" s="25">
         <v>20</v>
@@ -5065,25 +5065,25 @@
         <v>1773</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22" s="28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O22" t="s">
         <v>15</v>
@@ -5091,13 +5091,13 @@
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D23" s="25">
         <v>20</v>
@@ -5106,25 +5106,25 @@
         <v>1773</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O23" t="s">
         <v>16</v>
@@ -5132,13 +5132,13 @@
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D24" s="25">
         <v>28</v>
@@ -5147,25 +5147,25 @@
         <v>1774</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" t="s">
         <v>176</v>
       </c>
-      <c r="L24" t="s">
-        <v>179</v>
-      </c>
       <c r="M24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O24" t="s">
         <v>15</v>
@@ -5173,13 +5173,13 @@
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D25" s="25">
         <v>28</v>
@@ -5188,25 +5188,25 @@
         <v>1774</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O25" t="s">
         <v>15</v>
@@ -5214,13 +5214,13 @@
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>192</v>
+        <v>1198</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D26" s="25">
         <v>28</v>
@@ -5232,22 +5232,22 @@
         <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>1195</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O26" t="s">
         <v>15</v>
@@ -5255,13 +5255,13 @@
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D27" s="25">
         <v>28</v>
@@ -5270,25 +5270,25 @@
         <v>1774</v>
       </c>
       <c r="F27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G27" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M27" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O27" t="s">
         <v>15</v>
@@ -5296,13 +5296,13 @@
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D28" s="25">
         <v>28</v>
@@ -5311,25 +5311,25 @@
         <v>1774</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G28" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M28" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O28" t="s">
         <v>15</v>
@@ -5337,13 +5337,13 @@
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D29" s="25">
         <v>28</v>
@@ -5352,25 +5352,25 @@
         <v>1774</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L29" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M29" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O29" t="s">
         <v>15</v>
@@ -5378,13 +5378,13 @@
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D30" s="25">
         <v>32</v>
@@ -5393,25 +5393,25 @@
         <v>1774</v>
       </c>
       <c r="F30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M30" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O30" t="s">
         <v>15</v>
@@ -5419,13 +5419,13 @@
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D31" s="25">
         <v>32</v>
@@ -5434,25 +5434,25 @@
         <v>1774</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G31" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="L31" t="s">
+        <v>219</v>
+      </c>
+      <c r="M31" t="s">
+        <v>220</v>
+      </c>
+      <c r="N31" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="L31" t="s">
-        <v>223</v>
-      </c>
-      <c r="M31" t="s">
-        <v>224</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="O31" t="s">
         <v>15</v>
@@ -5460,13 +5460,13 @@
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D32" s="25">
         <v>32</v>
@@ -5475,25 +5475,25 @@
         <v>1774</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G32" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" t="s">
+        <v>225</v>
+      </c>
+      <c r="M32" t="s">
         <v>226</v>
       </c>
-      <c r="L32" t="s">
-        <v>229</v>
-      </c>
-      <c r="M32" t="s">
-        <v>230</v>
-      </c>
       <c r="N32" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O32" t="s">
         <v>15</v>
@@ -5501,13 +5501,13 @@
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D33" s="25">
         <v>32</v>
@@ -5516,25 +5516,25 @@
         <v>1774</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G33" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M33" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O33" t="s">
         <v>15</v>
@@ -5542,13 +5542,13 @@
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D34" s="25">
         <v>32</v>
@@ -5557,25 +5557,25 @@
         <v>1774</v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L34" t="s">
+        <v>238</v>
+      </c>
+      <c r="M34" t="s">
         <v>239</v>
       </c>
-      <c r="L34" t="s">
-        <v>242</v>
-      </c>
-      <c r="M34" t="s">
-        <v>243</v>
-      </c>
       <c r="N34" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O34" t="s">
         <v>15</v>
@@ -5583,13 +5583,13 @@
     </row>
     <row r="35" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D35" s="25">
         <v>32</v>
@@ -5598,25 +5598,25 @@
         <v>1774</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="L35" t="s">
+        <v>244</v>
+      </c>
+      <c r="M35" t="s">
         <v>245</v>
       </c>
-      <c r="L35" t="s">
-        <v>248</v>
-      </c>
-      <c r="M35" t="s">
-        <v>249</v>
-      </c>
       <c r="N35" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O35" t="s">
         <v>15</v>
@@ -5624,40 +5624,40 @@
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E36">
         <v>1774</v>
       </c>
       <c r="F36" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G36" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M36" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O36" t="s">
         <v>15</v>
@@ -5665,40 +5665,40 @@
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E37">
         <v>1775</v>
       </c>
       <c r="F37" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G37" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M37" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O37" t="s">
         <v>15</v>
@@ -5706,13 +5706,13 @@
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D38" s="25">
         <v>34</v>
@@ -5721,25 +5721,25 @@
         <v>1775</v>
       </c>
       <c r="F38" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G38" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M38" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O38" t="s">
         <v>15</v>
@@ -5747,13 +5747,13 @@
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D39" s="25">
         <v>34</v>
@@ -5762,25 +5762,25 @@
         <v>1775</v>
       </c>
       <c r="F39" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G39" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" t="s">
+        <v>278</v>
+      </c>
+      <c r="M39" t="s">
         <v>279</v>
       </c>
-      <c r="L39" t="s">
-        <v>282</v>
-      </c>
-      <c r="M39" t="s">
-        <v>283</v>
-      </c>
       <c r="N39" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O39" t="s">
         <v>15</v>
@@ -5788,13 +5788,13 @@
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D40" s="25">
         <v>34</v>
@@ -5803,25 +5803,25 @@
         <v>1775</v>
       </c>
       <c r="F40" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" t="s">
+        <v>284</v>
+      </c>
+      <c r="M40" t="s">
         <v>285</v>
       </c>
-      <c r="L40" t="s">
-        <v>288</v>
-      </c>
-      <c r="M40" t="s">
-        <v>289</v>
-      </c>
       <c r="N40" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O40" t="s">
         <v>15</v>
@@ -5829,13 +5829,13 @@
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s">
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D41" s="25">
         <v>34</v>
@@ -5844,25 +5844,25 @@
         <v>1775</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L41" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M41" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O41" t="s">
         <v>15</v>
@@ -5870,13 +5870,13 @@
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s">
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D42" s="25">
         <v>34</v>
@@ -5885,25 +5885,25 @@
         <v>1775</v>
       </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G42" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="L42" t="s">
+        <v>293</v>
+      </c>
+      <c r="M42" t="s">
         <v>294</v>
       </c>
-      <c r="L42" t="s">
-        <v>297</v>
-      </c>
-      <c r="M42" t="s">
-        <v>298</v>
-      </c>
       <c r="N42" s="8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O42" t="s">
         <v>15</v>
@@ -5911,36 +5911,36 @@
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E43">
         <v>1775</v>
       </c>
       <c r="F43" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G43" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O43" t="s">
         <v>15</v>
@@ -5948,16 +5948,16 @@
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s">
         <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E44"/>
       <c r="G44"/>
@@ -5966,23 +5966,23 @@
       <c r="J44"/>
       <c r="K44" s="8"/>
       <c r="L44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M44" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44"/>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D45" s="25">
         <v>43</v>
@@ -5991,25 +5991,25 @@
         <v>1777</v>
       </c>
       <c r="F45" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G45" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L45" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M45" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O45" t="s">
         <v>15</v>
@@ -6017,13 +6017,13 @@
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D46" s="25">
         <v>43</v>
@@ -6032,25 +6032,25 @@
         <v>1777</v>
       </c>
       <c r="F46" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G46" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L46" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M46" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="O46" t="s">
         <v>15</v>
@@ -6058,13 +6058,13 @@
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D47" s="25">
         <v>43</v>
@@ -6073,25 +6073,25 @@
         <v>1777</v>
       </c>
       <c r="F47" t="s">
+        <v>319</v>
+      </c>
+      <c r="G47" t="s">
         <v>323</v>
-      </c>
-      <c r="G47" t="s">
-        <v>327</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L47" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M47" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O47" t="s">
         <v>15</v>
@@ -6099,13 +6099,13 @@
     </row>
     <row r="48" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s">
         <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D48" s="25">
         <v>43</v>
@@ -6114,25 +6114,25 @@
         <v>1777</v>
       </c>
       <c r="F48" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G48" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L48" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M48" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="O48" t="s">
         <v>15</v>
@@ -6140,13 +6140,13 @@
     </row>
     <row r="49" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>337</v>
+        <v>1199</v>
       </c>
       <c r="B49" t="s">
         <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D49" s="25">
         <v>43</v>
@@ -6158,22 +6158,22 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>1195</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M49" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O49" t="s">
         <v>15</v>
@@ -6181,13 +6181,13 @@
     </row>
     <row r="50" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B50" t="s">
         <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D50" s="25">
         <v>43</v>
@@ -6196,10 +6196,10 @@
         <v>1777</v>
       </c>
       <c r="F50" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G50" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
@@ -6208,7 +6208,7 @@
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O50" t="s">
         <v>15</v>
@@ -6216,13 +6216,13 @@
     </row>
     <row r="51" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D51" s="25">
         <v>55</v>
@@ -6231,25 +6231,25 @@
         <v>1779</v>
       </c>
       <c r="F51" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G51" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L51" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M51" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="O51" t="s">
         <v>15</v>
@@ -6257,13 +6257,13 @@
     </row>
     <row r="52" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s">
         <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D52" s="25">
         <v>55</v>
@@ -6272,10 +6272,10 @@
         <v>1779</v>
       </c>
       <c r="F52" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G52" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
@@ -6284,13 +6284,13 @@
         <v>35510</v>
       </c>
       <c r="L52" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M52" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="O52" t="s">
         <v>15</v>
@@ -6298,13 +6298,13 @@
     </row>
     <row r="53" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s">
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D53" s="25">
         <v>55</v>
@@ -6313,10 +6313,10 @@
         <v>1779</v>
       </c>
       <c r="F53" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G53" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
@@ -6325,10 +6325,10 @@
         <v>31</v>
       </c>
       <c r="L53" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M53" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="N53" s="8" t="s">
         <v>31</v>
@@ -6339,13 +6339,13 @@
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D54" s="25">
         <v>55</v>
@@ -6354,25 +6354,25 @@
         <v>1779</v>
       </c>
       <c r="F54" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G54" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L54" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M54" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="O54" t="s">
         <v>15</v>
@@ -6380,13 +6380,13 @@
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D55" s="25">
         <v>55</v>
@@ -6395,25 +6395,25 @@
         <v>1779</v>
       </c>
       <c r="F55" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G55" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M55" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="O55" t="s">
         <v>15</v>
@@ -6421,13 +6421,13 @@
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>372</v>
+        <v>1200</v>
       </c>
       <c r="B56" t="s">
         <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D56" s="25">
         <v>55</v>
@@ -6439,22 +6439,22 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>1195</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L56" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M56" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="O56" t="s">
         <v>15</v>
@@ -6462,46 +6462,46 @@
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B57" t="s">
         <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E57">
         <v>1792</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57" s="8"/>
       <c r="L57" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M57" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="N57" s="8"/>
       <c r="O57"/>
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B58" t="s">
         <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D58" s="25">
         <v>112</v>
@@ -6510,25 +6510,25 @@
         <v>1792</v>
       </c>
       <c r="F58" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G58" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58" s="8" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L58" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M58" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="O58" t="s">
         <v>15</v>
@@ -6536,13 +6536,13 @@
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D59" s="25">
         <v>112</v>
@@ -6551,25 +6551,25 @@
         <v>1792</v>
       </c>
       <c r="F59" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G59" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59" s="8" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L59" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M59" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="O59" t="s">
         <v>15</v>
@@ -6577,13 +6577,13 @@
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D60" s="25">
         <v>112</v>
@@ -6592,36 +6592,36 @@
         <v>1792</v>
       </c>
       <c r="F60" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G60" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M60" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="O60" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B61" t="s">
         <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D61" s="25">
         <v>112</v>
@@ -6630,25 +6630,25 @@
         <v>1792</v>
       </c>
       <c r="F61" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61" s="8" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L61" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M61" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="O61" t="s">
         <v>15</v>
@@ -6656,13 +6656,13 @@
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B62" t="s">
         <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D62" s="25">
         <v>112</v>
@@ -6671,25 +6671,25 @@
         <v>1792</v>
       </c>
       <c r="F62" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L62" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M62" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="O62" t="s">
         <v>16</v>
@@ -6697,40 +6697,40 @@
     </row>
     <row r="63" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B63" t="s">
         <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E63">
         <v>1792</v>
       </c>
       <c r="F63" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G63" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L63" t="s">
         <v>33</v>
       </c>
       <c r="M63" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O63" t="s">
         <v>15</v>
@@ -6738,13 +6738,13 @@
     </row>
     <row r="64" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B64" t="s">
         <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D64" s="25">
         <v>113</v>
@@ -6753,25 +6753,25 @@
         <v>1792</v>
       </c>
       <c r="F64" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G64" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64" s="8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L64" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M64" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="O64" t="s">
         <v>15</v>
@@ -6779,13 +6779,13 @@
     </row>
     <row r="65" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D65" s="25">
         <v>113</v>
@@ -6794,25 +6794,25 @@
         <v>1792</v>
       </c>
       <c r="F65" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G65" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L65" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M65" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="O65" t="s">
         <v>15</v>
@@ -6820,13 +6820,13 @@
     </row>
     <row r="66" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D66" s="25">
         <v>113</v>
@@ -6835,25 +6835,25 @@
         <v>1792</v>
       </c>
       <c r="F66" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G66" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="L66" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M66" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="O66" t="s">
         <v>15</v>
@@ -6861,13 +6861,13 @@
     </row>
     <row r="67" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D67" s="25">
         <v>113</v>
@@ -6876,37 +6876,37 @@
         <v>1792</v>
       </c>
       <c r="F67" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G67" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="L67" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M67" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="O67"/>
     </row>
     <row r="68" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D68" s="25">
         <v>113</v>
@@ -6915,25 +6915,25 @@
         <v>1792</v>
       </c>
       <c r="F68" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G68" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="L68" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M68" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="O68" t="s">
         <v>15</v>
@@ -6941,13 +6941,13 @@
     </row>
     <row r="69" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D69" s="25">
         <v>113</v>
@@ -6956,25 +6956,25 @@
         <v>1792</v>
       </c>
       <c r="F69" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G69" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="L69" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="M69" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="O69" t="s">
         <v>15</v>
@@ -6982,13 +6982,13 @@
     </row>
     <row r="70" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B70" t="s">
         <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D70" s="25">
         <v>113</v>
@@ -6997,25 +6997,25 @@
         <v>1793</v>
       </c>
       <c r="F70" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G70" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L70" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M70" t="s">
         <v>22</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="O70" t="s">
         <v>15</v>
@@ -7023,46 +7023,46 @@
     </row>
     <row r="71" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B71" t="s">
         <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E71">
         <v>1794</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71" s="7"/>
       <c r="L71" s="18" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M71" s="18" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="N71" s="7"/>
       <c r="O71"/>
     </row>
     <row r="72" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s">
         <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D72" s="25">
         <v>121</v>
@@ -7071,35 +7071,35 @@
         <v>1794</v>
       </c>
       <c r="F72" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G72" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72" s="8"/>
       <c r="L72" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M72" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="O72"/>
     </row>
     <row r="73" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B73" t="s">
         <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D73" s="25">
         <v>121</v>
@@ -7108,25 +7108,25 @@
         <v>1794</v>
       </c>
       <c r="F73" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G73" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L73" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M73" t="s">
         <v>23</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="O73" t="s">
         <v>15</v>
@@ -7134,13 +7134,13 @@
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B74" t="s">
         <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D74" s="25">
         <v>121</v>
@@ -7149,25 +7149,25 @@
         <v>1794</v>
       </c>
       <c r="F74" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G74" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="L74" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M74" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="O74" t="s">
         <v>15</v>
@@ -7175,13 +7175,13 @@
     </row>
     <row r="75" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B75" t="s">
         <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D75" s="25">
         <v>121</v>
@@ -7190,25 +7190,25 @@
         <v>1794</v>
       </c>
       <c r="F75" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G75" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L75" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="O75" t="s">
         <v>15</v>
@@ -7216,13 +7216,13 @@
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B76" t="s">
         <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D76" s="25">
         <v>121</v>
@@ -7231,37 +7231,37 @@
         <v>1794</v>
       </c>
       <c r="F76" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G76" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L76" t="s">
+        <v>479</v>
+      </c>
+      <c r="M76" t="s">
         <v>480</v>
       </c>
-      <c r="L76" t="s">
-        <v>485</v>
-      </c>
-      <c r="M76" t="s">
-        <v>486</v>
-      </c>
       <c r="N76" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="O76"/>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B77" t="s">
         <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D77" s="25">
         <v>121</v>
@@ -7270,25 +7270,25 @@
         <v>1794</v>
       </c>
       <c r="F77" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G77" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="L77" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M77" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="O77" t="s">
         <v>15</v>
@@ -7296,13 +7296,13 @@
     </row>
     <row r="78" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s">
         <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D78" s="25">
         <v>121</v>
@@ -7311,25 +7311,25 @@
         <v>1794</v>
       </c>
       <c r="F78" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G78" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L78" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M78" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="O78" t="s">
         <v>15</v>
@@ -7337,13 +7337,13 @@
     </row>
     <row r="79" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B79" t="s">
         <v>38</v>
       </c>
       <c r="C79" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D79" s="25">
         <v>121</v>
@@ -7352,25 +7352,25 @@
         <v>1794</v>
       </c>
       <c r="F79" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G79" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L79" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M79" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="O79" t="s">
         <v>24</v>
@@ -7378,13 +7378,13 @@
     </row>
     <row r="80" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B80" t="s">
         <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D80" s="25">
         <v>156</v>
@@ -7393,29 +7393,29 @@
         <v>1801</v>
       </c>
       <c r="F80" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="G80" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="H80" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="I80" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J80"/>
       <c r="K80" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L80" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="M80" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="O80" t="s">
         <v>15</v>
@@ -7423,13 +7423,13 @@
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B81" t="s">
         <v>38</v>
       </c>
       <c r="C81" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D81" s="25">
         <v>156</v>
@@ -7438,29 +7438,29 @@
         <v>1801</v>
       </c>
       <c r="F81" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G81" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H81" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="I81" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="J81"/>
       <c r="K81" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L81" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="M81" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="N81" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="O81" t="s">
         <v>15</v>
@@ -7468,13 +7468,13 @@
     </row>
     <row r="82" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B82" t="s">
         <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D82" s="25">
         <v>156</v>
@@ -7483,29 +7483,29 @@
         <v>1801</v>
       </c>
       <c r="F82" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G82" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H82" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="I82" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="J82"/>
       <c r="K82" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="L82" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M82" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O82" t="s">
         <v>15</v>
@@ -7513,13 +7513,13 @@
     </row>
     <row r="83" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B83" t="s">
         <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D83" s="25">
         <v>156</v>
@@ -7528,29 +7528,29 @@
         <v>1801</v>
       </c>
       <c r="F83" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G83" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="H83" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="I83" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="J83"/>
       <c r="K83" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="L83" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M83" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="O83" t="s">
         <v>17</v>
@@ -7558,13 +7558,13 @@
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B84" t="s">
         <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D84" s="25">
         <v>156</v>
@@ -7573,29 +7573,29 @@
         <v>1801</v>
       </c>
       <c r="F84" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="G84" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H84" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I84" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="J84"/>
       <c r="K84" s="19" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="L84" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="M84" t="s">
         <v>23</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="O84" t="s">
         <v>15</v>
@@ -7603,13 +7603,13 @@
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B85" t="s">
         <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D85" s="25">
         <v>156</v>
@@ -7618,29 +7618,29 @@
         <v>1801</v>
       </c>
       <c r="F85" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G85" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H85" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="I85" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="J85"/>
       <c r="K85" s="19" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="L85" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="M85" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="O85" t="s">
         <v>15</v>
@@ -7648,13 +7648,13 @@
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B86" t="s">
         <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D86" s="25">
         <v>156</v>
@@ -7663,29 +7663,29 @@
         <v>1801</v>
       </c>
       <c r="F86" t="s">
+        <v>553</v>
+      </c>
+      <c r="G86" t="s">
+        <v>554</v>
+      </c>
+      <c r="H86" t="s">
+        <v>558</v>
+      </c>
+      <c r="I86" t="s">
         <v>559</v>
-      </c>
-      <c r="G86" t="s">
-        <v>560</v>
-      </c>
-      <c r="H86" t="s">
-        <v>564</v>
-      </c>
-      <c r="I86" t="s">
-        <v>565</v>
       </c>
       <c r="J86"/>
       <c r="K86" s="19" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="L86" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="M86" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="O86" t="s">
         <v>15</v>
@@ -7693,13 +7693,13 @@
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B87" t="s">
         <v>38</v>
       </c>
       <c r="C87" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D87" s="25">
         <v>170</v>
@@ -7708,29 +7708,29 @@
         <v>1803</v>
       </c>
       <c r="F87" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G87" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="H87" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="I87" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="J87"/>
       <c r="K87" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="L87" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="M87" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="O87" t="s">
         <v>15</v>
@@ -7738,13 +7738,13 @@
     </row>
     <row r="88" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B88" t="s">
         <v>38</v>
       </c>
       <c r="C88" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D88" s="25">
         <v>170</v>
@@ -7753,43 +7753,43 @@
         <v>1803</v>
       </c>
       <c r="F88" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G88" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="H88" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="I88" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="J88"/>
       <c r="K88" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="L88" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M88" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="O88" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B89" t="s">
         <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D89" s="25">
         <v>170</v>
@@ -7798,26 +7798,26 @@
         <v>1803</v>
       </c>
       <c r="F89" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G89" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="H89" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="I89" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="J89"/>
       <c r="K89" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="M89" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="O89" t="s">
         <v>15</v>
@@ -7825,13 +7825,13 @@
     </row>
     <row r="90" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B90" t="s">
         <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D90" s="25">
         <v>170</v>
@@ -7840,29 +7840,29 @@
         <v>1803</v>
       </c>
       <c r="F90" t="s">
+        <v>586</v>
+      </c>
+      <c r="G90" t="s">
+        <v>593</v>
+      </c>
+      <c r="H90" t="s">
+        <v>591</v>
+      </c>
+      <c r="I90" t="s">
         <v>592</v>
-      </c>
-      <c r="G90" t="s">
-        <v>599</v>
-      </c>
-      <c r="H90" t="s">
-        <v>597</v>
-      </c>
-      <c r="I90" t="s">
-        <v>598</v>
       </c>
       <c r="J90"/>
       <c r="K90" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="L90" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="M90" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="O90" t="s">
         <v>15</v>
@@ -7870,13 +7870,13 @@
     </row>
     <row r="91" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B91" t="s">
         <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D91" s="25">
         <v>170</v>
@@ -7885,29 +7885,29 @@
         <v>1804</v>
       </c>
       <c r="F91" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G91" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="H91" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="I91" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="J91"/>
       <c r="K91" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="L91" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="M91" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="O91" t="s">
         <v>15</v>
@@ -7915,13 +7915,13 @@
     </row>
     <row r="92" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B92" t="s">
         <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D92" s="25">
         <v>170</v>
@@ -7930,29 +7930,29 @@
         <v>1804</v>
       </c>
       <c r="F92" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G92" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="H92" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="I92" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="J92"/>
       <c r="K92" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="L92" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="M92" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="O92" t="s">
         <v>18</v>
@@ -7960,13 +7960,13 @@
     </row>
     <row r="93" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B93" t="s">
         <v>38</v>
       </c>
       <c r="C93" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D93" s="25">
         <v>170</v>
@@ -7975,29 +7975,29 @@
         <v>1804</v>
       </c>
       <c r="F93" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G93" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H93" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="I93" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="J93"/>
       <c r="K93" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="L93" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="M93" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="O93" t="s">
         <v>15</v>
@@ -8005,13 +8005,13 @@
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B94" t="s">
         <v>38</v>
       </c>
       <c r="C94" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D94" s="25">
         <v>170</v>
@@ -8020,26 +8020,26 @@
         <v>1804</v>
       </c>
       <c r="F94" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G94" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="H94" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="I94" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="J94"/>
       <c r="K94" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="M94" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="N94" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="O94" t="s">
         <v>15</v>
@@ -8047,40 +8047,40 @@
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B95" t="s">
         <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E95">
         <v>1804</v>
       </c>
       <c r="F95" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="G95" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="L95" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="M95" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="O95" t="s">
         <v>15</v>
@@ -8088,13 +8088,13 @@
     </row>
     <row r="96" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B96" t="s">
         <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D96" s="25">
         <v>175</v>
@@ -8103,29 +8103,29 @@
         <v>1804</v>
       </c>
       <c r="F96" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="G96" t="s">
+        <v>632</v>
+      </c>
+      <c r="H96" t="s">
+        <v>636</v>
+      </c>
+      <c r="I96" t="s">
         <v>638</v>
-      </c>
-      <c r="H96" t="s">
-        <v>642</v>
-      </c>
-      <c r="I96" t="s">
-        <v>644</v>
       </c>
       <c r="J96"/>
       <c r="K96" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="L96" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="M96" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="O96" t="s">
         <v>15</v>
@@ -8133,13 +8133,13 @@
     </row>
     <row r="97" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B97" t="s">
         <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D97" s="25">
         <v>175</v>
@@ -8148,41 +8148,41 @@
         <v>1804</v>
       </c>
       <c r="F97" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="G97" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="H97" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="I97" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="J97"/>
       <c r="K97" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="L97" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="M97" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="O97"/>
     </row>
     <row r="98" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B98" t="s">
         <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D98" s="25">
         <v>175</v>
@@ -8191,26 +8191,26 @@
         <v>1804</v>
       </c>
       <c r="F98" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G98" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="H98" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I98" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="J98"/>
       <c r="K98" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="L98" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="M98" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="N98" s="7" t="s">
         <v>21</v>
@@ -8221,13 +8221,13 @@
     </row>
     <row r="99" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B99" t="s">
         <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D99" s="25">
         <v>175</v>
@@ -8236,29 +8236,29 @@
         <v>1805</v>
       </c>
       <c r="F99" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="G99" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="H99" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="I99" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="J99"/>
       <c r="K99" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="L99" s="18" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="M99" s="18" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="O99" t="s">
         <v>15</v>
@@ -8266,13 +8266,13 @@
     </row>
     <row r="100" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B100" t="s">
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D100" s="25">
         <v>175</v>
@@ -8281,29 +8281,29 @@
         <v>1805</v>
       </c>
       <c r="F100" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G100" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="H100" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="I100" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="J100"/>
       <c r="K100" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="L100" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="M100" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="O100" t="s">
         <v>15</v>
@@ -8311,13 +8311,13 @@
     </row>
     <row r="101" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B101" t="s">
         <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D101" s="25">
         <v>175</v>
@@ -8326,29 +8326,29 @@
         <v>1805</v>
       </c>
       <c r="F101" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G101" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="H101" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="I101" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="J101"/>
       <c r="K101" s="7" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="L101" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="M101" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="O101" t="s">
         <v>15</v>
@@ -8356,13 +8356,13 @@
     </row>
     <row r="102" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B102" t="s">
         <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D102" s="25">
         <v>175</v>
@@ -8371,29 +8371,29 @@
         <v>1805</v>
       </c>
       <c r="F102" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="H102" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="I102" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="J102"/>
       <c r="K102" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L102" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="M102" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="O102" t="s">
         <v>20</v>
@@ -8401,13 +8401,13 @@
     </row>
     <row r="103" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B103" t="s">
         <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D103" s="25">
         <v>175</v>
@@ -8416,41 +8416,41 @@
         <v>1805</v>
       </c>
       <c r="F103" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G103" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="H103" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="I103" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="J103"/>
       <c r="K103" s="7" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="L103" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="M103" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="O103"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B104" t="s">
         <v>38</v>
       </c>
       <c r="C104" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D104" s="25">
         <v>175</v>
@@ -8459,28 +8459,28 @@
         <v>1805</v>
       </c>
       <c r="F104" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G104" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H104" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="I104" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="L104" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="M104" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="O104" t="s">
         <v>15</v>
@@ -8488,36 +8488,36 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B105" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C105" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="E105">
         <v>1806</v>
       </c>
       <c r="H105" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="I105" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B106" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C106" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D106" s="25">
         <v>6</v>
@@ -8526,39 +8526,39 @@
         <v>1806</v>
       </c>
       <c r="F106" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="G106" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H106" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="I106" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="L106" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="M106" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B107" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C107" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D107" s="25">
         <v>6</v>
@@ -8567,28 +8567,28 @@
         <v>1806</v>
       </c>
       <c r="F107" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="G107" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="H107" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="I107" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="L107" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="M107" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="O107" t="s">
         <v>15</v>
@@ -8596,13 +8596,13 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B108" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C108" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D108" s="25">
         <v>6</v>
@@ -8611,28 +8611,28 @@
         <v>1806</v>
       </c>
       <c r="F108" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="G108" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="H108" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="I108" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="L108" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="M108" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="O108" t="s">
         <v>15</v>
@@ -8640,13 +8640,13 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B109" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C109" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D109" s="25">
         <v>6</v>
@@ -8655,39 +8655,39 @@
         <v>1806</v>
       </c>
       <c r="F109" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G109" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="H109" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="I109" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="L109" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="M109" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B110" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C110" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D110" s="25">
         <v>6</v>
@@ -8696,36 +8696,36 @@
         <v>1806</v>
       </c>
       <c r="F110" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="G110" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="H110" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="I110" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="K110" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="L110" t="s">
+        <v>742</v>
+      </c>
+      <c r="N110" s="7" t="s">
         <v>747</v>
-      </c>
-      <c r="L110" t="s">
-        <v>748</v>
-      </c>
-      <c r="N110" s="7" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B111" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C111" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D111" s="25">
         <v>6</v>
@@ -8734,39 +8734,39 @@
         <v>1806</v>
       </c>
       <c r="F111" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="G111" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H111" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="I111" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="L111" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="M111" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B112" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C112" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D112" s="25">
         <v>11</v>
@@ -8775,22 +8775,22 @@
         <v>1806</v>
       </c>
       <c r="F112" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="G112" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="H112" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="I112" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="K112" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L112" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="N112" s="7" t="s">
         <v>27</v>
@@ -8801,13 +8801,13 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B113" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C113" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D113" s="25">
         <v>11</v>
@@ -8816,25 +8816,25 @@
         <v>1806</v>
       </c>
       <c r="F113" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="G113" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="H113" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="I113" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="L113" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="M113" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="N113" s="7" t="s">
         <v>30</v>
@@ -8845,13 +8845,13 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B114" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C114" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D114" s="25">
         <v>11</v>
@@ -8860,28 +8860,28 @@
         <v>1806</v>
       </c>
       <c r="F114" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="G114" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="H114" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="I114" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="L114" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="M114" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="O114" t="s">
         <v>15</v>
@@ -8889,13 +8889,13 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B115" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C115" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D115" s="25">
         <v>11</v>
@@ -8904,28 +8904,28 @@
         <v>1806</v>
       </c>
       <c r="F115" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G115" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H115" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="I115" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="L115" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="M115" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="O115" t="s">
         <v>15</v>
@@ -8933,13 +8933,13 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B116" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C116" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D116" s="25">
         <v>11</v>
@@ -8948,28 +8948,28 @@
         <v>1806</v>
       </c>
       <c r="F116" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G116" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="H116" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="I116" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="L116" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="M116" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="O116" t="s">
         <v>15</v>
@@ -8977,13 +8977,13 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B117" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C117" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D117" s="25">
         <v>40</v>
@@ -8992,27 +8992,27 @@
         <v>1809</v>
       </c>
       <c r="H117" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="I117" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="L117" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="M117" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B118" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C118" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D118" s="25">
         <v>40</v>
@@ -9021,28 +9021,28 @@
         <v>1809</v>
       </c>
       <c r="F118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="G118" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="H118" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="I118" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="K118" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="L118" t="s">
+        <v>803</v>
+      </c>
+      <c r="M118" t="s">
         <v>804</v>
       </c>
-      <c r="L118" t="s">
-        <v>809</v>
-      </c>
-      <c r="M118" t="s">
-        <v>810</v>
-      </c>
       <c r="N118" s="7" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="O118" t="s">
         <v>15</v>
@@ -9050,13 +9050,13 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B119" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C119" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D119" s="25">
         <v>40</v>
@@ -9065,22 +9065,22 @@
         <v>1809</v>
       </c>
       <c r="F119" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="G119" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="H119" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="I119" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="N119" s="7" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="O119" t="s">
         <v>15</v>
@@ -9088,13 +9088,13 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B120" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C120" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D120" s="25">
         <v>40</v>
@@ -9103,28 +9103,28 @@
         <v>1809</v>
       </c>
       <c r="F120" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="G120" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="H120" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="I120" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M120" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="N120" s="7" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="O120" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
@@ -9132,10 +9132,10 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C121" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D121" s="25">
         <v>40</v>
@@ -9146,13 +9146,13 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B122" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C122" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D122" s="25">
         <v>40</v>
@@ -9161,22 +9161,22 @@
         <v>1809</v>
       </c>
       <c r="F122" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="G122" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="H122" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="I122" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="N122" s="8" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="O122" t="s">
         <v>15</v>
@@ -9184,13 +9184,13 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B123" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C123" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D123" s="25">
         <v>40</v>
@@ -9199,28 +9199,28 @@
         <v>1809</v>
       </c>
       <c r="F123" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G123" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H123" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="I123" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="L123" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="M123" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="O123" t="s">
         <v>15</v>
@@ -9228,13 +9228,13 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B124" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C124" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D124" s="25">
         <v>40</v>
@@ -9243,39 +9243,39 @@
         <v>1809</v>
       </c>
       <c r="F124" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="G124" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="H124" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="I124" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="L124" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="M124" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="N124" s="8" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B125" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C125" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D125" s="25">
         <v>40</v>
@@ -9284,18 +9284,18 @@
         <v>1809</v>
       </c>
       <c r="N125" s="8" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B126" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C126" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="D126" s="25">
         <v>96</v>
@@ -9304,39 +9304,39 @@
         <v>1813</v>
       </c>
       <c r="F126" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G126" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H126" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="I126" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="L126" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="M126" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="N126" s="7" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B127" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C127" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="D127" s="25">
         <v>96</v>
@@ -9345,28 +9345,28 @@
         <v>1813</v>
       </c>
       <c r="F127" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="G127" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="H127" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I127" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="K127" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="L127" t="s">
         <v>850</v>
       </c>
-      <c r="L127" t="s">
-        <v>856</v>
-      </c>
       <c r="M127" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="N127" s="8" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="O127" t="s">
         <v>15</v>
@@ -9374,57 +9374,57 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B128" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C128" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="E128">
         <v>1813</v>
       </c>
       <c r="F128" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="G128" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="H128" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="I128" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="K128" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="L128" t="s">
+        <v>857</v>
+      </c>
+      <c r="M128" t="s">
         <v>858</v>
       </c>
-      <c r="L128" t="s">
-        <v>863</v>
-      </c>
-      <c r="M128" t="s">
-        <v>864</v>
-      </c>
       <c r="N128" s="8" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="O128" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B129" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C129" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="D129" s="25">
         <v>97</v>
@@ -9433,28 +9433,28 @@
         <v>1813</v>
       </c>
       <c r="F129" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="G129" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="H129" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="I129" t="s">
+        <v>856</v>
+      </c>
+      <c r="K129" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="L129" t="s">
+        <v>863</v>
+      </c>
+      <c r="M129" t="s">
         <v>862</v>
       </c>
-      <c r="K129" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="L129" t="s">
-        <v>869</v>
-      </c>
-      <c r="M129" t="s">
-        <v>868</v>
-      </c>
       <c r="N129" s="8" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="O129" t="s">
         <v>15</v>
@@ -9462,31 +9462,31 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B130" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C130" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E130">
         <v>1813</v>
       </c>
       <c r="F130" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="G130" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="H130" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="N130" s="8" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="O130" t="s">
         <v>15</v>
@@ -9494,36 +9494,36 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B131" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C131" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="E131">
         <v>1816</v>
       </c>
       <c r="L131" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="M131" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B132" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C132" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D132" s="6">
         <v>150</v>
@@ -9532,28 +9532,28 @@
         <v>1816</v>
       </c>
       <c r="F132" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G132" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="H132" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="I132" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="L132" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="M132" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="N132" s="8" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="O132" t="s">
         <v>15</v>
@@ -9561,54 +9561,54 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B133" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C133" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="E133">
         <v>1816</v>
       </c>
       <c r="F133" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="G133" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="H133" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="I133" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="M133" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="N133" s="8" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="O133" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="B134" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C134" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D134" s="6">
         <v>151</v>
@@ -9617,28 +9617,28 @@
         <v>1816</v>
       </c>
       <c r="F134" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="G134" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H134" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="I134" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="L134" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="M134" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="N134" s="8" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="O134" t="s">
         <v>15</v>
@@ -9646,74 +9646,74 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B135" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C135" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="E135">
         <v>1816</v>
       </c>
       <c r="F135" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G135" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H135" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I135" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="N135" s="8" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B136" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C136" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E136">
         <v>1831</v>
       </c>
       <c r="H136" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="I136" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="L136" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M136" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="B137" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C137" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D137" s="6">
         <v>113</v>
@@ -9722,28 +9722,28 @@
         <v>1831</v>
       </c>
       <c r="F137" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="G137" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="H137" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="I137" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="L137" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M137" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="N137" s="8" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="O137" t="s">
         <v>15</v>
@@ -9751,54 +9751,54 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="B138" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C138" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="E138">
         <v>1831</v>
       </c>
       <c r="F138" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="G138" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="H138" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="I138" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="L138" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M138" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="N138" s="8" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="B139" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C139" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D139" s="6">
         <v>114</v>
@@ -9807,36 +9807,36 @@
         <v>1831</v>
       </c>
       <c r="F139" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="G139" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="H139" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="I139" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="M139" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="N139" s="8" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="B140" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C140" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D140" s="6">
         <v>114</v>
@@ -9845,18 +9845,18 @@
         <v>1831</v>
       </c>
       <c r="N140" s="8" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="B141" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C141" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="D141" s="6">
         <v>509</v>
@@ -9865,28 +9865,28 @@
         <v>1834</v>
       </c>
       <c r="F141" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="G141" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="H141" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="I141" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="L141" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="M141" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="N141" s="7" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="O141" t="s">
         <v>15</v>
@@ -9894,40 +9894,40 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="B142" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C142" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E142">
         <v>1834</v>
       </c>
       <c r="F142" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="G142" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="H142" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="I142" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="K142" s="7">
         <v>12436</v>
       </c>
       <c r="L142" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="M142" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="N142" s="7">
         <v>12438</v>
@@ -9935,13 +9935,13 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B143" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C143" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="D143" s="6">
         <v>510</v>
@@ -9950,28 +9950,28 @@
         <v>1834</v>
       </c>
       <c r="F143" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="G143" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="H143" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="I143" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="L143" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="M143" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="N143" s="8" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="O143" t="s">
         <v>15</v>
@@ -9979,43 +9979,43 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="B144" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C144" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="E144">
         <v>1834</v>
       </c>
       <c r="F144" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="G144" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="H144" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="I144" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="K144" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="L144" t="s">
         <v>959</v>
       </c>
-      <c r="L144" t="s">
-        <v>965</v>
-      </c>
       <c r="M144" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="N144" s="8" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="O144" t="s">
         <v>15</v>
@@ -10023,13 +10023,13 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="B145" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C145" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="D145" s="6">
         <v>511</v>
@@ -10038,28 +10038,28 @@
         <v>1834</v>
       </c>
       <c r="F145" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="G145" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="H145" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="I145" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="K145" s="7" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="L145" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="M145" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="N145" s="8" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="O145" t="s">
         <v>20</v>
@@ -10067,13 +10067,13 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="B146" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C146" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="D146" s="6">
         <v>511</v>
@@ -10082,28 +10082,28 @@
         <v>1834</v>
       </c>
       <c r="F146" t="s">
+        <v>972</v>
+      </c>
+      <c r="G146" t="s">
+        <v>973</v>
+      </c>
+      <c r="H146" t="s">
+        <v>977</v>
+      </c>
+      <c r="I146" t="s">
         <v>978</v>
       </c>
-      <c r="G146" t="s">
-        <v>979</v>
-      </c>
-      <c r="H146" t="s">
-        <v>983</v>
-      </c>
-      <c r="I146" t="s">
-        <v>984</v>
-      </c>
       <c r="K146" s="7" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="L146" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="M146" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="N146" s="8" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="O146" t="s">
         <v>15</v>
@@ -10111,56 +10111,56 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B147" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C147" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="E147">
         <v>1834</v>
       </c>
       <c r="N147" s="8" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B148" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C148" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="E148">
         <v>1834</v>
       </c>
       <c r="H148" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="I148" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="B149" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C149" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="D149" s="6">
         <v>535</v>
@@ -10169,69 +10169,69 @@
         <v>1834</v>
       </c>
       <c r="F149" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="G149" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="H149" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="I149" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="L149" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="M149" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="N149" s="8" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="B150" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C150" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E150">
         <v>1834</v>
       </c>
       <c r="F150" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="G150" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="H150" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="I150" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="L150" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="M150" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="N150" s="7" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="O150" t="s">
         <v>15</v>
@@ -10239,13 +10239,13 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B151" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C151" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="D151" s="6">
         <v>536</v>
@@ -10254,25 +10254,25 @@
         <v>1834</v>
       </c>
       <c r="F151" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="G151" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="H151" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="L151" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="M151" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="N151" s="7" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="O151" t="s">
         <v>15</v>
@@ -10280,54 +10280,54 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="B152" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C152" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="E152">
         <v>1843</v>
       </c>
       <c r="F152" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="G152" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="H152" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="I152" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="L152" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="M152" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="O152" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="B153" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C153" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="D153" s="6">
         <v>731</v>
@@ -10336,25 +10336,25 @@
         <v>1843</v>
       </c>
       <c r="F153" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="G153" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="H153" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="I153" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="L153" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="M153" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="N153" s="8" t="s">
         <v>29</v>
@@ -10365,43 +10365,43 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="B154" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C154" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="E154">
         <v>1843</v>
       </c>
       <c r="F154" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H154" t="s">
         <v>1041</v>
       </c>
-      <c r="G154" t="s">
+      <c r="I154" t="s">
         <v>1042</v>
       </c>
-      <c r="H154" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I154" t="s">
-        <v>1048</v>
-      </c>
       <c r="K154" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L154" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M154" t="s">
         <v>1040</v>
       </c>
-      <c r="L154" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M154" t="s">
-        <v>1046</v>
-      </c>
       <c r="N154" s="8" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="O154" t="s">
         <v>15</v>
@@ -10409,13 +10409,13 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="B155" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C155" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="D155" s="6">
         <v>732</v>
@@ -10424,25 +10424,25 @@
         <v>1843</v>
       </c>
       <c r="F155" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="G155" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="H155" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="I155" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="K155" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L155" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="M155" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="N155" s="8" t="s">
         <v>26</v>
@@ -10453,51 +10453,51 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B156" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C156" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="E156">
         <v>1843</v>
       </c>
       <c r="F156" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="G156" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="K156" s="7" t="s">
         <v>9</v>
       </c>
       <c r="L156" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="M156" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="N156" s="8" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="B157" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C157" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="E157">
         <v>1843</v>
@@ -10506,36 +10506,36 @@
         <v>19</v>
       </c>
       <c r="G157" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="H157" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="I157" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="L157" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="M157" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="N157" s="8" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="B158" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C158" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="D158" s="6">
         <v>743</v>
@@ -10544,39 +10544,39 @@
         <v>1844</v>
       </c>
       <c r="F158" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="G158" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="H158" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="I158" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="K158" s="7" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="L158" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="M158" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="N158" s="8" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="B159" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C159" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="D159" s="6">
         <v>743</v>
@@ -10585,28 +10585,28 @@
         <v>1844</v>
       </c>
       <c r="F159" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="G159" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="H159" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="I159" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="K159" s="7" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="L159" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="M159" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="N159" s="7" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="O159" t="s">
         <v>15</v>
@@ -10614,13 +10614,13 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B160" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C160" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="D160" s="6">
         <v>743</v>
@@ -10629,25 +10629,25 @@
         <v>1844</v>
       </c>
       <c r="F160" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G160" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="H160" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="I160" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="K160" s="7" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="M160" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="N160" s="8" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="O160" t="s">
         <v>15</v>
@@ -10655,43 +10655,43 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="B161" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C161" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="E161">
         <v>1844</v>
       </c>
       <c r="F161" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="G161" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="H161" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="I161" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="K161" s="7" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="L161" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="M161" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="N161" s="8" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="O161" t="s">
         <v>15</v>
@@ -10699,13 +10699,13 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="B162" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C162" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="D162" s="6">
         <v>744</v>
@@ -10714,39 +10714,39 @@
         <v>1844</v>
       </c>
       <c r="F162" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I162" t="s">
         <v>1105</v>
       </c>
-      <c r="G162" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H162" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I162" t="s">
-        <v>1111</v>
-      </c>
       <c r="K162" s="7" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="L162" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="M162" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="N162" s="8" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="B163" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C163" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="D163" s="6">
         <v>744</v>
@@ -10755,28 +10755,28 @@
         <v>1844</v>
       </c>
       <c r="F163" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I163" t="s">
         <v>1114</v>
       </c>
-      <c r="G163" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H163" t="s">
-        <v>1119</v>
-      </c>
-      <c r="I163" t="s">
-        <v>1120</v>
-      </c>
       <c r="K163" s="7" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="L163" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="M163" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="N163" s="8" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="O163" t="s">
         <v>15</v>
@@ -10784,13 +10784,13 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="B164" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C164" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="D164" s="6">
         <v>745</v>
@@ -10799,28 +10799,28 @@
         <v>1844</v>
       </c>
       <c r="F164" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="G164" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="H164" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="I164" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="K164" s="7" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="L164" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="M164" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="N164" s="7" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="O164" t="s">
         <v>15</v>
@@ -10828,13 +10828,13 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="B165" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C165" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="D165" s="6">
         <v>745</v>
@@ -10843,28 +10843,28 @@
         <v>1844</v>
       </c>
       <c r="F165" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="G165" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="H165" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="I165" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="L165" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="M165" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="N165" s="8" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="O165" t="s">
         <v>15</v>
@@ -10872,13 +10872,13 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B166" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="C166" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="D166" s="6">
         <v>178</v>
@@ -10887,39 +10887,39 @@
         <v>1859</v>
       </c>
       <c r="F166" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="G166" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="H166" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="I166" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="K166" s="7" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="L166" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="M166" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="N166" s="8" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="B167" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="C167" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="D167" s="6">
         <v>178</v>
@@ -10928,66 +10928,66 @@
         <v>1859</v>
       </c>
       <c r="F167" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="G167" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="H167" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="I167" t="s">
+        <v>1136</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="L167" t="s">
         <v>1142</v>
       </c>
-      <c r="K167" s="7" t="s">
-        <v>1144</v>
-      </c>
-      <c r="L167" t="s">
-        <v>1148</v>
-      </c>
       <c r="M167" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="N167" s="8" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="B168" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C168" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="E168">
         <v>1848</v>
       </c>
       <c r="F168" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I168" t="s">
         <v>1155</v>
       </c>
-      <c r="G168" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H168" t="s">
-        <v>1160</v>
-      </c>
-      <c r="I168" t="s">
-        <v>1161</v>
-      </c>
       <c r="K168" s="7" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="L168" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="M168" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="N168" s="8" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="O168" t="s">
         <v>15</v>
@@ -10995,78 +10995,78 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="B169" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C169" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="E169">
         <v>1848</v>
       </c>
       <c r="F169" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="G169" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="H169" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="I169" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="K169" s="8" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="M169" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="N169" s="8" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="O169" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B170" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C170" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="E170">
         <v>1848</v>
       </c>
       <c r="F170" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G170" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="H170" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="I170" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="K170" s="7" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="L170" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="M170" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="N170" s="8" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="O170" t="s">
         <v>15</v>
@@ -11074,78 +11074,78 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B171" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C171" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="E171">
         <v>1848</v>
       </c>
       <c r="F171" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="G171" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="H171" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="I171" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="K171" s="7" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="L171" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="M171" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="N171" s="8" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B172" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C172" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="E172">
         <v>1848</v>
       </c>
       <c r="F172" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G172" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="H172" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="I172" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="K172" s="7" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="L172" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="M172" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="N172" s="3" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="O172" t="s">
         <v>15</v>
@@ -11153,40 +11153,40 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B173" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C173" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="E173">
         <v>1848</v>
       </c>
       <c r="F173" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="G173" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="H173" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="I173" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="K173" s="8" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="L173" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="M173" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="N173" s="8" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="O173" t="s">
         <v>15</v>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302E1DFE-1B86-4C79-A8EE-F8B90ADF2C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E349678-EE17-4C31-9637-5F72721FC48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Marc Moyá Gesé:</t>
         </r>
@@ -59,7 +59,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 en altres fonts l'home es diu Joan Moyà</t>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="1292">
   <si>
     <t>Cognoms</t>
   </si>
@@ -3598,9 +3598,6 @@
     <t>15/08/1848</t>
   </si>
   <si>
-    <t>Maria Clua (Rubió)</t>
-  </si>
-  <si>
     <t>Gine Clua Magdalena Maria</t>
   </si>
   <si>
@@ -3674,6 +3671,282 @@
   </si>
   <si>
     <t>Duart Alexandre Manuela Bahista</t>
+  </si>
+  <si>
+    <t>07-0021</t>
+  </si>
+  <si>
+    <t>22/04/1847</t>
+  </si>
+  <si>
+    <t>21/04/1847</t>
+  </si>
+  <si>
+    <t>Roma Bobe Maria Rosa</t>
+  </si>
+  <si>
+    <t>Joan Sunyé</t>
+  </si>
+  <si>
+    <t>Josepa Musol Ormi? (Vallfogona d'urgell)</t>
+  </si>
+  <si>
+    <t>Antonio Roma i Paula Fabregat</t>
+  </si>
+  <si>
+    <t>Ramon Bové i Maria Vila</t>
+  </si>
+  <si>
+    <t>25/04/1847</t>
+  </si>
+  <si>
+    <t>24/04/1847</t>
+  </si>
+  <si>
+    <t>Bonjorn Marti Josep Antoni</t>
+  </si>
+  <si>
+    <t>Josep Roig (Casat)</t>
+  </si>
+  <si>
+    <t>Antonia Bonjorn Serra (Viuda)</t>
+  </si>
+  <si>
+    <t>Jaume Bonjorn i Antonia Serra</t>
+  </si>
+  <si>
+    <t>Antonio Marti i Antonia Roig</t>
+  </si>
+  <si>
+    <t>Josepa Marti Roig</t>
+  </si>
+  <si>
+    <t>Antoni Bonjorn Serra</t>
+  </si>
+  <si>
+    <t>28/04/1847</t>
+  </si>
+  <si>
+    <t>Margarida Gine Cascallo (Viuda)</t>
+  </si>
+  <si>
+    <t>Josep Giné Cascallo (Fadrí)</t>
+  </si>
+  <si>
+    <t>Josep Gine i Magdalena Cascallo</t>
+  </si>
+  <si>
+    <t>Ramon Bori (Rocafort)</t>
+  </si>
+  <si>
+    <t>Ramon Gine Cascalló</t>
+  </si>
+  <si>
+    <t>Gine Clua Josep</t>
+  </si>
+  <si>
+    <t>Maria Clua Macià (Rubió)</t>
+  </si>
+  <si>
+    <t>Gine Clua Maria Magdalena Cecilia</t>
+  </si>
+  <si>
+    <t>Joan Sol (Cirurgià)(Gisona)</t>
+  </si>
+  <si>
+    <t>Mariano Clua (Rubió) i Maria Macià (Boldu vivint a Rubió)</t>
+  </si>
+  <si>
+    <t>Ginè Pedrós Rosa Josepa</t>
+  </si>
+  <si>
+    <t>Josep Gine Novell (Casat)</t>
+  </si>
+  <si>
+    <t>Rosa Pedrós Tarragó (casada)</t>
+  </si>
+  <si>
+    <t>Fransisco Giné i Fransisca Marti</t>
+  </si>
+  <si>
+    <t>Pedrós Mas Domingo</t>
+  </si>
+  <si>
+    <t>07-0021 07-0022</t>
+  </si>
+  <si>
+    <t>36 , 37</t>
+  </si>
+  <si>
+    <t>12/05/1847</t>
+  </si>
+  <si>
+    <t>Rosa Mas</t>
+  </si>
+  <si>
+    <t>Maria Teresa Mas Civit (Viuda)</t>
+  </si>
+  <si>
+    <t>Josep Pedrós i Maria Duart</t>
+  </si>
+  <si>
+    <t>Domingo Mas i Theresa Civit</t>
+  </si>
+  <si>
+    <t>Manuel Pedrós Duart</t>
+  </si>
+  <si>
+    <t>Rosa Mas Civit</t>
+  </si>
+  <si>
+    <t>Josep Giné Marti</t>
+  </si>
+  <si>
+    <t>Josepa Pedrós Civit</t>
+  </si>
+  <si>
+    <t>Ramon Gine Cascallo</t>
+  </si>
+  <si>
+    <t>Fransisco Roma Fabregat</t>
+  </si>
+  <si>
+    <t>Antonia Bobe Vila</t>
+  </si>
+  <si>
+    <t>26/05/1847</t>
+  </si>
+  <si>
+    <t>Duart Solsona Magdalena Ignasia</t>
+  </si>
+  <si>
+    <t>Ignasi Agulló (Casat)</t>
+  </si>
+  <si>
+    <t>Magdalena Duart Sucarrat</t>
+  </si>
+  <si>
+    <t>Jaume Duart i Paula Roma</t>
+  </si>
+  <si>
+    <t>Fransisco Solsona (Els Arcs) i Fransisca Segarra (Barbens)</t>
+  </si>
+  <si>
+    <t>07-0022</t>
+  </si>
+  <si>
+    <t>04/06/1847</t>
+  </si>
+  <si>
+    <t>Mata Gine Pau Josep</t>
+  </si>
+  <si>
+    <t>Pau Roger (Casat)</t>
+  </si>
+  <si>
+    <t>Fransisca Mata Novell (Viuda)</t>
+  </si>
+  <si>
+    <t>Josep Mata i Fransisco Novell</t>
+  </si>
+  <si>
+    <t>Josep Giné i Theresa Espervé</t>
+  </si>
+  <si>
+    <t>Fransisco Mata Novell</t>
+  </si>
+  <si>
+    <t>Maria Gine Espervé</t>
+  </si>
+  <si>
+    <t>Fransisco Duart Roma</t>
+  </si>
+  <si>
+    <t>Antonia Solsona Segarra (Barbens)</t>
+  </si>
+  <si>
+    <t>Bori Mas Maria Theresa</t>
+  </si>
+  <si>
+    <t>05/06/1847</t>
+  </si>
+  <si>
+    <t>Ramon Mas (Casat)</t>
+  </si>
+  <si>
+    <t>Maria Porta Lamarca  (Casada)</t>
+  </si>
+  <si>
+    <t>Isidre Bové i Theresa Pollina (de rocafort els dos)</t>
+  </si>
+  <si>
+    <t>Josep Mas i Manuela Porta (Aquesta de Tarrega)</t>
+  </si>
+  <si>
+    <t>38 - 39</t>
+  </si>
+  <si>
+    <t>Duart Solsona Maria Antonia</t>
+  </si>
+  <si>
+    <t>23/06/1847</t>
+  </si>
+  <si>
+    <t>22/06/1847</t>
+  </si>
+  <si>
+    <t>Andreu Pujades (casat)</t>
+  </si>
+  <si>
+    <t>Maria Pujades Serret (Vallfodona d'urgell)(Vestía)</t>
+  </si>
+  <si>
+    <t>Josep Duart i Maria Angela Penella (Vilanova de Bellpuig)</t>
+  </si>
+  <si>
+    <t>Pere Marti Solsona (St llorens del piteus) i Victoria Asto (Tarrega)</t>
+  </si>
+  <si>
+    <t>Miquel Duart Penella</t>
+  </si>
+  <si>
+    <t>Elena Solsona Asto</t>
+  </si>
+  <si>
+    <t>02/08/1847</t>
+  </si>
+  <si>
+    <t>Domingo Planes</t>
+  </si>
+  <si>
+    <t>Francesca Ginestà</t>
+  </si>
+  <si>
+    <t>Planes Ginesta Theresa Maria</t>
+  </si>
+  <si>
+    <t>Jaume Ginesta (Casat)</t>
+  </si>
+  <si>
+    <t>Theresa Rosell Planes (Casada)</t>
+  </si>
+  <si>
+    <t>Geroni Planes i Maria Antonia Martí</t>
+  </si>
+  <si>
+    <t>Ramon Ginesta i Magina Serra</t>
+  </si>
+  <si>
+    <t>07-0022 07-0023</t>
+  </si>
+  <si>
+    <t>39 , 40</t>
+  </si>
+  <si>
+    <t>Moset Batlle Fransisca</t>
+  </si>
+  <si>
+    <t>17/08/1847</t>
   </si>
 </sst>
 </file>
@@ -3739,14 +4012,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -4186,8 +4459,8 @@
   <dimension ref="A1:Q17780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H123" sqref="H123"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4268,7 +4541,7 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -4286,7 +4559,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -4722,7 +4995,7 @@
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -4740,7 +5013,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -5214,7 +5487,7 @@
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
@@ -5232,7 +5505,7 @@
         <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
@@ -6140,7 +6413,7 @@
     </row>
     <row r="49" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B49" t="s">
         <v>38</v>
@@ -6158,7 +6431,7 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
@@ -6421,7 +6694,7 @@
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B56" t="s">
         <v>38</v>
@@ -6439,7 +6712,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
@@ -6756,7 +7029,7 @@
         <v>410</v>
       </c>
       <c r="G64" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
@@ -7492,7 +7765,7 @@
         <v>523</v>
       </c>
       <c r="I82" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J82"/>
       <c r="K82" s="7" t="s">
@@ -7984,7 +8257,7 @@
         <v>523</v>
       </c>
       <c r="I93" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J93"/>
       <c r="K93" s="7" t="s">
@@ -8468,7 +8741,7 @@
         <v>523</v>
       </c>
       <c r="I104" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="K104" s="7" t="s">
         <v>697</v>
@@ -8913,7 +9186,7 @@
         <v>783</v>
       </c>
       <c r="I115" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="K115" s="7" t="s">
         <v>779</v>
@@ -9208,7 +9481,7 @@
         <v>783</v>
       </c>
       <c r="I123" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="K123" s="7" t="s">
         <v>823</v>
@@ -9289,7 +9562,7 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B126" t="s">
         <v>700</v>
@@ -9313,7 +9586,7 @@
         <v>783</v>
       </c>
       <c r="I126" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="K126" s="7" t="s">
         <v>841</v>
@@ -9617,7 +9890,7 @@
         <v>1816</v>
       </c>
       <c r="F134" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G134" t="s">
         <v>525</v>
@@ -9626,7 +9899,7 @@
         <v>783</v>
       </c>
       <c r="I134" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="K134" s="8" t="s">
         <v>889</v>
@@ -10427,7 +10700,7 @@
         <v>995</v>
       </c>
       <c r="G155" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H155" t="s">
         <v>909</v>
@@ -10872,7 +11145,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B166" t="s">
         <v>1127</v>
@@ -11112,7 +11385,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B172" t="s">
         <v>1145</v>
@@ -11124,27 +11397,27 @@
         <v>1848</v>
       </c>
       <c r="F172" t="s">
-        <v>86</v>
+        <v>1244</v>
       </c>
       <c r="G172" t="s">
-        <v>1175</v>
+        <v>1224</v>
       </c>
       <c r="H172" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I172" t="s">
         <v>1179</v>
-      </c>
-      <c r="I172" t="s">
-        <v>1180</v>
       </c>
       <c r="K172" s="7" t="s">
         <v>1169</v>
       </c>
       <c r="L172" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M172" t="s">
         <v>1177</v>
       </c>
-      <c r="M172" t="s">
-        <v>1178</v>
-      </c>
-      <c r="N172" s="3" t="s">
+      <c r="N172" s="7" t="s">
         <v>1174</v>
       </c>
       <c r="O172" t="s">
@@ -11153,7 +11426,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B173" t="s">
         <v>1145</v>
@@ -11165,89 +11438,553 @@
         <v>1848</v>
       </c>
       <c r="F173" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G173" t="s">
         <v>1187</v>
       </c>
-      <c r="G173" t="s">
-        <v>1188</v>
-      </c>
       <c r="H173" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I173" t="s">
         <v>1185</v>
       </c>
-      <c r="I173" t="s">
-        <v>1186</v>
-      </c>
       <c r="K173" s="8" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L173" t="s">
+        <v>1182</v>
+      </c>
+      <c r="M173" t="s">
         <v>1183</v>
       </c>
-      <c r="M173" t="s">
-        <v>1184</v>
-      </c>
       <c r="N173" s="8" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="O173" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N174"/>
+      <c r="A174" s="11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D174" s="6">
+        <v>36</v>
+      </c>
+      <c r="E174">
+        <v>1847</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I174" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K174" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L174" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M174" t="s">
+        <v>1205</v>
+      </c>
+      <c r="N174" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="O174" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N175"/>
+      <c r="A175" s="11" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D175" s="6">
+        <v>36</v>
+      </c>
+      <c r="E175">
+        <v>1847</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1213</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1214</v>
+      </c>
+      <c r="K175" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L175" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M175" t="s">
+        <v>1212</v>
+      </c>
+      <c r="N175" s="8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O175" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N176"/>
-    </row>
-    <row r="177" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="N177"/>
-    </row>
-    <row r="178" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G178" s="6"/>
-      <c r="N178"/>
-    </row>
-    <row r="179" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="N179"/>
-    </row>
-    <row r="180" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="N180"/>
-    </row>
-    <row r="181" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="N181"/>
-    </row>
-    <row r="182" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="N182"/>
-    </row>
-    <row r="183" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="N183"/>
-    </row>
-    <row r="184" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="N184"/>
-    </row>
-    <row r="185" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="N185" s="3"/>
-    </row>
-    <row r="186" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="A176" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E176">
+        <v>1847</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K176" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L176" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M176" t="s">
+        <v>1218</v>
+      </c>
+      <c r="N176" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="O176" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A177" s="11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D177" s="6">
+        <v>37</v>
+      </c>
+      <c r="E177">
+        <v>1847</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K177" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L177" t="s">
+        <v>1226</v>
+      </c>
+      <c r="M177" t="s">
+        <v>1218</v>
+      </c>
+      <c r="N177" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="O177" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A178" s="11" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D178" s="6">
+        <v>37</v>
+      </c>
+      <c r="E178">
+        <v>1847</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K178" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L178" t="s">
+        <v>1229</v>
+      </c>
+      <c r="M178" t="s">
+        <v>1230</v>
+      </c>
+      <c r="N178" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="O178" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A179" s="11" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D179" s="6">
+        <v>37</v>
+      </c>
+      <c r="E179">
+        <v>1847</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H179" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I179" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K179" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M179" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N179" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O179" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A180" s="11" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D180" s="6">
+        <v>38</v>
+      </c>
+      <c r="E180">
+        <v>1847</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H180" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I180" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K180" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="L180" t="s">
+        <v>1249</v>
+      </c>
+      <c r="M180" t="s">
+        <v>1250</v>
+      </c>
+      <c r="N180" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="O180" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A181" s="11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D181" s="6">
+        <v>38</v>
+      </c>
+      <c r="E181">
+        <v>1847</v>
+      </c>
+      <c r="F181" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K181" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L181" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M181" t="s">
+        <v>1257</v>
+      </c>
+      <c r="N181" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="O181" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A182" s="11" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E182">
+        <v>1847</v>
+      </c>
+      <c r="F182" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H182" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I182" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K182" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="L182" t="s">
+        <v>1266</v>
+      </c>
+      <c r="M182" t="s">
+        <v>1267</v>
+      </c>
+      <c r="N182" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="O182" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A183" s="11" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D183" s="6">
+        <v>39</v>
+      </c>
+      <c r="E183">
+        <v>1847</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I183" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K183" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="L183" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M183" t="s">
+        <v>1275</v>
+      </c>
+      <c r="N183" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="O183" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A184" s="11" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D184" s="6">
+        <v>39</v>
+      </c>
+      <c r="E184">
+        <v>1847</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H184" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I184" s="6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K184" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="L184" t="s">
+        <v>1284</v>
+      </c>
+      <c r="M184" t="s">
+        <v>1285</v>
+      </c>
+      <c r="N184" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="O184" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A185" s="27" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E185">
+        <v>1847</v>
+      </c>
+      <c r="N185" s="7" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N186"/>
     </row>
-    <row r="187" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N187"/>
     </row>
-    <row r="188" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N188"/>
     </row>
-    <row r="189" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N189"/>
     </row>
-    <row r="190" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N190"/>
     </row>
-    <row r="191" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N191"/>
     </row>
-    <row r="192" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N192"/>
     </row>
     <row r="193" spans="10:14" x14ac:dyDescent="0.2">

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E63ED9-FBB9-443E-9920-BD5910F03B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A885C88-568E-42A1-BB5B-6BF90D539155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2767,9 +2767,6 @@
     <t>Antonia Marti Senallosa</t>
   </si>
   <si>
-    <t>Josep Pedros i Maria Duart (Pagesos)</t>
-  </si>
-  <si>
     <t>Antonio Marti i Antonia Senallosa</t>
   </si>
   <si>
@@ -4808,6 +4805,9 @@
   </si>
   <si>
     <t>Josep Serret (Belianes) i Raimunda Palau (Vilanova de Bellpuig)</t>
+  </si>
+  <si>
+    <t>Josep Pedros Mas i Maria Duart Alexandre (Pagesos)</t>
   </si>
 </sst>
 </file>
@@ -4818,7 +4818,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$€-C0A];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-C0A]"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -5007,7 +5007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5333,8 +5333,8 @@
   <dimension ref="A1:Q17820"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A197" sqref="A197"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F173" sqref="D173:F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -5433,7 +5433,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -5818,10 +5818,10 @@
         <v>1770</v>
       </c>
       <c r="F12" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="G12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -5830,10 +5830,10 @@
         <v>97</v>
       </c>
       <c r="L12" t="s">
+        <v>1280</v>
+      </c>
+      <c r="M12" t="s">
         <v>1281</v>
-      </c>
-      <c r="M12" t="s">
-        <v>1282</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>97</v>
@@ -5842,13 +5842,13 @@
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D13" s="31">
         <v>5</v>
@@ -5857,7 +5857,7 @@
         <v>1770</v>
       </c>
       <c r="F13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G13" t="s">
         <v>167</v>
@@ -5865,13 +5865,13 @@
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" s="8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="L13" t="s">
         <v>440</v>
       </c>
       <c r="M13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>97</v>
@@ -5880,13 +5880,13 @@
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D14" s="31">
         <v>5</v>
@@ -5895,37 +5895,37 @@
         <v>1770</v>
       </c>
       <c r="F14" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G14" t="s">
         <v>1289</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1290</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="L14" t="s">
         <v>1291</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>1292</v>
       </c>
-      <c r="M14" t="s">
-        <v>1293</v>
-      </c>
       <c r="N14" s="8" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="O14"/>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D15" s="31">
         <v>5</v>
@@ -5937,34 +5937,34 @@
         <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" s="8" t="s">
+        <v>1296</v>
+      </c>
+      <c r="L15" t="s">
         <v>1297</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>1298</v>
       </c>
-      <c r="M15" t="s">
-        <v>1299</v>
-      </c>
       <c r="N15" s="8" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="O15"/>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D16" s="31">
         <v>5</v>
@@ -5973,37 +5973,37 @@
         <v>1770</v>
       </c>
       <c r="F16" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G16" t="s">
         <v>1302</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1303</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16" s="8" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="L16" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="M16" t="s">
         <v>289</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="O16"/>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D17" s="31">
         <v>5</v>
@@ -6012,10 +6012,10 @@
         <v>1770</v>
       </c>
       <c r="F17" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G17" t="s">
         <v>1309</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1310</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -6024,7 +6024,7 @@
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17" s="8" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="O17"/>
     </row>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -6085,7 +6085,7 @@
         <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
@@ -6577,7 +6577,7 @@
         <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B41" t="s">
         <v>38</v>
@@ -6999,7 +6999,7 @@
         <v>250</v>
       </c>
       <c r="M41" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>246</v>
@@ -7010,13 +7010,13 @@
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B42" t="s">
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D42" s="26">
         <v>33</v>
@@ -7028,19 +7028,19 @@
         <v>138</v>
       </c>
       <c r="G42" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42" s="8" t="s">
+        <v>1312</v>
+      </c>
+      <c r="L42" t="s">
         <v>1313</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>1314</v>
-      </c>
-      <c r="M42" t="s">
-        <v>1315</v>
       </c>
       <c r="N42" s="8" t="s">
         <v>246</v>
@@ -7051,13 +7051,13 @@
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D43" s="26">
         <v>33</v>
@@ -7066,25 +7066,25 @@
         <v>1775</v>
       </c>
       <c r="F43" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G43" t="s">
         <v>1320</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1321</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43" s="8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="L43" t="s">
         <v>1322</v>
-      </c>
-      <c r="L43" t="s">
-        <v>1323</v>
       </c>
       <c r="M43" t="s">
         <v>794</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="O43" t="s">
         <v>15</v>
@@ -7092,13 +7092,13 @@
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B44" t="s">
         <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D44" s="26">
         <v>33</v>
@@ -7107,37 +7107,37 @@
         <v>1775</v>
       </c>
       <c r="F44" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G44" t="s">
         <v>1326</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1327</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44" s="8" t="s">
+        <v>1327</v>
+      </c>
+      <c r="L44" t="s">
         <v>1328</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>1329</v>
       </c>
-      <c r="M44" t="s">
-        <v>1330</v>
-      </c>
       <c r="N44" s="8" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="O44"/>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D45" s="26">
         <v>33</v>
@@ -7146,25 +7146,25 @@
         <v>1775</v>
       </c>
       <c r="F45" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G45" t="s">
         <v>1333</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1334</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L45" t="s">
         <v>1335</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>1336</v>
       </c>
-      <c r="M45" t="s">
-        <v>1337</v>
-      </c>
       <c r="N45" s="8" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="O45" t="s">
         <v>15</v>
@@ -7172,13 +7172,13 @@
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D46" s="26">
         <v>33</v>
@@ -7187,25 +7187,25 @@
         <v>1775</v>
       </c>
       <c r="F46" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G46" t="s">
         <v>1340</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1341</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46" s="8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="L46" t="s">
         <v>1342</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>1343</v>
       </c>
-      <c r="M46" t="s">
-        <v>1344</v>
-      </c>
       <c r="N46" s="8" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="O46" t="s">
         <v>15</v>
@@ -7237,7 +7237,7 @@
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47" s="8" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="L47" t="s">
         <v>260</v>
@@ -7246,7 +7246,7 @@
         <v>261</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="O47" t="s">
         <v>15</v>
@@ -7496,16 +7496,16 @@
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E54">
         <v>1776</v>
@@ -7516,28 +7516,28 @@
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54" s="8" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1348</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1349</v>
+      </c>
+      <c r="N54" s="8" t="s">
         <v>1347</v>
-      </c>
-      <c r="L54" t="s">
-        <v>1349</v>
-      </c>
-      <c r="M54" t="s">
-        <v>1350</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>1348</v>
       </c>
       <c r="O54"/>
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D55" s="26">
         <v>41</v>
@@ -7546,25 +7546,25 @@
         <v>1776</v>
       </c>
       <c r="F55" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G55" t="s">
         <v>1320</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1321</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="L55" t="s">
         <v>1355</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>1356</v>
       </c>
-      <c r="M55" t="s">
-        <v>1357</v>
-      </c>
       <c r="N55" s="8" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O55" t="s">
         <v>15</v>
@@ -7572,13 +7572,13 @@
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B56" t="s">
         <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D56" s="26">
         <v>41</v>
@@ -7587,25 +7587,25 @@
         <v>1776</v>
       </c>
       <c r="F56" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G56" t="s">
         <v>1359</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1360</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56" s="8" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="L56" t="s">
+        <v>1360</v>
+      </c>
+      <c r="M56" t="s">
         <v>1361</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" s="8" t="s">
         <v>1362</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>1363</v>
       </c>
       <c r="O56" t="s">
         <v>15</v>
@@ -7613,16 +7613,16 @@
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B57" t="s">
         <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E57">
         <v>1776</v>
@@ -7631,22 +7631,22 @@
         <v>138</v>
       </c>
       <c r="G57" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57" s="8" t="s">
+        <v>1366</v>
+      </c>
+      <c r="L57" t="s">
         <v>1367</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>1368</v>
       </c>
-      <c r="M57" t="s">
-        <v>1369</v>
-      </c>
       <c r="N57" s="8" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="O57" t="s">
         <v>15</v>
@@ -7654,13 +7654,13 @@
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B58" t="s">
         <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D58" s="26">
         <v>42</v>
@@ -7669,7 +7669,7 @@
         <v>1776</v>
       </c>
       <c r="F58" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G58" t="s">
         <v>410</v>
@@ -7678,16 +7678,16 @@
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58" s="8" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="L58" t="s">
+        <v>1373</v>
+      </c>
+      <c r="M58" t="s">
         <v>1374</v>
       </c>
-      <c r="M58" t="s">
-        <v>1375</v>
-      </c>
       <c r="N58" s="8" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="O58" t="s">
         <v>15</v>
@@ -7695,13 +7695,13 @@
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D59" s="26">
         <v>42</v>
@@ -7710,7 +7710,7 @@
         <v>1777</v>
       </c>
       <c r="F59" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="G59" t="s">
         <v>248</v>
@@ -7719,16 +7719,16 @@
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59" s="8" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L59" t="s">
         <v>1379</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>1380</v>
       </c>
-      <c r="M59" t="s">
-        <v>1381</v>
-      </c>
       <c r="N59" s="8" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="O59" t="s">
         <v>15</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
@@ -7751,16 +7751,16 @@
         <v>1777</v>
       </c>
       <c r="F60" s="30" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G60" t="s">
         <v>1384</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1385</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60" s="8" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="L60" t="s">
         <v>42</v>
@@ -7769,7 +7769,7 @@
         <v>299</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="O60" t="s">
         <v>15</v>
@@ -7941,7 +7941,7 @@
     </row>
     <row r="65" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
@@ -7959,7 +7959,7 @@
         <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="72" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B72" t="s">
         <v>38</v>
@@ -8240,7 +8240,7 @@
         <v>41</v>
       </c>
       <c r="G72" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
@@ -8263,13 +8263,13 @@
     </row>
     <row r="73" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B73" t="s">
         <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D73" s="25">
         <v>111</v>
@@ -8278,7 +8278,7 @@
         <v>1792</v>
       </c>
       <c r="F73" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G73" t="s">
         <v>488</v>
@@ -8287,16 +8287,16 @@
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="L73" t="s">
         <v>1392</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>1393</v>
       </c>
-      <c r="M73" t="s">
-        <v>1394</v>
-      </c>
       <c r="N73" s="8" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="O73" t="s">
         <v>24</v>
@@ -8304,13 +8304,13 @@
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B74" t="s">
         <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D74" s="25">
         <v>111</v>
@@ -8319,25 +8319,25 @@
         <v>1792</v>
       </c>
       <c r="F74" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G74" t="s">
         <v>1398</v>
-      </c>
-      <c r="G74" t="s">
-        <v>1399</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74" s="8" t="s">
+        <v>1399</v>
+      </c>
+      <c r="L74" t="s">
         <v>1400</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>1401</v>
       </c>
-      <c r="M74" t="s">
-        <v>1402</v>
-      </c>
       <c r="N74" s="8" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="O74" t="s">
         <v>15</v>
@@ -8345,13 +8345,13 @@
     </row>
     <row r="75" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B75" t="s">
         <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D75" s="25">
         <v>111</v>
@@ -8363,22 +8363,22 @@
         <v>686</v>
       </c>
       <c r="G75" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="L75" t="s">
         <v>1406</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>1407</v>
       </c>
-      <c r="M75" t="s">
-        <v>1408</v>
-      </c>
       <c r="N75" s="8" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="O75" t="s">
         <v>15</v>
@@ -8386,13 +8386,13 @@
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B76" t="s">
         <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D76" s="25">
         <v>111</v>
@@ -8401,25 +8401,25 @@
         <v>1792</v>
       </c>
       <c r="F76" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G76" t="s">
         <v>1411</v>
-      </c>
-      <c r="G76" t="s">
-        <v>1412</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76" s="8" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="L76" t="s">
         <v>228</v>
       </c>
       <c r="M76" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="O76" t="s">
         <v>15</v>
@@ -8427,13 +8427,13 @@
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B77" t="s">
         <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D77" s="25">
         <v>112</v>
@@ -8442,25 +8442,25 @@
         <v>1792</v>
       </c>
       <c r="F77" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G77" t="s">
         <v>1418</v>
-      </c>
-      <c r="G77" t="s">
-        <v>1419</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77" s="8" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="L77" t="s">
         <v>151</v>
       </c>
       <c r="M77" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="O77" t="s">
         <v>15</v>
@@ -8468,13 +8468,13 @@
     </row>
     <row r="78" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B78" t="s">
         <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D78" s="25">
         <v>112</v>
@@ -8483,25 +8483,25 @@
         <v>1792</v>
       </c>
       <c r="F78" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G78" t="s">
         <v>1423</v>
-      </c>
-      <c r="G78" t="s">
-        <v>1424</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78" s="8" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="L78" t="s">
         <v>169</v>
       </c>
       <c r="M78" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="O78" t="s">
         <v>15</v>
@@ -8509,13 +8509,13 @@
     </row>
     <row r="79" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B79" t="s">
         <v>38</v>
       </c>
       <c r="C79" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D79" s="25">
         <v>112</v>
@@ -8524,25 +8524,25 @@
         <v>1792</v>
       </c>
       <c r="F79" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G79" t="s">
         <v>1428</v>
-      </c>
-      <c r="G79" t="s">
-        <v>1429</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79" s="8" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="L79" t="s">
+        <v>1429</v>
+      </c>
+      <c r="M79" t="s">
         <v>1430</v>
       </c>
-      <c r="M79" t="s">
-        <v>1431</v>
-      </c>
       <c r="N79" s="8" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="O79" t="s">
         <v>15</v>
@@ -8550,7 +8550,7 @@
     </row>
     <row r="80" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B80" t="s">
         <v>38</v>
@@ -8565,7 +8565,7 @@
         <v>1792</v>
       </c>
       <c r="F80" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G80" t="s">
         <v>280</v>
@@ -8574,7 +8574,7 @@
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80" s="8" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="L80" t="s">
         <v>363</v>
@@ -8583,10 +8583,10 @@
         <v>364</v>
       </c>
       <c r="N80" s="8" t="s">
+        <v>1432</v>
+      </c>
+      <c r="O80" t="s">
         <v>1433</v>
-      </c>
-      <c r="O80" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -8852,7 +8852,7 @@
         <v>403</v>
       </c>
       <c r="G87" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
@@ -9119,13 +9119,13 @@
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B94" t="s">
         <v>38</v>
       </c>
       <c r="C94" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D94" s="25">
         <v>119</v>
@@ -9134,7 +9134,7 @@
         <v>1794</v>
       </c>
       <c r="F94" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G94" t="s">
         <v>410</v>
@@ -9143,16 +9143,16 @@
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L94" t="s">
         <v>1439</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>1440</v>
       </c>
-      <c r="M94" t="s">
-        <v>1441</v>
-      </c>
       <c r="N94" s="7" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="O94" t="s">
         <v>15</v>
@@ -9160,13 +9160,13 @@
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B95" t="s">
         <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D95" s="25">
         <v>119</v>
@@ -9175,25 +9175,25 @@
         <v>1794</v>
       </c>
       <c r="F95" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G95" t="s">
         <v>1444</v>
-      </c>
-      <c r="G95" t="s">
-        <v>1445</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95" s="7" t="s">
+        <v>1445</v>
+      </c>
+      <c r="L95" t="s">
         <v>1446</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>1447</v>
       </c>
-      <c r="M95" t="s">
-        <v>1448</v>
-      </c>
       <c r="N95" s="7" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="O95" t="s">
         <v>15</v>
@@ -9201,13 +9201,13 @@
     </row>
     <row r="96" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B96" t="s">
         <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D96" s="25">
         <v>119</v>
@@ -9216,25 +9216,25 @@
         <v>1794</v>
       </c>
       <c r="F96" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G96" t="s">
         <v>1451</v>
-      </c>
-      <c r="G96" t="s">
-        <v>1452</v>
       </c>
       <c r="H96"/>
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="L96" t="s">
         <v>1453</v>
-      </c>
-      <c r="L96" t="s">
-        <v>1454</v>
       </c>
       <c r="M96" t="s">
         <v>70</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="O96" t="s">
         <v>15</v>
@@ -9242,16 +9242,16 @@
     </row>
     <row r="97" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B97" t="s">
         <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E97">
         <v>1794</v>
@@ -9260,22 +9260,22 @@
         <v>792</v>
       </c>
       <c r="G97" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="L97" t="s">
         <v>1458</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>1459</v>
       </c>
-      <c r="M97" t="s">
-        <v>1460</v>
-      </c>
       <c r="N97" s="7" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="O97" t="s">
         <v>15</v>
@@ -9283,13 +9283,13 @@
     </row>
     <row r="98" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B98" t="s">
         <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D98" s="25">
         <v>120</v>
@@ -9298,25 +9298,25 @@
         <v>1794</v>
       </c>
       <c r="F98" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G98" t="s">
         <v>1463</v>
-      </c>
-      <c r="G98" t="s">
-        <v>1464</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="L98" t="s">
         <v>1465</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>1466</v>
       </c>
-      <c r="M98" t="s">
-        <v>1467</v>
-      </c>
       <c r="N98" s="7" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="O98" t="s">
         <v>15</v>
@@ -9324,13 +9324,13 @@
     </row>
     <row r="99" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B99" t="s">
         <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D99" s="25">
         <v>120</v>
@@ -9339,25 +9339,25 @@
         <v>1794</v>
       </c>
       <c r="F99" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G99" t="s">
         <v>1471</v>
-      </c>
-      <c r="G99" t="s">
-        <v>1472</v>
       </c>
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99" s="7" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="L99" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="M99" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="O99" t="s">
         <v>15</v>
@@ -9365,13 +9365,13 @@
     </row>
     <row r="100" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B100" t="s">
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D100" s="25">
         <v>120</v>
@@ -9380,25 +9380,25 @@
         <v>1794</v>
       </c>
       <c r="F100" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G100" t="s">
         <v>1477</v>
-      </c>
-      <c r="G100" t="s">
-        <v>1478</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100" s="7" t="s">
+        <v>1478</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1406</v>
+      </c>
+      <c r="M100" t="s">
         <v>1479</v>
       </c>
-      <c r="L100" t="s">
-        <v>1407</v>
-      </c>
-      <c r="M100" t="s">
-        <v>1480</v>
-      </c>
       <c r="N100" s="7" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="O100" t="s">
         <v>15</v>
@@ -9406,7 +9406,7 @@
     </row>
     <row r="101" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B101" t="s">
         <v>38</v>
@@ -9421,7 +9421,7 @@
         <v>1794</v>
       </c>
       <c r="F101" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G101" t="s">
         <v>444</v>
@@ -9883,7 +9883,7 @@
         <v>515</v>
       </c>
       <c r="I112" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="J112"/>
       <c r="K112" s="7" t="s">
@@ -10375,7 +10375,7 @@
         <v>515</v>
       </c>
       <c r="I123" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="J123"/>
       <c r="K123" s="7" t="s">
@@ -10859,7 +10859,7 @@
         <v>515</v>
       </c>
       <c r="I134" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="K134" s="7" t="s">
         <v>689</v>
@@ -10879,13 +10879,13 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B135" t="s">
         <v>692</v>
       </c>
       <c r="C135" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D135" s="25">
         <v>4</v>
@@ -10894,28 +10894,28 @@
         <v>1806</v>
       </c>
       <c r="H135" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I135" t="s">
         <v>1486</v>
       </c>
-      <c r="I135" t="s">
-        <v>1487</v>
-      </c>
       <c r="L135" t="s">
+        <v>1483</v>
+      </c>
+      <c r="M135" t="s">
         <v>1484</v>
-      </c>
-      <c r="M135" t="s">
-        <v>1485</v>
       </c>
       <c r="N135" s="7"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B136" t="s">
         <v>692</v>
       </c>
       <c r="C136" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D136" s="25">
         <v>4</v>
@@ -10924,28 +10924,28 @@
         <v>1806</v>
       </c>
       <c r="F136" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G136" t="s">
         <v>1498</v>
       </c>
-      <c r="G136" t="s">
-        <v>1499</v>
-      </c>
       <c r="H136" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I136" t="s">
         <v>1494</v>
       </c>
-      <c r="I136" t="s">
-        <v>1495</v>
-      </c>
       <c r="K136" s="7" t="s">
+        <v>1490</v>
+      </c>
+      <c r="L136" t="s">
+        <v>1492</v>
+      </c>
+      <c r="M136" t="s">
         <v>1491</v>
       </c>
-      <c r="L136" t="s">
-        <v>1493</v>
-      </c>
-      <c r="M136" t="s">
-        <v>1492</v>
-      </c>
       <c r="N136" s="7" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="O136" t="s">
         <v>15</v>
@@ -10953,13 +10953,13 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B137" t="s">
         <v>692</v>
       </c>
       <c r="C137" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D137" s="25">
         <v>4</v>
@@ -10968,28 +10968,28 @@
         <v>1806</v>
       </c>
       <c r="F137" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1505</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1502</v>
+      </c>
+      <c r="I137" t="s">
         <v>1504</v>
       </c>
-      <c r="G137" t="s">
-        <v>1506</v>
-      </c>
-      <c r="H137" t="s">
-        <v>1503</v>
-      </c>
-      <c r="I137" t="s">
-        <v>1505</v>
-      </c>
       <c r="K137" s="7" t="s">
+        <v>1499</v>
+      </c>
+      <c r="L137" t="s">
         <v>1500</v>
       </c>
-      <c r="L137" t="s">
+      <c r="M137" t="s">
         <v>1501</v>
       </c>
-      <c r="M137" t="s">
-        <v>1502</v>
-      </c>
       <c r="N137" s="7" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="O137" t="s">
         <v>15</v>
@@ -10997,13 +10997,13 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B138" t="s">
         <v>692</v>
       </c>
       <c r="C138" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D138" s="26" t="s">
         <v>253</v>
@@ -11012,28 +11012,28 @@
         <v>1806</v>
       </c>
       <c r="F138" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G138" t="s">
         <v>559</v>
       </c>
       <c r="H138" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I138" t="s">
         <v>1512</v>
       </c>
-      <c r="I138" t="s">
-        <v>1513</v>
-      </c>
       <c r="K138" s="7" t="s">
+        <v>1508</v>
+      </c>
+      <c r="L138" t="s">
+        <v>1510</v>
+      </c>
+      <c r="M138" t="s">
         <v>1509</v>
       </c>
-      <c r="L138" t="s">
-        <v>1511</v>
-      </c>
-      <c r="M138" t="s">
-        <v>1510</v>
-      </c>
       <c r="N138" s="7" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="O138" t="s">
         <v>15</v>
@@ -11041,13 +11041,13 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B139" t="s">
         <v>692</v>
       </c>
       <c r="C139" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D139" s="25">
         <v>5</v>
@@ -11056,39 +11056,39 @@
         <v>1806</v>
       </c>
       <c r="F139" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G139" t="s">
         <v>1522</v>
       </c>
-      <c r="G139" t="s">
-        <v>1523</v>
-      </c>
       <c r="H139" t="s">
+        <v>1519</v>
+      </c>
+      <c r="I139" t="s">
         <v>1520</v>
       </c>
-      <c r="I139" t="s">
-        <v>1521</v>
-      </c>
       <c r="K139" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="L139" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M139" t="s">
+        <v>1517</v>
+      </c>
+      <c r="N139" s="7" t="s">
         <v>1515</v>
-      </c>
-      <c r="L139" t="s">
-        <v>1517</v>
-      </c>
-      <c r="M139" t="s">
-        <v>1518</v>
-      </c>
-      <c r="N139" s="7" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B140" t="s">
         <v>692</v>
       </c>
       <c r="C140" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D140" s="25">
         <v>5</v>
@@ -11097,39 +11097,39 @@
         <v>1806</v>
       </c>
       <c r="F140" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="G140" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H140" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I140" t="s">
         <v>1528</v>
       </c>
-      <c r="I140" t="s">
-        <v>1529</v>
-      </c>
       <c r="K140" s="7" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="L140" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M140" t="s">
         <v>1526</v>
       </c>
-      <c r="M140" t="s">
-        <v>1527</v>
-      </c>
       <c r="N140" s="7" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B141" t="s">
         <v>692</v>
       </c>
       <c r="C141" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D141" s="26" t="s">
         <v>693</v>
@@ -11138,10 +11138,10 @@
         <v>1806</v>
       </c>
       <c r="F141" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="G141" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H141" t="s">
         <v>694</v>
@@ -11150,16 +11150,16 @@
         <v>695</v>
       </c>
       <c r="K141" s="7" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L141" t="s">
         <v>1535</v>
       </c>
-      <c r="L141" t="s">
+      <c r="M141" t="s">
         <v>1536</v>
       </c>
-      <c r="M141" t="s">
-        <v>1537</v>
-      </c>
       <c r="N141" s="7" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
@@ -11170,7 +11170,7 @@
         <v>692</v>
       </c>
       <c r="C142" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D142" s="25">
         <v>6</v>
@@ -11211,7 +11211,7 @@
         <v>692</v>
       </c>
       <c r="C143" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D143" s="25">
         <v>6</v>
@@ -11255,7 +11255,7 @@
         <v>692</v>
       </c>
       <c r="C144" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D144" s="25">
         <v>6</v>
@@ -11299,7 +11299,7 @@
         <v>692</v>
       </c>
       <c r="C145" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D145" s="25">
         <v>6</v>
@@ -11340,7 +11340,7 @@
         <v>692</v>
       </c>
       <c r="C146" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D146" s="25">
         <v>6</v>
@@ -11378,7 +11378,7 @@
         <v>692</v>
       </c>
       <c r="C147" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D147" s="25">
         <v>6</v>
@@ -11566,7 +11566,7 @@
         <v>772</v>
       </c>
       <c r="I151" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="K151" s="7" t="s">
         <v>768</v>
@@ -11861,7 +11861,7 @@
         <v>772</v>
       </c>
       <c r="I159" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="K159" s="7" t="s">
         <v>812</v>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B162" t="s">
         <v>692</v>
@@ -11966,7 +11966,7 @@
         <v>772</v>
       </c>
       <c r="I162" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="K162" s="7" t="s">
         <v>830</v>
@@ -12270,7 +12270,7 @@
         <v>1816</v>
       </c>
       <c r="F170" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G170" t="s">
         <v>517</v>
@@ -12279,7 +12279,7 @@
         <v>772</v>
       </c>
       <c r="I170" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="K170" s="8" t="s">
         <v>878</v>
@@ -12375,16 +12375,16 @@
         <v>1831</v>
       </c>
       <c r="F173" t="s">
+        <v>899</v>
+      </c>
+      <c r="G173" t="s">
         <v>900</v>
       </c>
-      <c r="G173" t="s">
-        <v>901</v>
-      </c>
       <c r="H173" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I173" t="s">
         <v>898</v>
-      </c>
-      <c r="I173" t="s">
-        <v>899</v>
       </c>
       <c r="K173" s="7" t="s">
         <v>895</v>
@@ -12404,7 +12404,7 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B174" t="s">
         <v>692</v>
@@ -12413,39 +12413,39 @@
         <v>889</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E174">
         <v>1831</v>
       </c>
       <c r="F174" t="s">
+        <v>908</v>
+      </c>
+      <c r="G174" t="s">
         <v>909</v>
       </c>
-      <c r="G174" t="s">
-        <v>910</v>
-      </c>
       <c r="H174" t="s">
+        <v>905</v>
+      </c>
+      <c r="I174" t="s">
         <v>906</v>
       </c>
-      <c r="I174" t="s">
-        <v>907</v>
-      </c>
       <c r="K174" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L174" t="s">
         <v>565</v>
       </c>
       <c r="M174" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N174" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B175" t="s">
         <v>692</v>
@@ -12460,30 +12460,30 @@
         <v>1831</v>
       </c>
       <c r="F175" t="s">
+        <v>915</v>
+      </c>
+      <c r="G175" t="s">
         <v>916</v>
       </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
+        <v>913</v>
+      </c>
+      <c r="I175" t="s">
+        <v>914</v>
+      </c>
+      <c r="K175" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="H175" t="s">
-        <v>914</v>
-      </c>
-      <c r="I175" t="s">
-        <v>915</v>
-      </c>
-      <c r="K175" s="7" t="s">
-        <v>918</v>
-      </c>
       <c r="M175" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N175" s="8" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B176" t="s">
         <v>692</v>
@@ -12498,18 +12498,18 @@
         <v>1831</v>
       </c>
       <c r="N176" s="8" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B177" t="s">
         <v>692</v>
       </c>
       <c r="C177" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D177" s="6">
         <v>509</v>
@@ -12518,28 +12518,28 @@
         <v>1834</v>
       </c>
       <c r="F177" t="s">
+        <v>928</v>
+      </c>
+      <c r="G177" t="s">
         <v>929</v>
       </c>
-      <c r="G177" t="s">
-        <v>930</v>
-      </c>
       <c r="H177" t="s">
+        <v>926</v>
+      </c>
+      <c r="I177" t="s">
         <v>927</v>
       </c>
-      <c r="I177" t="s">
-        <v>928</v>
-      </c>
       <c r="K177" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L177" t="s">
+        <v>924</v>
+      </c>
+      <c r="M177" t="s">
         <v>925</v>
       </c>
-      <c r="M177" t="s">
-        <v>926</v>
-      </c>
       <c r="N177" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="O177" t="s">
         <v>15</v>
@@ -12547,40 +12547,40 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B178" t="s">
         <v>692</v>
       </c>
       <c r="C178" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E178">
         <v>1834</v>
       </c>
       <c r="F178" t="s">
+        <v>934</v>
+      </c>
+      <c r="G178" t="s">
         <v>935</v>
       </c>
-      <c r="G178" t="s">
-        <v>936</v>
-      </c>
       <c r="H178" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I178" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K178" s="7">
         <v>12436</v>
       </c>
       <c r="L178" t="s">
+        <v>931</v>
+      </c>
+      <c r="M178" t="s">
         <v>932</v>
-      </c>
-      <c r="M178" t="s">
-        <v>933</v>
       </c>
       <c r="N178" s="7">
         <v>12438</v>
@@ -12588,13 +12588,13 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B179" t="s">
         <v>692</v>
       </c>
       <c r="C179" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D179" s="6">
         <v>510</v>
@@ -12603,28 +12603,28 @@
         <v>1834</v>
       </c>
       <c r="F179" t="s">
+        <v>899</v>
+      </c>
+      <c r="G179" t="s">
         <v>900</v>
       </c>
-      <c r="G179" t="s">
-        <v>901</v>
-      </c>
       <c r="H179" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I179" t="s">
         <v>898</v>
       </c>
-      <c r="I179" t="s">
-        <v>899</v>
-      </c>
       <c r="K179" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L179" t="s">
+        <v>943</v>
+      </c>
+      <c r="M179" t="s">
         <v>944</v>
       </c>
-      <c r="M179" t="s">
-        <v>945</v>
-      </c>
       <c r="N179" s="8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O179" t="s">
         <v>15</v>
@@ -12632,43 +12632,43 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B180" t="s">
         <v>692</v>
       </c>
       <c r="C180" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E180">
         <v>1834</v>
       </c>
       <c r="F180" t="s">
+        <v>899</v>
+      </c>
+      <c r="G180" t="s">
         <v>900</v>
       </c>
-      <c r="G180" t="s">
-        <v>901</v>
-      </c>
       <c r="H180" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I180" t="s">
         <v>898</v>
       </c>
-      <c r="I180" t="s">
-        <v>899</v>
-      </c>
       <c r="K180" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L180" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M180" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="N180" s="8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O180" t="s">
         <v>15</v>
@@ -12676,13 +12676,13 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B181" t="s">
         <v>692</v>
       </c>
       <c r="C181" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D181" s="6">
         <v>511</v>
@@ -12691,28 +12691,28 @@
         <v>1834</v>
       </c>
       <c r="F181" t="s">
+        <v>956</v>
+      </c>
+      <c r="G181" t="s">
         <v>957</v>
       </c>
-      <c r="G181" t="s">
-        <v>958</v>
-      </c>
       <c r="H181" t="s">
+        <v>954</v>
+      </c>
+      <c r="I181" t="s">
         <v>955</v>
       </c>
-      <c r="I181" t="s">
-        <v>956</v>
-      </c>
       <c r="K181" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="L181" t="s">
+        <v>952</v>
+      </c>
+      <c r="M181" t="s">
         <v>953</v>
       </c>
-      <c r="M181" t="s">
-        <v>954</v>
-      </c>
       <c r="N181" s="8" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="O181" t="s">
         <v>20</v>
@@ -12720,13 +12720,13 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B182" t="s">
         <v>692</v>
       </c>
       <c r="C182" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D182" s="6">
         <v>511</v>
@@ -12735,28 +12735,28 @@
         <v>1834</v>
       </c>
       <c r="F182" t="s">
+        <v>960</v>
+      </c>
+      <c r="G182" t="s">
         <v>961</v>
       </c>
-      <c r="G182" t="s">
-        <v>962</v>
-      </c>
       <c r="H182" t="s">
+        <v>965</v>
+      </c>
+      <c r="I182" t="s">
         <v>966</v>
       </c>
-      <c r="I182" t="s">
-        <v>967</v>
-      </c>
       <c r="K182" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L182" t="s">
+        <v>963</v>
+      </c>
+      <c r="M182" t="s">
         <v>964</v>
       </c>
-      <c r="M182" t="s">
-        <v>965</v>
-      </c>
       <c r="N182" s="8" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="O182" t="s">
         <v>15</v>
@@ -12764,56 +12764,56 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B183" t="s">
         <v>692</v>
       </c>
       <c r="C183" t="s">
+        <v>969</v>
+      </c>
+      <c r="D183" s="17" t="s">
         <v>970</v>
-      </c>
-      <c r="D183" s="17" t="s">
-        <v>971</v>
       </c>
       <c r="E183">
         <v>1834</v>
       </c>
       <c r="N183" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B184" t="s">
         <v>692</v>
       </c>
       <c r="C184" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E184">
         <v>1834</v>
       </c>
       <c r="H184" t="s">
+        <v>972</v>
+      </c>
+      <c r="I184" t="s">
         <v>973</v>
-      </c>
-      <c r="I184" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B185" t="s">
         <v>692</v>
       </c>
       <c r="C185" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D185" s="6">
         <v>535</v>
@@ -12822,69 +12822,69 @@
         <v>1834</v>
       </c>
       <c r="F185" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G185" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H185" t="s">
-        <v>898</v>
+        <v>1578</v>
       </c>
       <c r="I185" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="L185" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M185" t="s">
         <v>456</v>
       </c>
       <c r="N185" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B186" t="s">
         <v>692</v>
       </c>
       <c r="C186" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E186">
         <v>1834</v>
       </c>
       <c r="F186" t="s">
+        <v>992</v>
+      </c>
+      <c r="G186" t="s">
         <v>993</v>
       </c>
-      <c r="G186" t="s">
-        <v>994</v>
-      </c>
       <c r="H186" t="s">
+        <v>990</v>
+      </c>
+      <c r="I186" t="s">
         <v>991</v>
       </c>
-      <c r="I186" t="s">
-        <v>992</v>
-      </c>
       <c r="K186" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="L186" t="s">
+        <v>988</v>
+      </c>
+      <c r="M186" t="s">
         <v>989</v>
       </c>
-      <c r="M186" t="s">
-        <v>990</v>
-      </c>
       <c r="N186" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O186" t="s">
         <v>15</v>
@@ -12892,13 +12892,13 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B187" t="s">
         <v>692</v>
       </c>
       <c r="C187" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D187" s="6">
         <v>536</v>
@@ -12907,25 +12907,25 @@
         <v>1834</v>
       </c>
       <c r="F187" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G187" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H187" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L187" t="s">
+        <v>998</v>
+      </c>
+      <c r="M187" t="s">
         <v>999</v>
       </c>
-      <c r="M187" t="s">
-        <v>1000</v>
-      </c>
       <c r="N187" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O187" t="s">
         <v>15</v>
@@ -12933,40 +12933,40 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B188" t="s">
         <v>692</v>
       </c>
       <c r="C188" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D188" s="17" t="s">
         <v>1003</v>
-      </c>
-      <c r="D188" s="17" t="s">
-        <v>1004</v>
       </c>
       <c r="E188">
         <v>1843</v>
       </c>
       <c r="F188" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G188" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H188" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I188" t="s">
         <v>1009</v>
       </c>
-      <c r="I188" t="s">
-        <v>1010</v>
-      </c>
       <c r="K188" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="L188" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M188" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="O188" t="s">
         <v>798</v>
@@ -12974,13 +12974,13 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B189" t="s">
         <v>692</v>
       </c>
       <c r="C189" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D189" s="6">
         <v>731</v>
@@ -12989,25 +12989,25 @@
         <v>1843</v>
       </c>
       <c r="F189" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I189" t="s">
         <v>1019</v>
       </c>
-      <c r="G189" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H189" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I189" t="s">
-        <v>1020</v>
-      </c>
       <c r="K189" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="L189" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M189" t="s">
         <v>1016</v>
-      </c>
-      <c r="M189" t="s">
-        <v>1017</v>
       </c>
       <c r="N189" s="8" t="s">
         <v>29</v>
@@ -13018,43 +13018,43 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B190" t="s">
         <v>692</v>
       </c>
       <c r="C190" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E190">
         <v>1843</v>
       </c>
       <c r="F190" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G190" t="s">
         <v>1024</v>
       </c>
-      <c r="G190" t="s">
-        <v>1025</v>
-      </c>
       <c r="H190" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I190" t="s">
         <v>1030</v>
       </c>
-      <c r="I190" t="s">
-        <v>1031</v>
-      </c>
       <c r="K190" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="L190" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M190" t="s">
         <v>1028</v>
       </c>
-      <c r="M190" t="s">
-        <v>1029</v>
-      </c>
       <c r="N190" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="O190" t="s">
         <v>15</v>
@@ -13062,13 +13062,13 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B191" t="s">
         <v>692</v>
       </c>
       <c r="C191" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D191" s="6">
         <v>732</v>
@@ -13077,25 +13077,25 @@
         <v>1843</v>
       </c>
       <c r="F191" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G191" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H191" t="s">
-        <v>898</v>
+        <v>1578</v>
       </c>
       <c r="I191" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K191" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L191" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M191" t="s">
         <v>1033</v>
-      </c>
-      <c r="M191" t="s">
-        <v>1034</v>
       </c>
       <c r="N191" s="8" t="s">
         <v>26</v>
@@ -13106,54 +13106,54 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B192" t="s">
         <v>692</v>
       </c>
       <c r="C192" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D192" s="17" t="s">
         <v>1037</v>
-      </c>
-      <c r="D192" s="17" t="s">
-        <v>1038</v>
       </c>
       <c r="E192">
         <v>1843</v>
       </c>
       <c r="F192" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G192" t="s">
         <v>1542</v>
       </c>
-      <c r="G192" t="s">
+      <c r="H192" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I192" t="s">
         <v>1543</v>
-      </c>
-      <c r="H192" t="s">
-        <v>1541</v>
-      </c>
-      <c r="I192" t="s">
-        <v>1544</v>
       </c>
       <c r="K192" s="7" t="s">
         <v>9</v>
       </c>
       <c r="L192" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M192" t="s">
         <v>1039</v>
       </c>
-      <c r="M192" t="s">
-        <v>1040</v>
-      </c>
       <c r="N192" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B193" t="s">
         <v>692</v>
       </c>
       <c r="C193" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D193" s="17">
         <v>733</v>
@@ -13162,39 +13162,39 @@
         <v>1843</v>
       </c>
       <c r="F193" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G193" t="s">
         <v>1546</v>
       </c>
-      <c r="G193" t="s">
-        <v>1547</v>
-      </c>
       <c r="H193" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I193" t="s">
         <v>1551</v>
       </c>
-      <c r="I193" t="s">
-        <v>1552</v>
-      </c>
       <c r="K193" s="8" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="L193" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M193" t="s">
         <v>1549</v>
       </c>
-      <c r="M193" t="s">
-        <v>1550</v>
-      </c>
       <c r="N193" s="8" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B194" t="s">
         <v>692</v>
       </c>
       <c r="C194" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D194" s="17">
         <v>733</v>
@@ -13203,39 +13203,39 @@
         <v>1843</v>
       </c>
       <c r="F194" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1557</v>
+      </c>
+      <c r="I194" t="s">
         <v>1559</v>
       </c>
-      <c r="G194" t="s">
-        <v>1561</v>
-      </c>
-      <c r="H194" t="s">
-        <v>1558</v>
-      </c>
-      <c r="I194" t="s">
-        <v>1560</v>
-      </c>
       <c r="K194" s="8" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="L194" t="s">
+        <v>1555</v>
+      </c>
+      <c r="M194" t="s">
         <v>1556</v>
       </c>
-      <c r="M194" t="s">
-        <v>1557</v>
-      </c>
       <c r="N194" s="8" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B195" t="s">
         <v>692</v>
       </c>
       <c r="C195" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D195" s="17">
         <v>734</v>
@@ -13244,28 +13244,28 @@
         <v>1843</v>
       </c>
       <c r="F195" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="G195" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H195" t="s">
+        <v>1567</v>
+      </c>
+      <c r="I195" t="s">
         <v>1568</v>
       </c>
-      <c r="I195" t="s">
-        <v>1569</v>
-      </c>
       <c r="K195" s="7" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="L195" t="s">
+        <v>1565</v>
+      </c>
+      <c r="M195" t="s">
         <v>1566</v>
       </c>
-      <c r="M195" t="s">
-        <v>1567</v>
-      </c>
       <c r="N195" s="8" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="O195" t="s">
         <v>15</v>
@@ -13273,13 +13273,13 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B196" t="s">
         <v>692</v>
       </c>
       <c r="C196" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D196" s="17">
         <v>734</v>
@@ -13288,28 +13288,28 @@
         <v>1843</v>
       </c>
       <c r="F196" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="G196" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H196" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I196" t="s">
         <v>1577</v>
       </c>
-      <c r="I196" t="s">
-        <v>1578</v>
-      </c>
       <c r="K196" s="7" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="L196" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M196" t="s">
         <v>1575</v>
       </c>
-      <c r="M196" t="s">
-        <v>1576</v>
-      </c>
       <c r="N196" s="8" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="O196" t="s">
         <v>15</v>
@@ -13317,16 +13317,16 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B197" t="s">
         <v>692</v>
       </c>
       <c r="C197" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D197" s="17" t="s">
         <v>1042</v>
-      </c>
-      <c r="D197" s="17" t="s">
-        <v>1043</v>
       </c>
       <c r="E197">
         <v>1843</v>
@@ -13335,36 +13335,36 @@
         <v>19</v>
       </c>
       <c r="G197" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H197" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I197" t="s">
         <v>1047</v>
       </c>
-      <c r="I197" t="s">
+      <c r="K197" s="8" t="s">
         <v>1048</v>
       </c>
-      <c r="K197" s="8" t="s">
-        <v>1049</v>
-      </c>
       <c r="L197" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M197" t="s">
         <v>1045</v>
       </c>
-      <c r="M197" t="s">
-        <v>1046</v>
-      </c>
       <c r="N197" s="8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B198" t="s">
         <v>692</v>
       </c>
       <c r="C198" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D198" s="6">
         <v>743</v>
@@ -13373,39 +13373,39 @@
         <v>1844</v>
       </c>
       <c r="F198" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G198" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H198" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I198" t="s">
         <v>1056</v>
       </c>
-      <c r="I198" t="s">
-        <v>1057</v>
-      </c>
       <c r="K198" s="7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L198" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M198" t="s">
         <v>1054</v>
       </c>
-      <c r="M198" t="s">
-        <v>1055</v>
-      </c>
       <c r="N198" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B199" t="s">
         <v>692</v>
       </c>
       <c r="C199" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D199" s="6">
         <v>743</v>
@@ -13414,28 +13414,28 @@
         <v>1844</v>
       </c>
       <c r="F199" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G199" t="s">
         <v>1065</v>
       </c>
-      <c r="G199" t="s">
-        <v>1066</v>
-      </c>
       <c r="H199" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I199" t="s">
         <v>1062</v>
       </c>
-      <c r="I199" t="s">
-        <v>1063</v>
-      </c>
       <c r="K199" s="7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L199" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M199" t="s">
         <v>1060</v>
       </c>
-      <c r="M199" t="s">
-        <v>1061</v>
-      </c>
       <c r="N199" s="7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="O199" t="s">
         <v>15</v>
@@ -13443,13 +13443,13 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B200" t="s">
         <v>692</v>
       </c>
       <c r="C200" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D200" s="6">
         <v>743</v>
@@ -13461,22 +13461,22 @@
         <v>91</v>
       </c>
       <c r="G200" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I200" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K200" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="M200" t="s">
         <v>1072</v>
       </c>
-      <c r="H200" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I200" t="s">
-        <v>1075</v>
-      </c>
-      <c r="K200" s="7" t="s">
-        <v>1071</v>
-      </c>
-      <c r="M200" t="s">
-        <v>1073</v>
-      </c>
       <c r="N200" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="O200" t="s">
         <v>15</v>
@@ -13484,43 +13484,43 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B201" t="s">
         <v>692</v>
       </c>
       <c r="C201" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D201" s="17" t="s">
         <v>1082</v>
-      </c>
-      <c r="D201" s="17" t="s">
-        <v>1083</v>
       </c>
       <c r="E201">
         <v>1844</v>
       </c>
       <c r="F201" t="s">
+        <v>899</v>
+      </c>
+      <c r="G201" t="s">
         <v>900</v>
       </c>
-      <c r="G201" t="s">
-        <v>901</v>
-      </c>
       <c r="H201" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I201" t="s">
         <v>898</v>
       </c>
-      <c r="I201" t="s">
-        <v>899</v>
-      </c>
       <c r="K201" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="L201" t="s">
+        <v>1078</v>
+      </c>
+      <c r="M201" t="s">
         <v>1079</v>
       </c>
-      <c r="M201" t="s">
-        <v>1080</v>
-      </c>
       <c r="N201" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O201" t="s">
         <v>15</v>
@@ -13528,13 +13528,13 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B202" t="s">
         <v>692</v>
       </c>
       <c r="C202" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D202" s="6">
         <v>744</v>
@@ -13543,39 +13543,39 @@
         <v>1844</v>
       </c>
       <c r="F202" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G202" t="s">
         <v>1086</v>
       </c>
-      <c r="G202" t="s">
-        <v>1087</v>
-      </c>
       <c r="H202" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I202" t="s">
         <v>1091</v>
       </c>
-      <c r="I202" t="s">
-        <v>1092</v>
-      </c>
       <c r="K202" s="7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="L202" t="s">
+        <v>1088</v>
+      </c>
+      <c r="M202" t="s">
         <v>1089</v>
       </c>
-      <c r="M202" t="s">
-        <v>1090</v>
-      </c>
       <c r="N202" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B203" t="s">
         <v>692</v>
       </c>
       <c r="C203" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D203" s="6">
         <v>744</v>
@@ -13584,28 +13584,28 @@
         <v>1844</v>
       </c>
       <c r="F203" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G203" t="s">
         <v>1095</v>
       </c>
-      <c r="G203" t="s">
-        <v>1096</v>
-      </c>
       <c r="H203" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I203" t="s">
         <v>1100</v>
       </c>
-      <c r="I203" t="s">
-        <v>1101</v>
-      </c>
       <c r="K203" s="7" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="L203" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M203" t="s">
         <v>1098</v>
       </c>
-      <c r="M203" t="s">
-        <v>1099</v>
-      </c>
       <c r="N203" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="O203" t="s">
         <v>15</v>
@@ -13613,13 +13613,13 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B204" t="s">
         <v>692</v>
       </c>
       <c r="C204" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D204" s="6">
         <v>745</v>
@@ -13628,28 +13628,28 @@
         <v>1844</v>
       </c>
       <c r="F204" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G204" t="s">
         <v>1103</v>
       </c>
-      <c r="G204" t="s">
-        <v>1104</v>
-      </c>
       <c r="H204" t="s">
+        <v>972</v>
+      </c>
+      <c r="I204" t="s">
         <v>973</v>
       </c>
-      <c r="I204" t="s">
-        <v>974</v>
-      </c>
       <c r="K204" s="7" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="L204" t="s">
+        <v>1105</v>
+      </c>
+      <c r="M204" t="s">
         <v>1106</v>
       </c>
-      <c r="M204" t="s">
-        <v>1107</v>
-      </c>
       <c r="N204" s="7" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="O204" t="s">
         <v>15</v>
@@ -13657,13 +13657,13 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B205" t="s">
         <v>692</v>
       </c>
       <c r="C205" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D205" s="6">
         <v>745</v>
@@ -13675,25 +13675,25 @@
         <v>623</v>
       </c>
       <c r="G205" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H205" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I205" t="s">
         <v>1112</v>
       </c>
-      <c r="I205" t="s">
-        <v>1113</v>
-      </c>
       <c r="K205" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="L205" t="s">
+        <v>1109</v>
+      </c>
+      <c r="M205" t="s">
         <v>1110</v>
       </c>
-      <c r="M205" t="s">
-        <v>1111</v>
-      </c>
       <c r="N205" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="O205" t="s">
         <v>15</v>
@@ -13701,13 +13701,13 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B206" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C206" t="s">
         <v>1114</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1115</v>
       </c>
       <c r="D206" s="6">
         <v>178</v>
@@ -13716,39 +13716,39 @@
         <v>1859</v>
       </c>
       <c r="F206" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G206" t="s">
         <v>1118</v>
       </c>
-      <c r="G206" t="s">
+      <c r="H206" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I206" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K206" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L206" t="s">
         <v>1119</v>
       </c>
-      <c r="H206" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I206" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K206" s="7" t="s">
-        <v>1117</v>
-      </c>
-      <c r="L206" t="s">
+      <c r="M206" t="s">
         <v>1120</v>
       </c>
-      <c r="M206" t="s">
-        <v>1121</v>
-      </c>
       <c r="N206" s="8" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B207" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C207" t="s">
         <v>1114</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1115</v>
       </c>
       <c r="D207" s="6">
         <v>178</v>
@@ -13757,66 +13757,66 @@
         <v>1859</v>
       </c>
       <c r="F207" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G207" t="s">
         <v>1126</v>
       </c>
-      <c r="G207" t="s">
-        <v>1127</v>
-      </c>
       <c r="H207" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="I207" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K207" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="L207" t="s">
+        <v>1128</v>
+      </c>
+      <c r="M207" t="s">
+        <v>1129</v>
+      </c>
+      <c r="N207" s="8" t="s">
         <v>1123</v>
-      </c>
-      <c r="K207" s="7" t="s">
-        <v>1125</v>
-      </c>
-      <c r="L207" t="s">
-        <v>1129</v>
-      </c>
-      <c r="M207" t="s">
-        <v>1130</v>
-      </c>
-      <c r="N207" s="8" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="11" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B208" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C208" t="s">
         <v>1132</v>
-      </c>
-      <c r="C208" t="s">
-        <v>1133</v>
       </c>
       <c r="E208">
         <v>1848</v>
       </c>
       <c r="F208" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G208" t="s">
         <v>1136</v>
       </c>
-      <c r="G208" t="s">
-        <v>1137</v>
-      </c>
       <c r="H208" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I208" t="s">
         <v>1141</v>
       </c>
-      <c r="I208" t="s">
-        <v>1142</v>
-      </c>
       <c r="K208" s="7" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L208" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M208" t="s">
         <v>1139</v>
       </c>
-      <c r="M208" t="s">
-        <v>1140</v>
-      </c>
       <c r="N208" s="8" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="O208" t="s">
         <v>15</v>
@@ -13824,51 +13824,51 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B209" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C209" t="s">
         <v>1132</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1133</v>
       </c>
       <c r="E209">
         <v>1848</v>
       </c>
       <c r="F209" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G209" t="s">
         <v>1146</v>
       </c>
-      <c r="G209" t="s">
+      <c r="H209" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I209" t="s">
+        <v>1149</v>
+      </c>
+      <c r="K209" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="M209" t="s">
         <v>1147</v>
       </c>
-      <c r="H209" t="s">
-        <v>1149</v>
-      </c>
-      <c r="I209" t="s">
-        <v>1150</v>
-      </c>
-      <c r="K209" s="8" t="s">
+      <c r="N209" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="O209" t="s">
         <v>1144</v>
-      </c>
-      <c r="M209" t="s">
-        <v>1148</v>
-      </c>
-      <c r="N209" s="8" t="s">
-        <v>1144</v>
-      </c>
-      <c r="O209" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="11" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B210" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C210" t="s">
         <v>1132</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1133</v>
       </c>
       <c r="E210">
         <v>1848</v>
@@ -13877,25 +13877,25 @@
         <v>45</v>
       </c>
       <c r="G210" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H210" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I210" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="L210" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="M210" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="N210" s="8" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="O210" t="s">
         <v>15</v>
@@ -13903,78 +13903,78 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B211" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C211" t="s">
         <v>1132</v>
-      </c>
-      <c r="C211" t="s">
-        <v>1133</v>
       </c>
       <c r="E211">
         <v>1848</v>
       </c>
       <c r="F211" t="s">
+        <v>899</v>
+      </c>
+      <c r="G211" t="s">
         <v>900</v>
       </c>
-      <c r="G211" t="s">
-        <v>901</v>
-      </c>
       <c r="H211" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I211" t="s">
         <v>898</v>
       </c>
-      <c r="I211" t="s">
-        <v>899</v>
-      </c>
       <c r="K211" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="L211" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M211" t="s">
         <v>1159</v>
       </c>
-      <c r="M211" t="s">
-        <v>1160</v>
-      </c>
       <c r="N211" s="8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="11" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B212" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C212" t="s">
         <v>1132</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1133</v>
       </c>
       <c r="E212">
         <v>1848</v>
       </c>
       <c r="F212" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G212" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H212" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I212" t="s">
         <v>1165</v>
       </c>
-      <c r="I212" t="s">
-        <v>1166</v>
-      </c>
       <c r="K212" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="L212" t="s">
+        <v>1162</v>
+      </c>
+      <c r="M212" t="s">
         <v>1163</v>
       </c>
-      <c r="M212" t="s">
-        <v>1164</v>
-      </c>
       <c r="N212" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="O212" t="s">
         <v>15</v>
@@ -13982,40 +13982,40 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="11" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B213" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C213" t="s">
         <v>1132</v>
-      </c>
-      <c r="C213" t="s">
-        <v>1133</v>
       </c>
       <c r="E213">
         <v>1848</v>
       </c>
       <c r="F213" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G213" t="s">
         <v>1173</v>
       </c>
-      <c r="G213" t="s">
-        <v>1174</v>
-      </c>
       <c r="H213" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I213" t="s">
         <v>1171</v>
       </c>
-      <c r="I213" t="s">
-        <v>1172</v>
-      </c>
       <c r="K213" s="8" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="L213" t="s">
+        <v>1168</v>
+      </c>
+      <c r="M213" t="s">
         <v>1169</v>
       </c>
-      <c r="M213" t="s">
-        <v>1170</v>
-      </c>
       <c r="N213" s="8" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="O213" t="s">
         <v>15</v>
@@ -14023,13 +14023,13 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="11" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B214" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C214" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D214" s="6">
         <v>36</v>
@@ -14038,28 +14038,28 @@
         <v>1847</v>
       </c>
       <c r="F214" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G214" t="s">
         <v>1231</v>
       </c>
-      <c r="G214" t="s">
-        <v>1232</v>
-      </c>
       <c r="H214" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I214" t="s">
         <v>1192</v>
       </c>
-      <c r="I214" t="s">
-        <v>1193</v>
-      </c>
       <c r="K214" s="7" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L214" t="s">
+        <v>1189</v>
+      </c>
+      <c r="M214" t="s">
         <v>1190</v>
       </c>
-      <c r="M214" t="s">
-        <v>1191</v>
-      </c>
       <c r="N214" s="8" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="O214" t="s">
         <v>15</v>
@@ -14067,13 +14067,13 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="11" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B215" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C215" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D215" s="6">
         <v>36</v>
@@ -14082,28 +14082,28 @@
         <v>1847</v>
       </c>
       <c r="F215" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G215" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H215" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I215" t="s">
         <v>1199</v>
       </c>
-      <c r="I215" t="s">
-        <v>1200</v>
-      </c>
       <c r="K215" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="L215" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M215" t="s">
         <v>1197</v>
       </c>
-      <c r="M215" t="s">
-        <v>1198</v>
-      </c>
       <c r="N215" s="8" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="O215" t="s">
         <v>15</v>
@@ -14111,43 +14111,43 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B216" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C216" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E216">
         <v>1847</v>
       </c>
       <c r="F216" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G216" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H216" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I216" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K216" s="8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L216" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M216" t="s">
         <v>1203</v>
       </c>
-      <c r="L216" t="s">
-        <v>1205</v>
-      </c>
-      <c r="M216" t="s">
-        <v>1204</v>
-      </c>
       <c r="N216" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="O216" t="s">
         <v>15</v>
@@ -14155,13 +14155,13 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="11" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B217" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C217" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D217" s="6">
         <v>37</v>
@@ -14170,28 +14170,28 @@
         <v>1847</v>
       </c>
       <c r="F217" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G217" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H217" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I217" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K217" s="8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L217" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M217" t="s">
         <v>1203</v>
       </c>
-      <c r="L217" t="s">
-        <v>1212</v>
-      </c>
-      <c r="M217" t="s">
-        <v>1204</v>
-      </c>
       <c r="N217" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="O217" t="s">
         <v>15</v>
@@ -14199,13 +14199,13 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="11" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B218" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C218" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D218" s="6">
         <v>37</v>
@@ -14214,28 +14214,28 @@
         <v>1847</v>
       </c>
       <c r="F218" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G218" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="G218" s="6" t="s">
-        <v>1229</v>
-      </c>
       <c r="H218" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I218" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K218" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="L218" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M218" t="s">
         <v>1215</v>
       </c>
-      <c r="M218" t="s">
-        <v>1216</v>
-      </c>
       <c r="N218" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="O218" t="s">
         <v>15</v>
@@ -14243,13 +14243,13 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C219" t="s">
         <v>1218</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1219</v>
       </c>
       <c r="D219" s="6">
         <v>37</v>
@@ -14258,25 +14258,25 @@
         <v>1847</v>
       </c>
       <c r="F219" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G219" s="6" t="s">
         <v>1226</v>
       </c>
-      <c r="G219" s="6" t="s">
-        <v>1227</v>
-      </c>
       <c r="H219" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I219" s="6" t="s">
         <v>1224</v>
       </c>
-      <c r="I219" s="6" t="s">
-        <v>1225</v>
-      </c>
       <c r="K219" s="8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="M219" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="N219" s="8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="O219" t="s">
         <v>15</v>
@@ -14284,13 +14284,13 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="11" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B220" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C220" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D220" s="6">
         <v>38</v>
@@ -14299,28 +14299,28 @@
         <v>1847</v>
       </c>
       <c r="F220" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G220" s="6" t="s">
         <v>1248</v>
       </c>
-      <c r="G220" s="6" t="s">
-        <v>1249</v>
-      </c>
       <c r="H220" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I220" s="6" t="s">
         <v>1237</v>
       </c>
-      <c r="I220" s="6" t="s">
-        <v>1238</v>
-      </c>
       <c r="K220" s="8" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L220" t="s">
+        <v>1234</v>
+      </c>
+      <c r="M220" t="s">
         <v>1235</v>
       </c>
-      <c r="M220" t="s">
-        <v>1236</v>
-      </c>
       <c r="N220" s="8" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="O220" t="s">
         <v>15</v>
@@ -14328,13 +14328,13 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B221" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C221" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D221" s="6">
         <v>38</v>
@@ -14343,28 +14343,28 @@
         <v>1847</v>
       </c>
       <c r="F221" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G221" s="6" t="s">
         <v>1246</v>
       </c>
-      <c r="G221" s="6" t="s">
-        <v>1247</v>
-      </c>
       <c r="H221" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I221" s="6" t="s">
         <v>1244</v>
       </c>
-      <c r="I221" s="6" t="s">
-        <v>1245</v>
-      </c>
       <c r="K221" s="8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="L221" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M221" t="s">
         <v>1242</v>
       </c>
-      <c r="M221" t="s">
-        <v>1243</v>
-      </c>
       <c r="N221" s="8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="O221" t="s">
         <v>15</v>
@@ -14372,43 +14372,43 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="11" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B222" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C222" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E222">
         <v>1847</v>
       </c>
       <c r="F222" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H222" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I222" s="6" t="s">
         <v>1254</v>
       </c>
-      <c r="I222" s="6" t="s">
-        <v>1255</v>
-      </c>
       <c r="K222" s="8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L222" t="s">
         <v>1251</v>
       </c>
-      <c r="L222" t="s">
+      <c r="M222" t="s">
         <v>1252</v>
       </c>
-      <c r="M222" t="s">
-        <v>1253</v>
-      </c>
       <c r="N222" s="8" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="O222" t="s">
         <v>15</v>
@@ -14416,13 +14416,13 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="11" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B223" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C223" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D223" s="6">
         <v>39</v>
@@ -14431,28 +14431,28 @@
         <v>1847</v>
       </c>
       <c r="F223" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G223" s="6" t="s">
         <v>1264</v>
       </c>
-      <c r="G223" s="6" t="s">
-        <v>1265</v>
-      </c>
       <c r="H223" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I223" s="6" t="s">
         <v>1262</v>
       </c>
-      <c r="I223" s="6" t="s">
-        <v>1263</v>
-      </c>
       <c r="K223" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L223" t="s">
         <v>1259</v>
       </c>
-      <c r="L223" t="s">
+      <c r="M223" t="s">
         <v>1260</v>
       </c>
-      <c r="M223" t="s">
-        <v>1261</v>
-      </c>
       <c r="N223" s="8" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="O223" t="s">
         <v>15</v>
@@ -14460,13 +14460,13 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="11" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B224" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C224" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D224" s="6">
         <v>39</v>
@@ -14475,28 +14475,28 @@
         <v>1847</v>
       </c>
       <c r="F224" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G224" s="6" t="s">
         <v>1267</v>
       </c>
-      <c r="G224" s="6" t="s">
-        <v>1268</v>
-      </c>
       <c r="H224" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I224" s="6" t="s">
         <v>1272</v>
       </c>
-      <c r="I224" s="6" t="s">
-        <v>1273</v>
-      </c>
       <c r="K224" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L224" t="s">
+        <v>1269</v>
+      </c>
+      <c r="M224" t="s">
         <v>1270</v>
       </c>
-      <c r="M224" t="s">
-        <v>1271</v>
-      </c>
       <c r="N224" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="O224" t="s">
         <v>15</v>
@@ -14504,22 +14504,22 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="27" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B225" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C225" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D225" s="17" t="s">
         <v>1274</v>
-      </c>
-      <c r="D225" s="17" t="s">
-        <v>1275</v>
       </c>
       <c r="E225">
         <v>1847</v>
       </c>
       <c r="N225" s="7" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A484833-4094-463D-BF9F-072447DAED24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA5CC48-42A9-45B3-A6BA-867E33F8D912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baptismes" sheetId="2" r:id="rId1"/>
@@ -5333,8 +5333,8 @@
   <dimension ref="A1:Q17820"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E211" sqref="A1:Q18121"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18133" sqref="F18133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5344,10 +5344,10 @@
     <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="22.125" style="6" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="32.25" customWidth="1"/>
-    <col min="9" max="9" width="22.375" customWidth="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1"/>
+    <col min="9" max="9" width="41.125" customWidth="1"/>
     <col min="10" max="10" width="31.875" customWidth="1"/>
     <col min="11" max="11" width="24.25" style="7" customWidth="1"/>
     <col min="12" max="12" width="24.875" customWidth="1"/>
@@ -8631,7 +8631,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="4" t="s">
         <v>373</v>
       </c>
       <c r="B82" t="s">
@@ -9483,7 +9483,7 @@
       <c r="O102"/>
     </row>
     <row r="103" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="4" t="s">
         <v>454</v>
       </c>
       <c r="B103" t="s">
@@ -9858,7 +9858,7 @@
       </c>
     </row>
     <row r="112" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="4" t="s">
         <v>511</v>
       </c>
       <c r="B112" t="s">
@@ -10350,7 +10350,7 @@
       </c>
     </row>
     <row r="123" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="4" t="s">
         <v>603</v>
       </c>
       <c r="B123" t="s">
@@ -10833,8 +10833,8 @@
       </c>
       <c r="O133"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A134" s="11" t="s">
+    <row r="134" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
         <v>603</v>
       </c>
       <c r="B134" t="s">
@@ -11540,8 +11540,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A151" s="11" t="s">
+    <row r="151" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
         <v>769</v>
       </c>
       <c r="B151" t="s">
@@ -11835,8 +11835,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A159" s="11" t="s">
+    <row r="159" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
         <v>815</v>
       </c>
       <c r="B159" t="s">
@@ -11940,8 +11940,8 @@
         <v>816</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A162" s="11" t="s">
+    <row r="162" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
         <v>1177</v>
       </c>
       <c r="B162" t="s">
@@ -12253,8 +12253,8 @@
         <v>874</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A170" s="11" t="s">
+    <row r="170" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
         <v>880</v>
       </c>
       <c r="B170" t="s">
@@ -12358,8 +12358,8 @@
         <v>890</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A173" s="11" t="s">
+    <row r="173" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
         <v>896</v>
       </c>
       <c r="B173" t="s">
@@ -12586,8 +12586,8 @@
         <v>12438</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A179" s="11" t="s">
+    <row r="179" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
         <v>942</v>
       </c>
       <c r="B179" t="s">
@@ -12630,8 +12630,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A180" s="11" t="s">
+    <row r="180" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
         <v>945</v>
       </c>
       <c r="B180" t="s">
@@ -12805,8 +12805,8 @@
         <v>973</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A185" s="11" t="s">
+    <row r="185" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
         <v>979</v>
       </c>
       <c r="B185" t="s">
@@ -13060,8 +13060,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A191" s="11" t="s">
+    <row r="191" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
         <v>1031</v>
       </c>
       <c r="B191" t="s">
@@ -13482,8 +13482,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A201" s="11" t="s">
+    <row r="201" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
         <v>1077</v>
       </c>
       <c r="B201" t="s">
@@ -13901,8 +13901,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A211" s="11" t="s">
+    <row r="211" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
         <v>1157</v>
       </c>
       <c r="B211" t="s">
@@ -14241,8 +14241,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A219" s="11" t="s">
+    <row r="219" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
         <v>1217</v>
       </c>
       <c r="B219" t="s">

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA5CC48-42A9-45B3-A6BA-867E33F8D912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E9D809-35CC-4088-BC18-D428F388A601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baptismes" sheetId="2" r:id="rId1"/>
@@ -5333,8 +5333,8 @@
   <dimension ref="A1:Q17820"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18133" sqref="F18133"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
